--- a/uboot_compile_framework.xlsx
+++ b/uboot_compile_framework.xlsx
@@ -27,10 +27,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -69,6 +69,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -85,13 +93,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -99,15 +100,39 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -138,6 +163,29 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -146,14 +194,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -172,46 +212,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -222,7 +222,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -234,13 +234,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -252,7 +270,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -264,49 +282,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -324,7 +306,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -336,13 +324,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -354,25 +366,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -384,25 +378,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -435,15 +435,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
@@ -464,6 +455,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -475,17 +475,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -507,6 +496,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -518,148 +518,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3131,26 +3131,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>456565</xdr:colOff>
-      <xdr:row>128</xdr:row>
-      <xdr:rowOff>132715</xdr:rowOff>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>53975</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>66040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>46</xdr:col>
-      <xdr:colOff>350520</xdr:colOff>
-      <xdr:row>142</xdr:row>
-      <xdr:rowOff>76835</xdr:rowOff>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>151130</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>198120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="Text Box 18"/>
+        <xdr:cNvPr id="21" name="Text Box 20"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="32060515" y="25735915"/>
-          <a:ext cx="7437755" cy="2744470"/>
+          <a:off x="40878125" y="22268815"/>
+          <a:ext cx="7640955" cy="8133080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3311,197 +3311,6 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>	</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>48</xdr:col>
-      <xdr:colOff>53975</xdr:colOff>
-      <xdr:row>111</xdr:row>
-      <xdr:rowOff>66040</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>56</xdr:col>
-      <xdr:colOff>786130</xdr:colOff>
-      <xdr:row>128</xdr:row>
-      <xdr:rowOff>200660</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="Text Box 20"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="40878125" y="22268815"/>
-          <a:ext cx="7437755" cy="3534410"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="28575" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="en-US">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-            </a:defRPr>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>		</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:srgbClr val="1D41D5"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>顶层Makefile(./u-boot/Makefile)	</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>			</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100" b="1">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
             <a:rPr lang="en-US" sz="1100" b="1">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
@@ -3553,12 +3362,28 @@
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>且u-boot依赖于FORCE，FORCE总是被认为是被更新过的，所以这u-boot目标 与该规则对应的命令总是会被执行</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>经典用法</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100"/>
@@ -3610,6 +3435,294 @@
             <a:t>这里相当于执行一个make -C xxx  -f xxx  目标 这样的一个make编译命令</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>下面是分析上面规则中的命令的部分</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="800"/>
+            <a:t>Kbuild.include</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="800"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="800"/>
+            <a:t>216 # echo command.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="800"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="800"/>
+            <a:t>217 # Short version is used, if $(quiet) equals `quiet_', otherwise full one.                                                                                      </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="800"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="800"/>
+            <a:t>218 echo-cmd = $(if $($(quiet)cmd_$(1)),\</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="800"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="800"/>
+            <a:t>219         echo '  $(call escsq,$($(quiet)cmd_$(1)))$(echo-why) ';)                                                                                               </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="800"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="800"/>
+            <a:t>220 </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="800"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="800"/>
+            <a:t>221 # printing commands</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="800"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="800"/>
+            <a:t>222 cmd = @$(echo-cmd) $(cmd_$(1))  </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="800"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="800"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="800"/>
+            <a:t>顶层Makefile    </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="800"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="800"/>
+            <a:t>1552 # Rule to link u-boot         </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="800"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="800"/>
+            <a:t>1553 # May be overridden by arch/$(ARCH)/config.mk</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="800"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="800"/>
+            <a:t>1554 quiet_cmd_u-boot__ ?= LD      $@</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="800"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="800"/>
+            <a:t>1555       cmd_u-boot__ ?= $(LD) $(LDFLAGS) $(LDFLAGS_u-boot) -o $@ \</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="800"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="800"/>
+            <a:t>1556       -T u-boot.lds $(u-boot-init)                             \  </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="800"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="800"/>
+            <a:t>1557       --start-group $(u-boot-main) --end-group                 \  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="800">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>==&gt; 指定链接脚步并链接各个目录下 由各个.o链接生成的buit-in.o </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="800"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="800"/>
+            <a:t>1558       $(PLATFORM_LIBS) -Map u-boot.map;                        \  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="800">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>==&gt; 来生成目标文件u-boot</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="800"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="800"/>
+            <a:t>1559       $(if $(ARCH_POSTLINK), $(MAKE) -f $(ARCH_POSTLINK) $@, true)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="800"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="800"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="800"/>
+            <a:t>1561 quiet_cmd_smap = GEN     common/system_map.o</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="800"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="800"/>
+            <a:t>1562 cmd_smap = \</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="800"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="800"/>
+            <a:t>1563         smap=`$(call SYSTEM_MAP,u-boot) | \</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="800"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="800"/>
+            <a:t>1564                 awk '$$2 ~ /[tTwW]/ {printf $$1 $$3 "\\\\000"}'` ; \</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="800"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="800"/>
+            <a:t>1565         $(CC) $(c_flags) -DSYSTEM_MAP="\"$${smap}\"" \ </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="800"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="800"/>
+            <a:t>1566                 -c $(srctree)/common/system_map.c -o common/system_map.o   </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="800"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="800"/>
+            <a:t>    </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="800"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="800"/>
+            <a:t>1568 u-boot: $(u-boot-init) $(u-boot-main) u-boot.lds FORCE</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="800"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="800"/>
+            <a:t>1569         +$(call if_changed,u-boot__) </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="800">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> ==&gt; 执行cmd_u-boot_变量对应的字符串命令 ==&gt; 如上  ==&gt; 最终生成 目标文件u-boot</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="800"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="800"/>
+            <a:t>1570 ifeq ($(CONFIG_KALLSYMS),y)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="800"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="800"/>
+            <a:t>1571         $(call cmd,smap)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="800"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="800"/>
+            <a:t>1572         $(call cmd,u-boot__) common/system_map.o</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="800"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="800"/>
+            <a:t>1573 endif</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="800"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -8021,7 +8134,7 @@
             <a:t>$@ </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="" altLang="en-US" sz="1600" b="1">
+            <a:rPr lang="en-US" altLang="en-US" sz="1600" b="1">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
@@ -8060,16 +8173,7 @@
               </a:solidFill>
               <a:sym typeface="+mn-ea"/>
             </a:rPr>
-            <a:t>过</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="2200" b="1">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>这个方式来 包</a:t>
+            <a:t>过这个方式来 包</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="2200" b="1">
@@ -8345,14 +8449,14 @@
             <a:t>公共函数说明分析</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="" altLang="en-US" sz="1100" b="1">
+            <a:rPr lang="en-US" altLang="en-US" sz="1100" b="1">
               <a:solidFill>
                 <a:srgbClr val="1D41D5"/>
               </a:solidFill>
             </a:rPr>
             <a:t>:   $(MAKE) $(build)=xxxxx    </a:t>
           </a:r>
-          <a:endParaRPr lang="" altLang="en-US" sz="1100" b="1">
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100" b="1">
             <a:solidFill>
               <a:srgbClr val="1D41D5"/>
             </a:solidFill>
@@ -8360,7 +8464,7 @@
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr lang="" altLang="en-US" sz="1100" b="1">
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100" b="1">
             <a:solidFill>
               <a:srgbClr val="1D41D5"/>
             </a:solidFill>
@@ -8369,14 +8473,14 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="" altLang="en-US" sz="1100" b="1">
+            <a:rPr lang="en-US" altLang="en-US" sz="1100" b="1">
               <a:solidFill>
                 <a:srgbClr val="1D41D5"/>
               </a:solidFill>
             </a:rPr>
             <a:t>$(MAKE) $(build)=$@ </a:t>
           </a:r>
-          <a:endParaRPr lang="" altLang="en-US" sz="1100" b="1">
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100" b="1">
             <a:solidFill>
               <a:srgbClr val="1D41D5"/>
             </a:solidFill>
@@ -8384,7 +8488,7 @@
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr lang="" altLang="en-US" sz="1100" b="1">
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100" b="1">
             <a:solidFill>
               <a:srgbClr val="1D41D5"/>
             </a:solidFill>
@@ -8393,14 +8497,14 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="" altLang="en-US" sz="1100" b="1">
+            <a:rPr lang="en-US" altLang="en-US" sz="1100" b="1">
               <a:solidFill>
                 <a:srgbClr val="1D41D5"/>
               </a:solidFill>
             </a:rPr>
             <a:t>一次只处理编译 $@这个路径指定的下面的Kbuild 或 makefile中的要编译的.c .o文件</a:t>
           </a:r>
-          <a:endParaRPr lang="" altLang="en-US" sz="1100" b="1">
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100" b="1">
             <a:solidFill>
               <a:srgbClr val="1D41D5"/>
             </a:solidFill>
@@ -8408,7 +8512,7 @@
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr lang="" altLang="en-US" sz="1100" b="1">
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100" b="1">
             <a:solidFill>
               <a:srgbClr val="1D41D5"/>
             </a:solidFill>
@@ -8416,88 +8520,88 @@
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr lang="" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="" altLang="en-US" sz="1100">
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
             <a:t>=================顶层Makefile=======================</a:t>
           </a:r>
-          <a:endParaRPr lang="" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="" altLang="en-US" sz="1100">
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
             <a:t>360 include scripts/Kbuild.include</a:t>
           </a:r>
-          <a:endParaRPr lang="" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="" altLang="en-US" sz="1100">
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
             <a:t>1594 PHONY += $(u-boot-dirs)      </a:t>
           </a:r>
-          <a:endParaRPr lang="" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="" altLang="en-US" sz="1100">
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
             <a:t>1595 $(u-boot-dirs): prepare scripts</a:t>
           </a:r>
-          <a:endParaRPr lang="" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="" altLang="en-US" sz="1100">
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -8505,103 +8609,103 @@
             <a:t>1596     </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="" altLang="en-US" sz="1100" b="1">
+            <a:rPr lang="en-US" altLang="en-US" sz="1100" b="1">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
             <a:t>$(Q) $(MAKE) $(build)=$@</a:t>
           </a:r>
-          <a:endParaRPr lang="" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="" altLang="en-US" sz="1100">
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
             <a:t>===============scripts/Kbuild.include===============</a:t>
           </a:r>
-          <a:endParaRPr lang="" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="" altLang="en-US" sz="1100">
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
             <a:t>178 ###</a:t>
           </a:r>
-          <a:endParaRPr lang="" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="" altLang="en-US" sz="1100">
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
             <a:t>179 # Shorthand for $(Q)$(MAKE) -f scripts/Makefile.build obj=</a:t>
           </a:r>
-          <a:endParaRPr lang="" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="" altLang="en-US" sz="1100">
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
             <a:t>180 # Usage:</a:t>
           </a:r>
-          <a:endParaRPr lang="" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="" altLang="en-US" sz="1100">
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
             <a:t>181 # $(Q)$(MAKE) $(build)=dir          </a:t>
           </a:r>
-          <a:endParaRPr lang="" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="" altLang="en-US" sz="1100">
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -8609,814 +8713,814 @@
             <a:t>182 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="" altLang="en-US" sz="1100" b="1">
+            <a:rPr lang="en-US" altLang="en-US" sz="1100" b="1">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
             <a:t>build := -f   $(srctree)/scripts/Makefile.build    obj</a:t>
           </a:r>
-          <a:endParaRPr lang="" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="" altLang="en-US" sz="1100">
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
             <a:t>=====================================================</a:t>
           </a:r>
-          <a:endParaRPr lang="" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="" altLang="en-US" sz="1100">
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
             <a:t>$(MAKE)   MAKE是内嵌变量，其值为make。</a:t>
           </a:r>
-          <a:endParaRPr lang="" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="" altLang="en-US" sz="1100">
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
             <a:t>$(build)  build这个变量是一个通用的变量，它定义在$(srctree)/scripts/Kbuild.include文件中：</a:t>
           </a:r>
-          <a:endParaRPr lang="" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="" altLang="en-US" sz="1100">
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
             <a:t>$(Q) $(MAKE) $(build)=$@  ==&gt; @ make -f $(srctree)/scripts/Makefile.build obj=$@  </a:t>
           </a:r>
-          <a:endParaRPr lang="" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="" altLang="en-US" sz="1100">
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
             <a:t>比如 $(Q) make -f $(srctree)/scripts/Makefile.build obj=arch/arm/cpu </a:t>
           </a:r>
-          <a:endParaRPr lang="" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="" altLang="en-US" sz="1100">
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
             <a:t>    执行$(srctree)/scripts/Makefile.build这个Makefile，传递的参数是obj=arch/arm/cpu </a:t>
           </a:r>
-          <a:endParaRPr lang="" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="" altLang="en-US" sz="1100">
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
             <a:t>    传递的参数obj=arch/arm/cpu  在$(srctree)/scripts/Makefile.build中的处理过程如下</a:t>
           </a:r>
-          <a:endParaRPr lang="" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="" altLang="en-US" sz="1100">
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
             <a:t>===============scripts/Makefile.build===============</a:t>
           </a:r>
-          <a:endParaRPr lang="" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="" altLang="en-US" sz="1100">
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
             <a:t>  6 # Modified for U-Boot               </a:t>
           </a:r>
-          <a:endParaRPr lang="" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="" altLang="en-US" sz="1100">
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
             <a:t>  7 prefix := tpl</a:t>
           </a:r>
-          <a:endParaRPr lang="" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="" altLang="en-US" sz="1100">
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
             <a:t>  8 src := $(patsubst $(prefix)/%,%,$(obj)) ==&gt; 去掉tpl/这个前缀</a:t>
           </a:r>
-          <a:endParaRPr lang="" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="" altLang="en-US" sz="1100">
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
             <a:t>  9 ifeq ($(obj),$(src))                </a:t>
           </a:r>
-          <a:endParaRPr lang="" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="" altLang="en-US" sz="1100">
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
             <a:t> 10 prefix := spl                       </a:t>
           </a:r>
-          <a:endParaRPr lang="" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="" altLang="en-US" sz="1100">
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
             <a:t> 11 src := $(patsubst $(prefix)/%,%,$(obj))  ==&gt; 去掉spl/这个前缀</a:t>
           </a:r>
-          <a:endParaRPr lang="" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="" altLang="en-US" sz="1100">
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
             <a:t> 12 ifeq ($(obj),$(src))</a:t>
           </a:r>
-          <a:endParaRPr lang="" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="" altLang="en-US" sz="1100">
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
             <a:t> 13 prefix := .</a:t>
           </a:r>
-          <a:endParaRPr lang="" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="" altLang="en-US" sz="1100">
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
             <a:t> 14 endif</a:t>
           </a:r>
-          <a:endParaRPr lang="" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="" altLang="en-US" sz="1100">
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
             <a:t> 15 endif</a:t>
           </a:r>
-          <a:endParaRPr lang="" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="" altLang="en-US" sz="1100">
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
             <a:t>  经过上面的处理后 变量 $(src) 就存好了 传入的 经过处理的 $(obj)参数 </a:t>
           </a:r>
-          <a:endParaRPr lang="" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="" altLang="en-US" sz="1100">
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
             <a:t>  下面继续分析 $(src)变量的后续处理</a:t>
           </a:r>
-          <a:endParaRPr lang="" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="" altLang="en-US" sz="1100">
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
             <a:t> 54 # The filename Kbuild has precedence over Makefile</a:t>
           </a:r>
-          <a:endParaRPr lang="" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="" altLang="en-US" sz="1100">
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
             <a:t> 55 kbuild-dir := $(if $(filter /%,$(src)),$(src),$(srctree)/$(src))</a:t>
           </a:r>
-          <a:endParaRPr lang="" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="" altLang="en-US" sz="1100">
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
             <a:t>                      ==&gt;如果有$(src)值是以/开头，那么这个路径是绝对路径，不用处理，否则就加头$(srctree) </a:t>
           </a:r>
-          <a:endParaRPr lang="" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="" altLang="en-US" sz="1100">
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
             <a:t> 56 kbuild-file := $(if $(wildcard $(kbuild-dir)/Kbuild),$(kbuild-dir)/Kbuild,$(kbuild-dir)/Makefile)  </a:t>
           </a:r>
-          <a:endParaRPr lang="" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="" altLang="en-US" sz="1100">
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
             <a:t>                      ==&gt;$(kbuild-dir)/Kbuild变量展开后的这个路径下的Kbuild存在，则kbuild-file:=$(kbuild-dir)/Kbuild 否则kbuild-file:=$(kbuild-dir)/Makefile </a:t>
           </a:r>
-          <a:endParaRPr lang="" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="" altLang="en-US" sz="1100">
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
             <a:t> 57 include $(kbuild-file) </a:t>
           </a:r>
-          <a:endParaRPr lang="" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="" altLang="en-US" sz="1100">
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
             <a:t>                      ==&gt;包含 $(kbuild-file) 这个对应的文件</a:t>
           </a:r>
-          <a:endParaRPr lang="" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="" altLang="en-US" sz="1100">
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
             <a:t>举例:这里最终会包含  arch/arm/cpu/Makefile</a:t>
           </a:r>
-          <a:endParaRPr lang="" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="" altLang="en-US" sz="1100" b="1">
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="1100" b="1">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
             <a:t>对于 @ make -f $(srctree)/scripts/Makefile.build obj=$@  传入的参数obj=$@ 就处理完了</a:t>
           </a:r>
-          <a:endParaRPr lang="" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="" altLang="en-US" sz="1100">
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
             <a:t>变量 $(u-boot-dirs)中包含的所有的路径 都是这么处理的</a:t>
           </a:r>
-          <a:endParaRPr lang="" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="" altLang="en-US" sz="1100">
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
             <a:t>@ make -f $(srctree)/scripts/Makefile.build obj=$@  </a:t>
           </a:r>
-          <a:endParaRPr lang="" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="" altLang="en-US" sz="1100">
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
             <a:t>     ==&gt; 这个命令只是指定了一个Makefile 并只传入了一个参数，没有指定要编译的对象名称</a:t>
           </a:r>
-          <a:endParaRPr lang="" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="" altLang="en-US" sz="1100">
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
             <a:t>         我们可以研究下 Makefile.build 这个makefile在没有传入编译目标时的默认对象是哪个？</a:t>
           </a:r>
-          <a:endParaRPr lang="" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="" altLang="en-US" sz="1100">
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
             <a:t>         也就是说这个命令也就是只要做的是通过这个Makefile来处理这个参数即可，因为没有需要编译的实际对象</a:t>
           </a:r>
-          <a:endParaRPr lang="" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="" altLang="en-US" sz="1100">
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
             <a:t>         </a:t>
           </a:r>
-          <a:endParaRPr lang="" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="" altLang="en-US" sz="1100">
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
             <a:t>Makefile.build 这个makefile在没有传入编译目标时的默认对象是哪个？  </a:t>
           </a:r>
-          <a:endParaRPr lang="" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="" altLang="en-US" sz="1100">
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
             <a:t>Makefile里面可以包含多个目标，如果你在make时没有指定编译哪个，会默认编译默认目标。一般Makefile中第一个定义的目标就是默认目标</a:t>
           </a:r>
-          <a:endParaRPr lang="" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="" altLang="en-US" sz="1100">
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
             <a:t>我们去看Makefile.build，他的第一个目标作为默认目标</a:t>
           </a:r>
-          <a:endParaRPr lang="" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="" altLang="en-US" sz="1100">
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
             <a:t> 17 PHONY := __build</a:t>
           </a:r>
-          <a:endParaRPr lang="" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="" altLang="en-US" sz="1100">
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
             <a:t> 18 __build:</a:t>
           </a:r>
-          <a:endParaRPr lang="" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="" altLang="en-US" sz="1100">
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
             <a:t>114 __build: $(if $(KBUILD_BUILTIN),$(builtin-target) $(lib-target) $(extra-y)) \</a:t>
           </a:r>
-          <a:endParaRPr lang="" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="" altLang="en-US" sz="1100">
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
             <a:t>115          $(if $(KBUILD_MODULES),$(obj-m) $(modorder-target)) \</a:t>
           </a:r>
-          <a:endParaRPr lang="" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="" altLang="en-US" sz="1100">
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
             <a:t>116          $(subdir-ym) $(always)</a:t>
           </a:r>
-          <a:endParaRPr lang="" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="" altLang="en-US" sz="1100">
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
             <a:t>117         @:</a:t>
           </a:r>
-          <a:endParaRPr lang="" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="" altLang="en-US" sz="1100">
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
             <a:t>456 .PHONY: $(PHONY)</a:t>
           </a:r>
-          <a:endParaRPr lang="" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="" altLang="en-US" sz="1100">
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
             <a:t>小结一下：    </a:t>
           </a:r>
-          <a:endParaRPr lang="" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="" altLang="en-US" sz="1100" b="1">
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="1100" b="1">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
             <a:t>    $(Q) $(MAKE) $(build)=xxxx  ==&gt; @ make -f $(srctree)/scripts/Makefile.build obj=xxxx</a:t>
           </a:r>
-          <a:endParaRPr lang="" altLang="en-US" sz="1100" b="1">
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100" b="1">
             <a:solidFill>
               <a:srgbClr val="FF0000"/>
             </a:solidFill>
@@ -9425,14 +9529,14 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="" altLang="en-US" sz="1100" b="1">
+            <a:rPr lang="en-US" altLang="en-US" sz="1100" b="1">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
             <a:t>    比如 $(Q) make -f $(srctree)/scripts/Makefile.build obj=arch/arm/cpu</a:t>
           </a:r>
-          <a:endParaRPr lang="" altLang="en-US" sz="1100" b="1">
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100" b="1">
             <a:solidFill>
               <a:srgbClr val="FF0000"/>
             </a:solidFill>
@@ -9441,14 +9545,14 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="" altLang="en-US" sz="1100" b="1">
+            <a:rPr lang="en-US" altLang="en-US" sz="1100" b="1">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
             <a:t>    这类操作的效果就是 包含 xxxx 目录下的Kbuild或者Makefile</a:t>
           </a:r>
-          <a:endParaRPr lang="" altLang="en-US" sz="1100" b="1">
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100" b="1">
             <a:solidFill>
               <a:srgbClr val="FF0000"/>
             </a:solidFill>
@@ -10368,7 +10472,7 @@
           <a:p>
             <a:pPr algn="l"/>
             <a:r>
-              <a:rPr lang="" altLang="en-US" sz="1100">
+              <a:rPr lang="en-US" altLang="en-US" sz="1100">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
@@ -10607,15 +10711,7 @@
                   <a:srgbClr val="FF0000"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>); ==&gt;</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="" altLang="en-US" sz="1100" b="1">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>这句命令就是先打印【</a:t>
+              <a:t>); ==&gt;这句命令就是先打印【</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" altLang="en-US" b="1">
@@ -10624,24 +10720,7 @@
                 </a:solidFill>
                 <a:sym typeface="+mn-ea"/>
               </a:rPr>
-              <a:t>$(echo-cmd) </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="" altLang="en-US" b="1">
-                <a:solidFill>
-                  <a:srgbClr val="1D41D5"/>
-                </a:solidFill>
-                <a:sym typeface="+mn-ea"/>
-              </a:rPr>
-              <a:t>扩展后最后是有一个分号的</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="" altLang="en-US" sz="1100" b="1">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>】，再执行命令</a:t>
+              <a:t>$(echo-cmd) 扩展后最后是有一个分号的</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" altLang="en-US" sz="1100" b="1">
@@ -10649,7 +10728,7 @@
                   <a:srgbClr val="FF0000"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>$(cmd_$(1))，$(echo-cmd)就是在屏幕上打印出这条命令字符串，举例见下      \</a:t>
+              <a:t>】，再执行命令$(cmd_$(1))，$(echo-cmd)就是在屏幕上打印出这条命令字符串，举例见下      \</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" altLang="en-US" sz="1100" b="1">
               <a:solidFill>
@@ -10697,15 +10776,7 @@
                   <a:srgbClr val="7030A0"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>比如 $(call if_changed,  copy)  </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="" altLang="en-US" sz="1100" b="1">
-                <a:solidFill>
-                  <a:srgbClr val="7030A0"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>转为执行下面的命令</a:t>
+              <a:t>比如 $(call if_changed,  copy)  转为执行下面的命令</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" altLang="en-US" sz="1100">
               <a:solidFill>
@@ -13050,7 +13121,7 @@
             <a:t>prepare   </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="" altLang="en-US">
+            <a:rPr lang="en-US" altLang="en-US">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -14162,47 +14233,21 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="" altLang="en-US" sz="1100" b="1">
+            <a:rPr lang="en-US" altLang="en-US" sz="1100" b="1">
               <a:solidFill>
                 <a:srgbClr val="1D41D5"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>比</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="en-US" sz="1100" b="1">
+            <a:t>比如包含</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" b="1">
               <a:solidFill>
                 <a:srgbClr val="1D41D5"/>
               </a:solidFill>
-            </a:rPr>
-            <a:t>如包含</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="en-US" b="1">
-              <a:solidFill>
-                <a:srgbClr val="1D41D5"/>
-              </a:solidFill>
               <a:sym typeface="+mn-ea"/>
             </a:rPr>
-            <a:t>arch/arm/cpu </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="" altLang="en-US" b="1">
-              <a:solidFill>
-                <a:srgbClr val="1D41D5"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>下的 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="en-US" b="1">
-              <a:solidFill>
-                <a:srgbClr val="1D41D5"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>Makefile</a:t>
+            <a:t>arch/arm/cpu 下的 Makefile</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100">
             <a:solidFill>
@@ -18067,6 +18112,3035 @@
         </a:ln>
       </xdr:spPr>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>285115</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>90805</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>69</xdr:col>
+      <xdr:colOff>193675</xdr:colOff>
+      <xdr:row>170</xdr:row>
+      <xdr:rowOff>81915</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="Text Box 34"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="49491265" y="26694130"/>
+          <a:ext cx="9128760" cy="7392035"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>		</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="1D41D5"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>顶层Makefile(./u-boot/Makefile)	</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="1D41D5"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>u-boot规则的依赖u-boot.lds分析如下==&gt; 			</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t> 590 # If board code explicitly specified LDSCRIPT or CONFIG_SYS_LDSCRIPT, use</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t> 591 # that (or fail if absent).  Otherwise, search for a linker script in a</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t> 592 # standard location.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t> 593 </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t> 594 ifndef LDSCRIPT</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t> 595         #LDSCRIPT := $(srctree)/board/$(BOARDDIR)/u-boot.lds.debug</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t> 596         ifdef CONFIG_SYS_LDSCRIPT</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t> 597                 # need to strip off double quotes</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t> 598                 LDSCRIPT := $(srctree)/$(CONFIG_SYS_LDSCRIPT:"%"=%)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t> 599         endif</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t> 600 endif</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t> 601 </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t> 602 # If there is no specified link script, we look in a number of places for it</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t> 603 ifndef LDSCRIPT</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t> 604         ifeq ($(wildcard $(LDSCRIPT)),)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t> 605   </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>              LDSCRIPT := $(srctree)/board/$(BOARDDIR)/u-boot.lds ==&gt; 第一优先级:  $(LDSCRIPT) 链接脚本</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t> 606         endif</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t> 607         ifeq ($(wildcard $(LDSCRIPT)),)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t> 608    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>             LDSCRIPT := $(srctree)/$(CPUDIR)/u-boot.lds ==&gt;  第二优先级:  $(LDSCRIPT) 链接脚本</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t> 609         endif</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t> 610         ifeq ($(wildcard $(LDSCRIPT)),)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t> 611 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>                LDSCRIPT := $(srctree)/arch/$(ARCH)/cpu/u-boot.lds ==&gt;  第三优先级:  $(LDSCRIPT) 链接脚本</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t> 612         endif</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t> 613 endif</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>1715 # ---------------------------------------------------------------------------</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>1716 quiet_cmd_cpp_lds = LDS     $@</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>1717 cmd_cpp_lds = $(CPP) -Wp,-MD,$(depfile) $(cpp_flags) $(LDPPFLAGS) \</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>1718                 -D__ASSEMBLY__ -x assembler-with-cpp -std=c99 -P -o $@ $&lt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1720 u-boot.lds: $(LDSCRIPT) prepare FORCE  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t> ==&gt; 依赖  $(LDSCRIPT) 链接脚本，$(LDSCRIPT) 在上面赋值</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>1721         </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>$(call if_changed_dep,  cpp_lds)  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>==&gt; 先在屏幕上显示命令，再执行命令，cmd_cpp_lds</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>这个规则 相当于赋值 检查 并 找到 对应的链接脚本 </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>605155</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>46355</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>282575</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="51" name="Group 50"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="44782105" y="22849205"/>
+          <a:ext cx="4706620" cy="7537450"/>
+          <a:chOff x="70369" y="35745"/>
+          <a:chExt cx="7396" cy="11798"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp>
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="41" name="Elbow Connector 40"/>
+          <xdr:cNvCxnSpPr>
+            <a:endCxn id="35" idx="1"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="5400000" flipV="1">
+            <a:off x="71924" y="41702"/>
+            <a:ext cx="10635" cy="1048"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentConnector2">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="arrow"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp>
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="46" name="Elbow Connector 45"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="70369" y="35745"/>
+            <a:ext cx="6339" cy="1173"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentConnector3">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val -394"/>
+            </a:avLst>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>490855</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>20955</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>384810</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="Text Box 53"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="32094805" y="25424130"/>
+          <a:ext cx="7437755" cy="2744470"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>		</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="1D41D5"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>顶层Makefile(./u-boot/Makefile)	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>			</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>u-boot.srec </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>分析</a:t>
+          </a:r>
+          <a:endParaRPr lang="" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t> 896 # Normally we fill empty space with 0xff</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t> 897 quiet_cmd_objcopy = OBJCOPY $@</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t> 898 cmd_objcopy = $(OBJCOPY) --gap-fill=0xff $(OBJCOPYFLAGS) \</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t> 899         $(OBJCOPYFLAGS_$(@F)) $&lt; $@</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>1122 u-boot.hex u-boot.srec: u-boot FORCE  u-boot    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> ==&gt; u-boot对应的规则里面生成了目标文件u-boot</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>1123         $(call if_changed,objcopy) </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> ==&gt; 通过cmd_objcopy对应的字符串命令来生成目标文件</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>		</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>569595</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>132715</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="55" name="Elbow Connector 54"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24203025" y="25641300"/>
+          <a:ext cx="7970520" cy="294640"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 87173"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>278765</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>76835</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>271780</xdr:colOff>
+      <xdr:row>169</xdr:row>
+      <xdr:rowOff>186055</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="Text Box 55"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="31882715" y="28680410"/>
+          <a:ext cx="8375015" cy="5309870"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>		</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="1D41D5"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>顶层Makefile(./u-boot/Makefile)	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>			</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>u-boot.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>bin  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>分析</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="800" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>下面无论哪个规则执行，生成 u-boot.bin 都是通过执行命令 $(call if_changed,copy) 来完成</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> 918 quiet_cmd_cat = CAT     $@</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> 919 cmd_cat = cat $(filter-out $(PHONY), $^) &gt; $@  ==&gt; 在所有的依赖中过滤掉伪目标 $(PHONY)后的依赖集合里面的所有对象 拼接生成目标文件</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1049 quiet_cmd_copy = COPY    $@</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1050       cmd_copy = cp $&lt; $@  ==&gt; 把   第一个依赖文件$&lt; 拷贝为 目标文件</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1053 ifeq ($(CONFIG_MULTI_DTB_FIT),y)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>    ......</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1088 u-boot.bin: u-boot-fit-dtb.bin FORCE</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1089         $(call if_changed,copy) ==&gt; 先在屏幕上显示命令对应的字符串内容，再执行字符串内容对应的命令，也就是cmd_copy：将依赖拷贝重命名为目标文件</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1090 </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1091 u-boot-dtb.bin: u-boot-nodtb.bin dts/dt.dtb FORCE</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1092         $(call if_changed,cat) ==&gt; 先在屏幕上显示命令对应的字符串内容，再执行字符串内容对应的命令，也就是cmd_cat：将所有的依赖拼接为目标文件</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1093 </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1094 else ifeq ($(CONFIG_OF_SEPARATE),y)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1095 u-boot-dtb.bin: u-boot-nodtb.bin dts/dt.dtb FORCE</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1096         $(call if_changed,cat)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1097 </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1098 u-boot.bin: u-boot-dtb.bin FORCE</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1099         $(call if_changed,copy)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1100 else</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1101 u-boot.bin: u-boot-nodtb.bin FORCE</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1102         $(call if_changed,copy)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1103 endif</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1111 quiet_cmd_copy = COPY    $@</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1112       cmd_copy = cp $&lt; $@</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>		</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="57" name="Elbow Connector 56"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24136350" y="25974675"/>
+          <a:ext cx="7820025" cy="3000375"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 87032"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>297815</xdr:colOff>
+      <xdr:row>172</xdr:row>
+      <xdr:rowOff>105410</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>290830</xdr:colOff>
+      <xdr:row>182</xdr:row>
+      <xdr:rowOff>34290</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="Text Box 57"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="31901765" y="34509710"/>
+          <a:ext cx="8375015" cy="1929130"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>		</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="1D41D5"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>顶层Makefile(./u-boot/Makefile)	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>			</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>u-boot.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>sym</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> 分析</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="800" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1000">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1579 quiet_cmd_sym ?= SYM     $@</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1000">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1580       cmd_sym ?= $(OBJDUMP) -t $&lt; &gt; $@ ==&gt; [-t|--syms]</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1000">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1000">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1582 u-boot.sym: u-boot FORCE</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1000">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1583         $(call if_changed,sym) ==&gt; 先在屏幕上显示命令对应的字符串内容，再执行字符串内容对应的命令，也就是cmd_sym：生成符号文件</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>		</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>308610</xdr:colOff>
+      <xdr:row>177</xdr:row>
+      <xdr:rowOff>67945</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="61" name="Group 60"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="24260175" y="26279475"/>
+          <a:ext cx="7652385" cy="9192895"/>
+          <a:chOff x="38190" y="41370"/>
+          <a:chExt cx="12051" cy="14477"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp>
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="59" name="Elbow Connector 58"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="5400000" flipV="1">
+            <a:off x="41311" y="46917"/>
+            <a:ext cx="13970" cy="3889"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentConnector2">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="arrow"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp>
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="60" name="Elbow Connector 59"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="38190" y="41370"/>
+            <a:ext cx="8145" cy="495"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentConnector3">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 100098"/>
+            </a:avLst>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>297815</xdr:colOff>
+      <xdr:row>184</xdr:row>
+      <xdr:rowOff>95885</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>290830</xdr:colOff>
+      <xdr:row>193</xdr:row>
+      <xdr:rowOff>62865</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="62" name="Text Box 61"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="31901765" y="36900485"/>
+          <a:ext cx="8375015" cy="1767205"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>		</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="1D41D5"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>顶层Makefile(./u-boot/Makefile)	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>			</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>System.map 分析</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="800" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1000">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1766 SYSTEM_MAP = \</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="800">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1767                 $(NM) $1 | \  </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="800">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1768                 grep -v '\(compiled\)\|\(\.o$$\)\|\( [aUw] \)\|\(\.\.ng$$\)\|\(LASH[RL]DI\)' | \</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="800">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1769                 LC_ALL=C sort   ==&gt; 通过 nm 产生所有的符号，再通过grep 过滤指定的符号，生成最终的符号集合文件</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="800">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="800">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1770 System.map:     u-boot</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="800">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1771                 @$(call SYSTEM_MAP,$&lt;) &gt; $@ ==&gt; 通过 nm 产生所有的符号，再通过grep 过滤指定的符号，生成最终的符号集合文件</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>		</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>8890</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>297815</xdr:colOff>
+      <xdr:row>188</xdr:row>
+      <xdr:rowOff>179705</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="63" name="Group 62"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="24231600" y="26612215"/>
+          <a:ext cx="7670165" cy="11172190"/>
+          <a:chOff x="38190" y="41344"/>
+          <a:chExt cx="12079" cy="14426"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp>
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="64" name="Elbow Connector 63"/>
+          <xdr:cNvCxnSpPr>
+            <a:endCxn id="62" idx="1"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="5400000" flipV="1">
+            <a:off x="39881" y="45382"/>
+            <a:ext cx="14426" cy="6349"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentConnector2">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="arrow"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp>
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="65" name="Elbow Connector 64"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="38190" y="41357"/>
+            <a:ext cx="5730" cy="12"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentConnector3">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 50017"/>
+            </a:avLst>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>288290</xdr:colOff>
+      <xdr:row>196</xdr:row>
+      <xdr:rowOff>124460</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>281305</xdr:colOff>
+      <xdr:row>208</xdr:row>
+      <xdr:rowOff>177165</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="66" name="Text Box 65"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="31892240" y="39329360"/>
+          <a:ext cx="8375015" cy="2453005"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>		</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="1D41D5"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>顶层Makefile(./u-boot/Makefile)	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>			</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>binary_size_check分析</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="800">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="800">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1147 binary_size_check: u-boot-nodtb.bin FORCE</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="800">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1148         @file_size=$(shell wc -c u-boot-nodtb.bin | awk '{print $$1}') ; \</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="800">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1149         map_size=$(shell cat u-boot.map | \</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="800">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1150                 awk '/_image_copy_start/ {start = $$1} /_image_binary_end/ {end = $$1} END {if (start != "" &amp;&amp; end != "") print "ibase=16; " toupper(end) " - " toupper(start)}     ' \</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="800">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1151                 | sed 's/0X//g' \</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="800">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1152                 | bc); \</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="800">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1153         if [ "" != "$$map_size" ]; then \</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="800">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1154                 if test $$map_size -ne $$file_size; then \</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="800">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1155                         echo "u-boot.map shows a binary size of $$map_size" &gt;&amp;2 ; \</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="800">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1156                         echo "  but u-boot-nodtb.bin shows $$file_size" &gt;&amp;2 ; \</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="800">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1157                         exit 1; \</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="800">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1158                 fi \</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="800">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1159         fi</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="800">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>		</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>288290</xdr:colOff>
+      <xdr:row>202</xdr:row>
+      <xdr:rowOff>151130</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="67" name="Group 66"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="24641175" y="26965275"/>
+          <a:ext cx="7251065" cy="13590905"/>
+          <a:chOff x="39555" y="38023"/>
+          <a:chExt cx="11419" cy="17549"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp>
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="68" name="Elbow Connector 67"/>
+          <xdr:cNvCxnSpPr>
+            <a:endCxn id="66" idx="1"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="5400000" flipV="1">
+            <a:off x="40260" y="44858"/>
+            <a:ext cx="14388" cy="7039"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentConnector2">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="arrow"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp>
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="69" name="Elbow Connector 68"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="39555" y="38023"/>
+            <a:ext cx="4365" cy="3334"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentConnector3">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 100183"/>
+            </a:avLst>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>148</xdr:col>
+      <xdr:colOff>199390</xdr:colOff>
+      <xdr:row>180</xdr:row>
+      <xdr:rowOff>176530</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>153</xdr:col>
+      <xdr:colOff>27940</xdr:colOff>
+      <xdr:row>209</xdr:row>
+      <xdr:rowOff>71755</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="78" name="Picture 77"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="124843540" y="36181030"/>
+          <a:ext cx="4019550" cy="5695950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -18332,8 +21406,8 @@
   <sheetPr/>
   <dimension ref="B118:CA154"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="DO114" workbookViewId="0">
-      <selection activeCell="DT127" sqref="DT127"/>
+    <sheetView tabSelected="1" topLeftCell="EG179" workbookViewId="0">
+      <selection activeCell="EI207" sqref="EI207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75"/>

--- a/uboot_compile_framework.xlsx
+++ b/uboot_compile_framework.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26895" windowHeight="12450"/>
+    <workbookView windowWidth="27720" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="uboot编译分析" sheetId="1" r:id="rId1"/>
@@ -27,9 +27,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="24">
@@ -69,16 +69,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -93,39 +85,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -136,28 +103,6 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -177,8 +122,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -192,6 +168,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
@@ -200,14 +199,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -222,7 +222,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -234,7 +234,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -246,7 +312,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -258,19 +366,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -282,55 +384,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -342,67 +396,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -435,7 +435,48 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -458,49 +499,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -508,8 +508,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -518,148 +518,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -744,6 +744,9 @@
   <colors>
     <mruColors>
       <color rgb="001D41D5"/>
+      <color rgb="004EAE04"/>
+      <color rgb="00BC4042"/>
+      <color rgb="0013742F"/>
     </mruColors>
   </colors>
   <extLst>
@@ -3443,7 +3446,7 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="" altLang="en-US" sz="1100" b="1">
+            <a:rPr lang="en-US" altLang="en-US" sz="1100" b="1">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
@@ -18902,17 +18905,9 @@
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>u-boot.srec </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="" altLang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>分析</a:t>
-          </a:r>
-          <a:endParaRPr lang="" altLang="en-US" sz="1100" b="1">
+            <a:t>u-boot.srec 分析</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100" b="1">
             <a:solidFill>
               <a:srgbClr val="FF0000"/>
             </a:solidFill>
@@ -19242,23 +19237,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>u-boot.</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="" altLang="en-US" sz="800" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>bin  </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="en-US" sz="800" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>分析</a:t>
+            <a:t>u-boot.bin  分析</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="en-US" sz="800" b="1">
             <a:solidFill>
@@ -19962,23 +19941,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>u-boot.</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="" altLang="en-US" sz="800" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>sym</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="en-US" sz="800" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> 分析</a:t>
+            <a:t>u-boot.sym 分析</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="en-US" sz="800" b="1">
             <a:solidFill>
@@ -21141,6 +21104,1802 @@
         </a:ln>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>264</xdr:row>
+      <xdr:rowOff>199390</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>838835</xdr:colOff>
+      <xdr:row>268</xdr:row>
+      <xdr:rowOff>45085</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="Text Box 18"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2514600" y="53005990"/>
+          <a:ext cx="1914525" cy="645795"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="1D41D5"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>顶层进行编译  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="1D41D5"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="1D41D5"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>/u-boot</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>make </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="1100"/>
+            <a:t>menuconfig</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>727710</xdr:colOff>
+      <xdr:row>262</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>695960</xdr:colOff>
+      <xdr:row>274</xdr:row>
+      <xdr:rowOff>11430</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="Text Box 36"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6137910" y="52589430"/>
+          <a:ext cx="9398000" cy="2228850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>	  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="1D41D5"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>顶层Makefile(./u-boot/Makefile)	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>			</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US">
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>566 %config: scripts_basic outputmakefile FORCE</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>567         $(Q)$(MAKE) $(build)=</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="1D41D5"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>scripts/kconfig $@</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="1D41D5"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>$(Q) $(MAKE) $(build)=xxxx  ==&gt; @ make -f $(srctree)/scripts/Makefile.build obj=</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" b="1">
+              <a:solidFill>
+                <a:srgbClr val="1D41D5"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>scripts/kconfig </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" b="1">
+              <a:solidFill>
+                <a:srgbClr val="1D41D5"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>menuconfig</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" b="1">
+              <a:solidFill>
+                <a:srgbClr val="13742F"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>顶层Makefile中</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" b="1">
+              <a:solidFill>
+                <a:srgbClr val="13742F"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>包含 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" b="1">
+              <a:solidFill>
+                <a:srgbClr val="13742F"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>scripts/kconfig </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" b="1">
+              <a:solidFill>
+                <a:srgbClr val="13742F"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>目录下的Makefile</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" b="1">
+              <a:solidFill>
+                <a:srgbClr val="13742F"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>，并执行make 编译，目标是</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" b="1">
+              <a:solidFill>
+                <a:srgbClr val="13742F"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>menuconfig</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>266</xdr:row>
+      <xdr:rowOff>122555</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>727710</xdr:colOff>
+      <xdr:row>268</xdr:row>
+      <xdr:rowOff>97155</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="70" name="Elbow Connector 69"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="19" idx="3"/>
+          <a:endCxn id="37" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4429125" y="53329205"/>
+          <a:ext cx="1708785" cy="374650"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50019"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>166370</xdr:colOff>
+      <xdr:row>262</xdr:row>
+      <xdr:rowOff>173990</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>279</xdr:row>
+      <xdr:rowOff>168910</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="71" name="Text Box 70"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16682720" y="52580540"/>
+          <a:ext cx="6091555" cy="3395345"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>	  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="1D41D5"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>hpsp_uboot/u-boot/scripts/kconfig/Makefile</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>	</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t> 15 ifdef KBUILD_KCONFIG           </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t> 16 Kconfig := $(KBUILD_KCONFIG)   </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t> 17 else</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t> 18 Kconfig := Kconfig             </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t> 19 endif 	</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US">
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> 34 menuconfig: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="1D41D5"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>$(obj)/mconf </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>      </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t> 35         $&lt; $(silent) $(Kconfig)  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="1100"/>
+            <a:t>==&gt; </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>scripts/kconfig/m</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>conf   </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>Kconfig</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>35行打印出来内容为：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="1D41D5"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>scripts/kconfig/mconf   Kconfig</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="1D41D5"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>scripts/kconfig/mconf </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>是一个可执行程序，这里的意思就是执行</a:t>
+          </a:r>
+          <a:endParaRPr lang="" altLang="en-US" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>scripts/kconfig/mconf</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>这个程序，这个程序利用当前路径（顶层目录）下的</a:t>
+          </a:r>
+          <a:endParaRPr lang="" altLang="en-US" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>Kconfig生成配置界面</a:t>
+          </a:r>
+          <a:endParaRPr lang="" altLang="en-US" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>如果你直接手动执行</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" b="1">
+              <a:solidFill>
+                <a:srgbClr val="1D41D5"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>scripts/kconfig/mconf   Kconfig </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" b="1">
+              <a:solidFill>
+                <a:srgbClr val="1D41D5"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>也能达到这个效果</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>695325</xdr:colOff>
+      <xdr:row>268</xdr:row>
+      <xdr:rowOff>97155</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>165735</xdr:colOff>
+      <xdr:row>271</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="72" name="Elbow Connector 71"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="37" idx="3"/>
+          <a:endCxn id="71" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15535275" y="53703855"/>
+          <a:ext cx="1146810" cy="579120"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50028"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>518160</xdr:colOff>
+      <xdr:row>280</xdr:row>
+      <xdr:rowOff>27940</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>295</xdr:row>
+      <xdr:rowOff>40005</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="73" name="Picture 72"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17034510" y="56034940"/>
+          <a:ext cx="5364480" cy="3012440"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>649605</xdr:colOff>
+      <xdr:row>262</xdr:row>
+      <xdr:rowOff>191135</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>583565</xdr:colOff>
+      <xdr:row>307</xdr:row>
+      <xdr:rowOff>40005</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="77" name="Text Box 76"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23871555" y="52597685"/>
+          <a:ext cx="6639560" cy="8849995"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>	  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="1D41D5"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>hpsp_uboot/u-boot/scripts/kconfig/Makefile</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>	</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>执行make menuconfig时，会去编译</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>HOSTCC  scripts/kconfig/mconf.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>c 生成</a:t>
+          </a:r>
+          <a:endParaRPr lang="" altLang="en-US" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>scripts/kconfig/mconf.o </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>并最终链接生成</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>scripts/kconfig/m</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>conf   </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>Kconfig</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>HOSTCC  scripts/kconfig/mconf.o</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>HOSTLD  scripts/kconfig/mconf</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>scripts/kconfig/mconf  Kconfig</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>在代码原始的状态下，执行make menuconfig后生成的文件如下  ==&gt; </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="1D41D5"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>生成了</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" b="1">
+              <a:solidFill>
+                <a:srgbClr val="1D41D5"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>.config</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" b="1">
+              <a:solidFill>
+                <a:srgbClr val="1D41D5"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>，</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>并可以看到make menuconfig过程中生成mconf过程中附带用了哪些其他的文件</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>hpsp@hpsp-B85M-D3H:~/rock_space/uboot_code/hpsp_uboot/u-boot$ git status </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>On branch master</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Your branch is up to date with 'origin/master'.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Changes not staged for commit:</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>  (use "git add &lt;file&gt;..." to update what will be committed)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>  (use "git restore &lt;file&gt;..." to discard changes in working directory)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>modified:   .config</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>	modified:   .gitignore</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Untracked files:</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>  (use "git add &lt;file&gt;..." to include in what will be committed)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>	.config.old</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>	scripts/basic/.fixdep.cmd</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>	scripts/kconfig/.mconf-cfg</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>	scripts/kconfig/.mconf.cmd</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>	scripts/kconfig/.mconf.o.cmd</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>	scripts/kconfig/.zconf.lex.c.cmd</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>	scripts/kconfig/.zconf.tab.c.cmd</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>	scripts/kconfig/.zconf.tab.o.cmd</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>	scripts/kconfig/lxdialog/.checklist.o.cmd</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>	scripts/kconfig/lxdialog/.inputbox.o.cmd</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>	scripts/kconfig/lxdialog/.menubox.o.cmd</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>	scripts/kconfig/lxdialog/.textbox.o.cmd</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>	scripts/kconfig/lxdialog/.util.o.cmd</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>	scripts/kconfig/lxdialog/.yesno.o.cmd</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>	scripts/kconfig/lxdialog/checklist.o</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>	scripts/kconfig/lxdialog/inputbox.o</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>	scripts/kconfig/lxdialog/menubox.o</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>	scripts/kconfig/lxdialog/textbox.o</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>	scripts/kconfig/lxdialog/util.o</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>	scripts/kconfig/lxdialog/yesno.o</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>	scripts/kconfig/mconf.o</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>	scripts/kconfig/zconf.lex.c</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>	scripts/kconfig/zconf.tab.c</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>	scripts/kconfig/zconf.tab.o</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>no changes added to commit (use "git add" and/or "git commit -a")</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>hpsp@hpsp-B85M-D3H:~/rock_space/uboot_code/hpsp_uboot/u-boot$ </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>79375</xdr:colOff>
+      <xdr:row>270</xdr:row>
+      <xdr:rowOff>125730</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>652145</xdr:colOff>
+      <xdr:row>271</xdr:row>
+      <xdr:rowOff>52705</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="79" name="Elbow Connector 78"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19110325" y="54132480"/>
+          <a:ext cx="4763770" cy="127000"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 83563"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -21406,8 +23165,8 @@
   <sheetPr/>
   <dimension ref="B118:CA154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="EG179" workbookViewId="0">
-      <selection activeCell="EI207" sqref="EI207"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="Q267" workbookViewId="0">
+      <selection activeCell="AL280" sqref="AL280"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75"/>

--- a/uboot_compile_framework.xlsx
+++ b/uboot_compile_framework.xlsx
@@ -27,10 +27,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -70,7 +70,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -79,36 +79,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -131,7 +101,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -139,7 +116,52 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -160,37 +182,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
@@ -198,16 +189,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -222,7 +222,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -240,7 +240,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -252,19 +264,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -282,49 +282,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -336,13 +318,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -355,6 +331,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -378,13 +378,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -402,7 +396,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -440,6 +440,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -451,6 +469,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -480,171 +513,138 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -653,13 +653,13 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -13315,7 +13315,23 @@
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t> 547 include/config/%.conf:   $(KCONFIG_CONFIG)      include/config/auto.conf.cmd   ==&gt; KCONFIG_CONFIG 为 .config </a:t>
+            <a:t> 547 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="13742F"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>include/config/%.conf</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>:   $(KCONFIG_CONFIG)      include/config/auto.conf.cmd   ==&gt; KCONFIG_CONFIG 为 .config </a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100" b="1">
             <a:solidFill>
@@ -13326,12 +13342,36 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> 548         $(Q)$(MAKE) -f $(srctree)/Makefile syncconfig ==&gt; 执行</a:t>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> 548         $(Q)$(MAKE) -f $(srctree)/Makefile syncconfig </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="1D41D5"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>==&gt; </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="1D41D5"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>顶层目录下</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="1D41D5"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>执行  make -f ./Makefile syncconfig</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100">
             <a:solidFill>
@@ -13374,25 +13414,25 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
             <a:t> 551         $(Q)$(MAKE) -f $(srctree)/scripts/Makefile.autoconf || \</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
             <a:t> 552                 { rm -f include/config/auto.conf; false; }</a:t>
@@ -13470,9 +13510,9 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
             <a:t> 557         $(Q)touch include/config/auto.conf ==&gt; 刷新这个文件的时间错     </a:t>
@@ -13547,7 +13587,31 @@
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>1611 include/config/uboot.release: include/config/auto.conf FORCE  ==&gt; 依赖include/config/auto.conf,auto.conf是自动生成的,见547行include/config/%.conf这个目标的规则，就是根据.config用来生成这个文件的</a:t>
+            <a:t>1611 include/config/uboot.release:  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="13742F"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> include/config/auto.conf  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> FORCE  ==&gt; 依赖include/config/auto.conf,auto.conf是自动生成的,见547行include/config/%.conf这个目标的规则，就是根据.config用来生成这个文件的</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100" b="1">
             <a:solidFill>
@@ -17003,7 +17067,7 @@
     <xdr:to>
       <xdr:col>150</xdr:col>
       <xdr:colOff>585470</xdr:colOff>
-      <xdr:row>212</xdr:row>
+      <xdr:row>210</xdr:row>
       <xdr:rowOff>31750</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -17014,7 +17078,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="118681500" y="32058610"/>
-          <a:ext cx="8224520" cy="10378440"/>
+          <a:ext cx="8224520" cy="9978390"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -21110,13 +21174,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>264</xdr:row>
+      <xdr:row>220</xdr:row>
       <xdr:rowOff>199390</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>838835</xdr:colOff>
-      <xdr:row>268</xdr:row>
+      <xdr:row>224</xdr:row>
       <xdr:rowOff>45085</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -21126,7 +21190,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2514600" y="53005990"/>
+          <a:off x="2514600" y="44204890"/>
           <a:ext cx="1914525" cy="645795"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -21292,7 +21356,7 @@
             <a:t>make </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="" altLang="en-US" sz="1100"/>
+            <a:rPr lang="en-US" altLang="en-US" sz="1100"/>
             <a:t>menuconfig</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100"/>
@@ -21309,13 +21373,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>727710</xdr:colOff>
-      <xdr:row>262</xdr:row>
+      <xdr:row>218</xdr:row>
       <xdr:rowOff>182880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>695960</xdr:colOff>
-      <xdr:row>274</xdr:row>
+      <xdr:row>230</xdr:row>
       <xdr:rowOff>11430</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -21325,7 +21389,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6137910" y="52589430"/>
+          <a:off x="6137910" y="43788330"/>
           <a:ext cx="9398000" cy="2228850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -21535,7 +21599,7 @@
             <a:t>scripts/kconfig </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="" altLang="en-US" b="1">
+            <a:rPr lang="en-US" altLang="en-US" b="1">
               <a:solidFill>
                 <a:srgbClr val="1D41D5"/>
               </a:solidFill>
@@ -21552,13 +21616,22 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="" altLang="en-US" b="1">
+            <a:rPr lang="en-US" altLang="en-US" b="1">
               <a:solidFill>
                 <a:srgbClr val="13742F"/>
               </a:solidFill>
               <a:sym typeface="+mn-ea"/>
             </a:rPr>
-            <a:t>顶层Makefile中</a:t>
+            <a:t>顶层Makefile中包含 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" b="1">
+              <a:solidFill>
+                <a:srgbClr val="13742F"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>scripts/kconfig </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="en-US" b="1">
@@ -21567,43 +21640,7 @@
               </a:solidFill>
               <a:sym typeface="+mn-ea"/>
             </a:rPr>
-            <a:t>包含 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" b="1">
-              <a:solidFill>
-                <a:srgbClr val="13742F"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>scripts/kconfig </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="en-US" b="1">
-              <a:solidFill>
-                <a:srgbClr val="13742F"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>目录下的Makefile</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="" altLang="en-US" b="1">
-              <a:solidFill>
-                <a:srgbClr val="13742F"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>，并执行make 编译，目标是</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="en-US" b="1">
-              <a:solidFill>
-                <a:srgbClr val="13742F"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>menuconfig</a:t>
+            <a:t>目录下的Makefile，并执行make 编译，目标是menuconfig</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="en-US" sz="1100" b="1">
             <a:solidFill>
@@ -21627,13 +21664,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>266</xdr:row>
+      <xdr:row>222</xdr:row>
       <xdr:rowOff>122555</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>727710</xdr:colOff>
-      <xdr:row>268</xdr:row>
+      <xdr:row>224</xdr:row>
       <xdr:rowOff>97155</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
@@ -21646,7 +21683,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4429125" y="53329205"/>
+          <a:off x="4429125" y="44528105"/>
           <a:ext cx="1708785" cy="374650"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
@@ -21679,13 +21716,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>166370</xdr:colOff>
-      <xdr:row>262</xdr:row>
+      <xdr:row>218</xdr:row>
       <xdr:rowOff>173990</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>279</xdr:row>
+      <xdr:row>235</xdr:row>
       <xdr:rowOff>168910</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -21695,7 +21732,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16682720" y="52580540"/>
+          <a:off x="16682720" y="43779440"/>
           <a:ext cx="6091555" cy="3395345"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -21931,7 +21968,7 @@
             <a:t> 35         $&lt; $(silent) $(Kconfig)  </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="" altLang="en-US" sz="1100"/>
+            <a:rPr lang="en-US" altLang="en-US" sz="1100"/>
             <a:t>==&gt; </a:t>
           </a:r>
           <a:r>
@@ -21941,8 +21978,44 @@
               </a:solidFill>
               <a:sym typeface="+mn-ea"/>
             </a:rPr>
-            <a:t>scripts/kconfig/m</a:t>
-          </a:r>
+            <a:t>scripts/kconfig/mconf   Kconfig</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>35行打印出来内容为：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="1D41D5"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>scripts/kconfig/mconf   Kconfig</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="1D41D5"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" altLang="en-US" b="1">
               <a:solidFill>
@@ -21950,8 +22023,17 @@
               </a:solidFill>
               <a:sym typeface="+mn-ea"/>
             </a:rPr>
-            <a:t>conf   </a:t>
-          </a:r>
+            <a:t>scripts/kconfig/mconf 是一个可执行程序，这里的意思就是执行</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="en-US" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" altLang="en-US" b="1">
               <a:solidFill>
@@ -21959,141 +22041,51 @@
               </a:solidFill>
               <a:sym typeface="+mn-ea"/>
             </a:rPr>
-            <a:t>Kconfig</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100">
+            <a:t>scripts/kconfig/mconf这个程序，这个程序利用当前路径（顶层目录）下的</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="en-US" b="1">
             <a:solidFill>
               <a:srgbClr val="FF0000"/>
             </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="" altLang="en-US" sz="1100" b="1">
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" b="1">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
-            </a:rPr>
-            <a:t>35行打印出来内容为：</a:t>
-          </a:r>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>Kconfig生成配置界面</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="en-US" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" altLang="en-US" sz="1100" b="1">
               <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>如果你直接手动执行</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" b="1">
+              <a:solidFill>
                 <a:srgbClr val="1D41D5"/>
               </a:solidFill>
-            </a:rPr>
-            <a:t>scripts/kconfig/mconf   Kconfig</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100" b="1">
-            <a:solidFill>
-              <a:srgbClr val="1D41D5"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="en-US" b="1">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
               <a:sym typeface="+mn-ea"/>
             </a:rPr>
-            <a:t>scripts/kconfig/mconf </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="" altLang="en-US" b="1">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>是一个可执行程序，这里的意思就是执行</a:t>
-          </a:r>
-          <a:endParaRPr lang="" altLang="en-US" b="1">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="en-US" b="1">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>scripts/kconfig/mconf</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="" altLang="en-US" b="1">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>这个程序，这个程序利用当前路径（顶层目录）下的</a:t>
-          </a:r>
-          <a:endParaRPr lang="" altLang="en-US" b="1">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="" altLang="en-US" b="1">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>Kconfig生成配置界面</a:t>
-          </a:r>
-          <a:endParaRPr lang="" altLang="en-US" b="1">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="" altLang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>如果你直接手动执行</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="en-US" b="1">
-              <a:solidFill>
-                <a:srgbClr val="1D41D5"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>scripts/kconfig/mconf   Kconfig </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="" altLang="en-US" b="1">
-              <a:solidFill>
-                <a:srgbClr val="1D41D5"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>也能达到这个效果</a:t>
+            <a:t>scripts/kconfig/mconf   Kconfig 也能达到这个效果</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
@@ -22109,13 +22101,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>268</xdr:row>
+      <xdr:row>224</xdr:row>
       <xdr:rowOff>97155</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>165735</xdr:colOff>
-      <xdr:row>271</xdr:row>
+      <xdr:row>227</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
@@ -22128,7 +22120,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15535275" y="53703855"/>
+          <a:off x="15535275" y="44902755"/>
           <a:ext cx="1146810" cy="579120"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
@@ -22161,13 +22153,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>518160</xdr:colOff>
-      <xdr:row>280</xdr:row>
+      <xdr:row>236</xdr:row>
       <xdr:rowOff>27940</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>295</xdr:row>
+      <xdr:row>251</xdr:row>
       <xdr:rowOff>40005</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -22185,7 +22177,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17034510" y="56034940"/>
+          <a:off x="17034510" y="47233840"/>
           <a:ext cx="5364480" cy="3012440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -22203,13 +22195,13 @@
     <xdr:from>
       <xdr:col>27</xdr:col>
       <xdr:colOff>649605</xdr:colOff>
-      <xdr:row>262</xdr:row>
+      <xdr:row>218</xdr:row>
       <xdr:rowOff>191135</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
       <xdr:colOff>583565</xdr:colOff>
-      <xdr:row>307</xdr:row>
+      <xdr:row>263</xdr:row>
       <xdr:rowOff>40005</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -22219,7 +22211,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="23871555" y="52597685"/>
+          <a:off x="23871555" y="43796585"/>
           <a:ext cx="6639560" cy="8849995"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -22377,84 +22369,119 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>执行make menuconfig时，会去编译</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>HOSTCC  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" b="1">
+              <a:solidFill>
+                <a:srgbClr val="13742F"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>scripts/kconfig/mconf.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" b="1">
+              <a:solidFill>
+                <a:srgbClr val="13742F"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>c </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>生成</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="en-US" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>scripts/kconfig/mconf.o </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>并最终链接生成scripts/kconfig/mconf   Kconfig</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
             <a:rPr lang="" altLang="en-US" sz="1100" b="1">
               <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>执行make menuconfig时，会去编译</a:t>
+                <a:srgbClr val="13742F"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>你可以自己手动去修改</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" b="1">
               <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+                <a:srgbClr val="13742F"/>
               </a:solidFill>
               <a:sym typeface="+mn-ea"/>
             </a:rPr>
-            <a:t>HOSTCC  scripts/kconfig/mconf.</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="" altLang="en-US" b="1">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" b="1">
+              <a:solidFill>
+                <a:srgbClr val="13742F"/>
               </a:solidFill>
               <a:sym typeface="+mn-ea"/>
             </a:rPr>
-            <a:t>c 生成</a:t>
-          </a:r>
-          <a:endParaRPr lang="" altLang="en-US" b="1">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" b="1">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+            <a:t>scripts/kconfig/mconf.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" b="1">
+              <a:solidFill>
+                <a:srgbClr val="13742F"/>
               </a:solidFill>
               <a:sym typeface="+mn-ea"/>
             </a:rPr>
-            <a:t>scripts/kconfig/mconf.o </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="" altLang="en-US" b="1">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>并最终链接生成</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="en-US" b="1">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>scripts/kconfig/m</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="en-US" b="1">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>conf   </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="en-US" b="1">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>Kconfig</a:t>
+            <a:t>c </a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
@@ -22493,7 +22520,7 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="" altLang="en-US" sz="1100" b="1">
+            <a:rPr lang="en-US" altLang="en-US" sz="1100" b="1">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
@@ -22501,7 +22528,7 @@
             <a:t>在代码原始的状态下，执行make menuconfig后生成的文件如下  ==&gt; </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="" altLang="en-US" sz="1100" b="1">
+            <a:rPr lang="en-US" altLang="en-US" sz="1100" b="1">
               <a:solidFill>
                 <a:srgbClr val="1D41D5"/>
               </a:solidFill>
@@ -22518,7 +22545,7 @@
             <a:t>.config</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="" altLang="en-US" b="1">
+            <a:rPr lang="en-US" altLang="en-US" b="1">
               <a:solidFill>
                 <a:srgbClr val="1D41D5"/>
               </a:solidFill>
@@ -22527,7 +22554,7 @@
             <a:t>，</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="" altLang="en-US" b="1">
+            <a:rPr lang="en-US" altLang="en-US" b="1">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
@@ -22857,13 +22884,13 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>79375</xdr:colOff>
-      <xdr:row>270</xdr:row>
+      <xdr:row>226</xdr:row>
       <xdr:rowOff>125730</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>652145</xdr:colOff>
-      <xdr:row>271</xdr:row>
+      <xdr:row>227</xdr:row>
       <xdr:rowOff>52705</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
@@ -22873,12 +22900,293 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19110325" y="54132480"/>
+          <a:off x="19110325" y="45331380"/>
           <a:ext cx="4763770" cy="127000"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
             <a:gd name="adj1" fmla="val 83563"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>113</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>166</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>123</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>208</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="74" name="Text Box 73"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="95659575" y="33337500"/>
+          <a:ext cx="8250555" cy="8412480"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" b="1">
+              <a:solidFill>
+                <a:srgbClr val="1D41D5"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>$(MAKE) -f $(srctree)/scripts/Makefile.autoconf || \{ rm -f include/config/auto.conf; false; }</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="1D41D5"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" b="1">
+              <a:solidFill>
+                <a:srgbClr val="1D41D5"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>==&gt; </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" b="1">
+              <a:solidFill>
+                <a:srgbClr val="1D41D5"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>make -f ./</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" b="1">
+              <a:solidFill>
+                <a:srgbClr val="1D41D5"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>scripts/Makefile.autoconf   </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" b="1">
+            <a:solidFill>
+              <a:srgbClr val="1D41D5"/>
+            </a:solidFill>
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>107</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>113</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>167</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="76" name="Elbow Connector 75"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="90582750" y="32261175"/>
+          <a:ext cx="5057775" cy="1285875"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 90872"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -23165,8 +23473,8 @@
   <sheetPr/>
   <dimension ref="B118:CA154"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="Q267" workbookViewId="0">
-      <selection activeCell="AL280" sqref="AL280"/>
+    <sheetView tabSelected="1" topLeftCell="DB153" workbookViewId="0">
+      <selection activeCell="DK166" sqref="DK166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75"/>

--- a/uboot_compile_framework.xlsx
+++ b/uboot_compile_framework.xlsx
@@ -27,9 +27,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="24">
@@ -69,46 +69,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -117,6 +87,21 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -137,31 +122,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -176,14 +147,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -197,9 +183,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -207,7 +200,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -222,7 +222,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -234,31 +360,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -270,91 +384,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -370,42 +406,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -413,6 +413,65 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -434,41 +493,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -487,152 +513,126 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -641,29 +641,29 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -686,6 +686,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -746,6 +749,7 @@
       <color rgb="001D41D5"/>
       <color rgb="004EAE04"/>
       <color rgb="00BC4042"/>
+      <color rgb="0060045B"/>
       <color rgb="0013742F"/>
     </mruColors>
   </colors>
@@ -761,14 +765,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>617220</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>595630</xdr:colOff>
       <xdr:row>112</xdr:row>
       <xdr:rowOff>20320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>714375</xdr:colOff>
+      <xdr:colOff>713740</xdr:colOff>
       <xdr:row>151</xdr:row>
       <xdr:rowOff>39370</xdr:rowOff>
     </xdr:to>
@@ -779,10 +783,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2293620" y="22423120"/>
-          <a:ext cx="11584305" cy="7820025"/>
-          <a:chOff x="3605" y="617"/>
-          <a:chExt cx="18294" cy="11766"/>
+          <a:off x="1433830" y="22423120"/>
+          <a:ext cx="12443460" cy="7820025"/>
+          <a:chOff x="2248" y="617"/>
+          <a:chExt cx="19651" cy="11766"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp>
@@ -836,7 +840,23 @@
                   <a:srgbClr val="1D41D5"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>顶层Makefile(./u-boot/Makefile)	</a:t>
+              <a:t>顶层Makefile(./u-boot/Makefile) </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="" altLang="en-US" sz="1100" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="1D41D5"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>【编译过程】</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="1D41D5"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>	</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" sz="1100"/>
@@ -1183,10 +1203,10 @@
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
           <a:xfrm>
-            <a:off x="3605" y="3336"/>
-            <a:ext cx="4032" cy="2418"/>
-            <a:chOff x="3607" y="3353"/>
-            <a:chExt cx="4032" cy="2419"/>
+            <a:off x="2248" y="3336"/>
+            <a:ext cx="5389" cy="7871"/>
+            <a:chOff x="2250" y="3353"/>
+            <a:chExt cx="5389" cy="7874"/>
           </a:xfrm>
         </xdr:grpSpPr>
         <xdr:cxnSp>
@@ -1233,8 +1253,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3607" y="4800"/>
-              <a:ext cx="3025" cy="973"/>
+              <a:off x="2250" y="4800"/>
+              <a:ext cx="4382" cy="6427"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1402,7 +1422,204 @@
             </a:p>
             <a:p>
               <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="" altLang="en-US" sz="1100" b="1">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>【make xxx -nw 可打印出makefile 的执行makefile的过程信息】</a:t>
+              </a:r>
+              <a:endParaRPr lang="" altLang="en-US" sz="1100" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="" altLang="en-US" sz="1100" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="" altLang="en-US" sz="1100" b="1">
+                  <a:solidFill>
+                    <a:srgbClr val="C00000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>调试内核的构建工程，最有效的办法就是</a:t>
+              </a:r>
+              <a:endParaRPr lang="" altLang="en-US" sz="1100" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="C00000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="" altLang="en-US" sz="1100" b="1">
+                  <a:solidFill>
+                    <a:srgbClr val="C00000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>1：放开 $(Q) 的 配置，让每一条执行的命令都回显</a:t>
+              </a:r>
+              <a:endParaRPr lang="" altLang="en-US" sz="1100" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="C00000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="" altLang="en-US" sz="1100" b="1">
+                  <a:solidFill>
+                    <a:srgbClr val="C00000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>2：在每个规则中加自己的打印</a:t>
+              </a:r>
+              <a:endParaRPr lang="" altLang="en-US" sz="1100" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="C00000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="" altLang="en-US" sz="1100" b="1">
+                  <a:solidFill>
+                    <a:srgbClr val="C00000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>第一条很好用哦</a:t>
+              </a:r>
+              <a:endParaRPr lang="" altLang="en-US" sz="1100" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="C00000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="" altLang="en-US" sz="1100" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="C00000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="en-US" b="1">
+                  <a:solidFill>
+                    <a:srgbClr val="C00000"/>
+                  </a:solidFill>
+                  <a:sym typeface="+mn-ea"/>
+                </a:rPr>
+                <a:t>打开</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" b="1">
+                  <a:solidFill>
+                    <a:srgbClr val="C00000"/>
+                  </a:solidFill>
+                  <a:sym typeface="+mn-ea"/>
+                </a:rPr>
+                <a:t>KBUILD_VERBOSE </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="en-US" b="1">
+                  <a:solidFill>
+                    <a:srgbClr val="C00000"/>
+                  </a:solidFill>
+                  <a:sym typeface="+mn-ea"/>
+                </a:rPr>
+                <a:t>或直接屏蔽掉</a:t>
+              </a:r>
               <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US">
+                  <a:sym typeface="+mn-ea"/>
+                </a:rPr>
+                <a:t>  97 #ifeq ($(KBUILD_VERBOSE),1)           </a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US">
+                  <a:sym typeface="+mn-ea"/>
+                </a:rPr>
+                <a:t>  98   quiet =</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US">
+                  <a:sym typeface="+mn-ea"/>
+                </a:rPr>
+                <a:t>  99   Q =</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US">
+                  <a:sym typeface="+mn-ea"/>
+                </a:rPr>
+                <a:t> 100 #else</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US">
+                  <a:sym typeface="+mn-ea"/>
+                </a:rPr>
+                <a:t> 101 #  quiet=quiet_                       </a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US">
+                  <a:sym typeface="+mn-ea"/>
+                </a:rPr>
+                <a:t> 102 #  Q = @</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US">
+                  <a:sym typeface="+mn-ea"/>
+                </a:rPr>
+                <a:t> 103 #endif</a:t>
+              </a:r>
+              <a:endParaRPr lang="" altLang="en-US" sz="1100" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="C00000"/>
+                </a:solidFill>
+              </a:endParaRPr>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
@@ -8076,11 +8293,19 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>1596     $(Q) $(MAKE) $(build)=$@</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
+            <a:t>1596     </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>$(Q) $(MAKE) $(build)=$@</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
             </a:solidFill>
           </a:endParaRPr>
         </a:p>
@@ -8176,7 +8401,16 @@
               </a:solidFill>
               <a:sym typeface="+mn-ea"/>
             </a:rPr>
-            <a:t>过这个方式来 包</a:t>
+            <a:t>过这个方式来 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="2200" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>执行</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="2200" b="1">
@@ -8184,7 +8418,7 @@
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>含 xxxx 目录下的Kbuild或者Makefile</a:t>
+            <a:t>xxxx 目录下的Kbuild或者Makefile</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="2200" b="1">
             <a:solidFill>
@@ -8908,12 +9142,81 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>  8 src := $(patsubst $(prefix)/%,%,$(obj)) ==&gt; </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>-f   $(srctree)/scripts/Makefile.build   obj</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>=xxx,  这里将</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>obj</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>的值</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>去掉tpl/这个前缀</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
             <a:rPr lang="en-US" altLang="en-US" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>  8 src := $(patsubst $(prefix)/%,%,$(obj)) ==&gt; 去掉tpl/这个前缀</a:t>
+            <a:t>  9 ifeq ($(obj),$(src))                </a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="en-US" sz="1100">
             <a:solidFill>
@@ -8929,7 +9232,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>  9 ifeq ($(obj),$(src))                </a:t>
+            <a:t> 10 prefix := spl                       </a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="en-US" sz="1100">
             <a:solidFill>
@@ -8940,12 +9243,72 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> 11 src := $(patsubst $(prefix)/%,%,$(obj))  ==&gt; </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>-f   $(srctree)/scripts/Makefile.build   obj</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>=xxx,  这里将</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>obj</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>的值 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>去掉spl/这个前缀  </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
             <a:rPr lang="en-US" altLang="en-US" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t> 10 prefix := spl                       </a:t>
+            <a:t> 12 ifeq ($(obj),$(src))</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="en-US" sz="1100">
             <a:solidFill>
@@ -8961,7 +9324,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t> 11 src := $(patsubst $(prefix)/%,%,$(obj))  ==&gt; 去掉spl/这个前缀</a:t>
+            <a:t> 13 prefix := .</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="en-US" sz="1100">
             <a:solidFill>
@@ -8977,7 +9340,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t> 12 ifeq ($(obj),$(src))</a:t>
+            <a:t> 14 endif</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="en-US" sz="1100">
             <a:solidFill>
@@ -8993,7 +9356,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t> 13 prefix := .</a:t>
+            <a:t> 15 endif</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="en-US" sz="1100">
             <a:solidFill>
@@ -9009,7 +9372,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t> 14 endif</a:t>
+            <a:t>  经过上面的处理后 变量 $(src) 就存好了 传入的 经过处理的 $(obj)参数 </a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="en-US" sz="1100">
             <a:solidFill>
@@ -9025,7 +9388,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t> 15 endif</a:t>
+            <a:t>  下面继续分析 $(src)变量的后续处理</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="en-US" sz="1100">
             <a:solidFill>
@@ -9041,7 +9404,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>  经过上面的处理后 变量 $(src) 就存好了 传入的 经过处理的 $(obj)参数 </a:t>
+            <a:t> 54 # The filename Kbuild has precedence over Makefile</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="en-US" sz="1100">
             <a:solidFill>
@@ -9052,12 +9415,63 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> 55 kbuild-dir := $(if $(filter /%,$(src)),$(src),$(srctree)/$(src))  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>==&gt; src 就是上面 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>obj</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>=xxx </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>经过处理后的新值 </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
             <a:rPr lang="en-US" altLang="en-US" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>  下面继续分析 $(src)变量的后续处理</a:t>
+            <a:t>                      ==&gt;如果有$(src)值是以/开头，那么这个路径是绝对路径，不用处理，否则就加头$(srctree) </a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="en-US" sz="1100">
             <a:solidFill>
@@ -9068,12 +9482,81 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> 56 kbuild-file := $(if $(wildcard $(kbuild-dir)/Kbuild),$(kbuild-dir)/Kbuild,$(kbuild-dir)/Makefile)   </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>==&gt; </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>kbuild-file </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>为 obj所指向的目录下的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>Kbuild</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>或</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>Makefile</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
             <a:rPr lang="en-US" altLang="en-US" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t> 54 # The filename Kbuild has precedence over Makefile</a:t>
+            <a:t>                      ==&gt;$(kbuild-dir)/Kbuild变量展开后的这个路径下的Kbuild存在，则kbuild-file:=$(kbuild-dir)/Kbuild 否则kbuild-file:=$(kbuild-dir)/Makefile </a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="en-US" sz="1100">
             <a:solidFill>
@@ -9084,12 +9567,213 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> 57 include $(kbuild-file) </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
             <a:rPr lang="en-US" altLang="en-US" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t> 55 kbuild-dir := $(if $(filter /%,$(src)),$(src),$(srctree)/$(src))</a:t>
+            <a:t>                     </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> ==&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>本次</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>make </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>-f   $(srctree)/scripts/Makefile.build </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>执行的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>Makefile.build </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>通过这句话 在 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>包含 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>Makefile.build  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>中 包含 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>$(kbuild-file) 这个对应的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Makefile 或 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>Kbuild</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>，也就是 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t> obj所指向的目录下的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>Kbuild</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>或</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>Makefile</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="en-US" sz="1100">
             <a:solidFill>
@@ -9105,7 +9789,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>                      ==&gt;如果有$(src)值是以/开头，那么这个路径是绝对路径，不用处理，否则就加头$(srctree) </a:t>
+            <a:t>举例:这里最终会包含  arch/arm/cpu/Makefile</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="en-US" sz="1100">
             <a:solidFill>
@@ -9116,12 +9800,36 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>对于 @ make -f $(srctree)/scripts/Makefile.build obj=$@  传入的参数obj=$@ 就处理完了</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
             <a:rPr lang="en-US" altLang="en-US" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t> 56 kbuild-file := $(if $(wildcard $(kbuild-dir)/Kbuild),$(kbuild-dir)/Kbuild,$(kbuild-dir)/Makefile)  </a:t>
+            <a:t>变量 $(u-boot-dirs)中包含的所有的路径 都是这么处理的</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="en-US" sz="1100">
             <a:solidFill>
@@ -9131,13 +9839,21 @@
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" altLang="en-US" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>                      ==&gt;$(kbuild-dir)/Kbuild变量展开后的这个路径下的Kbuild存在，则kbuild-file:=$(kbuild-dir)/Kbuild 否则kbuild-file:=$(kbuild-dir)/Makefile </a:t>
+            <a:t>@ make -f $(srctree)/scripts/Makefile.build obj=$@  </a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="en-US" sz="1100">
             <a:solidFill>
@@ -9153,7 +9869,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t> 57 include $(kbuild-file) </a:t>
+            <a:t>     ==&gt; 这个命令只是指定了一个Makefile 并只传入了一个参数，没有指定要编译的对象名称</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="en-US" sz="1100">
             <a:solidFill>
@@ -9169,7 +9885,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>                      ==&gt;包含 $(kbuild-file) 这个对应的文件</a:t>
+            <a:t>         我们可以研究下 Makefile.build 这个makefile在没有传入编译目标时的默认对象是哪个？</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="en-US" sz="1100">
             <a:solidFill>
@@ -9185,7 +9901,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>举例:这里最终会包含  arch/arm/cpu/Makefile</a:t>
+            <a:t>         也就是说这个命令也就是只要做的是通过这个Makefile来处理这个参数即可，因为没有需要编译的实际对象</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="en-US" sz="1100">
             <a:solidFill>
@@ -9196,12 +9912,12 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>对于 @ make -f $(srctree)/scripts/Makefile.build obj=$@  传入的参数obj=$@ 就处理完了</a:t>
+            <a:rPr lang="en-US" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>         </a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="en-US" sz="1100">
             <a:solidFill>
@@ -9211,6 +9927,14 @@
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Makefile.build 这个makefile在没有传入编译目标时的默认对象是哪个？  </a:t>
+          </a:r>
           <a:endParaRPr lang="en-US" altLang="en-US" sz="1100">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
@@ -9225,7 +9949,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>变量 $(u-boot-dirs)中包含的所有的路径 都是这么处理的</a:t>
+            <a:t>Makefile里面可以包含多个目标，如果你在make时没有指定编译哪个，会默认编译默认目标。一般Makefile中第一个定义的目标就是默认目标</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="en-US" sz="1100">
             <a:solidFill>
@@ -9235,6 +9959,14 @@
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>我们去看Makefile.build，他的第一个目标作为默认目标</a:t>
+          </a:r>
           <a:endParaRPr lang="en-US" altLang="en-US" sz="1100">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
@@ -9249,7 +9981,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>@ make -f $(srctree)/scripts/Makefile.build obj=$@  </a:t>
+            <a:t> 17 PHONY := __build</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="en-US" sz="1100">
             <a:solidFill>
@@ -9265,7 +9997,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>     ==&gt; 这个命令只是指定了一个Makefile 并只传入了一个参数，没有指定要编译的对象名称</a:t>
+            <a:t> 18 __build:</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="en-US" sz="1100">
             <a:solidFill>
@@ -9275,13 +10007,21 @@
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" altLang="en-US" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>         我们可以研究下 Makefile.build 这个makefile在没有传入编译目标时的默认对象是哪个？</a:t>
+            <a:t>114 __build: $(if $(KBUILD_BUILTIN),$(builtin-target) $(lib-target) $(extra-y)) \</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="en-US" sz="1100">
             <a:solidFill>
@@ -9297,7 +10037,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>         也就是说这个命令也就是只要做的是通过这个Makefile来处理这个参数即可，因为没有需要编译的实际对象</a:t>
+            <a:t>115          $(if $(KBUILD_MODULES),$(obj-m) $(modorder-target)) \</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="en-US" sz="1100">
             <a:solidFill>
@@ -9313,7 +10053,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>         </a:t>
+            <a:t>116          $(subdir-ym) $(always)</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="en-US" sz="1100">
             <a:solidFill>
@@ -9329,7 +10069,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>Makefile.build 这个makefile在没有传入编译目标时的默认对象是哪个？  </a:t>
+            <a:t>117         @:</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="en-US" sz="1100">
             <a:solidFill>
@@ -9345,7 +10085,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>Makefile里面可以包含多个目标，如果你在make时没有指定编译哪个，会默认编译默认目标。一般Makefile中第一个定义的目标就是默认目标</a:t>
+            <a:t>456 .PHONY: $(PHONY)</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="en-US" sz="1100">
             <a:solidFill>
@@ -9355,13 +10095,21 @@
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" altLang="en-US" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>我们去看Makefile.build，他的第一个目标作为默认目标</a:t>
+            <a:t>小结一下：    </a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="en-US" sz="1100">
             <a:solidFill>
@@ -9372,158 +10120,14 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> 17 PHONY := __build</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> 18 __build:</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>114 __build: $(if $(KBUILD_BUILTIN),$(builtin-target) $(lib-target) $(extra-y)) \</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>115          $(if $(KBUILD_MODULES),$(obj-m) $(modorder-target)) \</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>116          $(subdir-ym) $(always)</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>117         @:</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>456 .PHONY: $(PHONY)</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>小结一下：    </a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="en-US" sz="1100" b="1">
+            <a:rPr lang="en-US" altLang="en-US" sz="1200" b="1">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
             <a:t>    $(Q) $(MAKE) $(build)=xxxx  ==&gt; @ make -f $(srctree)/scripts/Makefile.build obj=xxxx</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100" b="1">
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1200" b="1">
             <a:solidFill>
               <a:srgbClr val="FF0000"/>
             </a:solidFill>
@@ -9532,14 +10136,14 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="en-US" sz="1100" b="1">
+            <a:rPr lang="en-US" altLang="en-US" sz="1200" b="1">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
             <a:t>    比如 $(Q) make -f $(srctree)/scripts/Makefile.build obj=arch/arm/cpu</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100" b="1">
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1200" b="1">
             <a:solidFill>
               <a:srgbClr val="FF0000"/>
             </a:solidFill>
@@ -9548,17 +10152,233 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>    这类操作的效果就是 包含 xxxx 目录下的Kbuild或者Makefile</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100" b="1">
+            <a:rPr lang="en-US" altLang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>    这类操作的效果就是 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>执行</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>Makefile.build </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>， </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>Makefile.build </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>中包含了 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>obj所指向的目录下的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>Kbuild</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>或</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>Makefile</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>, 所以这句话的最终效果也就是相当于执行到了 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>包含了 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>obj所指向的目录下的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>Kbuild</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>或</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>Makefile</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>Makefile.build</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>， 也就是  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>obj所指向的目录下的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>Kbuild</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>或</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>Makefile </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>得以执行使用了</a:t>
+          </a:r>
+          <a:endParaRPr lang="" altLang="en-US" sz="1200" b="1">
             <a:solidFill>
               <a:srgbClr val="FF0000"/>
             </a:solidFill>
+            <a:sym typeface="+mn-ea"/>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
@@ -13115,18 +13935,18 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
+            <a:rPr lang="en-US" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:sym typeface="+mn-ea"/>
             </a:rPr>
             <a:t>prepare   </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="en-US">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
+            <a:rPr lang="en-US" altLang="en-US" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:sym typeface="+mn-ea"/>
             </a:rPr>
@@ -13347,18 +14167,42 @@
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t> 548         $(Q)$(MAKE) -f $(srctree)/Makefile syncconfig </a:t>
+            <a:t> 548       </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="1">
               <a:solidFill>
+                <a:srgbClr val="13742F"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="60045B"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> $(Q)$(MAKE) -f $(srctree)/Makefile syncconfig</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="13742F"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
                 <a:srgbClr val="1D41D5"/>
               </a:solidFill>
             </a:rPr>
             <a:t>==&gt; </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="" altLang="en-US" sz="1100" b="1">
+            <a:rPr lang="en-US" altLang="en-US" sz="1100" b="1">
               <a:solidFill>
                 <a:srgbClr val="1D41D5"/>
               </a:solidFill>
@@ -21172,16 +22016,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>163195</xdr:colOff>
       <xdr:row>220</xdr:row>
       <xdr:rowOff>199390</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>838835</xdr:colOff>
-      <xdr:row>224</xdr:row>
-      <xdr:rowOff>45085</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>242</xdr:row>
+      <xdr:rowOff>155575</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -21190,8 +22034,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2514600" y="44204890"/>
-          <a:ext cx="1914525" cy="645795"/>
+          <a:off x="1839595" y="44204890"/>
+          <a:ext cx="2589530" cy="4356735"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -21358,6 +22202,185 @@
           <a:r>
             <a:rPr lang="en-US" altLang="en-US" sz="1100"/>
             <a:t>menuconfig</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>【make xxx -nw 可打印出makefile 的执行makefile的过程信息】</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" b="1">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>调试内核的构建工程，最有效的办法就是</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="C00000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" b="1">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>1：放开 $(Q) 的 配置，让每一条执行的命令都回显</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="C00000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" b="1">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>2：在每个规则中加自己的打印</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="C00000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" b="1">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>第一条很好用哦</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="C00000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>打开</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" b="1">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>KBUILD_VERBOSE </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" b="1">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>或直接屏蔽掉</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>  97 #ifeq ($(KBUILD_VERBOSE),1)           </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>  98   quiet =</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>  99   Q =</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t> 100 #else</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t> 101 #  quiet=quiet_                       </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t> 102 #  Q = @</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t> 103 #endif</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
@@ -21664,14 +22687,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>222</xdr:row>
-      <xdr:rowOff>122555</xdr:rowOff>
+      <xdr:row>224</xdr:row>
+      <xdr:rowOff>97155</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>727710</xdr:colOff>
-      <xdr:row>224</xdr:row>
-      <xdr:rowOff>97155</xdr:rowOff>
+      <xdr:colOff>727075</xdr:colOff>
+      <xdr:row>231</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
@@ -21682,13 +22705,13 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4429125" y="44528105"/>
-          <a:ext cx="1708785" cy="374650"/>
+        <a:xfrm flipV="1">
+          <a:off x="4429125" y="44902755"/>
+          <a:ext cx="1708150" cy="1480820"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 50019"/>
+            <a:gd name="adj1" fmla="val 50000"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -22449,7 +23472,7 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="" altLang="en-US" sz="1100" b="1">
+            <a:rPr lang="en-US" altLang="en-US" sz="1100" b="1">
               <a:solidFill>
                 <a:srgbClr val="13742F"/>
               </a:solidFill>
@@ -22463,16 +23486,7 @@
               </a:solidFill>
               <a:sym typeface="+mn-ea"/>
             </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" b="1">
-              <a:solidFill>
-                <a:srgbClr val="13742F"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>scripts/kconfig/mconf.</a:t>
+            <a:t> scripts/kconfig/mconf.</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="en-US" b="1">
@@ -22932,15 +23946,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>113</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>166</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>480695</xdr:colOff>
+      <xdr:row>211</xdr:row>
+      <xdr:rowOff>34290</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>123</xdr:col>
-      <xdr:colOff>220980</xdr:colOff>
-      <xdr:row>208</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
+      <xdr:colOff>348615</xdr:colOff>
+      <xdr:row>220</xdr:row>
+      <xdr:rowOff>123190</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -22949,8 +23963,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="95659575" y="33337500"/>
-          <a:ext cx="8250555" cy="8412480"/>
+          <a:off x="95787845" y="42239565"/>
+          <a:ext cx="8249920" cy="1889125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -23100,7 +24114,7 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="" altLang="en-US" b="1">
+            <a:rPr lang="en-US" altLang="en-US" b="1">
               <a:solidFill>
                 <a:srgbClr val="1D41D5"/>
               </a:solidFill>
@@ -23115,16 +24129,7 @@
               </a:solidFill>
               <a:sym typeface="+mn-ea"/>
             </a:rPr>
-            <a:t>make -f ./</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" b="1">
-              <a:solidFill>
-                <a:srgbClr val="1D41D5"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>scripts/Makefile.autoconf   </a:t>
+            <a:t>make -f ./scripts/Makefile.autoconf   </a:t>
           </a:r>
           <a:endParaRPr lang="en-US" b="1">
             <a:solidFill>
@@ -23163,30 +24168,5690 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>107</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>161</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>106</xdr:col>
+      <xdr:colOff>485457</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>77152</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>113</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>167</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>480377</xdr:colOff>
+      <xdr:row>215</xdr:row>
+      <xdr:rowOff>173672</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="76" name="Elbow Connector 75"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="74" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipV="1">
+          <a:off x="87506810" y="34898330"/>
+          <a:ext cx="10697845" cy="5862320"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304165</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>539750</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>163195</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="75" name="Text Box 74"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4733290" y="18240375"/>
+          <a:ext cx="6455410" cy="2325370"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>		</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="1D41D5"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>顶层Makefile(./u-boot/Makefile) </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="1D41D5"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>【编译前准备】</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="1D41D5"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>			</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="1100"/>
+            <a:t> 261 # set default to nothing for native builds              		</a:t>
+          </a:r>
+          <a:endParaRPr lang="" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="1100"/>
+            <a:t> 262 ifeq ($(HOSTARCH),$(ARCH))                    		</a:t>
+          </a:r>
+          <a:endParaRPr lang="" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="1100"/>
+            <a:t> 263 CROSS_COMPILE ?=                    		</a:t>
+          </a:r>
+          <a:endParaRPr lang="" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="1100"/>
+            <a:t> 264 endif                         		</a:t>
+          </a:r>
+          <a:endParaRPr lang="" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="1100"/>
+            <a:t> 265		</a:t>
+          </a:r>
+          <a:endParaRPr lang="" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="1100"/>
+            <a:t> 266 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>export CROSS_COMPILE=arm-hpsp-linux-gnueabi-	 【指定工具链】</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="1100"/>
+            <a:t>	</a:t>
+          </a:r>
+          <a:endParaRPr lang="" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="1100"/>
+            <a:t> 267		</a:t>
+          </a:r>
+          <a:endParaRPr lang="" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="1100"/>
+            <a:t> 268 KCONFIG_CONFIG  ?= .config                         		</a:t>
+          </a:r>
+          <a:endParaRPr lang="" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="1100"/>
+            <a:t> 269 export KCONFIG_CONFIG  		</a:t>
+          </a:r>
+          <a:endParaRPr lang="" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>306070</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>196215</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>303530</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="80" name="Elbow Connector 79"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="0"/>
+          <a:endCxn id="75" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="883920" y="21335365"/>
+          <a:ext cx="5785485" cy="1911985"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>113</xdr:col>
+      <xdr:colOff>388620</xdr:colOff>
+      <xdr:row>167</xdr:row>
+      <xdr:rowOff>110490</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>123</xdr:col>
+      <xdr:colOff>254635</xdr:colOff>
+      <xdr:row>209</xdr:row>
+      <xdr:rowOff>26035</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="81" name="Text Box 80"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="95695770" y="33514665"/>
+          <a:ext cx="8248015" cy="8316595"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" b="1">
+              <a:solidFill>
+                <a:srgbClr val="1D41D5"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>make -f ./Makefile syncconfig </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" b="1">
+              <a:solidFill>
+                <a:srgbClr val="60045B"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t> $(Q)$(MAKE) -f $(srctree)/Makefile syncconfig   </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" b="1">
+              <a:solidFill>
+                <a:srgbClr val="60045B"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>==&gt; </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" b="1">
+              <a:solidFill>
+                <a:srgbClr val="60045B"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>syncconfig </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" b="1">
+              <a:solidFill>
+                <a:srgbClr val="60045B"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>对应的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" b="1">
+              <a:solidFill>
+                <a:srgbClr val="60045B"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>执行流程查了很久，发现所有的makefile中都没有这个目标，后来通过make xxx -nw的调试方式，查看</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" b="1">
+              <a:solidFill>
+                <a:srgbClr val="60045B"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>$(MAKE) -f $(srctree)/Makefile syncconfig  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" b="1">
+              <a:solidFill>
+                <a:srgbClr val="60045B"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>的执行过程打印信息，才发现了线索</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>hpsp@hpsp-B85M-D3H:~/rock_space/uboot_code/hpsp_uboot/u-boot$ make syncconfig -nw</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="800">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>make: Entering directory '/home/hpsp/rock_space/uboot_code/hpsp_uboot/u-boot'</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="800">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>make -f ./scripts/Makefile.build obj=scripts/basic</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>set -e;  echo '  HOSTCC  scripts/basic/fixdep'; echo 33--&gt;;cc -Wp,-MD,scripts/basic/.fixdep.d -Wall -Wstrict-prototypes -O2 -fomit-frame-pointer    -std=gnu11     -o scripts/basic/fixdep scripts/basic/fixdep.c   ; scripts/basic/fixdep scripts/basic/.fixdep.d scripts/basic/fixdep 'echo 33--&gt;;cc -Wp,-MD,scripts/basic/.fixdep.d -Wall -Wstrict-prototypes -O2 -fomit-frame-pointer    -std=gnu11     -o scripts/basic/fixdep scripts/basic/fixdep.c   ' &gt; scripts/basic/.fixdep.tmp; rm -f scripts/basic/.fixdep.d; mv -f scripts/basic/.fixdep.tmp scripts/basic/.fixdep.cmd</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>:</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>rm -f .tmp_quiet_recordmcount</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="800">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>make -f ./scripts/Makefile.build obj=scripts/kconfig syncconfig</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>set -e;  echo '  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>HOSTCC  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>scripts/kconfig/conf.o'; echo 55 --&gt;;cc -Wp,-MD,scripts/kconfig/.conf.o.d -Wall -Wstrict-prototypes -O2 -fomit-frame-pointer    -std=gnu11     -c -o scripts/kconfig/conf.o scripts/kconfig/conf.c; scripts/basic/fixdep scripts/kconfig/.conf.o.d scripts/kconfig/conf.o 'echo 55 --&gt;;cc -Wp,-MD,scripts/kconfig/.conf.o.d -Wall -Wstrict-prototypes -O2 -fomit-frame-pointer    -std=gnu11     -c -o scripts/kconfig/conf.o scripts/kconfig/conf.c' &gt; scripts/kconfig/.conf.o.tmp; rm -f scripts/kconfig/.conf.o.d; mv -f scripts/kconfig/.conf.o.tmp scripts/kconfig/.conf.o.cmd</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>set -e;  echo '  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>YACC    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>scripts/kconfig/zconf.tab.c'; echo 222---&gt;;bison -oscripts/kconfig/zconf.tab.c -t -l scripts/kconfig/zconf.y; printf '%s\n' 'cmd_scripts/kconfig/zconf.tab.c := echo 222---&gt;;bison -oscripts/kconfig/zconf.tab.c -t -l scripts/kconfig/zconf.y' &gt; scripts/kconfig/.zconf.tab.c.cmd</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>set -e;  echo '  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>LEX     </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>scripts/kconfig/zconf.lex.c'; echo 111---&gt;;flex -oscripts/kconfig/zconf.lex.c -L scripts/kconfig/zconf.l; printf '%s\n' 'cmd_scripts/kconfig/zconf.lex.c := echo 111---&gt;;flex -oscripts/kconfig/zconf.lex.c -L scripts/kconfig/zconf.l' &gt; scripts/kconfig/.zconf.lex.c.cmd</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>set -e;  echo '  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>HOSTCC  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>scripts/kconfig/zconf.tab.o'; echo 55 --&gt;;cc -Wp,-MD,scripts/kconfig/.zconf.tab.o.d -Wall -Wstrict-prototypes -O2 -fomit-frame-pointer    -std=gnu11    -Iscripts/kconfig -c -o scripts/kconfig/zconf.tab.o scripts/kconfig/zconf.tab.c; scripts/basic/fixdep scripts/kconfig/.zconf.tab.o.d scripts/kconfig/zconf.tab.o 'echo 55 --&gt;;cc -Wp,-MD,scripts/kconfig/.zconf.tab.o.d -Wall -Wstrict-prototypes -O2 -fomit-frame-pointer    -std=gnu11    -Iscripts/kconfig -c -o scripts/kconfig/zconf.tab.o scripts/kconfig/zconf.tab.c' &gt; scripts/kconfig/.zconf.tab.o.tmp; rm -f scripts/kconfig/.zconf.tab.o.d; mv -f scripts/kconfig/.zconf.tab.o.tmp scripts/kconfig/.zconf.tab.o.cmd</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>set -e;  echo '  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>HOSTLD  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>scripts/kconfig/conf'; echo 44--&gt;;cc   -o scripts/kconfig/conf scripts/kconfig/conf.o scripts/kconfig/zconf.tab.o   ; printf '%s\n' 'cmd_scripts/kconfig/conf := echo 44--&gt;;cc   -o scripts/kconfig/conf scripts/kconfig/conf.o scripts/kconfig/zconf.tab.o   ' &gt; scripts/kconfig/.conf.cmd</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>scripts/kconfig/conf  --syncconfig Kconfig </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="1000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="1D41D5"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>[这里可以看出来，其实最后是编译生成了一个可执行文件</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="1D41D5"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>scripts/kconfig/conf </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="1000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="1D41D5"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>， </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="1D41D5"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t> --syncconfig Kconfig</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="1000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="1D41D5"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>为传给这个应用程序的参数</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="1000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="1D41D5"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> ，上面的步骤时生成这个执行文件的过程，那么就可以研究一下这个可执行文件</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="1D41D5"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>scripts/kconfig/conf </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="1000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="1D41D5"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>的生成过程]</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1000">
+            <a:solidFill>
+              <a:srgbClr val="1D41D5"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>make: Leaving directory '/home/hpsp/rock_space/uboot_code/hpsp_uboot/u-boot'</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>hpsp@hpsp-B85M-D3H:~/rock_space/uboot_code/hpsp_uboot/u-boot$ </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>或者是</a:t>
+          </a:r>
+          <a:endParaRPr lang="" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="" altLang="en-US" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>hpsp@hpsp-B85M-D3H:~/rock_space/uboot_code/hpsp_uboot/u-boot$ make -nw </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>make: Entering directory '/home/hpsp/rock_space/uboot_code/hpsp_uboot/u-boot'</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>HOSTCC  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>scripts/basic/fixdep</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>33</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>HOSTCC  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>scripts/kconfig/conf.o</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>55</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>YACC    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>scripts/kconfig/zconf.tab.c</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>222</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>LEX     </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>scripts/kconfig/zconf.lex.c</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>111</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>HOSTCC  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>scripts/kconfig/zconf.tab.o</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>55</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>HOSTLD  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>scripts/kconfig/conf</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>44</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>scripts/kconfig/conf  --syncconfig Kconfig</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>xxaspdkhfapiusdfai---------------&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>hhhhhaaaauuu---&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>  UPD     include/config.h</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>  CFG     u-boot.cfg</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>  GEN     include/autoconf.mk</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>  GEN     include/autoconf.mk.dep</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>110</xdr:col>
+      <xdr:colOff>836295</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>65405</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>113</xdr:col>
+      <xdr:colOff>387985</xdr:colOff>
+      <xdr:row>188</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="88" name="Group 87"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="93628845" y="31869380"/>
+          <a:ext cx="2066290" cy="5803900"/>
+          <a:chOff x="146937" y="49620"/>
+          <a:chExt cx="3246" cy="9044"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp>
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="86" name="Elbow Connector 85"/>
+          <xdr:cNvCxnSpPr>
+            <a:endCxn id="81" idx="1"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="5400000" flipV="1">
+            <a:off x="145393" y="53874"/>
+            <a:ext cx="9028" cy="551"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentConnector2">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="arrow"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp>
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="87" name="Straight Connector 86"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="146937" y="49620"/>
+            <a:ext cx="2665" cy="12"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>124</xdr:col>
+      <xdr:colOff>701675</xdr:colOff>
+      <xdr:row>206</xdr:row>
+      <xdr:rowOff>132080</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>137</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>285</xdr:row>
+      <xdr:rowOff>78740</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="89" name="Text Box 88"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="105229025" y="41337230"/>
+          <a:ext cx="10408285" cy="15748635"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" b="1">
+              <a:solidFill>
+                <a:srgbClr val="1D41D5"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>make -f ./Makefile syncconfig</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" b="1">
+              <a:solidFill>
+                <a:srgbClr val="60045B"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t> $(Q)$(MAKE) -f $(srctree)/Makefile syncconfig</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="1000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>可执行文件</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>scripts/kconfig/conf </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="1000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>的生成过程</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="1000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>，看编译过程</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>发现涉及这些关键阶段：  HOSTCC  YACC  LEX  HOSTLD 这些信息，于是去构建工程中去搜索并加了打印，就搞清了整个的执行过程</a:t>
+          </a:r>
+          <a:endParaRPr lang="" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>grep HOSTCC * -rn </a:t>
+          </a:r>
+          <a:endParaRPr lang="" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Makefile:280:HOSTCC       = cc</a:t>
+          </a:r>
+          <a:endParaRPr lang="" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Makefile:325:HOSTCC       = $(call os_x_before, 10, 5, "cc", "gcc")</a:t>
+          </a:r>
+          <a:endParaRPr lang="" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Makefile:456:export CONFIG_SHELL HOSTCC KBUILD_HOSTCFLAGS CROSS_COMPILE AS LD CC</a:t>
+          </a:r>
+          <a:endParaRPr lang="" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>scripts/Kbuild.include:125:hostcc-option = $(call __cc-option, $(HOSTCC),\</a:t>
+          </a:r>
+          <a:endParaRPr lang="" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>scripts/Makefile.host:91:quiet_cmd_host-csingle 	= HOSTCC  $@</a:t>
+          </a:r>
+          <a:endParaRPr lang="" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>scripts/Makefile.host:92:      cmd_host-csingle	= echo 33;$(HOSTCC) $(hostc_flags) -o $@ $&lt; \</a:t>
+          </a:r>
+          <a:endParaRPr lang="" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>scripts/Makefile.host:100:      cmd_host-cmulti	= echo 44;$(HOSTCC) $(KBUILD_HOSTLDFLAGS) -o $@ \</a:t>
+          </a:r>
+          <a:endParaRPr lang="" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>scripts/Makefile.host:109:quiet_cmd_host-cobjs	= HOSTCC  $@</a:t>
+          </a:r>
+          <a:endParaRPr lang="" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>scripts/Makefile.host:110:      cmd_host-cobjs	= echo 55;$(HOSTCC) $(hostc_flags) -c -o $@ $&lt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>scripts/Makefile.host:133:quiet_cmd_host-cshobjs	= HOSTCC  -fPIC $@</a:t>
+          </a:r>
+          <a:endParaRPr lang="" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>scripts/Makefile.host:134:      cmd_host-cshobjs	= echo 66 --&gt;;$(HOSTCC) $(hostc_flags) -fPIC -c -o $@ $&lt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>scripts/Makefile.host:151:      cmd_host-cshlib	= echo 77 --&gt;;$(HOSTCC) $(HOSTLDFLAGS) -shared -o $@ \</a:t>
+          </a:r>
+          <a:endParaRPr lang="" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>scripts/dtc/pylibfdt/Makefile:18:		CC="$(HOSTCC)" LDSHARED="$(HOSTCC) -shared " \</a:t>
+          </a:r>
+          <a:endParaRPr lang="" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="60045B"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="60045B"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>所以</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" b="1">
+              <a:solidFill>
+                <a:srgbClr val="60045B"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" b="1">
+              <a:solidFill>
+                <a:srgbClr val="60045B"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>借助 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" b="1">
+              <a:solidFill>
+                <a:srgbClr val="60045B"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>$(Q)$(MAKE) -f $(srctree)/Makefile syncconfig   </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" b="1">
+              <a:solidFill>
+                <a:srgbClr val="60045B"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>make -f ./Makefile syncconfig </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" b="1">
+              <a:solidFill>
+                <a:srgbClr val="60045B"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>的 过程信息 ，研究make 整个工程时生成</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="60045B"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>scripts/kconfig/conf </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="1000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="60045B"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" b="1">
+              <a:solidFill>
+                <a:srgbClr val="60045B"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" b="1">
+              <a:solidFill>
+                <a:srgbClr val="60045B"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>步骤如下： </a:t>
+          </a:r>
+          <a:endParaRPr lang="" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>step1: 使用顶层的Makefile 进行编译 ，看上面的流程图，一层层依赖后会执行到 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" b="1">
+              <a:solidFill>
+                <a:srgbClr val="60045B"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>$(Q)$(MAKE) -f $(srctree)/Makefile syncconfig </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" b="1">
+              <a:solidFill>
+                <a:srgbClr val="60045B"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>==&gt; </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" b="1">
+              <a:solidFill>
+                <a:srgbClr val="60045B"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>make -f ./Makefile syncconfig</a:t>
+          </a:r>
+          <a:endParaRPr lang="" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="60045B"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>顶层的Makefile</a:t>
+          </a:r>
+          <a:endParaRPr lang="" altLang="en-US" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>596 include/config/%.conf: $(KCONFIG_CONFIG) include/config/auto.conf.cmd</a:t>
+          </a:r>
+          <a:endParaRPr lang="" altLang="en-US" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>597         $(Q)$(MAKE)   -f  $(srctree)/Makefile syncconfig</a:t>
+          </a:r>
+          <a:endParaRPr lang="" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>step2: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" b="1">
+              <a:solidFill>
+                <a:srgbClr val="60045B"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>make -f  ./Makefile   syncconfig  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" b="1">
+              <a:solidFill>
+                <a:srgbClr val="60045B"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>==&gt; </a:t>
+          </a:r>
+          <a:endParaRPr lang="" altLang="en-US" b="1">
+            <a:solidFill>
+              <a:srgbClr val="60045B"/>
+            </a:solidFill>
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="60045B"/>
+            </a:solidFill>
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="60045B"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>u-boot/scripts/kconfig/Makefile: </a:t>
+          </a:r>
+          <a:endParaRPr lang="" altLang="en-US" sz="800" b="1">
+            <a:solidFill>
+              <a:srgbClr val="60045B"/>
+            </a:solidFill>
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t> 70 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>simple-targets</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t> := oldconfig allnoconfig allyesconfig allmodconfig \</a:t>
+          </a:r>
+          <a:endParaRPr lang="" altLang="en-US" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t> 71         alldefconfig randconfig listnewconfig olddefconfig </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>syncconfig</a:t>
+          </a:r>
+          <a:endParaRPr lang="" altLang="en-US" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t> 72 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>PHONY += $(simple-targets)    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>         </a:t>
+          </a:r>
+          <a:endParaRPr lang="" altLang="en-US" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t> 73         </a:t>
+          </a:r>
+          <a:endParaRPr lang="" altLang="en-US" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t> 74 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>$(simple-targets): $(obj)/conf     ==&gt; </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>$(obj)/conf  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>为 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>scripts/kconfig/conf</a:t>
+          </a:r>
+          <a:endParaRPr lang="" altLang="en-US" sz="800" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t> 75         @echo test-----111222          </a:t>
+          </a:r>
+          <a:endParaRPr lang="" altLang="en-US" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t> 76         @echo $&lt; $(silent) --$@ $(Kconfig) </a:t>
+          </a:r>
+          <a:endParaRPr lang="" altLang="en-US" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t> 77         </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>$&lt; $(silent) --$@ $(Kconfig) ==&gt; scripts/kconfig/conf  --syncconfig Kconfig</a:t>
+          </a:r>
+          <a:endParaRPr lang="" altLang="en-US" sz="800" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="" altLang="en-US" sz="800" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="" altLang="en-US" sz="800" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="" altLang="en-US" sz="800" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>顶层Makefile中是如何包含或执行</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>到</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>u-boot/scripts/kconfig/Makefile</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>中的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>syncconfig</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>？？ </a:t>
+          </a:r>
+          <a:endParaRPr lang="" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="1D41D5"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>==&gt; 调试方法：放开</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="1D41D5"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>$(Q) 的回显 或 直接 加打印 后 编译过程打印如下</a:t>
+          </a:r>
+          <a:endParaRPr lang="" altLang="en-US" sz="800" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="" altLang="en-US" sz="800" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>顶层Makefile 放开回显与添加打印后，如下</a:t>
+          </a:r>
+          <a:endParaRPr lang="" altLang="en-US" sz="800" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t> 564 config: scripts_basic outputmakefile FORCE</a:t>
+          </a:r>
+          <a:endParaRPr lang="" altLang="en-US" sz="800" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t> 565         echo config ---&gt; 1111</a:t>
+          </a:r>
+          <a:endParaRPr lang="" altLang="en-US" sz="800" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t> 566         $(Q)$(MAKE) $(build)=scripts/kconfig $@</a:t>
+          </a:r>
+          <a:endParaRPr lang="" altLang="en-US" sz="800" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t> 567 </a:t>
+          </a:r>
+          <a:endParaRPr lang="" altLang="en-US" sz="800" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="60045B"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t> 568 %config:   scripts_basic   outputmakefile FORCE</a:t>
+          </a:r>
+          <a:endParaRPr lang="" altLang="en-US" sz="800" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t> 569         echo xxxconfig:$@---&gt; 2222</a:t>
+          </a:r>
+          <a:endParaRPr lang="" altLang="en-US" sz="800" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t> 570         $(Q)$(MAKE) $(build)=scripts/kconfig $@  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="13742F"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>==&gt; </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="13742F"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>s</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="13742F"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>yncconfig </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="13742F"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>首先会被</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="13742F"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>%config </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="13742F"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>这条规则处理</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="13742F"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>, 执行 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="13742F"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>$(Q)$(MAKE) $(build)=scripts/kconfig $@ </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="800" b="1">
+            <a:solidFill>
+              <a:srgbClr val="13742F"/>
+            </a:solidFill>
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="13742F"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>                                                                                     </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="13742F"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>==&gt; </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>也就是 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>make -f ./scripts/Makefile.build obj=scripts/kconfig syncconfig </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>【用回显法可以打印出执行命令来】</a:t>
+          </a:r>
+          <a:endParaRPr lang="" altLang="en-US" sz="800" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="" altLang="en-US" sz="800" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="" altLang="en-US" sz="800" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>hpsp@hpsp-B85M-D3H:~/rock_space/uboot_code/hpsp_uboot/u-boot$ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>make</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="" altLang="en-US" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>make -f ./Makefile syncconfig</a:t>
+          </a:r>
+          <a:endParaRPr lang="" altLang="en-US" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>make -f ./scripts/Makefile.build obj=scripts/basic</a:t>
+          </a:r>
+          <a:endParaRPr lang="" altLang="en-US" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>  echo 33;cc -Wp,-MD,scripts/basic/.fixdep.d -Wall -Wstrict-prototypes -O2 -fomit-frame-pointer    -std=gnu11     -o scripts/basic/fixdep scripts/basic/fixdep.c   </a:t>
+          </a:r>
+          <a:endParaRPr lang="" altLang="en-US" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>33</a:t>
+          </a:r>
+          <a:endParaRPr lang="" altLang="en-US" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>rm -f .tmp_quiet_recordmcount</a:t>
+          </a:r>
+          <a:endParaRPr lang="" altLang="en-US" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>echo xxxconfig:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>syncconfig</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>---&gt; 2222   </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>==&gt; 原来如此：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>s</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>yncconfig </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>首先会被</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>%config </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>这条规则处理，哈哈哈..... 还是要用有效的调试方法才能事半功倍阿.......  那就都通了阿..... </a:t>
+          </a:r>
+          <a:endParaRPr lang="" altLang="en-US" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>make -f ./scripts/Makefile.build obj=scripts/kconfig syncconfig</a:t>
+          </a:r>
+          <a:endParaRPr lang="" altLang="en-US" sz="800" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>  echo 55;cc -Wp,-MD,scripts/kconfig/.conf.o.d -Wall -Wstrict-prototypes -O2 -fomit-frame-pointer    -std=gnu11     -c -o scripts/kconfig/conf.o scripts/kconfig/conf.c</a:t>
+          </a:r>
+          <a:endParaRPr lang="" altLang="en-US" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>55</a:t>
+          </a:r>
+          <a:endParaRPr lang="" altLang="en-US" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>  echo 222;bison -oscripts/kconfig/zconf.tab.c -t -l scripts/kconfig/zconf.y</a:t>
+          </a:r>
+          <a:endParaRPr lang="" altLang="en-US" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>222</a:t>
+          </a:r>
+          <a:endParaRPr lang="" altLang="en-US" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>  echo 111;flex -oscripts/kconfig/zconf.lex.c -L scripts/kconfig/zconf.l</a:t>
+          </a:r>
+          <a:endParaRPr lang="" altLang="en-US" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>111</a:t>
+          </a:r>
+          <a:endParaRPr lang="" altLang="en-US" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>  echo 55;cc -Wp,-MD,scripts/kconfig/.zconf.tab.o.d -Wall -Wstrict-prototypes -O2 -fomit-frame-pointer    -std=gnu11    -Iscripts/kconfig -c -o scripts/kconfig/zconf.tab.o scripts/kconfig/zconf.tab.c</a:t>
+          </a:r>
+          <a:endParaRPr lang="" altLang="en-US" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>55</a:t>
+          </a:r>
+          <a:endParaRPr lang="" altLang="en-US" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>  echo 44;cc   -o scripts/kconfig/conf scripts/kconfig/conf.o scripts/kconfig/zconf.tab.o   </a:t>
+          </a:r>
+          <a:endParaRPr lang="" altLang="en-US" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>44</a:t>
+          </a:r>
+          <a:endParaRPr lang="" altLang="en-US" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>test-----111222</a:t>
+          </a:r>
+          <a:endParaRPr lang="" altLang="en-US" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>scripts/kconfig/conf</a:t>
+          </a:r>
+          <a:endParaRPr lang="" altLang="en-US" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>scripts/kconfig/conf --syncconfig Kconfig</a:t>
+          </a:r>
+          <a:endParaRPr lang="" altLang="en-US" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>scripts/kconfig/conf  --syncconfig Kconfig</a:t>
+          </a:r>
+          <a:endParaRPr lang="" altLang="en-US" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>xxaspdkhfapiusdfai---------------&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="" altLang="en-US" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>hhhhhaaaauuu---&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="" altLang="en-US" sz="800" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="" altLang="en-US" sz="800" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="" altLang="en-US" sz="800" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>===&gt; 分析 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>make     -f   ./scripts/Makefile.build     obj=scripts/kconfig     syncconfig </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>【用回显法可以打印出执行命令来】</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="800" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="" altLang="en-US" sz="800" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" b="1">
+              <a:solidFill>
+                <a:srgbClr val="1D41D5"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>这里参考 《</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" b="1">
+              <a:solidFill>
+                <a:srgbClr val="1D41D5"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>公共函数说明分析</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" b="1">
+              <a:solidFill>
+                <a:srgbClr val="1D41D5"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>:   $(MAKE) $(build)=xxxxx  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" b="1">
+              <a:solidFill>
+                <a:srgbClr val="1D41D5"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>》 就可以理解了</a:t>
+          </a:r>
+          <a:endParaRPr lang="" altLang="en-US" b="1">
+            <a:solidFill>
+              <a:srgbClr val="1D41D5"/>
+            </a:solidFill>
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="" altLang="en-US" sz="800" b="1">
+            <a:solidFill>
+              <a:srgbClr val="1D41D5"/>
+            </a:solidFill>
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t> obj=scripts/kconfig </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>指向的目录是 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>cripts/kconfig</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>， 那么这次执行 的 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>-f   ./scripts/Makefile.build  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>中 包含了 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>cripts/kconfig</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>下的Makefile </a:t>
+          </a:r>
+          <a:endParaRPr lang="" altLang="en-US" sz="800" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="" altLang="en-US" sz="800" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>===&gt; 下面分析 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>cripts/kconfig</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>下的Makefile </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="800" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="" altLang="en-US" sz="800" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="60045B"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>u-boot/scripts/kconfig/Makefile: </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="800" b="1">
+            <a:solidFill>
+              <a:srgbClr val="60045B"/>
+            </a:solidFill>
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t> 70 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>simple-targets</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t> := oldconfig allnoconfig allyesconfig allmodconfig \</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t> 71         alldefconfig randconfig listnewconfig olddefconfig </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>syncconfig</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t> 72 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>PHONY += $(simple-targets)    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>         </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t> 73         </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t> 74 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>$(simple-targets): $(obj)/conf     ==&gt; </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>$(obj)/conf  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>为 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>scripts/kconfig/conf</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="800" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t> 75         @echo test-----111222          </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t> 76         @echo $&lt; $(silent) --$@ $(Kconfig) </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t> 77         </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>$&lt; $(silent) --$@ $(Kconfig) ==&gt; </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>执行可执行文件  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>scripts/kconfig/conf  --syncconfig Kconfig</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="800" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="" altLang="en-US" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="" altLang="en-US" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>===&gt; 下面分析 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>$(obj)/conf </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>$(obj)/conf  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>为 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>scripts/kconfig/conf</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>， 这个是怎么生成的呢？？</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="800" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="" altLang="en-US" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>先分析</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>./scripts/Makefile.build  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>再分析 scripts/Makefile.host  </a:t>
+          </a:r>
+          <a:endParaRPr lang="" altLang="en-US" sz="800" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>123</xdr:col>
+      <xdr:colOff>254635</xdr:colOff>
+      <xdr:row>188</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>124</xdr:col>
+      <xdr:colOff>701675</xdr:colOff>
+      <xdr:row>246</xdr:row>
+      <xdr:rowOff>5715</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="92" name="Elbow Connector 91"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="81" idx="3"/>
+          <a:endCxn id="89" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="103943785" y="37673280"/>
+          <a:ext cx="1285240" cy="11538585"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>124</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>288</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>134</xdr:col>
+      <xdr:colOff>572770</xdr:colOff>
+      <xdr:row>301</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="93" name="Text Box 92"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="105232200" y="57692925"/>
+          <a:ext cx="8249920" cy="2613025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:srgbClr val="1D41D5"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>./scripts/Makefile.build</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" b="1">
+            <a:solidFill>
+              <a:srgbClr val="1D41D5"/>
+            </a:solidFill>
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> 71 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>include scripts/Makefile.lib </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>   </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> 72 </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> 73 # Do not include host rules unless needed</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> 74 ifneq ($(hostprogs-y)$(hostprogs-m)$(hostlibs-y)$(hostlibs-m)$(hostcxxlibs-y)$(hostcxxlibs-m),)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> 75 include scripts/Makefile.host   </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> 76 endif </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t> obj=scripts/kconfig </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>指向的目录是 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>cripts/kconfig</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>， </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="800" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>那么这次执行 的 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:srgbClr val="13742F"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>-f   </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:srgbClr val="13742F"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>./scrip</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" b="1">
+              <a:solidFill>
+                <a:srgbClr val="13742F"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>ts/Makefile.build  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" b="1">
+              <a:solidFill>
+                <a:srgbClr val="13742F"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>中 包含了 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" b="1">
+              <a:solidFill>
+                <a:srgbClr val="13742F"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" b="1">
+              <a:solidFill>
+                <a:srgbClr val="13742F"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>s</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" b="1">
+              <a:solidFill>
+                <a:srgbClr val="13742F"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>cripts/kconfig</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" b="1">
+              <a:solidFill>
+                <a:srgbClr val="13742F"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>下的Makefile </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="en-US" b="1">
+            <a:solidFill>
+              <a:srgbClr val="13742F"/>
+            </a:solidFill>
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>128</xdr:col>
+      <xdr:colOff>710882</xdr:colOff>
+      <xdr:row>283</xdr:row>
+      <xdr:rowOff>122237</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>129</xdr:col>
+      <xdr:colOff>637857</xdr:colOff>
+      <xdr:row>288</xdr:row>
+      <xdr:rowOff>84772</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="96" name="Elbow Connector 95"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="93" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipV="1">
+          <a:off x="108491655" y="56827420"/>
+          <a:ext cx="962660" cy="765175"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 626"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>135</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>288</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>145</xdr:col>
+      <xdr:colOff>382270</xdr:colOff>
+      <xdr:row>330</xdr:row>
+      <xdr:rowOff>149860</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="97" name="Text Box 96"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="114261900" y="57689750"/>
+          <a:ext cx="8249920" cy="8468360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:srgbClr val="1D41D5"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>./scripts/Makefile.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:srgbClr val="1D41D5"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>host</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" b="1">
+            <a:solidFill>
+              <a:srgbClr val="1D41D5"/>
+            </a:solidFill>
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> 24 __hostprogs := $(sort $(hostprogs-y) $(hostprogs-m))</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> 25 host-cshlib := $(sort $(hostlibs-y) $(hostlibs-m))</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> 33 # C executables linked based on several .o files</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> 34 host-cmulti     := $(foreach m,$(__hostprogs),\</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> 35                    $(if $($(m)-cxxobjs),,$(if $($(m)-objs),$(m))))</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> 41 # Object (.o) files compiled from .c files</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> 42 host-cobjs      := $(sort $(foreach m,$(__hostprogs),$($(m)-objs)))  </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> 43 </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> 57 host-cmulti     := $(addprefix $(obj)/,$(host-cmulti))</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> 58 host-cobjs      := $(addprefix $(obj)/,$(host-cobjs))</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="1D41D5"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> names := a b c d</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="1D41D5"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="1D41D5"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> files := $(foreach n,$(names),$(n).o)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="1D41D5"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="1D41D5"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>上面的例子中，$(name)中的单词会被挨个取出，并存到变量“n”中，“$(n).o”每次根据“$(n)”计算出一个值，这些值以空格分隔，最后作为foreach函数的返回，所以，$(files)的值是“a.o b.o c.o d.o”</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>110 quiet_cmd_host-cobjs    = HOSTCC  $@</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>111       cmd_host-cobjs    = echo 66655;$(HOSTCC) $(hostc_flags) -c -o $@ $&lt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>112 $(host-cobjs): $(obj)/%.o: $(src)/%.c FORCE  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>==&gt; C文件进行编译得到.o文件</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>113         echo xxxxxxxxxxxxxxxxxxxxxxxhost-cobjs==&gt; $@ </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>114         $(call if_changed_dep,host-cobjs)   </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>$(host-cobjs)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>的值打印如下：</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>echo xxxxxxxxxxxxxxxxxxxxxxxhost-cobjs:scripts/kconfig/conf.o scripts/kconfig/gconf.o scripts/kconfig/lxdialog/checklist.o scripts/kconfig/lxdialog/inputbox.o scripts/kconfig/lxdialog/menubox.o scripts/kconfig/lxdialog/textbox.o scripts/kconfig/lxdialog/util.o scripts/kconfig/lxdialog/yesno.o scripts/kconfig/mconf.o scripts/kconfig/nconf.gui.o scripts/kconfig/nconf.o scripts/kconfig/zconf.tab.o</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> 97 # Link an executable based on list of .o files, all plain c</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> 98 # host-cmulti -&gt; executable</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> 99 quiet_cmd_host-cmulti   = HOSTLD  $@</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>100       cmd_host-cmulti   = echo 44;$(HOSTCC) $(KBUILD_HOSTLDFLAGS) -o $@ \</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>101                           $(addprefix $(obj)/,$($(@F)-objs)) \</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>102                           $(KBUILD_HOSTLDLIBS) $(HOSTLDLIBS_$(@F))</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>103 $(host-cmulti): FORCE</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>104         echo xxxxexefile--&gt;$@ </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>105         $(call if_changed,host-cmulti) </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>==&gt; 链接生成 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>echo xxxxexefile--&gt;scripts/kconfig/conf </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>106 $(call multi_depend, $(host-cmulti), , -objs)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>$(host-c</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>multi</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>的值打印如下：</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="en-US" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>cripts/kconfig/conf scripts/kconfig/gconf scripts/kconfig/mconf scripts/kconfig/nconf</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>128</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>295</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>135</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>303</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="98" name="Elbow Connector 97"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="90582750" y="32261175"/>
-          <a:ext cx="5057775" cy="1285875"/>
+          <a:off x="107899200" y="59016900"/>
+          <a:ext cx="6372225" cy="1695450"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 90872"/>
+            <a:gd name="adj1" fmla="val 93502"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -23471,10 +30136,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B118:CA154"/>
+  <dimension ref="B118:CA160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="DB153" workbookViewId="0">
-      <selection activeCell="DK166" sqref="DK166"/>
+    <sheetView tabSelected="1" topLeftCell="DB208" workbookViewId="0">
+      <selection activeCell="DL233" sqref="DL233"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75"/>
@@ -24022,6 +30687,9 @@
       <c r="M154" s="1"/>
       <c r="N154" s="1"/>
     </row>
+    <row r="160" spans="6:6">
+      <c r="F160" s="8"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/uboot_compile_framework.xlsx
+++ b/uboot_compile_framework.xlsx
@@ -4,21 +4,23 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27720" windowHeight="12450" activeTab="1"/>
+    <workbookView windowWidth="26895" windowHeight="12450" tabRatio="890" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="uboot 编译顶层流程分析" sheetId="1" r:id="rId1"/>
     <sheet name="顶层Makefile分析" sheetId="5" r:id="rId2"/>
     <sheet name="u-boot-scripts-Makefile.build分析" sheetId="2" r:id="rId3"/>
-    <sheet name="$(MAKE) $(build)=xxxxx  机制分析" sheetId="3" r:id="rId4"/>
-    <sheet name="$(call  xxx,  xxx) 机制分析" sheetId="4" r:id="rId5"/>
+    <sheet name="Kconfig规则 以及与 makefile .config " sheetId="7" r:id="rId4"/>
+    <sheet name="$(MAKE) $(build)=xxxxx  机制分析" sheetId="3" r:id="rId5"/>
+    <sheet name="$(call  xxx,  xxx) 机制分析" sheetId="4" r:id="rId6"/>
+    <sheet name="Makefile语法规则讲解" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2371" uniqueCount="1905">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2626" uniqueCount="2133">
   <si>
     <t>...</t>
   </si>
@@ -240,6 +242,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t># Use '</t>
     </r>
     <r>
@@ -511,6 +520,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve"># Use </t>
     </r>
     <r>
@@ -694,7 +710,20 @@
     <t>export   CROSS_COMPILE=arm-hpsp-linux-gnueabi-    ==&gt; 要指定编译器</t>
   </si>
   <si>
-    <t>KCONFIG_CONFIG ?= .config  ==&gt;  ?= 是如果没有被赋值过就赋予等号后面的值, 这里的KCONFIG_CONFIG  就赋值为  .config</t>
+    <r>
+      <t>KCONFIG_CONFIG</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ?= .config  ==&gt;  ?= 是如果没有被赋值过就赋予等号后面的值, 这里的KCONFIG_CONFIG  就赋值为  .config</t>
+    </r>
   </si>
   <si>
     <t>export    KCONFIG_CONFIG</t>
@@ -5935,18 +5964,1590 @@
   <si>
     <t>$(shell mkdir -p $(obj-dirs))</t>
   </si>
+  <si>
+    <t>﻿【参考 《uboot 编译顶层流程分析》--&gt; make menuconfig 的流程分析】</t>
+  </si>
+  <si>
+    <t>当我们执行make menuconfig后，肯定会执行Makefile，那么我们打开Makefile文件来寻找menuconfig这个目标，但是是搜索不到的，这里有个技巧，我们使用%config来搜索，%是通配符的意思，会搜索到相关目标：</t>
+  </si>
+  <si>
+    <t>       那么我们就会看到，绘制图形和解析这个界面的文件都会在scripts/kconfig目录下面，比较重要的文件有mconf.c和lxdialog目录。如果感兴趣的话可以研究，这里就不详细说明了。</t>
+  </si>
+  <si>
+    <r>
+      <t>       当执行Make menuconfig后会由autoconfig工具（脚本）生成一个配置文件config.in文件，这个脚本会</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFC0404"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>将Kconfig中的使用 CONFIG定义的变量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(eg: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFC0404"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CONFIG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9966FF"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MODULE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)转换为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9966FF"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CONFIG_XX</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(eg:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9966FF"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CONFIG_MODULE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>),并且将选择的属性赋值给这个新变量 CONFIG_XX = y 或者 CONFIG_XX = m 或者 CONFIG_XX = n   eg： CONFIG_MODULE = y</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>      配置完成生成这个.config文件后，在编译的时候会层层调用到我们这一级的Makefile去编译，此时我们的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFC0404"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Makefile会自动的读取我们当前目录的.config文件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 从而获取这个 obj-$(CONFIG_MODULE) += mydriver.o  CONFIG_MODULE 的变量的属性，这样就很方便，每次编译之前通过图形界面就可以配置一次，然后再编译 所以Makefile中的变量是要和.config中的这个值保持一致</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>     通</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFC0404"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>过Kconfig控制我们的程序中（.c中）的宏的开启;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>有的时候我们希望在程序中使用一些宏来控制我们的程序，但我们希望这个宏不是在驱动本地被定义，最好是作为一种半自动化的，不需要我们在本地去开启关闭这个宏。 大概有两种思路：</t>
+    </r>
+  </si>
+  <si>
+    <t>              1.在makefile中向程序传入这个值。</t>
+  </si>
+  <si>
+    <t>              2.使用kconfig来向程序中传入这个值。</t>
+  </si>
+  <si>
+    <t>    这里我们总结下第二种即配置menuconfig的方式去关联的控制我们程序中宏的开启和关闭,使用第二种的原因是，在Kconfig中定义的宏在.c中使用的时候是全局的，在任何一个.c文件中都可以使用。</t>
+  </si>
+  <si>
+    <t>    在上面的已经知道了通过书写Kconfig来控制menuconfig的显示效果，通过配置menuconfig来生成.config文件，它的格式是：</t>
+  </si>
+  <si>
+    <t>               CONFIG_MXL331=y</t>
+  </si>
+  <si>
+    <t>                # CONFIG_SHARP_VZ7306 is not set</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFC0404"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>其实在make menuconfig的时候我们还生成了一个./include/generated/autoconf.h 文件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，它的格式是：</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9966FF"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>实际验证的时候，uboot源码树中，make menuconfig后并没有生成./include/generated/autoconf.h, make 后发现生成了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9966FF"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>make menuconfig 只生成了.config</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>                #define CONFIG_MXL331 1</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">       我想之所以能够在.c中全局的使用这个宏，就是因为生成的这个Autoconf.h文件，这个.h被很多文件层层包含成为一个全局的文件安。 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFC0404"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>例如在配置完Kconfig文件后，生成的.config文件中 CONFIG_MXL331=y 和Autoconf.h中 #define CONFIG_MXL331 1 我们就可以在任意的.c中使用</t>
+    </r>
+  </si>
+  <si>
+    <t>？？？？ ==&gt; 有个问题？主Makefile中哪里包含了.config文件，也就是主Makefile在哪里引入的这些宏配置变量到主Makefile内部使用？</t>
+  </si>
+  <si>
+    <t>使用Kconfig时,需要注意的地方</t>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>在</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Kconfig</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>中定义的配置宏,前缀都没有</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"CONFIG_"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,只有编译内核时,自动生成</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>autoconf.h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>才会出现前缀.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>如果</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>XX_defconfig</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>板卡配置文件中定义新的宏=y时,而在Kconfig并</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>没有声明它</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,则内核编译出来的autoconf.h里</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>也不会定义它</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>如果</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>XX_defconfig</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>板卡配置文件中没有设置</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CONFIG_MODULES=y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,则编译</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>make modules</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>时</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>将会失败</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,而make menuconfig时, Kconfig中的tristate参数也会被读写为bool参数(也就是不能设置m)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">实际举例说明 </t>
+  </si>
+  <si>
+    <t>config TMPFS_POSIX_ACL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    bool "Tmpfs POSIX Access Control Lists"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    depends on TMPFS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    select GENERIC_ACL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    help</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      POSIX Access Control Lists (ACLs) support permissions for users and</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      groups beyond the owner/group/world scheme.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      To learn more about Access Control Lists, visit the POSIX ACLs for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Linux website &lt;http://acl.bestbits.at/&gt;.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      If you don't know what Access Control Lists are, say N.</t>
+  </si>
+  <si>
+    <t>解析：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   config是关键字，表示一个配置选项的开始；==&gt; config xxx 转换为CONFIG_XXX 就是.config与autoconf.h中的宏定义名称</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   紧跟着的TMPFS_POSIX_ACL是配置选项的名称，省略了前缀"CONFIG_"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   bool表示变量类型，即"CONFIG_ TMPFS_POSIX_ACL "的类型，有5种类型：bool、tristate、string、hex和int，</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   其中 tristate和string是基本的类型</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   bool变量的值：    y和n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   tristate变量的值：y、n和m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   string变量的值：  字符串</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   bool之后的字符串“Tmpfs POSIX Access Control Lists”是提示信息，</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       在配置界面中上下移动光标选中它时，就可以通过按空格或回车键来设置CONFIG_TMPFS_POSIX_ACL的值</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   depends on：表示依赖于XXX，“depends on TMPFS”表示只有当TMPFS配置选项被选中时，</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       当前配置选项的提示信息才会出现，才能设置当前配置选项</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   select :表示CONFIG_ TMPFS_POSIX_ACL被选中时，GENERIC_ACL也会被选中。</t>
+  </si>
+  <si>
+    <t>CONFIG宏变量类型</t>
+  </si>
+  <si>
+    <r>
+      <t>bool: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">     表示该CONFIG宏只能选择y(编译内核)或者n(不编译),不能选择m(编译为模块)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>tristate:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>  表示该CONFIG宏可以设置y/m/n三种模式(tristate)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>string: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">   表示该CONFIG宏可以设为一串字符,比如</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>#define CONFIG_XXX "config test"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>hex: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF800000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>     表示该CONFIG宏可以设为一个十六进制,比如</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>#define CONFIG_XXX 0x1234</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>int:   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">      表示该CONFIG宏可以设为一个整数,比如</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>#define CONFIG_XXX 1234</t>
+    </r>
+  </si>
+  <si>
+    <t>变量后常跟的参数</t>
+  </si>
+  <si>
+    <r>
+      <t>default y:  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>表示默认是勾上的,当然也可以写为default m或者default n</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>help:           </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>帮助提示信息</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>depends on:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>依赖项,比如depends on XXX 表示当前宏需要CONFIG_ XXX宏打开的前提下,才能设置它</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (注意依赖项的config参数只有bool或tristate才有效)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>select :      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>反依赖项,和depends on刚好相反,比如 selecton XXX表示当前宏如果是y或者m,则会自动设置XXX=y或者m</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(注意参数只有bool或tristate才有效)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>choice:      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>会生成一个</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>单选框</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,里面通过多选一方式选择config,需要注意choice中的config参数只能bool或tristate</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>prompt:     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>提示信息,如果对于choice而言,则会用来当做一个单选框</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>入口点的标签</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>range :      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>设置用户输入的数据范围,比如</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>range 0 100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>表示数据只能位于0~100</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>menuconfig:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> menuconfig XXX和config XXX类似,唯一不同的是该选项除了能设置y/m/n外,还可以实现菜单效果</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>能回车进入该项内部</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>示例1-创建复选框(多选多)-探索宏变量参数</t>
+  </si>
+  <si>
+    <r>
+      <t>接下来我们来试试如何给不同宏设置不同参数,以</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MY_SYMBOL1~ MY_SYMBOL5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>为例</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>设置MY_SYMBOL3~ MY_SYMBOL5</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>依赖于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MY_SYMBOL2</t>
+    </r>
+  </si>
+  <si>
+    <t>修改内核顶层Kconfig文件,添加内容:</t>
+  </si>
+  <si>
+    <t>menuconfig MY_SYMBOL_TEST    #生成一个菜单宏项</t>
+  </si>
+  <si>
+    <t>bool "MY_SYMBOL_TEST"</t>
+  </si>
+  <si>
+    <t>default y</t>
+  </si>
+  <si>
+    <t>config MY_SYMBOL1</t>
+  </si>
+  <si>
+    <t>bool "my symbol is bool"</t>
+  </si>
+  <si>
+    <t>depends on MY_SYMBOL_TEST</t>
+  </si>
+  <si>
+    <t>config MY_SYMBOL2</t>
+  </si>
+  <si>
+    <t>tristate "my symbo2 is tristate"</t>
+  </si>
+  <si>
+    <t>default m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">depends on MY_SYMBOL_TEST    </t>
+  </si>
+  <si>
+    <t>config MY_SYMBOL3</t>
+  </si>
+  <si>
+    <t>string "my symbo3 is string"</t>
+  </si>
+  <si>
+    <t>default "test symbo3"</t>
+  </si>
+  <si>
+    <t>depends on MY_SYMBOL2 &amp;&amp; MY_SYMBOL_TEST</t>
+  </si>
+  <si>
+    <t>config MY_SYMBOL4</t>
+  </si>
+  <si>
+    <t>hex "my symbo4 is hex"</t>
+  </si>
+  <si>
+    <t>range 0 0x2000                  #设置hex区间</t>
+  </si>
+  <si>
+    <t>default 0x1234</t>
+  </si>
+  <si>
+    <t>config MY_SYMBOL5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">int "my symbo5 is int" </t>
+  </si>
+  <si>
+    <t>range 0 2000                     #设置int区间</t>
+  </si>
+  <si>
+    <t>default 1234</t>
+  </si>
+  <si>
+    <t>效果如下所示:</t>
+  </si>
+  <si>
+    <r>
+      <t>如上图所示,可以看到我们设置</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF800000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>my symbol5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>超出区间</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[0,2000]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>时,直接数据报错</t>
+    </r>
+  </si>
+  <si>
+    <t>编译内核后,查看自动生成的autoconf.h,定义如下:</t>
+  </si>
+  <si>
+    <r>
+      <t>其中上面的CONFIG_MY_SYMBOL2_MODULE宏是因为我们在Kconfig设置它为default m,所以</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF800000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CONFIG_MY_SYMBOL2_MODULE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>是个模块宏.</t>
+    </r>
+  </si>
+  <si>
+    <t>示例2-通过choice创建单选框(多选一)</t>
+  </si>
+  <si>
+    <t>choice</t>
+  </si>
+  <si>
+    <t>prompt "choice example"    #作为该单选框入口点的标签</t>
+  </si>
+  <si>
+    <t>default MY_SYMBOL3         #默认选择MY_SYMBOL3配置项</t>
+  </si>
+  <si>
+    <t>bool "my symbol1 is bool"</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>MY_SYMBOL1 example</t>
+  </si>
+  <si>
+    <t>bool "my symbo2 is bool"</t>
+  </si>
+  <si>
+    <t>MY_SYMBOL2 example</t>
+  </si>
+  <si>
+    <t>tristate "my symbo3 is tristate"</t>
+  </si>
+  <si>
+    <t>MY_SYMBOL3 example</t>
+  </si>
+  <si>
+    <t>endchoice</t>
+  </si>
+  <si>
+    <t>编译内核后,查看autoconf.h,如下图所示,可以看到对于choice单选框来说,tristate属性其实并没有module功能,只有y/n</t>
+  </si>
+  <si>
+    <t>all:progl prog2 prog3</t>
+  </si>
+  <si>
+    <t>.PHONY:all</t>
+  </si>
+  <si>
+    <t>progl:progl.o utila.o</t>
+  </si>
+  <si>
+    <t>cc-o prog1 progl.o utila.o</t>
+  </si>
+  <si>
+    <t>prog2:prog2.0</t>
+  </si>
+  <si>
+    <t>cc-o prog2 prog2.o</t>
+  </si>
+  <si>
+    <t>prog3:prog3.o sort.o utils.o</t>
+  </si>
+  <si>
+    <t>cc-o prog3 prog3.o sort.o utils.o</t>
+  </si>
+  <si>
+    <t>我们知道,Makefile中的第一个日标会披作为式默认日标.我们声明丁一个"all"的份日标,其依赖于其它三个日标.</t>
+  </si>
+  <si>
+    <t>由于伪日标的特性是总是被执行的,所以其依赖的邓三个目标就总是不如"all"达个目标新.</t>
+  </si>
+  <si>
+    <t>所以,其它三个目标的规则总是会诚决议.也就达到了我们一口气生成多个目标的目的.</t>
+  </si>
+  <si>
+    <t>·PHONY:all ==&gt; 声明all 这个目标为伪目标</t>
+  </si>
+  <si>
+    <t>include FILENAMES...:make程序处理时.如果"FILENAMES"列表中的任何一个文件不能正常读取而且不存在一个创建此文件的规则时make程序将会提示错误井退出</t>
+  </si>
+  <si>
+    <t>-include FILENAMES...:通常我们在Makefile中可使用-include 来代管include,来忽略由于包合文件不存在或者无法创建时的错误提示(“-”的意思就是告诉make,忽略此操作的错误,make继续执行）</t>
+  </si>
+  <si>
+    <t>也可以侯用"ainclude"来替代"-include"(GNU所支持的方式)</t>
+  </si>
+  <si>
+    <t>1.wildcard:扩展通配符</t>
+  </si>
+  <si>
+    <t>2.notdir:去除路径</t>
+  </si>
+  <si>
+    <t>3.pataubst:普换通配符</t>
+  </si>
+  <si>
+    <t>src=$(wildcard *.c ./sub//*.c)  ==&gt; 这里本来是单/线，但是文本编译器会着色异常，所以打了两个//, 下面也是这种情况</t>
+  </si>
+  <si>
+    <t>dir=$(notdir $(src))</t>
+  </si>
+  <si>
+    <t>obj=$(patsubst %.c,%.o,$(dir))</t>
+  </si>
+  <si>
+    <t>@echo $(src)</t>
+  </si>
+  <si>
+    <t>@echo $(dir)</t>
+  </si>
+  <si>
+    <t>@echo $(obj)</t>
+  </si>
+  <si>
+    <t>@echo "end"</t>
+  </si>
+  <si>
+    <t>执行结果分析:</t>
+  </si>
+  <si>
+    <t>第一行输出:a.c b.c./sub/sa.c ./sub/sb.c ==&gt; wildcard抱指定目录./和 ·/sub/下的所有后缀是.c的文件全部展开.</t>
+  </si>
+  <si>
+    <t>第二行输出:a.c b.c sa.c ab.c notdir 把展开的文件 去除掉路径信息</t>
+  </si>
+  <si>
+    <t>第三行输出:a.o b.o sa.o ab.o</t>
+  </si>
+  <si>
+    <t>过滤函数-- fi1ter 在目标集中进行模式过滤</t>
+  </si>
+  <si>
+    <t>sources := foo.c bar.c baz.s ugh.h</t>
+  </si>
+  <si>
+    <t>foo:$(sources)</t>
+  </si>
+  <si>
+    <t>cc $(filter %.c %.s,$(sources)) -o foo</t>
+  </si>
+  <si>
+    <t>$(filter %.c %.s,$(aources))运回的值是"foo.c bar.c baz.s"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                                    </t>
+  </si>
+  <si>
+    <t>反过滤西数 filter-out.</t>
+  </si>
+  <si>
+    <t>函数功能:和"filter"西数实现的功能相反.过滤调字串"TEXT"中所有符合模式"PATTERN"的单词</t>
+  </si>
+  <si>
+    <t>sort排序井去掉相同的单词  ==&gt; 这个功能经常要用到，但是很多人不明白其中的用义，为什么要用sort对生成出来的.o 排序并去掉重复的，排序是为了编译出来的二进制文件二进制能在不同的平台编译时 或者 同一平台前后两次编译时 因为.o顺序一致从而保证编译出来的二进制是一致的</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                          这对大型产品是有要求的，比如ar 打包.o 生成.a时，如果不排除就会导致前后两次编译出来的二进制有差异，这二进制差异要分析避免出现系统的不稳定性</t>
+  </si>
+  <si>
+    <t>$(sort foo bar lose)返回"bar foo lose".</t>
+  </si>
+  <si>
+    <t>备注:sort函数会去掉list中相同的单词</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wildcard扩展通配符 ==&gt; 首先什么是通配符？通配符有哪些？ ==&gt; </t>
+  </si>
+  <si>
+    <t>makefile中可以使用的通配符有：*   ?   [...] ，用法与shell中是一样的，比如如果通配符*就是要表示字符*，不要做通配符，这时就要用转义符号\，  \*来表示</t>
+  </si>
+  <si>
+    <t xml:space="preserve">通配符展开用wildcard  </t>
+  </si>
+  <si>
+    <t>xxx=$(wildcard *.c)</t>
+  </si>
+  <si>
+    <t>在Makefile规则中,通配符会被自动展开</t>
+  </si>
+  <si>
+    <t>但在变量的定义和函数引用时,通配符将夫效，这种情况下如果需要通配符有效,就需要使用西数"wildcard",它的用法是:$(wildcard PATTERN...)</t>
+  </si>
+  <si>
+    <t>在Makefile中,它被展开为已经存在的、使用空格分开的、匹配此模式的所有文件列表.</t>
+  </si>
+  <si>
+    <t>如果不存在任何符合此模式的文件,函数会忽略模式字符井返回空</t>
+  </si>
+  <si>
+    <t>需要注意的是:这种情况下规则中通配符的展开和上一小节匹配通配符的区别</t>
+  </si>
+  <si>
+    <t>src=s(wildcard*.c./sub//*.c)</t>
+  </si>
+  <si>
+    <t>wildcard把指定日录/和·/aub/下的所有后级是c的文件全部扫出来</t>
+  </si>
+  <si>
+    <t>输出:a.c b.c ./sub/sa.c ./sub/sb.c</t>
+  </si>
+  <si>
+    <t>去空格西数一strip</t>
+  </si>
+  <si>
+    <t>$(strip &lt;string&gt;)</t>
+  </si>
+  <si>
+    <t>去掉string 字串中开头和结尾的空字符,井将中间的多个连续空字符(如果有的话)合井为一个空字符</t>
+  </si>
+  <si>
+    <t>set -e的作用是告诉BASH Shel1当生成依赖文件的过程中出现任何错误时.就直接退出.不然还会继续执行下去:</t>
+  </si>
+  <si>
+    <t>这里有个需要注意的地方:对于规则中的每个命令,make都是在一个新的Shell上运行它的.如果希塑多个命令在同一个Shell中执行.</t>
+  </si>
+  <si>
+    <t>则需要用“；”将这些命令连起来</t>
+  </si>
+  <si>
+    <t>$(if CONDITION,THEN-PART[,ELSE-PART]) ==&gt;[,ELSE-PART]是可以进择的</t>
+  </si>
+  <si>
+    <t>makefile中$(if CONDITION,THEN-PART[,ELSE-PART])</t>
+  </si>
+  <si>
+    <t>函数的条件表达式"CONDITION"决定了函数的返回值只能是"THEN-PART"政者"ELSE-PART"两个之一的计算结果.</t>
+  </si>
+  <si>
+    <t>$(if $(BUILD_DIR),$(BUILD_DIR),$(CURDIR))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      </t>
+  </si>
+  <si>
+    <t>我们知道uboot分为BLO,BL1,BL2.</t>
+  </si>
+  <si>
+    <t>其中BL0就是我们常说的ROM Code.</t>
+  </si>
+  <si>
+    <t>BL1就是我们常说的SPL1.</t>
+  </si>
+  <si>
+    <t>BL2就是我们常说的下一的uboot.</t>
+  </si>
+  <si>
+    <t>其中SPL和uboot共用一个源码体系</t>
+  </si>
+  <si>
+    <t>他们之间的产生是通过一个重票的宏CONFIG_SPL_BUILD来在源码中分开的.</t>
+  </si>
+  <si>
+    <t>$@ -- 日标文件.</t>
+  </si>
+  <si>
+    <t>$^ -- 所有的依赖文件</t>
+  </si>
+  <si>
+    <t>$&lt; -- 第一个依赖文件</t>
+  </si>
+  <si>
+    <t>$? -- 所有比目标新的依赖目标的集合.以立格分隔</t>
+  </si>
+  <si>
+    <t>$(MAKE) $(bu1ld)=  的处理过程</t>
+  </si>
+  <si>
+    <t>$(build)为在Kbuild.include文件中定义的一个变量</t>
+  </si>
+  <si>
+    <t>$(Q) $(MAKE) $(build)=$@</t>
+  </si>
+  <si>
+    <t>build使用的一般形式为:</t>
+  </si>
+  <si>
+    <t>$(MAKE) $(build)=build_dir [argv]</t>
+  </si>
+  <si>
+    <t>斜体字部分为可变目录和参数. 其中[argv]可逸.使用scripts/kuild.include文件中的$(build)变量定义,进行变量普换后,上述命令则为:</t>
+  </si>
+  <si>
+    <t>$(MAKE)-f scripts/Makefile.build obj=build_dir [argv]</t>
+  </si>
+  <si>
+    <t>Make进入由参数-f指定的Make文件scripts/Makefile.build,并传入参数obj=build_dir 和 argv</t>
+  </si>
+  <si>
+    <t>在scripts/Makef1le.bu1ld的处理过程中,传入的参数$(obj)代表此次Make命令要处理（编译、链接和生成）文件所在的目录,该目录下通常情况下都会存在的Makefile文件会被Makefile.build包含，$(obj)目录下的Makefile记为$(obj)/Makef1le. 针对Make命令,有两种:不指明Make目标和指定目标.</t>
+  </si>
+  <si>
+    <t>内置交量(Implicit Variables)</t>
+  </si>
+  <si>
+    <t>Make命令提供一系列内置交量.比如,$(CC)指向当前使用的编译器. $(MAKE)指向当前使用的Make工具</t>
+  </si>
+  <si>
+    <t>使用命令行或者图形界面配置工具,对内核 uboot进行裁剪， 生成.config配置文件</t>
+  </si>
+  <si>
+    <t>call函数是唯一一个可以创建定制化参数的的引用函数【makefile中call 就是一个函数 类似wildcard 等.只不过Makefile中的call即可以做函数引用 也可以做变量引用,比加汇编中CALL只能做函数调用】</t>
+  </si>
+  <si>
+    <t>支持对自定义函数的引用;</t>
+  </si>
+  <si>
+    <t>支持将一个变量定义为一个复杂的表达式,用call函数根据不同的参数对它进行展开来获取不同的结果</t>
+  </si>
+  <si>
+    <t>$(call VARIABLE,PARAM,PARAM,...)</t>
+  </si>
+  <si>
+    <t>在执行时,将它的参数"PARAM"依次赋给临时变量"$(1)","$(2)"  call对参数的数目没有限制,也可以没有参数值</t>
+  </si>
+  <si>
+    <t>最后再对VARIABLE展开后的表达式进行处理.</t>
+  </si>
+  <si>
+    <t>西数返回值:</t>
+  </si>
+  <si>
+    <t>VARIABLE展开后的表达式的值</t>
+  </si>
+  <si>
+    <t>函数说明:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.变量VARIABLE在定义时最好定义为递归展开式;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2.call函数中对VARIABLE的调用,直接给函数或变量名就好了,不要用"$"    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3.多不PARAM侯用拉号分割开,且逗号和PARAMZ间不能有空格,否则会导致解析异常(PS:我自己在这个挖过坑,因为习惯C编码时,在逗号后面加一个空格)</t>
+  </si>
+  <si>
+    <t>if_changed = $(if $(strip $(any-prereq) $(arg-check)), @set -e; $(echo-cmd) $(cmd_$(1));printf '%s\n' 'cmd_$@:=$(make-cmd)'&gt;$(dot-target).cmd)</t>
+  </si>
+  <si>
+    <t>1.变量的引用</t>
+  </si>
+  <si>
+    <t>这里变置类型的定义再罗嗦一下,所调的直接展开式,即在定义的时侯立即展开；递归展开式,在定义的时侯其实相当于声明,只有在实际引用时才展开</t>
+  </si>
+  <si>
+    <t>1.1变量定义为直接展开式</t>
+  </si>
+  <si>
+    <t>VARIABLE1:=$(2) $(1)</t>
+  </si>
+  <si>
+    <t>$(info 1-$(VARIABLE1))</t>
+  </si>
+  <si>
+    <t>aa=$(call VARIABLE1,hello,world)</t>
+  </si>
+  <si>
+    <t>$(info 1-$(aa))</t>
+  </si>
+  <si>
+    <t>@echo Done</t>
+  </si>
+  <si>
+    <t>如果这里将VARIABLE1定义为直接展开式,最终调用call函数后,返回值为空</t>
+  </si>
+  <si>
+    <t>我的理解是,直接展开式在定义时将(2)展开,而此时它们的值为空,所以变量的值为空.当执行到call函数时,</t>
+  </si>
+  <si>
+    <t>尽管带上了需要传递的参数,但PARAM((2))之前已经被展开了,故此时已经取不到传递进来的参数值.</t>
+  </si>
+  <si>
+    <t>1.2变量定义为递归展开式</t>
+  </si>
+  <si>
+    <t>VARIABLE1 = $(2) $(1)</t>
+  </si>
+  <si>
+    <t>$(info 2-$(VARIABLE1))</t>
+  </si>
+  <si>
+    <t>$(info 2-$(aa))</t>
+  </si>
+  <si>
+    <t>2.函数的引用</t>
+  </si>
+  <si>
+    <t>2.1不带参数的函数引用</t>
+  </si>
+  <si>
+    <t>define FUNC1</t>
+  </si>
+  <si>
+    <t>$(info echo 3-"hello")</t>
+  </si>
+  <si>
+    <t>$(call FUNC1)</t>
+  </si>
+  <si>
+    <t>2.2带参数的函数引用</t>
+  </si>
+  <si>
+    <t>$(info echo 4-$(1) $(2))</t>
+  </si>
+  <si>
+    <t>$(call FUNC1,hello,wolrd)</t>
+  </si>
+  <si>
+    <t>2.3逗号和参数之间有空格的示例</t>
+  </si>
+  <si>
+    <t>$(info echo 5-$(1) $(2))</t>
+  </si>
+  <si>
+    <t>从执行的结果会发现,逗号和参数之间的空格也祓作为参数的一部分.在这个例子中可能看不出明显的负面影响,后面我在举个粟子.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="33">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5965,7 +7566,52 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFC0404"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFC0404"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF008000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF800000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF1D41D5"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -5980,6 +7626,14 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6015,13 +7669,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -6029,18 +7676,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6054,9 +7693,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6075,25 +7714,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6111,6 +7735,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -6119,11 +7765,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9966FF"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF800000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -6136,37 +7804,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6184,7 +7828,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6196,7 +7852,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6208,7 +7864,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6226,7 +7882,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6238,31 +7918,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6280,31 +7966,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6316,7 +7978,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6354,11 +8022,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6380,11 +8054,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6392,23 +8064,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6427,167 +8084,199 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
@@ -6596,16 +8285,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
@@ -6684,6 +8373,18 @@
 </styleSheet>
 </file>
 
+<file path=xl/activeX/activeX1.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D124-5CC6-11CF-8D67-00AA00BDCE1D}" r:id="rId1" ax:persistence="persistStreamInit"/>
+</file>
+
+<file path=xl/activeX/activeX2.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D124-5CC6-11CF-8D67-00AA00BDCE1D}" r:id="rId1" ax:persistence="persistStreamInit"/>
+</file>
+
+<file path=xl/activeX/activeX3.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D124-5CC6-11CF-8D67-00AA00BDCE1D}" r:id="rId1" ax:persistence="persistStreamInit"/>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -6706,7 +8407,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1433830" y="22623145"/>
+          <a:off x="1433830" y="22908895"/>
           <a:ext cx="12443460" cy="7820025"/>
           <a:chOff x="2248" y="617"/>
           <a:chExt cx="19651" cy="11766"/>
@@ -7588,7 +9289,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14968855" y="22550120"/>
+          <a:off x="14968855" y="22835870"/>
           <a:ext cx="6731000" cy="12513945"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8359,7 +10060,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="6672580" y="23402925"/>
+          <a:off x="6672580" y="23688675"/>
           <a:ext cx="8467725" cy="3665855"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
@@ -8408,7 +10109,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="23181945" y="22562185"/>
+          <a:off x="23181945" y="22847935"/>
           <a:ext cx="7437755" cy="5154295"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8945,7 +10646,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19399250" y="23557865"/>
+          <a:off x="19399250" y="23843615"/>
           <a:ext cx="3782060" cy="1581150"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
@@ -8994,7 +10695,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="32084010" y="22489795"/>
+          <a:off x="32084010" y="22775545"/>
           <a:ext cx="7437755" cy="2744470"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9261,7 +10962,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="24551005" y="23547070"/>
+          <a:off x="24551005" y="23832820"/>
           <a:ext cx="7633970" cy="2076450"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
@@ -9310,7 +11011,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="40878125" y="22468840"/>
+          <a:off x="40878125" y="22754590"/>
           <a:ext cx="7640955" cy="8133080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9909,7 +11610,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="34463990" y="23124160"/>
+          <a:off x="34463990" y="23409910"/>
           <a:ext cx="6526530" cy="411480"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
@@ -9958,7 +11659,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="49460150" y="22468840"/>
+          <a:off x="49460150" y="22754590"/>
           <a:ext cx="9180195" cy="4125595"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10409,7 +12110,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="45775245" y="22935565"/>
+          <a:off x="45775245" y="23221315"/>
           <a:ext cx="3850005" cy="429260"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
@@ -10458,7 +12159,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="60051950" y="22487890"/>
+          <a:off x="60051950" y="22773640"/>
           <a:ext cx="7037070" cy="10812145"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11601,7 +13302,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="51606450" y="23336250"/>
+          <a:off x="51606450" y="23622000"/>
           <a:ext cx="8534400" cy="2581275"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
@@ -11650,7 +13351,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="67814825" y="22440265"/>
+          <a:off x="67814825" y="22726015"/>
           <a:ext cx="4685030" cy="10812145"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12625,7 +14326,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="61140975" y="23250525"/>
+          <a:off x="61140975" y="23536275"/>
           <a:ext cx="6762750" cy="409575"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
@@ -12674,7 +14375,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="53306345" y="21701760"/>
+          <a:off x="53306345" y="21987510"/>
           <a:ext cx="20956270" cy="3089910"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
@@ -12723,7 +14424,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="74139425" y="20262850"/>
+          <a:off x="74139425" y="20548600"/>
           <a:ext cx="9899650" cy="13202920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -13930,7 +15631,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="70004940" y="21802725"/>
+          <a:off x="70004940" y="22088475"/>
           <a:ext cx="4224020" cy="3144520"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
@@ -13979,7 +15680,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="85299550" y="23152735"/>
+          <a:off x="85299550" y="23438485"/>
           <a:ext cx="9320530" cy="4739005"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -14416,7 +16117,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="76553695" y="24557990"/>
+          <a:off x="76553695" y="24843740"/>
           <a:ext cx="8861425" cy="2087880"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
@@ -14466,7 +16167,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="77385545" y="4231005"/>
-          <a:ext cx="11685905" cy="14726285"/>
+          <a:ext cx="11685905" cy="15012035"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -16189,7 +17890,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="90314780" y="4196715"/>
-          <a:ext cx="23369905" cy="18257520"/>
+          <a:ext cx="23369905" cy="18543270"/>
           <a:chOff x="143101" y="5994"/>
           <a:chExt cx="37035" cy="27372"/>
         </a:xfrm>
@@ -19225,7 +20926,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="85277960" y="28832810"/>
+          <a:off x="85277960" y="29118560"/>
           <a:ext cx="9547860" cy="12442190"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -20429,7 +22130,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="93278325" y="23549610"/>
+          <a:off x="93278325" y="23835360"/>
           <a:ext cx="3322955" cy="2199005"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
@@ -20478,7 +22179,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="96601915" y="22898735"/>
+          <a:off x="96601915" y="23184485"/>
           <a:ext cx="5387975" cy="1301750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -20698,7 +22399,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="96612075" y="24580850"/>
+          <a:off x="96612075" y="24866600"/>
           <a:ext cx="5831840" cy="8412480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -21495,7 +23196,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000" flipV="1">
-          <a:off x="86024085" y="26026110"/>
+          <a:off x="86024085" y="26311860"/>
           <a:ext cx="4163695" cy="1390015"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
@@ -21546,7 +23247,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="93264355" y="25735280"/>
+          <a:off x="93264355" y="26021030"/>
           <a:ext cx="3347085" cy="3051810"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
@@ -21595,7 +23296,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="105211880" y="23058120"/>
+          <a:off x="105211880" y="23343870"/>
           <a:ext cx="11790680" cy="17655540"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -23286,7 +24987,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="101989890" y="23549610"/>
+          <a:off x="101989890" y="23835360"/>
           <a:ext cx="3221990" cy="8336280"/>
           <a:chOff x="161028" y="35016"/>
           <a:chExt cx="5088" cy="12498"/>
@@ -23389,7 +25090,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="118681500" y="32258635"/>
+          <a:off x="118681500" y="32544385"/>
           <a:ext cx="8224520" cy="9978390"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -24392,7 +26093,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="109901355" y="34903410"/>
+          <a:off x="109901355" y="35189160"/>
           <a:ext cx="8875395" cy="6468110"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
@@ -24443,7 +26144,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="127996950" y="38204775"/>
+          <a:off x="127996950" y="38490525"/>
           <a:ext cx="304800" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -24479,7 +26180,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="128835150" y="37404675"/>
+          <a:off x="128835150" y="37690425"/>
           <a:ext cx="304800" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -24513,7 +26214,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="49491265" y="26894155"/>
+          <a:off x="49491265" y="27179905"/>
           <a:ext cx="9128760" cy="7392035"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -25028,7 +26729,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="44782105" y="23049230"/>
+          <a:off x="44782105" y="23334980"/>
           <a:ext cx="4706620" cy="7537450"/>
           <a:chOff x="70369" y="35745"/>
           <a:chExt cx="7396" cy="11798"/>
@@ -25122,7 +26823,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="32094805" y="25624155"/>
+          <a:off x="32094805" y="25909905"/>
           <a:ext cx="7437755" cy="2744470"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -25405,7 +27106,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="24203025" y="25841325"/>
+          <a:off x="24203025" y="26127075"/>
           <a:ext cx="7970520" cy="294640"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
@@ -25454,7 +27155,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="31882715" y="28880435"/>
+          <a:off x="31882715" y="29166185"/>
           <a:ext cx="8375015" cy="5309870"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -26109,7 +27810,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="24136350" y="26174700"/>
+          <a:off x="24136350" y="26460450"/>
           <a:ext cx="7820025" cy="3000375"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
@@ -26158,7 +27859,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="31901765" y="34709735"/>
+          <a:off x="31901765" y="34995485"/>
           <a:ext cx="8375015" cy="1929130"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -26437,7 +28138,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="24260175" y="26479500"/>
+          <a:off x="24260175" y="26765250"/>
           <a:ext cx="7652385" cy="9192895"/>
           <a:chOff x="38190" y="41370"/>
           <a:chExt cx="12051" cy="14477"/>
@@ -26529,7 +28230,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="31901765" y="37100510"/>
+          <a:off x="31901765" y="37386260"/>
           <a:ext cx="8375015" cy="1767205"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -26848,7 +28549,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="24231600" y="26812240"/>
+          <a:off x="24231600" y="27097990"/>
           <a:ext cx="7670165" cy="11172190"/>
           <a:chOff x="38190" y="41344"/>
           <a:chExt cx="12079" cy="14426"/>
@@ -26942,7 +28643,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="31892240" y="39529385"/>
+          <a:off x="31892240" y="39815135"/>
           <a:ext cx="8375015" cy="2453005"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -27366,7 +29067,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="24641175" y="27165300"/>
+          <a:off x="24641175" y="27451050"/>
           <a:ext cx="7251065" cy="13590905"/>
           <a:chOff x="39555" y="38023"/>
           <a:chExt cx="11419" cy="17549"/>
@@ -27468,7 +29169,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="124843540" y="36381055"/>
+          <a:off x="124843540" y="36666805"/>
           <a:ext cx="4019550" cy="5695950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -27502,7 +29203,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1838960" y="44404915"/>
+          <a:off x="1838960" y="44690665"/>
           <a:ext cx="2590165" cy="4855845"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -27896,7 +29597,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6137910" y="43988355"/>
+          <a:off x="6137910" y="44274105"/>
           <a:ext cx="9398000" cy="2228850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -28057,7 +29758,19 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>566 %config: scripts_basic outputmakefile FORCE</a:t>
+            <a:t>566 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>%config:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t> scripts_basic outputmakefile FORCE</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
@@ -28190,7 +29903,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="4429125" y="45102780"/>
+          <a:off x="4429125" y="45388530"/>
           <a:ext cx="1708150" cy="1734820"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
@@ -28239,7 +29952,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16682720" y="43979465"/>
+          <a:off x="16682720" y="44265215"/>
           <a:ext cx="6091555" cy="3395345"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -28627,7 +30340,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15535275" y="45102780"/>
+          <a:off x="15535275" y="45388530"/>
           <a:ext cx="1146810" cy="579120"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
@@ -28684,7 +30397,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17034510" y="47433865"/>
+          <a:off x="17034510" y="47719615"/>
           <a:ext cx="5364480" cy="3012440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -28718,7 +30431,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="23871555" y="43996610"/>
+          <a:off x="23871555" y="44282360"/>
           <a:ext cx="6639560" cy="8849995"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -29398,7 +31111,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19110325" y="45531405"/>
+          <a:off x="19110325" y="45817155"/>
           <a:ext cx="4763770" cy="127000"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
@@ -29447,7 +31160,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="95787845" y="42439590"/>
+          <a:off x="95787845" y="42725340"/>
           <a:ext cx="8249920" cy="1889125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -29672,7 +31385,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000" flipV="1">
-          <a:off x="87506810" y="35098355"/>
+          <a:off x="87506810" y="35384105"/>
           <a:ext cx="10697845" cy="5862320"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
@@ -29702,15 +31415,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>304165</xdr:colOff>
+      <xdr:colOff>303530</xdr:colOff>
       <xdr:row>92</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>539750</xdr:colOff>
-      <xdr:row>103</xdr:row>
-      <xdr:rowOff>163195</xdr:rowOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>121285</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -29719,8 +31432,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4733290" y="18440400"/>
-          <a:ext cx="6455410" cy="2325370"/>
+          <a:off x="4732655" y="18726150"/>
+          <a:ext cx="6456045" cy="2683510"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -29983,15 +31696,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>306070</xdr:colOff>
-      <xdr:row>97</xdr:row>
-      <xdr:rowOff>196215</xdr:rowOff>
+      <xdr:colOff>301942</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>174942</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>303530</xdr:colOff>
+      <xdr:colOff>302577</xdr:colOff>
       <xdr:row>126</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:rowOff>180657</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
@@ -30003,8 +31716,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000">
-          <a:off x="883920" y="21535390"/>
-          <a:ext cx="5785485" cy="1911985"/>
+          <a:off x="970280" y="21908135"/>
+          <a:ext cx="5606415" cy="1915160"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -30050,7 +31763,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="95695770" y="33714690"/>
+          <a:off x="95695770" y="34000440"/>
           <a:ext cx="8248015" cy="8316595"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -31169,7 +32882,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="93628845" y="32069405"/>
+          <a:off x="93628845" y="32355155"/>
           <a:ext cx="2066290" cy="5803900"/>
           <a:chOff x="146937" y="49620"/>
           <a:chExt cx="3246" cy="9044"/>
@@ -31261,7 +32974,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="105229025" y="41537255"/>
+          <a:off x="105229025" y="41823005"/>
           <a:ext cx="10408285" cy="15748635"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -33466,7 +35179,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="103943785" y="37873305"/>
+          <a:off x="103943785" y="38159055"/>
           <a:ext cx="1285240" cy="11538585"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
@@ -33515,7 +35228,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="105232200" y="57892950"/>
+          <a:off x="105232200" y="58178700"/>
           <a:ext cx="8249920" cy="2613025"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -33880,7 +35593,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000" flipV="1">
-          <a:off x="108491655" y="57027445"/>
+          <a:off x="108491655" y="57313195"/>
           <a:ext cx="962660" cy="765175"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
@@ -33929,7 +35642,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="114261900" y="57889775"/>
+          <a:off x="114261900" y="58175525"/>
           <a:ext cx="8249920" cy="8468360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -34781,7 +36494,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="107899200" y="59216925"/>
+          <a:off x="107899200" y="59502675"/>
           <a:ext cx="6372225" cy="1695450"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
@@ -34810,10 +36523,639 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>461645</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>106045</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>581660</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>76835</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="84" name="Text Box 83"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2976245" y="15507970"/>
+          <a:ext cx="17474565" cy="2256790"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>		</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="1100"/>
+            <a:t>		</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="1800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>为更好的跟踪make 的 各个过程中做了什么动作，生成了什么内容，将各个.gitignore 改名字了，这样所有的动作都可以通过git status 查看到生成的结果</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1800" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1800" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="1800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>find ./ -name ".gitignore" | xargs -n1 -i sh -c   "mv {}   {}_bak"</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1800" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1800" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="1800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>注意这点就好了</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1800" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>448310</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>48260</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1" r:link="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2876550" y="1266825"/>
+          <a:ext cx="4277360" cy="581660"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>83</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>84</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4103" name="" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s4103"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2514600" y="16687800"/>
+              <a:ext cx="838200" cy="200025"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>140</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>141</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4104" name="" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s4104"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2514600" y="28232100"/>
+              <a:ext cx="838200" cy="200025"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>210185</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="Rectangle 16"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9296400" y="25850850"/>
+          <a:ext cx="6743700" cy="3591560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="Rectangle 17"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2514600" y="30041850"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="Rectangle 18"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2514600" y="30041850"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="Rectangle 19"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2514600" y="30041850"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>448310</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Picture 20"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3" r:link="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2514600" y="30241875"/>
+          <a:ext cx="3801110" cy="723900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>781050</xdr:colOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Picture 21"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4" r:link="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2514600" y="30641925"/>
+          <a:ext cx="3295650" cy="552450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>160</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>161</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4105" name="" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s4105"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2514600" y="32251650"/>
+              <a:ext cx="838200" cy="200025"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -36226,7 +38568,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -39361,10 +41703,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B119:CA161"/>
+  <dimension ref="B84:CA161"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="DJ229" workbookViewId="0">
-      <selection activeCell="DM263" sqref="DM263"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="D95" sqref="D95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75"/>
@@ -39374,543 +41716,552 @@
     <col min="10" max="10" width="11" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="84" ht="23.25" spans="3:3">
+      <c r="C84" s="10"/>
+    </row>
+    <row r="85" ht="23.25" spans="3:3">
+      <c r="C85" s="10"/>
+    </row>
+    <row r="86" ht="23.25" spans="3:3">
+      <c r="C86" s="10"/>
+    </row>
     <row r="119" spans="6:14">
-      <c r="F119" s="4"/>
-      <c r="G119" s="4"/>
-      <c r="H119" s="4"/>
-      <c r="I119" s="4"/>
-      <c r="J119" s="8"/>
-      <c r="K119" s="4"/>
-      <c r="L119" s="4"/>
-      <c r="M119" s="4"/>
-      <c r="N119" s="4"/>
+      <c r="F119" s="11"/>
+      <c r="G119" s="11"/>
+      <c r="H119" s="11"/>
+      <c r="I119" s="11"/>
+      <c r="J119" s="15"/>
+      <c r="K119" s="11"/>
+      <c r="L119" s="11"/>
+      <c r="M119" s="11"/>
+      <c r="N119" s="11"/>
     </row>
     <row r="120" spans="6:14">
-      <c r="F120" s="4"/>
-      <c r="G120" s="4"/>
-      <c r="H120" s="4"/>
-      <c r="I120" s="4"/>
-      <c r="J120" s="4"/>
-      <c r="K120" s="4"/>
-      <c r="L120" s="4"/>
-      <c r="M120" s="4"/>
-      <c r="N120" s="4"/>
+      <c r="F120" s="11"/>
+      <c r="G120" s="11"/>
+      <c r="H120" s="11"/>
+      <c r="I120" s="11"/>
+      <c r="J120" s="11"/>
+      <c r="K120" s="11"/>
+      <c r="L120" s="11"/>
+      <c r="M120" s="11"/>
+      <c r="N120" s="11"/>
     </row>
     <row r="121" spans="6:14">
-      <c r="F121" s="4"/>
-      <c r="G121" s="4"/>
-      <c r="H121" s="4"/>
-      <c r="I121" s="4"/>
-      <c r="J121" s="4"/>
-      <c r="K121" s="4"/>
-      <c r="L121" s="4"/>
-      <c r="M121" s="4"/>
-      <c r="N121" s="4"/>
+      <c r="F121" s="11"/>
+      <c r="G121" s="11"/>
+      <c r="H121" s="11"/>
+      <c r="I121" s="11"/>
+      <c r="J121" s="11"/>
+      <c r="K121" s="11"/>
+      <c r="L121" s="11"/>
+      <c r="M121" s="11"/>
+      <c r="N121" s="11"/>
     </row>
     <row r="122" spans="6:14">
-      <c r="F122" s="4"/>
-      <c r="G122" s="4"/>
-      <c r="H122" s="4"/>
-      <c r="I122" s="4"/>
-      <c r="J122" s="4"/>
-      <c r="K122" s="4"/>
-      <c r="L122" s="4"/>
-      <c r="M122" s="4"/>
-      <c r="N122" s="4"/>
+      <c r="F122" s="11"/>
+      <c r="G122" s="11"/>
+      <c r="H122" s="11"/>
+      <c r="I122" s="11"/>
+      <c r="J122" s="11"/>
+      <c r="K122" s="11"/>
+      <c r="L122" s="11"/>
+      <c r="M122" s="11"/>
+      <c r="N122" s="11"/>
     </row>
     <row r="123" spans="6:14">
-      <c r="F123" s="4"/>
-      <c r="G123" s="4"/>
-      <c r="H123" s="6"/>
-      <c r="I123" s="4"/>
-      <c r="J123" s="4"/>
-      <c r="K123" s="4"/>
-      <c r="L123" s="4"/>
-      <c r="M123" s="4"/>
-      <c r="N123" s="4"/>
+      <c r="F123" s="11"/>
+      <c r="G123" s="11"/>
+      <c r="H123" s="13"/>
+      <c r="I123" s="11"/>
+      <c r="J123" s="11"/>
+      <c r="K123" s="11"/>
+      <c r="L123" s="11"/>
+      <c r="M123" s="11"/>
+      <c r="N123" s="11"/>
     </row>
     <row r="124" spans="6:14">
-      <c r="F124" s="4"/>
-      <c r="G124" s="4"/>
-      <c r="H124" s="4"/>
-      <c r="I124" s="4"/>
-      <c r="J124" s="4"/>
-      <c r="K124" s="4"/>
-      <c r="L124" s="4"/>
-      <c r="M124" s="4"/>
-      <c r="N124" s="4"/>
+      <c r="F124" s="11"/>
+      <c r="G124" s="11"/>
+      <c r="H124" s="11"/>
+      <c r="I124" s="11"/>
+      <c r="J124" s="11"/>
+      <c r="K124" s="11"/>
+      <c r="L124" s="11"/>
+      <c r="M124" s="11"/>
+      <c r="N124" s="11"/>
     </row>
     <row r="125" spans="6:14">
-      <c r="F125" s="7"/>
-      <c r="G125" s="7"/>
-      <c r="H125" s="4"/>
-      <c r="I125" s="4"/>
-      <c r="J125" s="4"/>
-      <c r="K125" s="4"/>
-      <c r="L125" s="4"/>
-      <c r="M125" s="4"/>
-      <c r="N125" s="4"/>
+      <c r="F125" s="14"/>
+      <c r="G125" s="14"/>
+      <c r="H125" s="11"/>
+      <c r="I125" s="11"/>
+      <c r="J125" s="11"/>
+      <c r="K125" s="11"/>
+      <c r="L125" s="11"/>
+      <c r="M125" s="11"/>
+      <c r="N125" s="11"/>
     </row>
     <row r="126" spans="2:14">
-      <c r="B126" s="4"/>
-      <c r="C126" s="4"/>
-      <c r="D126" s="5"/>
-      <c r="E126" s="4"/>
-      <c r="F126" s="7"/>
-      <c r="G126" s="7"/>
-      <c r="H126" s="4"/>
-      <c r="I126" s="4"/>
-      <c r="J126" s="4"/>
-      <c r="K126" s="4"/>
-      <c r="L126" s="4"/>
-      <c r="M126" s="4"/>
-      <c r="N126" s="4"/>
+      <c r="B126" s="11"/>
+      <c r="C126" s="11"/>
+      <c r="D126" s="12"/>
+      <c r="E126" s="11"/>
+      <c r="F126" s="14"/>
+      <c r="G126" s="14"/>
+      <c r="H126" s="11"/>
+      <c r="I126" s="11"/>
+      <c r="J126" s="11"/>
+      <c r="K126" s="11"/>
+      <c r="L126" s="11"/>
+      <c r="M126" s="11"/>
+      <c r="N126" s="11"/>
     </row>
     <row r="127" spans="2:14">
-      <c r="B127" s="4"/>
-      <c r="C127" s="4"/>
-      <c r="D127" s="5"/>
-      <c r="E127" s="4"/>
-      <c r="F127" s="4"/>
-      <c r="G127" s="4"/>
-      <c r="H127" s="4"/>
-      <c r="I127" s="4"/>
-      <c r="J127" s="4"/>
-      <c r="K127" s="4"/>
-      <c r="L127" s="4"/>
-      <c r="M127" s="4"/>
-      <c r="N127" s="4"/>
+      <c r="B127" s="11"/>
+      <c r="C127" s="11"/>
+      <c r="D127" s="12"/>
+      <c r="E127" s="11"/>
+      <c r="F127" s="11"/>
+      <c r="G127" s="11"/>
+      <c r="H127" s="11"/>
+      <c r="I127" s="11"/>
+      <c r="J127" s="11"/>
+      <c r="K127" s="11"/>
+      <c r="L127" s="11"/>
+      <c r="M127" s="11"/>
+      <c r="N127" s="11"/>
     </row>
     <row r="128" spans="2:14">
-      <c r="B128" s="4"/>
-      <c r="C128" s="4"/>
-      <c r="D128" s="5"/>
-      <c r="E128" s="4"/>
-      <c r="F128" s="4"/>
-      <c r="G128" s="4"/>
-      <c r="H128" s="4"/>
-      <c r="I128" s="4"/>
-      <c r="J128" s="4"/>
-      <c r="K128" s="4"/>
-      <c r="L128" s="4"/>
-      <c r="M128" s="4"/>
-      <c r="N128" s="4"/>
+      <c r="B128" s="11"/>
+      <c r="C128" s="11"/>
+      <c r="D128" s="12"/>
+      <c r="E128" s="11"/>
+      <c r="F128" s="11"/>
+      <c r="G128" s="11"/>
+      <c r="H128" s="11"/>
+      <c r="I128" s="11"/>
+      <c r="J128" s="11"/>
+      <c r="K128" s="11"/>
+      <c r="L128" s="11"/>
+      <c r="M128" s="11"/>
+      <c r="N128" s="11"/>
     </row>
     <row r="129" spans="2:14">
-      <c r="B129" s="4"/>
-      <c r="C129" s="4"/>
-      <c r="D129" s="5"/>
-      <c r="E129" s="4"/>
-      <c r="F129" s="4"/>
-      <c r="G129" s="4"/>
-      <c r="H129" s="4"/>
-      <c r="I129" s="4"/>
-      <c r="J129" s="4"/>
-      <c r="K129" s="4"/>
-      <c r="L129" s="4"/>
-      <c r="M129" s="4"/>
-      <c r="N129" s="4"/>
+      <c r="B129" s="11"/>
+      <c r="C129" s="11"/>
+      <c r="D129" s="12"/>
+      <c r="E129" s="11"/>
+      <c r="F129" s="11"/>
+      <c r="G129" s="11"/>
+      <c r="H129" s="11"/>
+      <c r="I129" s="11"/>
+      <c r="J129" s="11"/>
+      <c r="K129" s="11"/>
+      <c r="L129" s="11"/>
+      <c r="M129" s="11"/>
+      <c r="N129" s="11"/>
     </row>
     <row r="130" spans="2:14">
-      <c r="B130" s="4"/>
-      <c r="C130" s="4"/>
-      <c r="D130" s="5"/>
-      <c r="E130" s="4"/>
-      <c r="F130" s="4"/>
-      <c r="G130" s="4"/>
-      <c r="H130" s="4"/>
-      <c r="I130" s="4"/>
-      <c r="J130" s="4"/>
-      <c r="K130" s="4"/>
-      <c r="L130" s="4"/>
-      <c r="M130" s="4"/>
-      <c r="N130" s="4"/>
+      <c r="B130" s="11"/>
+      <c r="C130" s="11"/>
+      <c r="D130" s="12"/>
+      <c r="E130" s="11"/>
+      <c r="F130" s="11"/>
+      <c r="G130" s="11"/>
+      <c r="H130" s="11"/>
+      <c r="I130" s="11"/>
+      <c r="J130" s="11"/>
+      <c r="K130" s="11"/>
+      <c r="L130" s="11"/>
+      <c r="M130" s="11"/>
+      <c r="N130" s="11"/>
     </row>
     <row r="131" spans="6:14">
-      <c r="F131" s="4"/>
-      <c r="G131" s="4"/>
-      <c r="H131" s="4"/>
-      <c r="I131" s="4"/>
-      <c r="J131" s="4"/>
-      <c r="K131" s="4"/>
-      <c r="L131" s="4"/>
-      <c r="M131" s="4"/>
-      <c r="N131" s="4"/>
+      <c r="F131" s="11"/>
+      <c r="G131" s="11"/>
+      <c r="H131" s="11"/>
+      <c r="I131" s="11"/>
+      <c r="J131" s="11"/>
+      <c r="K131" s="11"/>
+      <c r="L131" s="11"/>
+      <c r="M131" s="11"/>
+      <c r="N131" s="11"/>
     </row>
     <row r="132" spans="6:79">
-      <c r="F132" s="7"/>
-      <c r="G132" s="4"/>
-      <c r="H132" s="4"/>
-      <c r="I132" s="4"/>
-      <c r="J132" s="4"/>
-      <c r="K132" s="4"/>
-      <c r="L132" s="4"/>
-      <c r="M132" s="4"/>
-      <c r="N132" s="4"/>
+      <c r="F132" s="14"/>
+      <c r="G132" s="11"/>
+      <c r="H132" s="11"/>
+      <c r="I132" s="11"/>
+      <c r="J132" s="11"/>
+      <c r="K132" s="11"/>
+      <c r="L132" s="11"/>
+      <c r="M132" s="11"/>
+      <c r="N132" s="11"/>
       <c r="CA132" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="133" spans="6:14">
-      <c r="F133" s="4"/>
-      <c r="G133" s="4"/>
-      <c r="H133" s="4"/>
-      <c r="I133" s="4"/>
-      <c r="J133" s="4"/>
-      <c r="K133" s="4"/>
-      <c r="L133" s="4"/>
-      <c r="M133" s="4"/>
-      <c r="N133" s="4"/>
+      <c r="F133" s="11"/>
+      <c r="G133" s="11"/>
+      <c r="H133" s="11"/>
+      <c r="I133" s="11"/>
+      <c r="J133" s="11"/>
+      <c r="K133" s="11"/>
+      <c r="L133" s="11"/>
+      <c r="M133" s="11"/>
+      <c r="N133" s="11"/>
     </row>
     <row r="134" spans="6:14">
-      <c r="F134" s="4"/>
-      <c r="G134" s="4"/>
-      <c r="H134" s="4"/>
-      <c r="I134" s="4"/>
-      <c r="J134" s="4"/>
-      <c r="K134" s="4"/>
-      <c r="L134" s="4"/>
-      <c r="M134" s="4"/>
-      <c r="N134" s="4"/>
+      <c r="F134" s="11"/>
+      <c r="G134" s="11"/>
+      <c r="H134" s="11"/>
+      <c r="I134" s="11"/>
+      <c r="J134" s="11"/>
+      <c r="K134" s="11"/>
+      <c r="L134" s="11"/>
+      <c r="M134" s="11"/>
+      <c r="N134" s="11"/>
     </row>
     <row r="135" spans="6:14">
-      <c r="F135" s="4"/>
-      <c r="G135" s="4"/>
-      <c r="H135" s="4"/>
-      <c r="I135" s="4"/>
-      <c r="J135" s="4"/>
-      <c r="K135" s="4"/>
-      <c r="L135" s="4"/>
-      <c r="M135" s="4"/>
-      <c r="N135" s="4"/>
+      <c r="F135" s="11"/>
+      <c r="G135" s="11"/>
+      <c r="H135" s="11"/>
+      <c r="I135" s="11"/>
+      <c r="J135" s="11"/>
+      <c r="K135" s="11"/>
+      <c r="L135" s="11"/>
+      <c r="M135" s="11"/>
+      <c r="N135" s="11"/>
     </row>
     <row r="136" spans="6:21">
-      <c r="F136" s="4"/>
-      <c r="G136" s="4"/>
-      <c r="H136" s="4"/>
-      <c r="I136" s="4"/>
-      <c r="J136" s="4"/>
-      <c r="K136" s="4"/>
-      <c r="L136" s="4"/>
-      <c r="M136" s="4"/>
-      <c r="N136" s="4"/>
-      <c r="O136" s="6"/>
-      <c r="P136" s="4"/>
-      <c r="Q136" s="4"/>
-      <c r="R136" s="4"/>
-      <c r="S136" s="4"/>
-      <c r="T136" s="4"/>
-      <c r="U136" s="4"/>
+      <c r="F136" s="11"/>
+      <c r="G136" s="11"/>
+      <c r="H136" s="11"/>
+      <c r="I136" s="11"/>
+      <c r="J136" s="11"/>
+      <c r="K136" s="11"/>
+      <c r="L136" s="11"/>
+      <c r="M136" s="11"/>
+      <c r="N136" s="11"/>
+      <c r="O136" s="13"/>
+      <c r="P136" s="11"/>
+      <c r="Q136" s="11"/>
+      <c r="R136" s="11"/>
+      <c r="S136" s="11"/>
+      <c r="T136" s="11"/>
+      <c r="U136" s="11"/>
     </row>
     <row r="137" spans="6:21">
-      <c r="F137" s="4"/>
-      <c r="G137" s="4"/>
-      <c r="H137" s="4"/>
-      <c r="I137" s="4"/>
-      <c r="J137" s="4"/>
-      <c r="K137" s="4"/>
-      <c r="L137" s="4"/>
-      <c r="M137" s="4"/>
-      <c r="N137" s="4"/>
-      <c r="O137" s="4"/>
-      <c r="P137" s="4"/>
-      <c r="Q137" s="4"/>
-      <c r="R137" s="4"/>
-      <c r="S137" s="4"/>
-      <c r="T137" s="4"/>
-      <c r="U137" s="4"/>
+      <c r="F137" s="11"/>
+      <c r="G137" s="11"/>
+      <c r="H137" s="11"/>
+      <c r="I137" s="11"/>
+      <c r="J137" s="11"/>
+      <c r="K137" s="11"/>
+      <c r="L137" s="11"/>
+      <c r="M137" s="11"/>
+      <c r="N137" s="11"/>
+      <c r="O137" s="11"/>
+      <c r="P137" s="11"/>
+      <c r="Q137" s="11"/>
+      <c r="R137" s="11"/>
+      <c r="S137" s="11"/>
+      <c r="T137" s="11"/>
+      <c r="U137" s="11"/>
     </row>
     <row r="138" spans="6:21">
-      <c r="F138" s="9"/>
-      <c r="G138" s="9"/>
-      <c r="H138" s="9"/>
-      <c r="I138" s="9"/>
-      <c r="J138" s="4"/>
-      <c r="K138" s="4"/>
-      <c r="L138" s="4"/>
-      <c r="M138" s="4"/>
-      <c r="N138" s="7"/>
-      <c r="O138" s="4"/>
-      <c r="P138" s="4"/>
-      <c r="Q138" s="4"/>
-      <c r="R138" s="4"/>
-      <c r="S138" s="4"/>
-      <c r="T138" s="4"/>
-      <c r="U138" s="4"/>
+      <c r="F138" s="16"/>
+      <c r="G138" s="16"/>
+      <c r="H138" s="16"/>
+      <c r="I138" s="16"/>
+      <c r="J138" s="11"/>
+      <c r="K138" s="11"/>
+      <c r="L138" s="11"/>
+      <c r="M138" s="11"/>
+      <c r="N138" s="14"/>
+      <c r="O138" s="11"/>
+      <c r="P138" s="11"/>
+      <c r="Q138" s="11"/>
+      <c r="R138" s="11"/>
+      <c r="S138" s="11"/>
+      <c r="T138" s="11"/>
+      <c r="U138" s="11"/>
     </row>
     <row r="139" spans="6:21">
-      <c r="F139" s="9"/>
-      <c r="G139" s="9"/>
-      <c r="H139" s="9"/>
-      <c r="I139" s="9"/>
-      <c r="J139" s="4"/>
-      <c r="K139" s="4"/>
-      <c r="L139" s="4"/>
-      <c r="M139" s="4"/>
-      <c r="N139" s="7"/>
-      <c r="O139" s="4"/>
-      <c r="P139" s="4"/>
-      <c r="Q139" s="4"/>
-      <c r="R139" s="4"/>
-      <c r="S139" s="4"/>
-      <c r="T139" s="4"/>
-      <c r="U139" s="4"/>
+      <c r="F139" s="16"/>
+      <c r="G139" s="16"/>
+      <c r="H139" s="16"/>
+      <c r="I139" s="16"/>
+      <c r="J139" s="11"/>
+      <c r="K139" s="11"/>
+      <c r="L139" s="11"/>
+      <c r="M139" s="11"/>
+      <c r="N139" s="14"/>
+      <c r="O139" s="11"/>
+      <c r="P139" s="11"/>
+      <c r="Q139" s="11"/>
+      <c r="R139" s="11"/>
+      <c r="S139" s="11"/>
+      <c r="T139" s="11"/>
+      <c r="U139" s="11"/>
     </row>
     <row r="140" spans="6:21">
-      <c r="F140" s="9"/>
-      <c r="G140" s="9"/>
-      <c r="H140" s="9"/>
-      <c r="I140" s="9"/>
-      <c r="J140" s="4"/>
-      <c r="K140" s="4"/>
-      <c r="L140" s="4"/>
-      <c r="M140" s="4"/>
-      <c r="N140" s="7"/>
-      <c r="O140" s="4"/>
-      <c r="P140" s="4"/>
-      <c r="Q140" s="4"/>
-      <c r="R140" s="4"/>
-      <c r="S140" s="4"/>
-      <c r="T140" s="4"/>
-      <c r="U140" s="4"/>
+      <c r="F140" s="16"/>
+      <c r="G140" s="16"/>
+      <c r="H140" s="16"/>
+      <c r="I140" s="16"/>
+      <c r="J140" s="11"/>
+      <c r="K140" s="11"/>
+      <c r="L140" s="11"/>
+      <c r="M140" s="11"/>
+      <c r="N140" s="14"/>
+      <c r="O140" s="11"/>
+      <c r="P140" s="11"/>
+      <c r="Q140" s="11"/>
+      <c r="R140" s="11"/>
+      <c r="S140" s="11"/>
+      <c r="T140" s="11"/>
+      <c r="U140" s="11"/>
     </row>
     <row r="141" spans="6:21">
-      <c r="F141" s="9"/>
-      <c r="G141" s="9"/>
-      <c r="H141" s="9"/>
-      <c r="I141" s="9"/>
-      <c r="J141" s="4"/>
-      <c r="K141" s="4"/>
-      <c r="L141" s="4"/>
-      <c r="M141" s="4"/>
-      <c r="N141" s="7"/>
-      <c r="O141" s="4"/>
-      <c r="P141" s="4"/>
-      <c r="Q141" s="4"/>
-      <c r="R141" s="4"/>
-      <c r="S141" s="4"/>
-      <c r="T141" s="4"/>
-      <c r="U141" s="4"/>
+      <c r="F141" s="16"/>
+      <c r="G141" s="16"/>
+      <c r="H141" s="16"/>
+      <c r="I141" s="16"/>
+      <c r="J141" s="11"/>
+      <c r="K141" s="11"/>
+      <c r="L141" s="11"/>
+      <c r="M141" s="11"/>
+      <c r="N141" s="14"/>
+      <c r="O141" s="11"/>
+      <c r="P141" s="11"/>
+      <c r="Q141" s="11"/>
+      <c r="R141" s="11"/>
+      <c r="S141" s="11"/>
+      <c r="T141" s="11"/>
+      <c r="U141" s="11"/>
     </row>
     <row r="142" spans="6:21">
-      <c r="F142" s="9"/>
-      <c r="G142" s="9"/>
-      <c r="H142" s="9"/>
-      <c r="I142" s="9"/>
-      <c r="J142" s="4"/>
-      <c r="K142" s="4"/>
-      <c r="L142" s="4"/>
-      <c r="M142" s="4"/>
-      <c r="N142" s="7"/>
-      <c r="O142" s="4"/>
-      <c r="P142" s="4"/>
-      <c r="Q142" s="4"/>
-      <c r="R142" s="4"/>
-      <c r="S142" s="4"/>
-      <c r="T142" s="4"/>
-      <c r="U142" s="4"/>
+      <c r="F142" s="16"/>
+      <c r="G142" s="16"/>
+      <c r="H142" s="16"/>
+      <c r="I142" s="16"/>
+      <c r="J142" s="11"/>
+      <c r="K142" s="11"/>
+      <c r="L142" s="11"/>
+      <c r="M142" s="11"/>
+      <c r="N142" s="14"/>
+      <c r="O142" s="11"/>
+      <c r="P142" s="11"/>
+      <c r="Q142" s="11"/>
+      <c r="R142" s="11"/>
+      <c r="S142" s="11"/>
+      <c r="T142" s="11"/>
+      <c r="U142" s="11"/>
     </row>
     <row r="143" spans="6:51">
-      <c r="F143" s="9"/>
-      <c r="G143" s="9"/>
-      <c r="H143" s="9"/>
-      <c r="I143" s="9"/>
-      <c r="J143" s="4"/>
-      <c r="K143" s="4"/>
-      <c r="L143" s="4"/>
-      <c r="M143" s="4"/>
-      <c r="N143" s="7"/>
-      <c r="O143" s="4"/>
-      <c r="P143" s="4"/>
-      <c r="Q143" s="4"/>
-      <c r="R143" s="4"/>
-      <c r="S143" s="4"/>
-      <c r="T143" s="4"/>
-      <c r="U143" s="4"/>
+      <c r="F143" s="16"/>
+      <c r="G143" s="16"/>
+      <c r="H143" s="16"/>
+      <c r="I143" s="16"/>
+      <c r="J143" s="11"/>
+      <c r="K143" s="11"/>
+      <c r="L143" s="11"/>
+      <c r="M143" s="11"/>
+      <c r="N143" s="14"/>
+      <c r="O143" s="11"/>
+      <c r="P143" s="11"/>
+      <c r="Q143" s="11"/>
+      <c r="R143" s="11"/>
+      <c r="S143" s="11"/>
+      <c r="T143" s="11"/>
+      <c r="U143" s="11"/>
       <c r="AY143" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="144" spans="6:21">
-      <c r="F144" s="9"/>
-      <c r="G144" s="9"/>
-      <c r="H144" s="9"/>
-      <c r="I144" s="9"/>
-      <c r="J144" s="4"/>
-      <c r="K144" s="4"/>
-      <c r="L144" s="4"/>
-      <c r="M144" s="4"/>
-      <c r="N144" s="7"/>
-      <c r="O144" s="4"/>
-      <c r="P144" s="4"/>
-      <c r="Q144" s="4"/>
-      <c r="R144" s="4"/>
-      <c r="S144" s="4"/>
-      <c r="T144" s="4"/>
-      <c r="U144" s="4"/>
+      <c r="F144" s="16"/>
+      <c r="G144" s="16"/>
+      <c r="H144" s="16"/>
+      <c r="I144" s="16"/>
+      <c r="J144" s="11"/>
+      <c r="K144" s="11"/>
+      <c r="L144" s="11"/>
+      <c r="M144" s="11"/>
+      <c r="N144" s="14"/>
+      <c r="O144" s="11"/>
+      <c r="P144" s="11"/>
+      <c r="Q144" s="11"/>
+      <c r="R144" s="11"/>
+      <c r="S144" s="11"/>
+      <c r="T144" s="11"/>
+      <c r="U144" s="11"/>
     </row>
     <row r="145" spans="6:21">
-      <c r="F145" s="9"/>
-      <c r="G145" s="9"/>
-      <c r="H145" s="9"/>
-      <c r="I145" s="9"/>
-      <c r="J145" s="4"/>
-      <c r="K145" s="4"/>
-      <c r="L145" s="4"/>
-      <c r="M145" s="4"/>
-      <c r="N145" s="7"/>
-      <c r="O145" s="4"/>
-      <c r="P145" s="4"/>
-      <c r="Q145" s="4"/>
-      <c r="R145" s="4"/>
-      <c r="S145" s="4"/>
-      <c r="T145" s="4"/>
-      <c r="U145" s="4"/>
+      <c r="F145" s="16"/>
+      <c r="G145" s="16"/>
+      <c r="H145" s="16"/>
+      <c r="I145" s="16"/>
+      <c r="J145" s="11"/>
+      <c r="K145" s="11"/>
+      <c r="L145" s="11"/>
+      <c r="M145" s="11"/>
+      <c r="N145" s="14"/>
+      <c r="O145" s="11"/>
+      <c r="P145" s="11"/>
+      <c r="Q145" s="11"/>
+      <c r="R145" s="11"/>
+      <c r="S145" s="11"/>
+      <c r="T145" s="11"/>
+      <c r="U145" s="11"/>
     </row>
     <row r="146" spans="6:21">
-      <c r="F146" s="9"/>
-      <c r="G146" s="9"/>
-      <c r="H146" s="9"/>
-      <c r="I146" s="9"/>
-      <c r="J146" s="4"/>
-      <c r="K146" s="4"/>
-      <c r="L146" s="4"/>
-      <c r="M146" s="4"/>
-      <c r="N146" s="7"/>
-      <c r="O146" s="4"/>
-      <c r="P146" s="4"/>
-      <c r="Q146" s="4"/>
-      <c r="R146" s="4"/>
-      <c r="S146" s="4"/>
-      <c r="T146" s="4"/>
-      <c r="U146" s="4"/>
+      <c r="F146" s="16"/>
+      <c r="G146" s="16"/>
+      <c r="H146" s="16"/>
+      <c r="I146" s="16"/>
+      <c r="J146" s="11"/>
+      <c r="K146" s="11"/>
+      <c r="L146" s="11"/>
+      <c r="M146" s="11"/>
+      <c r="N146" s="14"/>
+      <c r="O146" s="11"/>
+      <c r="P146" s="11"/>
+      <c r="Q146" s="11"/>
+      <c r="R146" s="11"/>
+      <c r="S146" s="11"/>
+      <c r="T146" s="11"/>
+      <c r="U146" s="11"/>
     </row>
     <row r="147" spans="6:21">
-      <c r="F147" s="9"/>
-      <c r="G147" s="9"/>
-      <c r="H147" s="9"/>
-      <c r="I147" s="9"/>
-      <c r="J147" s="4"/>
-      <c r="K147" s="4"/>
-      <c r="L147" s="4"/>
-      <c r="M147" s="4"/>
-      <c r="N147" s="7"/>
-      <c r="O147" s="4"/>
-      <c r="P147" s="4"/>
-      <c r="Q147" s="4"/>
-      <c r="R147" s="4"/>
-      <c r="S147" s="4"/>
-      <c r="T147" s="4"/>
-      <c r="U147" s="4"/>
+      <c r="F147" s="16"/>
+      <c r="G147" s="16"/>
+      <c r="H147" s="16"/>
+      <c r="I147" s="16"/>
+      <c r="J147" s="11"/>
+      <c r="K147" s="11"/>
+      <c r="L147" s="11"/>
+      <c r="M147" s="11"/>
+      <c r="N147" s="14"/>
+      <c r="O147" s="11"/>
+      <c r="P147" s="11"/>
+      <c r="Q147" s="11"/>
+      <c r="R147" s="11"/>
+      <c r="S147" s="11"/>
+      <c r="T147" s="11"/>
+      <c r="U147" s="11"/>
     </row>
     <row r="148" spans="6:21">
-      <c r="F148" s="7"/>
-      <c r="G148" s="4"/>
-      <c r="H148" s="4"/>
-      <c r="I148" s="4"/>
-      <c r="J148" s="4"/>
-      <c r="K148" s="4"/>
-      <c r="L148" s="4"/>
-      <c r="M148" s="4"/>
-      <c r="N148" s="7"/>
-      <c r="O148" s="4"/>
-      <c r="P148" s="4"/>
-      <c r="Q148" s="4"/>
-      <c r="R148" s="4"/>
-      <c r="S148" s="4"/>
-      <c r="T148" s="4"/>
-      <c r="U148" s="4"/>
+      <c r="F148" s="14"/>
+      <c r="G148" s="11"/>
+      <c r="H148" s="11"/>
+      <c r="I148" s="11"/>
+      <c r="J148" s="11"/>
+      <c r="K148" s="11"/>
+      <c r="L148" s="11"/>
+      <c r="M148" s="11"/>
+      <c r="N148" s="14"/>
+      <c r="O148" s="11"/>
+      <c r="P148" s="11"/>
+      <c r="Q148" s="11"/>
+      <c r="R148" s="11"/>
+      <c r="S148" s="11"/>
+      <c r="T148" s="11"/>
+      <c r="U148" s="11"/>
     </row>
     <row r="149" spans="6:21">
-      <c r="F149" s="7"/>
-      <c r="G149" s="4"/>
-      <c r="H149" s="4"/>
-      <c r="I149" s="4"/>
-      <c r="J149" s="4"/>
-      <c r="K149" s="4"/>
-      <c r="L149" s="4"/>
-      <c r="M149" s="4"/>
-      <c r="N149" s="7"/>
-      <c r="O149" s="4"/>
-      <c r="P149" s="4"/>
-      <c r="Q149" s="4"/>
-      <c r="R149" s="4"/>
-      <c r="S149" s="4"/>
-      <c r="T149" s="4"/>
-      <c r="U149" s="4"/>
+      <c r="F149" s="14"/>
+      <c r="G149" s="11"/>
+      <c r="H149" s="11"/>
+      <c r="I149" s="11"/>
+      <c r="J149" s="11"/>
+      <c r="K149" s="11"/>
+      <c r="L149" s="11"/>
+      <c r="M149" s="11"/>
+      <c r="N149" s="14"/>
+      <c r="O149" s="11"/>
+      <c r="P149" s="11"/>
+      <c r="Q149" s="11"/>
+      <c r="R149" s="11"/>
+      <c r="S149" s="11"/>
+      <c r="T149" s="11"/>
+      <c r="U149" s="11"/>
     </row>
     <row r="150" spans="6:21">
-      <c r="F150" s="4"/>
-      <c r="G150" s="4"/>
-      <c r="H150" s="4"/>
-      <c r="I150" s="4"/>
-      <c r="J150" s="4"/>
-      <c r="K150" s="4"/>
-      <c r="L150" s="4"/>
-      <c r="M150" s="4"/>
-      <c r="N150" s="4"/>
-      <c r="O150" s="4"/>
-      <c r="P150" s="4"/>
-      <c r="Q150" s="4"/>
-      <c r="R150" s="4"/>
-      <c r="S150" s="4"/>
-      <c r="T150" s="4"/>
-      <c r="U150" s="4"/>
+      <c r="F150" s="11"/>
+      <c r="G150" s="11"/>
+      <c r="H150" s="11"/>
+      <c r="I150" s="11"/>
+      <c r="J150" s="11"/>
+      <c r="K150" s="11"/>
+      <c r="L150" s="11"/>
+      <c r="M150" s="11"/>
+      <c r="N150" s="11"/>
+      <c r="O150" s="11"/>
+      <c r="P150" s="11"/>
+      <c r="Q150" s="11"/>
+      <c r="R150" s="11"/>
+      <c r="S150" s="11"/>
+      <c r="T150" s="11"/>
+      <c r="U150" s="11"/>
     </row>
     <row r="151" spans="6:14">
-      <c r="F151" s="4"/>
-      <c r="G151" s="4"/>
-      <c r="H151" s="4"/>
-      <c r="I151" s="4"/>
-      <c r="J151" s="4"/>
-      <c r="K151" s="4"/>
-      <c r="L151" s="4"/>
-      <c r="M151" s="4"/>
-      <c r="N151" s="4"/>
+      <c r="F151" s="11"/>
+      <c r="G151" s="11"/>
+      <c r="H151" s="11"/>
+      <c r="I151" s="11"/>
+      <c r="J151" s="11"/>
+      <c r="K151" s="11"/>
+      <c r="L151" s="11"/>
+      <c r="M151" s="11"/>
+      <c r="N151" s="11"/>
     </row>
     <row r="152" spans="6:14">
-      <c r="F152" s="4"/>
-      <c r="G152" s="4"/>
-      <c r="H152" s="4"/>
-      <c r="I152" s="4"/>
-      <c r="J152" s="4"/>
-      <c r="K152" s="4"/>
-      <c r="L152" s="4"/>
-      <c r="M152" s="4"/>
-      <c r="N152" s="4"/>
+      <c r="F152" s="11"/>
+      <c r="G152" s="11"/>
+      <c r="H152" s="11"/>
+      <c r="I152" s="11"/>
+      <c r="J152" s="11"/>
+      <c r="K152" s="11"/>
+      <c r="L152" s="11"/>
+      <c r="M152" s="11"/>
+      <c r="N152" s="11"/>
     </row>
     <row r="153" spans="6:14">
-      <c r="F153" s="10"/>
-      <c r="G153" s="4"/>
-      <c r="H153" s="4"/>
-      <c r="I153" s="4"/>
-      <c r="J153" s="4"/>
-      <c r="K153" s="4"/>
-      <c r="L153" s="4"/>
-      <c r="M153" s="4"/>
-      <c r="N153" s="4"/>
+      <c r="F153" s="17"/>
+      <c r="G153" s="11"/>
+      <c r="H153" s="11"/>
+      <c r="I153" s="11"/>
+      <c r="J153" s="11"/>
+      <c r="K153" s="11"/>
+      <c r="L153" s="11"/>
+      <c r="M153" s="11"/>
+      <c r="N153" s="11"/>
     </row>
     <row r="154" spans="6:14">
-      <c r="F154" s="4"/>
-      <c r="G154" s="4"/>
-      <c r="H154" s="4"/>
-      <c r="I154" s="4"/>
-      <c r="J154" s="4"/>
-      <c r="K154" s="4"/>
-      <c r="L154" s="4"/>
-      <c r="M154" s="4"/>
-      <c r="N154" s="4"/>
+      <c r="F154" s="11"/>
+      <c r="G154" s="11"/>
+      <c r="H154" s="11"/>
+      <c r="I154" s="11"/>
+      <c r="J154" s="11"/>
+      <c r="K154" s="11"/>
+      <c r="L154" s="11"/>
+      <c r="M154" s="11"/>
+      <c r="N154" s="11"/>
     </row>
     <row r="155" spans="6:14">
-      <c r="F155" s="4"/>
-      <c r="G155" s="4"/>
-      <c r="H155" s="4"/>
-      <c r="I155" s="4"/>
-      <c r="J155" s="4"/>
-      <c r="K155" s="4"/>
-      <c r="L155" s="4"/>
-      <c r="M155" s="4"/>
-      <c r="N155" s="4"/>
+      <c r="F155" s="11"/>
+      <c r="G155" s="11"/>
+      <c r="H155" s="11"/>
+      <c r="I155" s="11"/>
+      <c r="J155" s="11"/>
+      <c r="K155" s="11"/>
+      <c r="L155" s="11"/>
+      <c r="M155" s="11"/>
+      <c r="N155" s="11"/>
     </row>
     <row r="161" spans="6:6">
       <c r="F161" s="1"/>
@@ -39927,8 +42278,8 @@
   <sheetPr/>
   <dimension ref="D1:L2285"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A677" workbookViewId="0">
-      <selection activeCell="L703" sqref="L703"/>
+    <sheetView topLeftCell="A247" workbookViewId="0">
+      <selection activeCell="B266" sqref="B266"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75"/>
@@ -40332,7 +42683,7 @@
       </c>
     </row>
     <row r="88" ht="16.5" spans="4:4">
-      <c r="D88" s="2" t="s">
+      <c r="D88" s="8" t="s">
         <v>73</v>
       </c>
     </row>
@@ -40798,7 +43149,7 @@
       </c>
     </row>
     <row r="200" spans="4:4">
-      <c r="D200" s="2" t="s">
+      <c r="D200" s="8" t="s">
         <v>152</v>
       </c>
     </row>
@@ -40861,41 +43212,41 @@
       <c r="D214" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="E214" s="3"/>
-      <c r="F214" s="3"/>
-      <c r="G214" s="3"/>
+      <c r="E214" s="1"/>
+      <c r="F214" s="1"/>
+      <c r="G214" s="1"/>
     </row>
     <row r="215" spans="4:7">
       <c r="D215" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="E215" s="3"/>
-      <c r="F215" s="3"/>
-      <c r="G215" s="3"/>
+      <c r="E215" s="1"/>
+      <c r="F215" s="1"/>
+      <c r="G215" s="1"/>
     </row>
     <row r="216" spans="4:7">
       <c r="D216" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E216" s="3"/>
-      <c r="F216" s="3"/>
-      <c r="G216" s="3"/>
+      <c r="E216" s="1"/>
+      <c r="F216" s="1"/>
+      <c r="G216" s="1"/>
     </row>
     <row r="217" spans="4:7">
       <c r="D217" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="E217" s="3"/>
-      <c r="F217" s="3"/>
-      <c r="G217" s="3"/>
+      <c r="E217" s="1"/>
+      <c r="F217" s="1"/>
+      <c r="G217" s="1"/>
     </row>
     <row r="218" spans="4:7">
       <c r="D218" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E218" s="3"/>
-      <c r="F218" s="3"/>
-      <c r="G218" s="3"/>
+      <c r="E218" s="1"/>
+      <c r="F218" s="1"/>
+      <c r="G218" s="1"/>
     </row>
     <row r="220" spans="4:4">
       <c r="D220" t="s">
@@ -41097,8 +43448,8 @@
         <v>201</v>
       </c>
     </row>
-    <row r="268" spans="4:4">
-      <c r="D268" s="1" t="s">
+    <row r="268" ht="16.5" spans="4:4">
+      <c r="D268" s="9" t="s">
         <v>202</v>
       </c>
     </row>
@@ -41734,7 +44085,7 @@
       <c r="D408" t="s">
         <v>324</v>
       </c>
-      <c r="F408" s="11" t="s">
+      <c r="F408" s="18" t="s">
         <v>325</v>
       </c>
     </row>
@@ -41742,7 +44093,7 @@
       <c r="D409" t="s">
         <v>326</v>
       </c>
-      <c r="F409" s="11" t="s">
+      <c r="F409" s="18" t="s">
         <v>327</v>
       </c>
     </row>
@@ -41750,7 +44101,7 @@
       <c r="D410" t="s">
         <v>328</v>
       </c>
-      <c r="F410" s="11" t="s">
+      <c r="F410" s="18" t="s">
         <v>329</v>
       </c>
     </row>
@@ -41758,7 +44109,7 @@
       <c r="D411" t="s">
         <v>330</v>
       </c>
-      <c r="F411" s="11" t="s">
+      <c r="F411" s="18" t="s">
         <v>331</v>
       </c>
     </row>
@@ -41766,7 +44117,7 @@
       <c r="D412" t="s">
         <v>332</v>
       </c>
-      <c r="F412" s="11" t="s">
+      <c r="F412" s="18" t="s">
         <v>333</v>
       </c>
     </row>
@@ -41774,7 +44125,7 @@
       <c r="D413" t="s">
         <v>334</v>
       </c>
-      <c r="F413" s="11" t="s">
+      <c r="F413" s="18" t="s">
         <v>335</v>
       </c>
     </row>
@@ -41782,7 +44133,7 @@
       <c r="D414" t="s">
         <v>336</v>
       </c>
-      <c r="F414" s="11" t="s">
+      <c r="F414" s="18" t="s">
         <v>337</v>
       </c>
     </row>
@@ -41790,7 +44141,7 @@
       <c r="D415" t="s">
         <v>338</v>
       </c>
-      <c r="F415" s="11" t="s">
+      <c r="F415" s="18" t="s">
         <v>339</v>
       </c>
     </row>
@@ -41798,7 +44149,7 @@
       <c r="D416" t="s">
         <v>340</v>
       </c>
-      <c r="F416" s="11" t="s">
+      <c r="F416" s="18" t="s">
         <v>341</v>
       </c>
     </row>
@@ -42432,31 +44783,31 @@
       <c r="D568" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="E568" s="3"/>
-      <c r="F568" s="3"/>
-      <c r="G568" s="3"/>
-      <c r="H568" s="3"/>
-      <c r="I568" s="3"/>
+      <c r="E568" s="1"/>
+      <c r="F568" s="1"/>
+      <c r="G568" s="1"/>
+      <c r="H568" s="1"/>
+      <c r="I568" s="1"/>
     </row>
     <row r="569" spans="4:9">
-      <c r="D569" s="3"/>
+      <c r="D569" s="1"/>
       <c r="E569" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="F569" s="3"/>
-      <c r="G569" s="3"/>
-      <c r="H569" s="3"/>
-      <c r="I569" s="3"/>
+      <c r="F569" s="1"/>
+      <c r="G569" s="1"/>
+      <c r="H569" s="1"/>
+      <c r="I569" s="1"/>
     </row>
     <row r="570" spans="4:9">
-      <c r="D570" s="3"/>
+      <c r="D570" s="1"/>
       <c r="E570" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="F570" s="3"/>
-      <c r="G570" s="3"/>
-      <c r="H570" s="3"/>
-      <c r="I570" s="3"/>
+      <c r="F570" s="1"/>
+      <c r="G570" s="1"/>
+      <c r="H570" s="1"/>
+      <c r="I570" s="1"/>
     </row>
     <row r="572" spans="4:4">
       <c r="D572" t="s">
@@ -49897,7 +52248,7 @@
       <c r="C21">
         <v>20</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="8" t="s">
         <v>1611</v>
       </c>
     </row>
@@ -53131,6 +55482,846 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="D3:I185"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="3" spans="4:4">
+      <c r="D3" s="1" t="s">
+        <v>1905</v>
+      </c>
+    </row>
+    <row r="5" spans="4:4">
+      <c r="D5" t="s">
+        <v>1906</v>
+      </c>
+    </row>
+    <row r="12" spans="4:4">
+      <c r="D12" t="s">
+        <v>1907</v>
+      </c>
+    </row>
+    <row r="14" ht="16.5" spans="4:4">
+      <c r="D14" t="s">
+        <v>1908</v>
+      </c>
+    </row>
+    <row r="16" ht="16.5" spans="4:4">
+      <c r="D16" t="s">
+        <v>1909</v>
+      </c>
+    </row>
+    <row r="18" ht="16.5" spans="4:4">
+      <c r="D18" t="s">
+        <v>1910</v>
+      </c>
+    </row>
+    <row r="19" spans="4:4">
+      <c r="D19" t="s">
+        <v>1911</v>
+      </c>
+    </row>
+    <row r="20" spans="4:4">
+      <c r="D20" t="s">
+        <v>1912</v>
+      </c>
+    </row>
+    <row r="21" spans="4:4">
+      <c r="D21" t="s">
+        <v>1913</v>
+      </c>
+    </row>
+    <row r="22" spans="4:4">
+      <c r="D22" t="s">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="23" spans="4:4">
+      <c r="D23" t="s">
+        <v>1915</v>
+      </c>
+    </row>
+    <row r="24" spans="4:4">
+      <c r="D24" t="s">
+        <v>1916</v>
+      </c>
+    </row>
+    <row r="25" ht="16.5" spans="4:4">
+      <c r="D25" t="s">
+        <v>1917</v>
+      </c>
+    </row>
+    <row r="27" ht="16.5" spans="4:4">
+      <c r="D27" t="s">
+        <v>1918</v>
+      </c>
+    </row>
+    <row r="29" spans="4:4">
+      <c r="D29" t="s">
+        <v>1919</v>
+      </c>
+    </row>
+    <row r="31" ht="16.5" spans="4:4">
+      <c r="D31" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="34" spans="4:4">
+      <c r="D34" s="2" t="s">
+        <v>1921</v>
+      </c>
+    </row>
+    <row r="35" spans="4:4">
+      <c r="D35" s="2"/>
+    </row>
+    <row r="36" spans="4:4">
+      <c r="D36" s="2"/>
+    </row>
+    <row r="37" spans="4:4">
+      <c r="D37" s="2"/>
+    </row>
+    <row r="38" spans="4:4">
+      <c r="D38" s="2"/>
+    </row>
+    <row r="39" spans="4:4">
+      <c r="D39" s="2"/>
+    </row>
+    <row r="42" spans="4:4">
+      <c r="D42" s="3"/>
+    </row>
+    <row r="46" spans="4:4">
+      <c r="D46" s="4" t="s">
+        <v>1922</v>
+      </c>
+    </row>
+    <row r="48" ht="16.5" spans="4:4">
+      <c r="D48" s="5" t="s">
+        <v>1923</v>
+      </c>
+    </row>
+    <row r="50" ht="16.5" spans="4:4">
+      <c r="D50" s="5" t="s">
+        <v>1924</v>
+      </c>
+    </row>
+    <row r="52" ht="16.5" spans="4:4">
+      <c r="D52" s="5" t="s">
+        <v>1925</v>
+      </c>
+    </row>
+    <row r="57" spans="4:4">
+      <c r="D57" t="s">
+        <v>1926</v>
+      </c>
+    </row>
+    <row r="58" spans="4:4">
+      <c r="D58" t="s">
+        <v>1927</v>
+      </c>
+    </row>
+    <row r="59" spans="4:4">
+      <c r="D59" t="s">
+        <v>1928</v>
+      </c>
+    </row>
+    <row r="60" spans="4:4">
+      <c r="D60" t="s">
+        <v>1929</v>
+      </c>
+    </row>
+    <row r="61" spans="4:4">
+      <c r="D61" t="s">
+        <v>1930</v>
+      </c>
+    </row>
+    <row r="62" spans="4:4">
+      <c r="D62" t="s">
+        <v>1931</v>
+      </c>
+    </row>
+    <row r="63" spans="4:4">
+      <c r="D63" t="s">
+        <v>1932</v>
+      </c>
+    </row>
+    <row r="64" spans="4:4">
+      <c r="D64" t="s">
+        <v>1933</v>
+      </c>
+    </row>
+    <row r="65" spans="4:4">
+      <c r="D65" t="s">
+        <v>1934</v>
+      </c>
+    </row>
+    <row r="66" spans="4:4">
+      <c r="D66" t="s">
+        <v>1935</v>
+      </c>
+    </row>
+    <row r="67" spans="4:4">
+      <c r="D67" t="s">
+        <v>1936</v>
+      </c>
+    </row>
+    <row r="68" spans="4:4">
+      <c r="D68" t="s">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="69" spans="4:4">
+      <c r="D69" t="s">
+        <v>1938</v>
+      </c>
+    </row>
+    <row r="70" spans="4:4">
+      <c r="D70" t="s">
+        <v>1939</v>
+      </c>
+    </row>
+    <row r="71" spans="4:4">
+      <c r="D71" t="s">
+        <v>1940</v>
+      </c>
+    </row>
+    <row r="72" spans="4:4">
+      <c r="D72" t="s">
+        <v>1941</v>
+      </c>
+    </row>
+    <row r="73" spans="4:4">
+      <c r="D73" t="s">
+        <v>1942</v>
+      </c>
+    </row>
+    <row r="74" spans="4:4">
+      <c r="D74" t="s">
+        <v>1943</v>
+      </c>
+    </row>
+    <row r="75" spans="4:4">
+      <c r="D75" t="s">
+        <v>1944</v>
+      </c>
+    </row>
+    <row r="76" spans="4:4">
+      <c r="D76" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="77" spans="4:4">
+      <c r="D77" t="s">
+        <v>1946</v>
+      </c>
+    </row>
+    <row r="78" spans="4:4">
+      <c r="D78" t="s">
+        <v>1947</v>
+      </c>
+    </row>
+    <row r="79" spans="4:4">
+      <c r="D79" t="s">
+        <v>1948</v>
+      </c>
+    </row>
+    <row r="80" spans="4:4">
+      <c r="D80" t="s">
+        <v>1949</v>
+      </c>
+    </row>
+    <row r="86" spans="4:4">
+      <c r="D86" s="4" t="s">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="88" ht="16.5" spans="4:4">
+      <c r="D88" s="5" t="s">
+        <v>1951</v>
+      </c>
+    </row>
+    <row r="89" ht="16.5" spans="4:4">
+      <c r="D89" s="5" t="s">
+        <v>1952</v>
+      </c>
+    </row>
+    <row r="90" ht="16.5" spans="4:4">
+      <c r="D90" s="5" t="s">
+        <v>1953</v>
+      </c>
+    </row>
+    <row r="91" ht="16.5" spans="4:4">
+      <c r="D91" s="5" t="s">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="92" ht="16.5" spans="4:4">
+      <c r="D92" s="5" t="s">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="94" spans="4:4">
+      <c r="D94" s="4" t="s">
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="96" ht="16.5" spans="4:4">
+      <c r="D96" s="5" t="s">
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="97" ht="16.5" spans="4:4">
+      <c r="D97" s="5" t="s">
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="98" ht="16.5" spans="4:4">
+      <c r="D98" s="5" t="s">
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="99" ht="16.5" spans="4:4">
+      <c r="D99" s="5" t="s">
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="100" ht="16.5" spans="4:4">
+      <c r="D100" s="5" t="s">
+        <v>1961</v>
+      </c>
+    </row>
+    <row r="101" ht="16.5" spans="4:4">
+      <c r="D101" s="5" t="s">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="102" ht="16.5" spans="4:4">
+      <c r="D102" s="5" t="s">
+        <v>1963</v>
+      </c>
+    </row>
+    <row r="103" ht="16.5" spans="4:4">
+      <c r="D103" s="5" t="s">
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="106" spans="4:4">
+      <c r="D106" s="4" t="s">
+        <v>1965</v>
+      </c>
+    </row>
+    <row r="107" ht="16.5" spans="4:4">
+      <c r="D107" t="s">
+        <v>1966</v>
+      </c>
+    </row>
+    <row r="108" ht="16.5" spans="4:4">
+      <c r="D108" t="s">
+        <v>1967</v>
+      </c>
+    </row>
+    <row r="109" spans="4:4">
+      <c r="D109" s="6" t="s">
+        <v>1968</v>
+      </c>
+    </row>
+    <row r="110" spans="4:4">
+      <c r="D110" s="6"/>
+    </row>
+    <row r="111" spans="4:9">
+      <c r="D111" s="7" t="s">
+        <v>1969</v>
+      </c>
+      <c r="E111" s="7"/>
+      <c r="F111" s="7"/>
+      <c r="G111" s="7"/>
+      <c r="H111" s="7"/>
+      <c r="I111" s="7"/>
+    </row>
+    <row r="112" spans="4:9">
+      <c r="D112" s="7" t="s">
+        <v>1970</v>
+      </c>
+      <c r="E112" s="7"/>
+      <c r="F112" s="7"/>
+      <c r="G112" s="7"/>
+      <c r="H112" s="7"/>
+      <c r="I112" s="7"/>
+    </row>
+    <row r="113" spans="4:9">
+      <c r="D113" s="7" t="s">
+        <v>1971</v>
+      </c>
+      <c r="E113" s="7"/>
+      <c r="F113" s="7"/>
+      <c r="G113" s="7"/>
+      <c r="H113" s="7"/>
+      <c r="I113" s="7"/>
+    </row>
+    <row r="114" spans="4:9">
+      <c r="D114" s="7"/>
+      <c r="E114" s="7"/>
+      <c r="F114" s="7"/>
+      <c r="G114" s="7"/>
+      <c r="H114" s="7"/>
+      <c r="I114" s="7"/>
+    </row>
+    <row r="115" spans="4:9">
+      <c r="D115" s="7" t="s">
+        <v>1972</v>
+      </c>
+      <c r="E115" s="7"/>
+      <c r="F115" s="7"/>
+      <c r="G115" s="7"/>
+      <c r="H115" s="7"/>
+      <c r="I115" s="7"/>
+    </row>
+    <row r="116" spans="4:9">
+      <c r="D116" s="7" t="s">
+        <v>1973</v>
+      </c>
+      <c r="E116" s="7"/>
+      <c r="F116" s="7"/>
+      <c r="G116" s="7"/>
+      <c r="H116" s="7"/>
+      <c r="I116" s="7"/>
+    </row>
+    <row r="117" spans="4:9">
+      <c r="D117" s="7" t="s">
+        <v>1971</v>
+      </c>
+      <c r="E117" s="7"/>
+      <c r="F117" s="7"/>
+      <c r="G117" s="7"/>
+      <c r="H117" s="7"/>
+      <c r="I117" s="7"/>
+    </row>
+    <row r="118" spans="4:9">
+      <c r="D118" s="7" t="s">
+        <v>1974</v>
+      </c>
+      <c r="E118" s="7"/>
+      <c r="F118" s="7"/>
+      <c r="G118" s="7"/>
+      <c r="H118" s="7"/>
+      <c r="I118" s="7"/>
+    </row>
+    <row r="119" spans="4:9">
+      <c r="D119" s="7" t="s">
+        <v>1975</v>
+      </c>
+      <c r="E119" s="7"/>
+      <c r="F119" s="7"/>
+      <c r="G119" s="7"/>
+      <c r="H119" s="7"/>
+      <c r="I119" s="7"/>
+    </row>
+    <row r="120" spans="4:9">
+      <c r="D120" s="7" t="s">
+        <v>1976</v>
+      </c>
+      <c r="E120" s="7"/>
+      <c r="F120" s="7"/>
+      <c r="G120" s="7"/>
+      <c r="H120" s="7"/>
+      <c r="I120" s="7"/>
+    </row>
+    <row r="121" spans="4:9">
+      <c r="D121" s="7" t="s">
+        <v>1977</v>
+      </c>
+      <c r="E121" s="7"/>
+      <c r="F121" s="7"/>
+      <c r="G121" s="7"/>
+      <c r="H121" s="7"/>
+      <c r="I121" s="7"/>
+    </row>
+    <row r="122" spans="4:9">
+      <c r="D122" s="7" t="s">
+        <v>1978</v>
+      </c>
+      <c r="E122" s="7"/>
+      <c r="F122" s="7"/>
+      <c r="G122" s="7"/>
+      <c r="H122" s="7"/>
+      <c r="I122" s="7"/>
+    </row>
+    <row r="123" spans="4:9">
+      <c r="D123" s="7"/>
+      <c r="E123" s="7"/>
+      <c r="F123" s="7"/>
+      <c r="G123" s="7"/>
+      <c r="H123" s="7"/>
+      <c r="I123" s="7"/>
+    </row>
+    <row r="124" spans="4:9">
+      <c r="D124" s="7" t="s">
+        <v>1979</v>
+      </c>
+      <c r="E124" s="7"/>
+      <c r="F124" s="7"/>
+      <c r="G124" s="7"/>
+      <c r="H124" s="7"/>
+      <c r="I124" s="7"/>
+    </row>
+    <row r="125" spans="4:9">
+      <c r="D125" s="7" t="s">
+        <v>1980</v>
+      </c>
+      <c r="E125" s="7"/>
+      <c r="F125" s="7"/>
+      <c r="G125" s="7"/>
+      <c r="H125" s="7"/>
+      <c r="I125" s="7"/>
+    </row>
+    <row r="126" spans="4:9">
+      <c r="D126" s="7" t="s">
+        <v>1981</v>
+      </c>
+      <c r="E126" s="7"/>
+      <c r="F126" s="7"/>
+      <c r="G126" s="7"/>
+      <c r="H126" s="7"/>
+      <c r="I126" s="7"/>
+    </row>
+    <row r="127" spans="4:9">
+      <c r="D127" s="7" t="s">
+        <v>1982</v>
+      </c>
+      <c r="E127" s="7"/>
+      <c r="F127" s="7"/>
+      <c r="G127" s="7"/>
+      <c r="H127" s="7"/>
+      <c r="I127" s="7"/>
+    </row>
+    <row r="128" spans="4:9">
+      <c r="D128" s="7"/>
+      <c r="E128" s="7"/>
+      <c r="F128" s="7"/>
+      <c r="G128" s="7"/>
+      <c r="H128" s="7"/>
+      <c r="I128" s="7"/>
+    </row>
+    <row r="129" spans="4:9">
+      <c r="D129" s="7" t="s">
+        <v>1983</v>
+      </c>
+      <c r="E129" s="7"/>
+      <c r="F129" s="7"/>
+      <c r="G129" s="7"/>
+      <c r="H129" s="7"/>
+      <c r="I129" s="7"/>
+    </row>
+    <row r="130" spans="4:9">
+      <c r="D130" s="7" t="s">
+        <v>1984</v>
+      </c>
+      <c r="E130" s="7"/>
+      <c r="F130" s="7"/>
+      <c r="G130" s="7"/>
+      <c r="H130" s="7"/>
+      <c r="I130" s="7"/>
+    </row>
+    <row r="131" spans="4:9">
+      <c r="D131" s="7" t="s">
+        <v>1985</v>
+      </c>
+      <c r="E131" s="7"/>
+      <c r="F131" s="7"/>
+      <c r="G131" s="7"/>
+      <c r="H131" s="7"/>
+      <c r="I131" s="7"/>
+    </row>
+    <row r="132" spans="4:9">
+      <c r="D132" s="7" t="s">
+        <v>1986</v>
+      </c>
+      <c r="E132" s="7"/>
+      <c r="F132" s="7"/>
+      <c r="G132" s="7"/>
+      <c r="H132" s="7"/>
+      <c r="I132" s="7"/>
+    </row>
+    <row r="133" spans="4:9">
+      <c r="D133" s="7" t="s">
+        <v>1982</v>
+      </c>
+      <c r="E133" s="7"/>
+      <c r="F133" s="7"/>
+      <c r="G133" s="7"/>
+      <c r="H133" s="7"/>
+      <c r="I133" s="7"/>
+    </row>
+    <row r="134" spans="4:9">
+      <c r="D134" s="7"/>
+      <c r="E134" s="7"/>
+      <c r="F134" s="7"/>
+      <c r="G134" s="7"/>
+      <c r="H134" s="7"/>
+      <c r="I134" s="7"/>
+    </row>
+    <row r="135" spans="4:9">
+      <c r="D135" s="7" t="s">
+        <v>1987</v>
+      </c>
+      <c r="E135" s="7"/>
+      <c r="F135" s="7"/>
+      <c r="G135" s="7"/>
+      <c r="H135" s="7"/>
+      <c r="I135" s="7"/>
+    </row>
+    <row r="136" spans="4:9">
+      <c r="D136" s="7" t="s">
+        <v>1988</v>
+      </c>
+      <c r="E136" s="7"/>
+      <c r="F136" s="7"/>
+      <c r="G136" s="7"/>
+      <c r="H136" s="7"/>
+      <c r="I136" s="7"/>
+    </row>
+    <row r="137" spans="4:9">
+      <c r="D137" s="7" t="s">
+        <v>1989</v>
+      </c>
+      <c r="E137" s="7"/>
+      <c r="F137" s="7"/>
+      <c r="G137" s="7"/>
+      <c r="H137" s="7"/>
+      <c r="I137" s="7"/>
+    </row>
+    <row r="138" spans="4:9">
+      <c r="D138" s="7" t="s">
+        <v>1990</v>
+      </c>
+      <c r="E138" s="7"/>
+      <c r="F138" s="7"/>
+      <c r="G138" s="7"/>
+      <c r="H138" s="7"/>
+      <c r="I138" s="7"/>
+    </row>
+    <row r="139" spans="4:9">
+      <c r="D139" s="7" t="s">
+        <v>1982</v>
+      </c>
+      <c r="E139" s="7"/>
+      <c r="F139" s="7"/>
+      <c r="G139" s="7"/>
+      <c r="H139" s="7"/>
+      <c r="I139" s="7"/>
+    </row>
+    <row r="143" spans="4:4">
+      <c r="D143" s="6" t="s">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="146" ht="16.5" spans="4:4">
+      <c r="D146" t="s">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="149" spans="4:4">
+      <c r="D149" s="6" t="s">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="155" ht="16.5" spans="4:4">
+      <c r="D155" t="s">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="159" spans="4:4">
+      <c r="D159" s="4" t="s">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="161" spans="4:4">
+      <c r="D161" t="s">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="162" spans="4:4">
+      <c r="D162" t="s">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="163" spans="4:4">
+      <c r="D163" t="s">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="164" spans="4:4">
+      <c r="D164" s="7" t="s">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="166" spans="4:4">
+      <c r="D166" t="s">
+        <v>1972</v>
+      </c>
+    </row>
+    <row r="167" spans="4:4">
+      <c r="D167" t="s">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="168" spans="4:4">
+      <c r="D168" s="7" t="s">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="169" spans="4:4">
+      <c r="D169" t="s">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="171" spans="4:4">
+      <c r="D171" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="172" spans="4:4">
+      <c r="D172" s="7" t="s">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="173" spans="4:4">
+      <c r="D173" t="s">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="174" spans="4:4">
+      <c r="D174" t="s">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="176" spans="4:4">
+      <c r="D176" s="7" t="s">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="177" spans="4:4">
+      <c r="D177" t="s">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="178" spans="4:4">
+      <c r="D178" t="s">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="179" spans="4:4">
+      <c r="D179" t="s">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="180" spans="4:4">
+      <c r="D180" s="7"/>
+    </row>
+    <row r="181" spans="4:4">
+      <c r="D181" t="s">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="183" spans="4:4">
+      <c r="D183" s="7"/>
+    </row>
+    <row r="185" spans="4:4">
+      <c r="D185" s="6" t="s">
+        <v>2007</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <controls>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="4103" r:id="rId3">
+          <controlPr defaultSize="0">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>83</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>84</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="4103" r:id="rId3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="4104" r:id="rId4">
+          <controlPr defaultSize="0">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>140</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>141</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="4104" r:id="rId4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="4105" r:id="rId5">
+          <controlPr defaultSize="0">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>160</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>161</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="4105" r:id="rId5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </controls>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
@@ -53147,7 +56338,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
@@ -53162,4 +56353,736 @@
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="D2:E160"/>
+  <sheetViews>
+    <sheetView topLeftCell="A143" workbookViewId="0">
+      <selection activeCell="E170" sqref="E170"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelCol="4"/>
+  <sheetData>
+    <row r="2" spans="4:4">
+      <c r="D2" t="s">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="3" spans="4:4">
+      <c r="D3" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="4" spans="4:4">
+      <c r="D4" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="5" spans="5:5">
+      <c r="E5" t="s">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="6" spans="4:4">
+      <c r="D6" t="s">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="7" spans="5:5">
+      <c r="E7" t="s">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="8" spans="4:4">
+      <c r="D8" t="s">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="9" spans="5:5">
+      <c r="E9" t="s">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="10" spans="4:4">
+      <c r="D10" t="s">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="11" spans="4:4">
+      <c r="D11" t="s">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="12" spans="4:4">
+      <c r="D12" t="s">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="13" spans="4:4">
+      <c r="D13" t="s">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="15" spans="4:4">
+      <c r="D15" t="s">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="16" spans="4:4">
+      <c r="D16" t="s">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4">
+      <c r="D17" t="s">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="19" spans="4:4">
+      <c r="D19" t="s">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="20" spans="4:4">
+      <c r="D20" t="s">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="21" spans="4:4">
+      <c r="D21" t="s">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="23" spans="4:4">
+      <c r="D23" t="s">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="24" spans="4:4">
+      <c r="D24" t="s">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="25" spans="4:4">
+      <c r="D25" t="s">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="26" spans="4:4">
+      <c r="D26" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="27" spans="4:4">
+      <c r="D27" t="s">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="28" spans="4:4">
+      <c r="D28" t="s">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="29" spans="4:4">
+      <c r="D29" t="s">
+        <v>2031</v>
+      </c>
+    </row>
+    <row r="30" spans="4:4">
+      <c r="D30" t="s">
+        <v>2032</v>
+      </c>
+    </row>
+    <row r="31" spans="4:4">
+      <c r="D31" t="s">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="32" spans="4:4">
+      <c r="D32" t="s">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="33" spans="4:4">
+      <c r="D33" t="s">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="34" spans="4:4">
+      <c r="D34" t="s">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="37" spans="4:4">
+      <c r="D37" t="s">
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="38" spans="4:4">
+      <c r="D38" t="s">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="39" spans="4:4">
+      <c r="D39" t="s">
+        <v>2039</v>
+      </c>
+    </row>
+    <row r="40" spans="5:5">
+      <c r="E40" t="s">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="41" spans="4:4">
+      <c r="D41" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="42" spans="4:4">
+      <c r="D42" t="s">
+        <v>2042</v>
+      </c>
+    </row>
+    <row r="43" spans="4:4">
+      <c r="D43" t="s">
+        <v>2043</v>
+      </c>
+    </row>
+    <row r="44" spans="4:4">
+      <c r="D44" t="s">
+        <v>2044</v>
+      </c>
+    </row>
+    <row r="46" spans="4:4">
+      <c r="D46" t="s">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="47" spans="4:4">
+      <c r="D47" t="s">
+        <v>2046</v>
+      </c>
+    </row>
+    <row r="48" spans="4:4">
+      <c r="D48" t="s">
+        <v>2047</v>
+      </c>
+    </row>
+    <row r="49" spans="4:4">
+      <c r="D49" t="s">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="51" spans="4:4">
+      <c r="D51" t="s">
+        <v>2049</v>
+      </c>
+    </row>
+    <row r="52" spans="4:4">
+      <c r="D52" t="s">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="53" spans="4:4">
+      <c r="D53" t="s">
+        <v>2051</v>
+      </c>
+    </row>
+    <row r="54" spans="4:4">
+      <c r="D54" t="s">
+        <v>2052</v>
+      </c>
+    </row>
+    <row r="55" spans="4:4">
+      <c r="D55" t="s">
+        <v>2053</v>
+      </c>
+    </row>
+    <row r="56" spans="4:4">
+      <c r="D56" t="s">
+        <v>2054</v>
+      </c>
+    </row>
+    <row r="57" spans="4:4">
+      <c r="D57" t="s">
+        <v>2055</v>
+      </c>
+    </row>
+    <row r="58" spans="4:4">
+      <c r="D58" t="s">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="59" spans="4:4">
+      <c r="D59" t="s">
+        <v>2057</v>
+      </c>
+    </row>
+    <row r="60" spans="4:4">
+      <c r="D60" t="s">
+        <v>2058</v>
+      </c>
+    </row>
+    <row r="61" spans="4:4">
+      <c r="D61" t="s">
+        <v>2059</v>
+      </c>
+    </row>
+    <row r="62" spans="4:4">
+      <c r="D62" t="s">
+        <v>2060</v>
+      </c>
+    </row>
+    <row r="64" spans="4:4">
+      <c r="D64" t="s">
+        <v>2061</v>
+      </c>
+    </row>
+    <row r="65" spans="4:4">
+      <c r="D65" t="s">
+        <v>2062</v>
+      </c>
+    </row>
+    <row r="66" spans="4:4">
+      <c r="D66" t="s">
+        <v>2063</v>
+      </c>
+    </row>
+    <row r="68" spans="4:4">
+      <c r="D68" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="69" spans="4:4">
+      <c r="D69" t="s">
+        <v>2065</v>
+      </c>
+    </row>
+    <row r="70" spans="4:4">
+      <c r="D70" t="s">
+        <v>2066</v>
+      </c>
+    </row>
+    <row r="72" spans="4:4">
+      <c r="D72" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="73" spans="4:4">
+      <c r="D73" t="s">
+        <v>2068</v>
+      </c>
+    </row>
+    <row r="74" spans="4:4">
+      <c r="D74" t="s">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="75" spans="4:4">
+      <c r="D75" t="s">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="77" spans="4:4">
+      <c r="D77" t="s">
+        <v>2071</v>
+      </c>
+    </row>
+    <row r="78" spans="4:4">
+      <c r="D78" t="s">
+        <v>2072</v>
+      </c>
+    </row>
+    <row r="79" spans="4:4">
+      <c r="D79" t="s">
+        <v>2073</v>
+      </c>
+    </row>
+    <row r="80" spans="4:4">
+      <c r="D80" t="s">
+        <v>2074</v>
+      </c>
+    </row>
+    <row r="81" spans="4:4">
+      <c r="D81" t="s">
+        <v>2075</v>
+      </c>
+    </row>
+    <row r="82" spans="4:4">
+      <c r="D82" t="s">
+        <v>2076</v>
+      </c>
+    </row>
+    <row r="83" spans="4:4">
+      <c r="D83" t="s">
+        <v>2077</v>
+      </c>
+    </row>
+    <row r="85" spans="4:4">
+      <c r="D85" t="s">
+        <v>2078</v>
+      </c>
+    </row>
+    <row r="86" spans="4:4">
+      <c r="D86" t="s">
+        <v>2079</v>
+      </c>
+    </row>
+    <row r="87" spans="4:4">
+      <c r="D87" t="s">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="88" spans="4:4">
+      <c r="D88" t="s">
+        <v>2081</v>
+      </c>
+    </row>
+    <row r="90" spans="4:4">
+      <c r="D90" t="s">
+        <v>2082</v>
+      </c>
+    </row>
+    <row r="91" spans="4:4">
+      <c r="D91" t="s">
+        <v>2083</v>
+      </c>
+    </row>
+    <row r="92" spans="4:4">
+      <c r="D92" t="s">
+        <v>2084</v>
+      </c>
+    </row>
+    <row r="93" spans="4:4">
+      <c r="D93" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="94" spans="4:4">
+      <c r="D94" t="s">
+        <v>2086</v>
+      </c>
+    </row>
+    <row r="95" spans="4:4">
+      <c r="D95" t="s">
+        <v>2087</v>
+      </c>
+    </row>
+    <row r="96" spans="4:4">
+      <c r="D96" t="s">
+        <v>2088</v>
+      </c>
+    </row>
+    <row r="97" spans="4:4">
+      <c r="D97" t="s">
+        <v>2089</v>
+      </c>
+    </row>
+    <row r="98" spans="4:4">
+      <c r="D98" t="s">
+        <v>2090</v>
+      </c>
+    </row>
+    <row r="100" spans="4:4">
+      <c r="D100" t="s">
+        <v>2091</v>
+      </c>
+    </row>
+    <row r="101" spans="4:4">
+      <c r="D101" t="s">
+        <v>2092</v>
+      </c>
+    </row>
+    <row r="103" spans="4:4">
+      <c r="D103" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="105" spans="4:4">
+      <c r="D105" t="s">
+        <v>2094</v>
+      </c>
+    </row>
+    <row r="106" spans="4:4">
+      <c r="D106" t="s">
+        <v>2095</v>
+      </c>
+    </row>
+    <row r="107" spans="4:4">
+      <c r="D107" t="s">
+        <v>2096</v>
+      </c>
+    </row>
+    <row r="108" spans="4:4">
+      <c r="D108" t="s">
+        <v>2097</v>
+      </c>
+    </row>
+    <row r="109" spans="4:4">
+      <c r="D109" t="s">
+        <v>2098</v>
+      </c>
+    </row>
+    <row r="110" spans="4:4">
+      <c r="D110" t="s">
+        <v>2099</v>
+      </c>
+    </row>
+    <row r="111" spans="4:4">
+      <c r="D111" t="s">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="112" spans="4:4">
+      <c r="D112" t="s">
+        <v>2101</v>
+      </c>
+    </row>
+    <row r="113" spans="4:4">
+      <c r="D113" t="s">
+        <v>2102</v>
+      </c>
+    </row>
+    <row r="114" spans="4:4">
+      <c r="D114" t="s">
+        <v>2103</v>
+      </c>
+    </row>
+    <row r="115" spans="4:4">
+      <c r="D115" t="s">
+        <v>2104</v>
+      </c>
+    </row>
+    <row r="116" spans="4:4">
+      <c r="D116" t="s">
+        <v>2105</v>
+      </c>
+    </row>
+    <row r="117" spans="4:4">
+      <c r="D117" t="s">
+        <v>2106</v>
+      </c>
+    </row>
+    <row r="118" spans="4:4">
+      <c r="D118" t="s">
+        <v>2107</v>
+      </c>
+    </row>
+    <row r="119" spans="4:4">
+      <c r="D119" t="s">
+        <v>2108</v>
+      </c>
+    </row>
+    <row r="120" spans="4:4">
+      <c r="D120" t="s">
+        <v>2109</v>
+      </c>
+    </row>
+    <row r="121" spans="4:4">
+      <c r="D121" t="s">
+        <v>2110</v>
+      </c>
+    </row>
+    <row r="122" spans="4:4">
+      <c r="D122" t="s">
+        <v>2111</v>
+      </c>
+    </row>
+    <row r="123" spans="4:4">
+      <c r="D123" t="s">
+        <v>2112</v>
+      </c>
+    </row>
+    <row r="124" spans="4:4">
+      <c r="D124" t="s">
+        <v>2113</v>
+      </c>
+    </row>
+    <row r="125" spans="4:4">
+      <c r="D125" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="126" spans="5:5">
+      <c r="E126" t="s">
+        <v>2114</v>
+      </c>
+    </row>
+    <row r="127" spans="4:4">
+      <c r="D127" t="s">
+        <v>2115</v>
+      </c>
+    </row>
+    <row r="128" spans="4:4">
+      <c r="D128" t="s">
+        <v>2116</v>
+      </c>
+    </row>
+    <row r="129" spans="4:4">
+      <c r="D129" t="s">
+        <v>2117</v>
+      </c>
+    </row>
+    <row r="130" spans="4:4">
+      <c r="D130" t="s">
+        <v>2118</v>
+      </c>
+    </row>
+    <row r="131" spans="4:4">
+      <c r="D131" t="s">
+        <v>2119</v>
+      </c>
+    </row>
+    <row r="132" spans="4:4">
+      <c r="D132" t="s">
+        <v>2120</v>
+      </c>
+    </row>
+    <row r="133" spans="4:4">
+      <c r="D133" t="s">
+        <v>2112</v>
+      </c>
+    </row>
+    <row r="134" spans="4:4">
+      <c r="D134" t="s">
+        <v>2121</v>
+      </c>
+    </row>
+    <row r="135" spans="4:4">
+      <c r="D135" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="136" spans="5:5">
+      <c r="E136" t="s">
+        <v>2114</v>
+      </c>
+    </row>
+    <row r="137" spans="4:4">
+      <c r="D137" t="s">
+        <v>2122</v>
+      </c>
+    </row>
+    <row r="138" spans="4:4">
+      <c r="D138" t="s">
+        <v>2123</v>
+      </c>
+    </row>
+    <row r="139" spans="4:4">
+      <c r="D139" t="s">
+        <v>2124</v>
+      </c>
+    </row>
+    <row r="140" spans="4:4">
+      <c r="D140" t="s">
+        <v>2125</v>
+      </c>
+    </row>
+    <row r="141" spans="4:4">
+      <c r="D141" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="142" spans="4:4">
+      <c r="D142" t="s">
+        <v>2126</v>
+      </c>
+    </row>
+    <row r="143" spans="4:4">
+      <c r="D143" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="144" spans="5:5">
+      <c r="E144" t="s">
+        <v>2114</v>
+      </c>
+    </row>
+    <row r="145" spans="4:4">
+      <c r="D145" t="s">
+        <v>2127</v>
+      </c>
+    </row>
+    <row r="146" spans="4:4">
+      <c r="D146" t="s">
+        <v>2124</v>
+      </c>
+    </row>
+    <row r="147" spans="4:4">
+      <c r="D147" t="s">
+        <v>2128</v>
+      </c>
+    </row>
+    <row r="148" spans="4:4">
+      <c r="D148" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="149" spans="4:4">
+      <c r="D149" t="s">
+        <v>2129</v>
+      </c>
+    </row>
+    <row r="150" spans="4:4">
+      <c r="D150" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="151" spans="5:5">
+      <c r="E151" t="s">
+        <v>2114</v>
+      </c>
+    </row>
+    <row r="152" spans="4:4">
+      <c r="D152" t="s">
+        <v>2130</v>
+      </c>
+    </row>
+    <row r="153" spans="4:4">
+      <c r="D153" t="s">
+        <v>2124</v>
+      </c>
+    </row>
+    <row r="154" spans="4:4">
+      <c r="D154" t="s">
+        <v>2131</v>
+      </c>
+    </row>
+    <row r="155" spans="4:4">
+      <c r="D155" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="156" spans="4:4">
+      <c r="D156" t="s">
+        <v>2129</v>
+      </c>
+    </row>
+    <row r="157" spans="4:4">
+      <c r="D157" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="158" spans="5:5">
+      <c r="E158" t="s">
+        <v>2114</v>
+      </c>
+    </row>
+    <row r="159" spans="4:4">
+      <c r="D159" t="s">
+        <v>2132</v>
+      </c>
+    </row>
+    <row r="160" spans="4:4">
+      <c r="D160" t="s">
+        <v>2071</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/uboot_compile_framework.xlsx
+++ b/uboot_compile_framework.xlsx
@@ -10,17 +10,18 @@
     <sheet name="uboot 编译顶层流程分析" sheetId="1" r:id="rId1"/>
     <sheet name="顶层Makefile分析" sheetId="5" r:id="rId2"/>
     <sheet name="u-boot-scripts-Makefile.build分析" sheetId="2" r:id="rId3"/>
-    <sheet name="Kconfig规则 以及与 makefile .config " sheetId="7" r:id="rId4"/>
-    <sheet name="$(MAKE) $(build)=xxxxx  机制分析" sheetId="3" r:id="rId5"/>
-    <sheet name="$(call  xxx,  xxx) 机制分析" sheetId="4" r:id="rId6"/>
-    <sheet name="Makefile语法规则讲解" sheetId="6" r:id="rId7"/>
+    <sheet name="编译调试方法" sheetId="8" r:id="rId4"/>
+    <sheet name="Kconfig规则 以及与 makefile .config " sheetId="7" r:id="rId5"/>
+    <sheet name="$(MAKE) $(build)=xxxxx  机制分析" sheetId="3" r:id="rId6"/>
+    <sheet name="$(call  xxx,  xxx) 机制分析" sheetId="4" r:id="rId7"/>
+    <sheet name="Makefile语法规则讲解" sheetId="6" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2626" uniqueCount="2133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3093" uniqueCount="2586">
   <si>
     <t>...</t>
   </si>
@@ -711,6 +712,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1D41D5"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>KCONFIG_CONFIG</t>
     </r>
     <r>
@@ -5965,6 +5974,1401 @@
     <t>$(shell mkdir -p $(obj-dirs))</t>
   </si>
   <si>
+    <t>1：最土的办法就是在Makefile的各个规则中添加echo 打印来跟踪编译到哪一步了，</t>
+  </si>
+  <si>
+    <t>2: 用make V=1, 放开Q，make过程中实时回显，看执行的的动作，如下，make V=1的 过程的完整打印,  make V=1 -w, -w还可以打印出当前进入到呢个目录下执行makefile</t>
+  </si>
+  <si>
+    <t>make: Entering directory '/home/hpsp/rock_space/uboot_code/hpsp_uboot/u-boot'</t>
+  </si>
+  <si>
+    <t>make -f ./Makefile syncconfig</t>
+  </si>
+  <si>
+    <t>make -f ./scripts/Makefile.build obj=scripts/basic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  cc -Wp,-MD,scripts/basic/.fixdep.d -Wall -Wstrict-prototypes -O2 -fomit-frame-pointer    -std=gnu11     -o scripts/basic/fixdep scripts/basic/fixdep.c   </t>
+  </si>
+  <si>
+    <t>rm -f .tmp_quiet_recordmcount</t>
+  </si>
+  <si>
+    <t>make -f ./scripts/Makefile.build obj=scripts/kconfig syncconfig</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  cc -Wp,-MD,scripts/kconfig/.conf.o.d -Wall -Wstrict-prototypes -O2 -fomit-frame-pointer    -std=gnu11     -c -o scripts/kconfig/conf.o scripts/kconfig/conf.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  bison -oscripts/kconfig/zconf.tab.c -t -l scripts/kconfig/zconf.y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  flex -oscripts/kconfig/zconf.lex.c -L scripts/kconfig/zconf.l</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  cc -Wp,-MD,scripts/kconfig/.zconf.tab.o.d -Wall -Wstrict-prototypes -O2 -fomit-frame-pointer    -std=gnu11    -Iscripts/kconfig -c -o scripts/kconfig/zconf.tab.o scripts/kconfig/zconf.tab.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  cc   -o scripts/kconfig/conf scripts/kconfig/conf.o scripts/kconfig/zconf.tab.o   </t>
+  </si>
+  <si>
+    <t>scripts/kconfig/conf  --syncconfig Kconfig</t>
+  </si>
+  <si>
+    <t>make -f ./scripts/Makefile.autoconf || \</t>
+  </si>
+  <si>
+    <t>if [ -d arch/arm/mach-exynos/include/mach ]; then</t>
+  </si>
+  <si>
+    <t>dest=../../mach-exynos/include/mach;</t>
+  </si>
+  <si>
+    <t>dest=arch-exynos;</t>
+  </si>
+  <si>
+    <t>ln -fsn $dest arch/arm/include/asm/arch</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">set -e; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1D41D5"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">mkdir -p include/; </t>
+    </r>
+  </si>
+  <si>
+    <t>(echo "/* Automatically generated - do not edit */"; for i in $(echo "" | sed 's/,/ /g'); do echo \#define CONFIG_$i | sed '/=/ {s/=/</t>
+  </si>
+  <si>
+    <t>/;q; } ; { s/$/</t>
+  </si>
+  <si>
+    <t>1/; }'; done; echo \#define CONFIG_BOARDDIR board/samsung/origen; echo \#include \&lt;config_defaults.h\&gt;; echo \#include \&lt;config_uncmd_spl.h\&gt;; echo \#include \&lt;configs/"origen".h\&gt;; echo \#include \&lt;asm/config.h\&gt;; echo \#include \&lt;linux/kconfig.h\&gt;; echo \#include \&lt;config_fallbacks.h\&gt;;) &lt; scripts/Makefile.autoconf &gt; include/config.h.tmp; if [ -r include/config.h ] &amp;&amp; cmp -s include/config.h include/config.h.tmp; then rm -f include/config.h.tmp; else : '  UPD     include/config.h'; mv -f include/config.h.tmp include/config.h; fi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  arm-hpsp-linux-gnueabi-gcc -E -Wall -Wstrict-prototypes -Wno-format-security -fno-builtin -ffreestanding -std=gnu11 -fshort-wchar -fno-strict-aliasing -fno-PIE -O2 -fno-stack-protector -fno-delete-null-pointer-checks -Wno-stringop-truncation -fmacro-prefix-map=./= -g -fstack-usage -Wno-format-nonliteral  -Wno-unused-but-set-variable -Werror=date-time  -D__KERNEL__ -D__UBOOT__   -D__ARM__ -marm -mno-thumb-interwork  -mabi=aapcs-linux  -mword-relocations  -fno-pic  -mno-unaligned-access  -ffunction-sections -fdata-sections -fno-common -ffixed-r9  -msoft-float    -pipe -Iinclude  -I./arch/arm/include -include ./include/linux/kconfig.h  -nostdinc -isystem /home/hpsp/rock_space/uboot_code/crosstool-ng-1.24.0/.build/arm-hpsp-linux-gnueabi/buildtools/lib/gcc/arm-hpsp-linux-gnueabi/8.3.0/include  -DDO_DEPS_ONLY -dM ./include/common.h &gt; u-boot.cfg.tmp &amp;&amp; { grep 'define CONFIG_' u-boot.cfg.tmp &gt; u-boot.cfg; rm u-boot.cfg.tmp; } || { rm u-boot.cfg.tmp; false; }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  sed -n -f ./tools/scripts/define2mk.sed u-boot.cfg | while read line; do if [ -n "" ] || ! grep -q "${line%=*}=" include/config/auto.conf; then echo "$line"; fi done &gt; include/autoconf.mk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  arm-hpsp-linux-gnueabi-gcc -x c -DDO_DEPS_ONLY -M -MP -Wall -Wstrict-prototypes -Wno-format-security -fno-builtin -ffreestanding -std=gnu11 -fshort-wchar -fno-strict-aliasing -fno-PIE -O2 -fno-stack-protector -fno-delete-null-pointer-checks -Wno-stringop-truncation -fmacro-prefix-map=./= -g -fstack-usage -Wno-format-nonliteral  -Wno-unused-but-set-variable -Werror=date-time  -D__KERNEL__ -D__UBOOT__   -D__ARM__ -marm -mno-thumb-interwork  -mabi=aapcs-linux  -mword-relocations  -fno-pic  -mno-unaligned-access  -ffunction-sections -fdata-sections -fno-common -ffixed-r9  -msoft-float    -pipe -Iinclude  -I./arch/arm/include -include ./include/linux/kconfig.h  -nostdinc -isystem /home/hpsp/rock_space/uboot_code/crosstool-ng-1.24.0/.build/arm-hpsp-linux-gnueabi/buildtools/lib/gcc/arm-hpsp-linux-gnueabi/8.3.0/include -MQ include/config/auto.conf ./include/common.h &gt; include/autoconf.mk.dep || { rm include/autoconf.mk.dep; false; }</t>
+  </si>
+  <si>
+    <t>touch include/config/auto.conf</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">set -e; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1D41D5"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">mkdir -p include/config/; </t>
+    </r>
+  </si>
+  <si>
+    <t>echo "2020.07-rc3$(/bin/bash ./scripts/setlocalversion .)" &lt; include/config/auto.conf &gt; include/config/uboot.release.tmp; if [ -r include/config/uboot.release ] &amp;&amp; cmp -s include/config/uboot.release include/config/uboot.release.tmp; then rm -f include/config/uboot.release.tmp; else : '  UPD     include/config/uboot.release'; mv -f include/config/uboot.release.tmp include/config/uboot.release; fi</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">set -e; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1D41D5"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">mkdir -p include/generated/; </t>
+    </r>
+  </si>
+  <si>
+    <t>(echo \#define PLAIN_VERSION \"2020.07-rc3""+\"; echo \#define U_BOOT_VERSION \"U-Boot \" PLAIN_VERSION; echo \#define CC_VERSION_STRING \"$(LC_ALL=C arm-hpsp-linux-gnueabi-gcc --version | head -n 1)\"; echo \#define LD_VERSION_STRING \"$(LC_ALL=C arm-hpsp-linux-gnueabi-ld.bfd --version | head -n 1)\"; ) &lt; include/config/uboot.release &gt; include/generated/version_autogenerated.h.tmp; if [ -r include/generated/version_autogenerated.h ] &amp;&amp; cmp -s include/generated/version_autogenerated.h include/generated/version_autogenerated.h.tmp; then rm -f include/generated/version_autogenerated.h.tmp; else : '  UPD     include/generated/version_autogenerated.h'; mv -f include/generated/version_autogenerated.h.tmp include/generated/version_autogenerated.h; fi</t>
+  </si>
+  <si>
+    <t>(if test -n "${SOURCE_DATE_EPOCH}"; then SOURCE_DATE="@${SOURCE_DATE_EPOCH}"; DATE=""; for date in gdate date.gnu date; do ${date} -u -d "${SOURCE_DATE}" &gt;/dev/null 2&gt;&amp;1 &amp;&amp; DATE="${date}"; done; if test -n "${DATE}"; then LC_ALL=C ${DATE} -u -d "${SOURCE_DATE}" +'#define U_BOOT_DATE "%b %d %C%y"'; LC_ALL=C ${DATE} -u -d "${SOURCE_DATE}" +'#define U_BOOT_TIME "%T"'; LC_ALL=C ${DATE} -u -d "${SOURCE_DATE}" +'#define U_BOOT_TZ "%z"'; LC_ALL=C ${DATE} -u -d "${SOURCE_DATE}" +'#define U_BOOT_DMI_DATE "%m/%d/%Y"'; LC_ALL=C ${DATE} -u -d "${SOURCE_DATE}" +'#define U_BOOT_BUILD_DATE 0x%Y%m%d'; else return 42; fi; else LC_ALL=C date +'#define U_BOOT_DATE "%b %d %C%y"'; LC_ALL=C date +'#define U_BOOT_TIME "%T"'; LC_ALL=C date +'#define U_BOOT_TZ "%z"'; LC_ALL=C date +'#define U_BOOT_DMI_DATE "%m/%d/%Y"'; LC_ALL=C date +'#define U_BOOT_BUILD_DATE 0x%Y%m%d'; fi) &lt; Makefile &gt; include/generated/timestamp_autogenerated.h.tmp; if [ -r include/generated/timestamp_autogenerated.h ] &amp;&amp; cmp -s include/generated/timestamp_autogenerated.h include/generated/timestamp_autogenerated.h.tmp; then rm -f include/generated/timestamp_autogenerated.h.tmp; else : '  UPD     include/generated/timestamp_autogenerated.h'; mv -f include/generated/timestamp_autogenerated.h.tmp include/generated/timestamp_autogenerated.h; fi</t>
+  </si>
+  <si>
+    <t>(if test -n "${DEVICE_TREE}"; then echo \#define DEVICE_TREE \"\"; else echo \#define DEVICE_TREE CONFIG_DEFAULT_DEVICE_TREE; fi) &lt; Makefile &gt; include/generated/dt.h.tmp; if [ -r include/generated/dt.h ] &amp;&amp; cmp -s include/generated/dt.h include/generated/dt.h.tmp; then rm -f include/generated/dt.h.tmp; else : '  UPD     include/generated/dt.h'; mv -f include/generated/dt.h.tmp include/generated/dt.h; fi</t>
+  </si>
+  <si>
+    <t>make -f ./scripts/Makefile.build obj=.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  arm-hpsp-linux-gnueabi-gcc -Wp,-MD,lib/.asm-offsets.s.d  -nostdinc -isystem /home/hpsp/rock_space/uboot_code/crosstool-ng-1.24.0/.build/arm-hpsp-linux-gnueabi/buildtools/lib/gcc/arm-hpsp-linux-gnueabi/8.3.0/include -Iinclude   -I./arch/arm/include -include ./include/linux/kconfig.h -D__KERNEL__ -D__UBOOT__ -Wall -Wstrict-prototypes -Wno-format-security -fno-builtin -ffreestanding -std=gnu11 -fshort-wchar -fno-strict-aliasing -fno-PIE -O2 -fno-stack-protector -fno-delete-null-pointer-checks -Wno-stringop-truncation -fmacro-prefix-map=./= -g -fstack-usage -Wno-format-nonliteral -Wno-unused-but-set-variable -Werror=date-time -D__ARM__ -marm -mno-thumb-interwork -mabi=aapcs-linux -mword-relocations -fno-pic -mno-unaligned-access -ffunction-sections -fdata-sections -fno-common -ffixed-r9 -msoft-float -pipe -march=armv7-a -D__LINUX_ARM_ARCH__=7 -mtune=generic-armv7-a -I./arch/arm/mach-exynos/include -DDO_DEPS_ONLY    -DKBUILD_BASENAME='"asm_offsets"'  -DKBUILD_MODNAME='"asm_offsets"'  -fverbose-asm -S -o lib/asm-offsets.s lib/asm-offsets.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(set -e; echo "#ifndef __GENERIC_ASM_OFFSETS_H__"; echo "#define __GENERIC_ASM_OFFSETS_H__"; echo "/*"; echo " * DO NOT MODIFY."; echo " *"; echo " * This file was generated by Kbuild"; echo " */"; echo ""; sed -ne </t>
+  </si>
+  <si>
+    <t>s:[[:space:]]*\.ascii[[:space:]]*\\(.*\)\":\1:; /^-&gt;/{s:-&gt;#\(.*\):/* \1 */:; s:^-&gt;\([^ ]*\) [\$#]*\([-0-9]*\) \(.*\):#define \1 \2 /* \3 */:; s:^-&gt;\([^ ]*\) [\$#]*\([^ ]*\) \(.*\):#define \1 \2 /* \3 */:; s:-&gt;::; p;}"; echo ""; echo "#endif" ) &lt; lib/asm-offsets.s &gt; include/generated/generic-asm-offsets.h.tmp; if [ -r include/generated/generic-asm-offsets.h ] &amp;&amp; cmp -s include/generated/generic-asm-offsets.h include/generated/generic-asm-offsets.h.tmp; then rm -f include/generated/generic-asm-offsets.h.tmp; else : '  UPD     include/generated/generic-asm-offsets.h'; mv -f include/generated/generic-asm-offsets.h.tmp include/generated/generic-asm-offsets.h; fi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  arm-hpsp-linux-gnueabi-gcc -Wp,-MD,arch/arm/lib/.asm-offsets.s.d  -nostdinc -isystem /home/hpsp/rock_space/uboot_code/crosstool-ng-1.24.0/.build/arm-hpsp-linux-gnueabi/buildtools/lib/gcc/arm-hpsp-linux-gnueabi/8.3.0/include -Iinclude   -I./arch/arm/include -include ./include/linux/kconfig.h -D__KERNEL__ -D__UBOOT__ -Wall -Wstrict-prototypes -Wno-format-security -fno-builtin -ffreestanding -std=gnu11 -fshort-wchar -fno-strict-aliasing -fno-PIE -O2 -fno-stack-protector -fno-delete-null-pointer-checks -Wno-stringop-truncation -fmacro-prefix-map=./= -g -fstack-usage -Wno-format-nonliteral -Wno-unused-but-set-variable -Werror=date-time -D__ARM__ -marm -mno-thumb-interwork -mabi=aapcs-linux -mword-relocations -fno-pic -mno-unaligned-access -ffunction-sections -fdata-sections -fno-common -ffixed-r9 -msoft-float -pipe -march=armv7-a -D__LINUX_ARM_ARCH__=7 -mtune=generic-armv7-a -I./arch/arm/mach-exynos/include -DDO_DEPS_ONLY    -DKBUILD_BASENAME='"asm_offsets"'  -DKBUILD_MODNAME='"asm_offsets"'  -fverbose-asm -S -o arch/arm/lib/asm-offsets.s arch/arm/lib/asm-offsets.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(set -e; echo "#ifndef __ASM_OFFSETS_H__"; echo "#define __ASM_OFFSETS_H__"; echo "/*"; echo " * DO NOT MODIFY."; echo " *"; echo " * This file was generated by Kbuild"; echo " */"; echo ""; sed -ne </t>
+  </si>
+  <si>
+    <t>s:[[:space:]]*\.ascii[[:space:]]*\\(.*\)\":\1:; /^-&gt;/{s:-&gt;#\(.*\):/* \1 */:; s:^-&gt;\([^ ]*\) [\$#]*\([-0-9]*\) \(.*\):#define \1 \2 /* \3 */:; s:^-&gt;\([^ ]*\) [\$#]*\([^ ]*\) \(.*\):#define \1 \2 /* \3 */:; s:-&gt;::; p;}"; echo ""; echo "#endif" ) &lt; arch/arm/lib/asm-offsets.s &gt; include/generated/asm-offsets.h.tmp; if [ -r include/generated/asm-offsets.h ] &amp;&amp; cmp -s include/generated/asm-offsets.h include/generated/asm-offsets.h.tmp; then rm -f include/generated/asm-offsets.h.tmp; else : '  UPD     include/generated/asm-offsets.h'; mv -f include/generated/asm-offsets.h.tmp include/generated/asm-offsets.h; fi</t>
+  </si>
+  <si>
+    <t>make -f ./scripts/Makefile.build obj=scripts</t>
+  </si>
+  <si>
+    <t>make -f ./scripts/Makefile.build obj=scripts/dtc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  cc -Wp,-MD,scripts/dtc/.dtc.o.d -Wall -Wstrict-prototypes -O2 -fomit-frame-pointer    -std=gnu11   -Iscripts/dtc/libfdt  -c -o scripts/dtc/dtc.o scripts/dtc/dtc.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  cc -Wp,-MD,scripts/dtc/.flattree.o.d -Wall -Wstrict-prototypes -O2 -fomit-frame-pointer    -std=gnu11   -Iscripts/dtc/libfdt  -c -o scripts/dtc/flattree.o scripts/dtc/flattree.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  cc -Wp,-MD,scripts/dtc/.fstree.o.d -Wall -Wstrict-prototypes -O2 -fomit-frame-pointer    -std=gnu11   -Iscripts/dtc/libfdt  -c -o scripts/dtc/fstree.o scripts/dtc/fstree.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  cc -Wp,-MD,scripts/dtc/.data.o.d -Wall -Wstrict-prototypes -O2 -fomit-frame-pointer    -std=gnu11   -Iscripts/dtc/libfdt  -c -o scripts/dtc/data.o scripts/dtc/data.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  cc -Wp,-MD,scripts/dtc/.livetree.o.d -Wall -Wstrict-prototypes -O2 -fomit-frame-pointer    -std=gnu11   -Iscripts/dtc/libfdt  -c -o scripts/dtc/livetree.o scripts/dtc/livetree.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  cc -Wp,-MD,scripts/dtc/.treesource.o.d -Wall -Wstrict-prototypes -O2 -fomit-frame-pointer    -std=gnu11   -Iscripts/dtc/libfdt  -c -o scripts/dtc/treesource.o scripts/dtc/treesource.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  cc -Wp,-MD,scripts/dtc/.srcpos.o.d -Wall -Wstrict-prototypes -O2 -fomit-frame-pointer    -std=gnu11   -Iscripts/dtc/libfdt  -c -o scripts/dtc/srcpos.o scripts/dtc/srcpos.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  cc -Wp,-MD,scripts/dtc/.checks.o.d -Wall -Wstrict-prototypes -O2 -fomit-frame-pointer    -std=gnu11   -Iscripts/dtc/libfdt  -c -o scripts/dtc/checks.o scripts/dtc/checks.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  cc -Wp,-MD,scripts/dtc/.util.o.d -Wall -Wstrict-prototypes -O2 -fomit-frame-pointer    -std=gnu11   -Iscripts/dtc/libfdt  -c -o scripts/dtc/util.o scripts/dtc/util.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  flex -oscripts/dtc/dtc-lexer.lex.c -L scripts/dtc/dtc-lexer.l</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  bison -o/dev/null --defines=scripts/dtc/dtc-parser.tab.h -t -l scripts/dtc/dtc-parser.y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  cc -Wp,-MD,scripts/dtc/.dtc-lexer.lex.o.d -Wall -Wstrict-prototypes -O2 -fomit-frame-pointer    -std=gnu11   -Iscripts/dtc/libfdt -Iscripts/dtc -c -o scripts/dtc/dtc-lexer.lex.o scripts/dtc/dtc-lexer.lex.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  bison -oscripts/dtc/dtc-parser.tab.c -t -l scripts/dtc/dtc-parser.y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  cc -Wp,-MD,scripts/dtc/.dtc-parser.tab.o.d -Wall -Wstrict-prototypes -O2 -fomit-frame-pointer    -std=gnu11   -Iscripts/dtc/libfdt -Iscripts/dtc -c -o scripts/dtc/dtc-parser.tab.o scripts/dtc/dtc-parser.tab.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  cc   -o scripts/dtc/dtc scripts/dtc/dtc.o scripts/dtc/flattree.o scripts/dtc/fstree.o scripts/dtc/data.o scripts/dtc/livetree.o scripts/dtc/treesource.o scripts/dtc/srcpos.o scripts/dtc/checks.o scripts/dtc/util.o scripts/dtc/dtc-lexer.lex.o scripts/dtc/dtc-parser.tab.o   </t>
+  </si>
+  <si>
+    <t>make -f ./scripts/Makefile.build obj=tools</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  cc -Wp,-MD,tools/.mkenvimage.o.d -Wall -Wstrict-prototypes -O2 -fomit-frame-pointer    -std=gnu11   -include ./include/compiler.h -idirafterinclude -idirafter./arch/arm/include -I./scripts/dtc/libfdt -I./tools -DUSE_HOSTCC -D__KERNEL_STRICT_NAMES -D_GNU_SOURCE -std=gnu99  -c -o tools/mkenvimage.o tools/mkenvimage.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  cc -Wp,-MD,tools/.os_support.o.d -Wall -Wstrict-prototypes -O2 -fomit-frame-pointer    -std=gnu11   -include ./include/compiler.h -idirafterinclude -idirafter./arch/arm/include -I./scripts/dtc/libfdt -I./tools -DUSE_HOSTCC -D__KERNEL_STRICT_NAMES -D_GNU_SOURCE -std=gnu99  -c -o tools/os_support.o tools/os_support.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  echo "#include &lt;../lib/crc32.c&gt;" &gt;tools/lib/crc32.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  cc -Wp,-MD,tools/lib/.crc32.o.d -Wall -Wstrict-prototypes -O2 -fomit-frame-pointer    -std=gnu11   -include ./include/compiler.h -idirafterinclude -idirafter./arch/arm/include -I./scripts/dtc/libfdt -I./tools -DUSE_HOSTCC -D__KERNEL_STRICT_NAMES -D_GNU_SOURCE -std=gnu99 -pedantic -c -o tools/lib/crc32.o tools/lib/crc32.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  cc   -o tools/mkenvimage tools/mkenvimage.o tools/os_support.o tools/lib/crc32.o   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  cc -Wp,-MD,tools/.aisimage.o.d -Wall -Wstrict-prototypes -O2 -fomit-frame-pointer    -std=gnu11   -include ./include/compiler.h -idirafterinclude -idirafter./arch/arm/include -I./scripts/dtc/libfdt -I./tools -DUSE_HOSTCC -D__KERNEL_STRICT_NAMES -D_GNU_SOURCE -std=gnu99  -c -o tools/aisimage.o tools/aisimage.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  cc -Wp,-MD,tools/.atmelimage.o.d -Wall -Wstrict-prototypes -O2 -fomit-frame-pointer    -std=gnu11   -include ./include/compiler.h -idirafterinclude -idirafter./arch/arm/include -I./scripts/dtc/libfdt -I./tools -DUSE_HOSTCC -D__KERNEL_STRICT_NAMES -D_GNU_SOURCE -std=gnu99  -c -o tools/atmelimage.o tools/atmelimage.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  echo "#include &lt;../common/fdt_region.c&gt;" &gt;tools/common/fdt_region.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  cc -Wp,-MD,tools/common/.fdt_region.o.d -Wall -Wstrict-prototypes -O2 -fomit-frame-pointer    -std=gnu11   -include ./include/compiler.h -idirafterinclude -idirafter./arch/arm/include -I./scripts/dtc/libfdt -I./tools -DUSE_HOSTCC -D__KERNEL_STRICT_NAMES -D_GNU_SOURCE -std=gnu99  -c -o tools/common/fdt_region.o tools/common/fdt_region.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  echo "#include &lt;../common/bootm.c&gt;" &gt;tools/common/bootm.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  cc -Wp,-MD,tools/common/.bootm.o.d -Wall -Wstrict-prototypes -O2 -fomit-frame-pointer    -std=gnu11   -include ./include/compiler.h -idirafterinclude -idirafter./arch/arm/include -I./scripts/dtc/libfdt -I./tools -DUSE_HOSTCC -D__KERNEL_STRICT_NAMES -D_GNU_SOURCE -std=gnu99  -c -o tools/common/bootm.o tools/common/bootm.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  cc -Wp,-MD,tools/.default_image.o.d -Wall -Wstrict-prototypes -O2 -fomit-frame-pointer    -std=gnu11   -include ./include/compiler.h -idirafterinclude -idirafter./arch/arm/include -I./scripts/dtc/libfdt -I./tools -DUSE_HOSTCC -D__KERNEL_STRICT_NAMES -D_GNU_SOURCE -std=gnu99  -c -o tools/default_image.o tools/default_image.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  echo "#include &lt;../lib/fdtdec_common.c&gt;" &gt;tools/lib/fdtdec_common.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  cc -Wp,-MD,tools/lib/.fdtdec_common.o.d -Wall -Wstrict-prototypes -O2 -fomit-frame-pointer    -std=gnu11   -include ./include/compiler.h -idirafterinclude -idirafter./arch/arm/include -I./scripts/dtc/libfdt -I./tools -DUSE_HOSTCC -D__KERNEL_STRICT_NAMES -D_GNU_SOURCE -std=gnu99  -c -o tools/lib/fdtdec_common.o tools/lib/fdtdec_common.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  echo "#include &lt;../lib/fdtdec.c&gt;" &gt;tools/lib/fdtdec.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  cc -Wp,-MD,tools/lib/.fdtdec.o.d -Wall -Wstrict-prototypes -O2 -fomit-frame-pointer    -std=gnu11   -include ./include/compiler.h -idirafterinclude -idirafter./arch/arm/include -I./scripts/dtc/libfdt -I./tools -DUSE_HOSTCC -D__KERNEL_STRICT_NAMES -D_GNU_SOURCE -std=gnu99  -c -o tools/lib/fdtdec.o tools/lib/fdtdec.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  echo "#include &lt;../common/image.c&gt;" &gt;tools/common/image.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  cc -Wp,-MD,tools/common/.image.o.d -Wall -Wstrict-prototypes -O2 -fomit-frame-pointer    -std=gnu11   -include ./include/compiler.h -idirafterinclude -idirafter./arch/arm/include -I./scripts/dtc/libfdt -I./tools -DUSE_HOSTCC -D__KERNEL_STRICT_NAMES -D_GNU_SOURCE -std=gnu99  -c -o tools/common/image.o tools/common/image.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  cc -Wp,-MD,tools/.imagetool.o.d -Wall -Wstrict-prototypes -O2 -fomit-frame-pointer    -std=gnu11   -include ./include/compiler.h -idirafterinclude -idirafter./arch/arm/include -I./scripts/dtc/libfdt -I./tools -DUSE_HOSTCC -D__KERNEL_STRICT_NAMES -D_GNU_SOURCE -std=gnu99  -c -o tools/imagetool.o tools/imagetool.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  cc -Wp,-MD,tools/.imximage.o.d -Wall -Wstrict-prototypes -O2 -fomit-frame-pointer    -std=gnu11   -include ./include/compiler.h -idirafterinclude -idirafter./arch/arm/include -I./scripts/dtc/libfdt -I./tools -DUSE_HOSTCC -D__KERNEL_STRICT_NAMES -D_GNU_SOURCE -std=gnu99  -c -o tools/imximage.o tools/imximage.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  cc -Wp,-MD,tools/.imx8image.o.d -Wall -Wstrict-prototypes -O2 -fomit-frame-pointer    -std=gnu11   -include ./include/compiler.h -idirafterinclude -idirafter./arch/arm/include -I./scripts/dtc/libfdt -I./tools -DUSE_HOSTCC -D__KERNEL_STRICT_NAMES -D_GNU_SOURCE -std=gnu99  -c -o tools/imx8image.o tools/imx8image.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  cc -Wp,-MD,tools/.imx8mimage.o.d -Wall -Wstrict-prototypes -O2 -fomit-frame-pointer    -std=gnu11   -include ./include/compiler.h -idirafterinclude -idirafter./arch/arm/include -I./scripts/dtc/libfdt -I./tools -DUSE_HOSTCC -D__KERNEL_STRICT_NAMES -D_GNU_SOURCE -std=gnu99  -c -o tools/imx8mimage.o tools/imx8mimage.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  cc -Wp,-MD,tools/.kwbimage.o.d -Wall -Wstrict-prototypes -O2 -fomit-frame-pointer    -std=gnu11   -include ./include/compiler.h -idirafterinclude -idirafter./arch/arm/include -I./scripts/dtc/libfdt -I./tools -DUSE_HOSTCC -D__KERNEL_STRICT_NAMES -D_GNU_SOURCE -std=gnu99  -c -o tools/kwbimage.o tools/kwbimage.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  echo "#include &lt;../lib/md5.c&gt;" &gt;tools/lib/md5.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  cc -Wp,-MD,tools/lib/.md5.o.d -Wall -Wstrict-prototypes -O2 -fomit-frame-pointer    -std=gnu11   -include ./include/compiler.h -idirafterinclude -idirafter./arch/arm/include -I./scripts/dtc/libfdt -I./tools -DUSE_HOSTCC -D__KERNEL_STRICT_NAMES -D_GNU_SOURCE -std=gnu99 -pedantic -c -o tools/lib/md5.o tools/lib/md5.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  cc -Wp,-MD,tools/.lpc32xximage.o.d -Wall -Wstrict-prototypes -O2 -fomit-frame-pointer    -std=gnu11   -include ./include/compiler.h -idirafterinclude -idirafter./arch/arm/include -I./scripts/dtc/libfdt -I./tools -DUSE_HOSTCC -D__KERNEL_STRICT_NAMES -D_GNU_SOURCE -std=gnu99  -c -o tools/lpc32xximage.o tools/lpc32xximage.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  cc -Wp,-MD,tools/.mxsimage.o.d -Wall -Wstrict-prototypes -O2 -fomit-frame-pointer    -std=gnu11   -include ./include/compiler.h -idirafterinclude -idirafter./arch/arm/include -I./scripts/dtc/libfdt -I./tools -DUSE_HOSTCC -D__KERNEL_STRICT_NAMES -D_GNU_SOURCE -std=gnu99  -c -o tools/mxsimage.o tools/mxsimage.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  cc -Wp,-MD,tools/.omapimage.o.d -Wall -Wstrict-prototypes -O2 -fomit-frame-pointer    -std=gnu11   -include ./include/compiler.h -idirafterinclude -idirafter./arch/arm/include -I./scripts/dtc/libfdt -I./tools -DUSE_HOSTCC -D__KERNEL_STRICT_NAMES -D_GNU_SOURCE -std=gnu99  -c -o tools/omapimage.o tools/omapimage.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  cc -Wp,-MD,tools/.pblimage.o.d -Wall -Wstrict-prototypes -O2 -fomit-frame-pointer    -std=gnu11   -include ./include/compiler.h -idirafterinclude -idirafter./arch/arm/include -I./scripts/dtc/libfdt -I./tools -DUSE_HOSTCC -D__KERNEL_STRICT_NAMES -D_GNU_SOURCE -std=gnu99  -c -o tools/pblimage.o tools/pblimage.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  cc -Wp,-MD,tools/.pbl_crc32.o.d -Wall -Wstrict-prototypes -O2 -fomit-frame-pointer    -std=gnu11   -include ./include/compiler.h -idirafterinclude -idirafter./arch/arm/include -I./scripts/dtc/libfdt -I./tools -DUSE_HOSTCC -D__KERNEL_STRICT_NAMES -D_GNU_SOURCE -std=gnu99  -c -o tools/pbl_crc32.o tools/pbl_crc32.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  cc -Wp,-MD,tools/.vybridimage.o.d -Wall -Wstrict-prototypes -O2 -fomit-frame-pointer    -std=gnu11   -include ./include/compiler.h -idirafterinclude -idirafter./arch/arm/include -I./scripts/dtc/libfdt -I./tools -DUSE_HOSTCC -D__KERNEL_STRICT_NAMES -D_GNU_SOURCE -std=gnu99  -c -o tools/vybridimage.o tools/vybridimage.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  cc -Wp,-MD,tools/.stm32image.o.d -Wall -Wstrict-prototypes -O2 -fomit-frame-pointer    -std=gnu11   -include ./include/compiler.h -idirafterinclude -idirafter./arch/arm/include -I./scripts/dtc/libfdt -I./tools -DUSE_HOSTCC -D__KERNEL_STRICT_NAMES -D_GNU_SOURCE -std=gnu99  -c -o tools/stm32image.o tools/stm32image.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  echo "#include &lt;../lib/rc4.c&gt;" &gt;tools/lib/rc4.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  cc -Wp,-MD,tools/lib/.rc4.o.d -Wall -Wstrict-prototypes -O2 -fomit-frame-pointer    -std=gnu11   -include ./include/compiler.h -idirafterinclude -idirafter./arch/arm/include -I./scripts/dtc/libfdt -I./tools -DUSE_HOSTCC -D__KERNEL_STRICT_NAMES -D_GNU_SOURCE -std=gnu99  -c -o tools/lib/rc4.o tools/lib/rc4.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  cc -Wp,-MD,tools/.rkcommon.o.d -Wall -Wstrict-prototypes -O2 -fomit-frame-pointer    -std=gnu11   -include ./include/compiler.h -idirafterinclude -idirafter./arch/arm/include -I./scripts/dtc/libfdt -I./tools -DUSE_HOSTCC -D__KERNEL_STRICT_NAMES -D_GNU_SOURCE -std=gnu99  -c -o tools/rkcommon.o tools/rkcommon.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  cc -Wp,-MD,tools/.rkimage.o.d -Wall -Wstrict-prototypes -O2 -fomit-frame-pointer    -std=gnu11   -include ./include/compiler.h -idirafterinclude -idirafter./arch/arm/include -I./scripts/dtc/libfdt -I./tools -DUSE_HOSTCC -D__KERNEL_STRICT_NAMES -D_GNU_SOURCE -std=gnu99  -c -o tools/rkimage.o tools/rkimage.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  cc -Wp,-MD,tools/.rksd.o.d -Wall -Wstrict-prototypes -O2 -fomit-frame-pointer    -std=gnu11   -include ./include/compiler.h -idirafterinclude -idirafter./arch/arm/include -I./scripts/dtc/libfdt -I./tools -DUSE_HOSTCC -D__KERNEL_STRICT_NAMES -D_GNU_SOURCE -std=gnu99  -c -o tools/rksd.o tools/rksd.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  cc -Wp,-MD,tools/.rkspi.o.d -Wall -Wstrict-prototypes -O2 -fomit-frame-pointer    -std=gnu11   -include ./include/compiler.h -idirafterinclude -idirafter./arch/arm/include -I./scripts/dtc/libfdt -I./tools -DUSE_HOSTCC -D__KERNEL_STRICT_NAMES -D_GNU_SOURCE -std=gnu99  -c -o tools/rkspi.o tools/rkspi.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  cc -Wp,-MD,tools/.socfpgaimage.o.d -Wall -Wstrict-prototypes -O2 -fomit-frame-pointer    -std=gnu11   -include ./include/compiler.h -idirafterinclude -idirafter./arch/arm/include -I./scripts/dtc/libfdt -I./tools -DUSE_HOSTCC -D__KERNEL_STRICT_NAMES -D_GNU_SOURCE -std=gnu99  -c -o tools/socfpgaimage.o tools/socfpgaimage.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  echo "#include &lt;../lib/crc16.c&gt;" &gt;tools/lib/crc16.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  cc -Wp,-MD,tools/lib/.crc16.o.d -Wall -Wstrict-prototypes -O2 -fomit-frame-pointer    -std=gnu11   -include ./include/compiler.h -idirafterinclude -idirafter./arch/arm/include -I./scripts/dtc/libfdt -I./tools -DUSE_HOSTCC -D__KERNEL_STRICT_NAMES -D_GNU_SOURCE -std=gnu99  -c -o tools/lib/crc16.o tools/lib/crc16.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  echo "#include &lt;../lib/sha1.c&gt;" &gt;tools/lib/sha1.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  cc -Wp,-MD,tools/lib/.sha1.o.d -Wall -Wstrict-prototypes -O2 -fomit-frame-pointer    -std=gnu11   -include ./include/compiler.h -idirafterinclude -idirafter./arch/arm/include -I./scripts/dtc/libfdt -I./tools -DUSE_HOSTCC -D__KERNEL_STRICT_NAMES -D_GNU_SOURCE -std=gnu99 -pedantic -c -o tools/lib/sha1.o tools/lib/sha1.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  echo "#include &lt;../lib/sha256.c&gt;" &gt;tools/lib/sha256.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  cc -Wp,-MD,tools/lib/.sha256.o.d -Wall -Wstrict-prototypes -O2 -fomit-frame-pointer    -std=gnu11   -include ./include/compiler.h -idirafterinclude -idirafter./arch/arm/include -I./scripts/dtc/libfdt -I./tools -DUSE_HOSTCC -D__KERNEL_STRICT_NAMES -D_GNU_SOURCE -std=gnu99 -pedantic -c -o tools/lib/sha256.o tools/lib/sha256.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  echo "#include &lt;../common/hash.c&gt;" &gt;tools/common/hash.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  cc -Wp,-MD,tools/common/.hash.o.d -Wall -Wstrict-prototypes -O2 -fomit-frame-pointer    -std=gnu11   -include ./include/compiler.h -idirafterinclude -idirafter./arch/arm/include -I./scripts/dtc/libfdt -I./tools -DUSE_HOSTCC -D__KERNEL_STRICT_NAMES -D_GNU_SOURCE -std=gnu99  -c -o tools/common/hash.o tools/common/hash.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  cc -Wp,-MD,tools/.ublimage.o.d -Wall -Wstrict-prototypes -O2 -fomit-frame-pointer    -std=gnu11   -include ./include/compiler.h -idirafterinclude -idirafter./arch/arm/include -I./scripts/dtc/libfdt -I./tools -DUSE_HOSTCC -D__KERNEL_STRICT_NAMES -D_GNU_SOURCE -std=gnu99  -c -o tools/ublimage.o tools/ublimage.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  cc -Wp,-MD,tools/.zynqimage.o.d -Wall -Wstrict-prototypes -O2 -fomit-frame-pointer    -std=gnu11   -include ./include/compiler.h -idirafterinclude -idirafter./arch/arm/include -I./scripts/dtc/libfdt -I./tools -DUSE_HOSTCC -D__KERNEL_STRICT_NAMES -D_GNU_SOURCE -std=gnu99  -c -o tools/zynqimage.o tools/zynqimage.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  cc -Wp,-MD,tools/.zynqmpimage.o.d -Wall -Wstrict-prototypes -O2 -fomit-frame-pointer    -std=gnu11   -include ./include/compiler.h -idirafterinclude -idirafter./arch/arm/include -I./scripts/dtc/libfdt -I./tools -DUSE_HOSTCC -D__KERNEL_STRICT_NAMES -D_GNU_SOURCE -std=gnu99  -c -o tools/zynqmpimage.o tools/zynqmpimage.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  cc -Wp,-MD,tools/.zynqmpbif.o.d -Wall -Wstrict-prototypes -O2 -fomit-frame-pointer    -std=gnu11   -include ./include/compiler.h -idirafterinclude -idirafter./arch/arm/include -I./scripts/dtc/libfdt -I./tools -DUSE_HOSTCC -D__KERNEL_STRICT_NAMES -D_GNU_SOURCE -std=gnu99  -c -o tools/zynqmpbif.o tools/zynqmpbif.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  cc -Wp,-MD,tools/libfdt/.fdt.o.d -Wall -Wstrict-prototypes -O2 -fomit-frame-pointer    -std=gnu11   -include ./include/compiler.h -idirafterinclude -idirafter./arch/arm/include -I./scripts/dtc/libfdt -I./tools -DUSE_HOSTCC -D__KERNEL_STRICT_NAMES -D_GNU_SOURCE -std=gnu99  -c -o tools/libfdt/fdt.o tools/libfdt/fdt.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  cc -Wp,-MD,tools/libfdt/.fdt_ro.o.d -Wall -Wstrict-prototypes -O2 -fomit-frame-pointer    -std=gnu11   -include ./include/compiler.h -idirafterinclude -idirafter./arch/arm/include -I./scripts/dtc/libfdt -I./tools -DUSE_HOSTCC -D__KERNEL_STRICT_NAMES -D_GNU_SOURCE -std=gnu99  -c -o tools/libfdt/fdt_ro.o tools/libfdt/fdt_ro.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  cc -Wp,-MD,tools/libfdt/.fdt_wip.o.d -Wall -Wstrict-prototypes -O2 -fomit-frame-pointer    -std=gnu11   -include ./include/compiler.h -idirafterinclude -idirafter./arch/arm/include -I./scripts/dtc/libfdt -I./tools -DUSE_HOSTCC -D__KERNEL_STRICT_NAMES -D_GNU_SOURCE -std=gnu99  -c -o tools/libfdt/fdt_wip.o tools/libfdt/fdt_wip.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  cc -Wp,-MD,tools/libfdt/.fdt_sw.o.d -Wall -Wstrict-prototypes -O2 -fomit-frame-pointer    -std=gnu11   -include ./include/compiler.h -idirafterinclude -idirafter./arch/arm/include -I./scripts/dtc/libfdt -I./tools -DUSE_HOSTCC -D__KERNEL_STRICT_NAMES -D_GNU_SOURCE -std=gnu99  -c -o tools/libfdt/fdt_sw.o tools/libfdt/fdt_sw.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  cc -Wp,-MD,tools/libfdt/.fdt_rw.o.d -Wall -Wstrict-prototypes -O2 -fomit-frame-pointer    -std=gnu11   -include ./include/compiler.h -idirafterinclude -idirafter./arch/arm/include -I./scripts/dtc/libfdt -I./tools -DUSE_HOSTCC -D__KERNEL_STRICT_NAMES -D_GNU_SOURCE -std=gnu99  -c -o tools/libfdt/fdt_rw.o tools/libfdt/fdt_rw.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  cc -Wp,-MD,tools/libfdt/.fdt_strerror.o.d -Wall -Wstrict-prototypes -O2 -fomit-frame-pointer    -std=gnu11   -include ./include/compiler.h -idirafterinclude -idirafter./arch/arm/include -I./scripts/dtc/libfdt -I./tools -DUSE_HOSTCC -D__KERNEL_STRICT_NAMES -D_GNU_SOURCE -std=gnu99  -c -o tools/libfdt/fdt_strerror.o tools/libfdt/fdt_strerror.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  cc -Wp,-MD,tools/libfdt/.fdt_empty_tree.o.d -Wall -Wstrict-prototypes -O2 -fomit-frame-pointer    -std=gnu11   -include ./include/compiler.h -idirafterinclude -idirafter./arch/arm/include -I./scripts/dtc/libfdt -I./tools -DUSE_HOSTCC -D__KERNEL_STRICT_NAMES -D_GNU_SOURCE -std=gnu99  -c -o tools/libfdt/fdt_empty_tree.o tools/libfdt/fdt_empty_tree.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  cc -Wp,-MD,tools/libfdt/.fdt_addresses.o.d -Wall -Wstrict-prototypes -O2 -fomit-frame-pointer    -std=gnu11   -include ./include/compiler.h -idirafterinclude -idirafter./arch/arm/include -I./scripts/dtc/libfdt -I./tools -DUSE_HOSTCC -D__KERNEL_STRICT_NAMES -D_GNU_SOURCE -std=gnu99  -c -o tools/libfdt/fdt_addresses.o tools/libfdt/fdt_addresses.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  cc -Wp,-MD,tools/libfdt/.fdt_overlay.o.d -Wall -Wstrict-prototypes -O2 -fomit-frame-pointer    -std=gnu11   -include ./include/compiler.h -idirafterinclude -idirafter./arch/arm/include -I./scripts/dtc/libfdt -I./tools -DUSE_HOSTCC -D__KERNEL_STRICT_NAMES -D_GNU_SOURCE -std=gnu99  -c -o tools/libfdt/fdt_overlay.o tools/libfdt/fdt_overlay.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  cc -Wp,-MD,tools/.gpimage.o.d -Wall -Wstrict-prototypes -O2 -fomit-frame-pointer    -std=gnu11   -include ./include/compiler.h -idirafterinclude -idirafter./arch/arm/include -I./scripts/dtc/libfdt -I./tools -DUSE_HOSTCC -D__KERNEL_STRICT_NAMES -D_GNU_SOURCE -std=gnu99  -c -o tools/gpimage.o tools/gpimage.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  cc -Wp,-MD,tools/.gpimage-common.o.d -Wall -Wstrict-prototypes -O2 -fomit-frame-pointer    -std=gnu11   -include ./include/compiler.h -idirafterinclude -idirafter./arch/arm/include -I./scripts/dtc/libfdt -I./tools -DUSE_HOSTCC -D__KERNEL_STRICT_NAMES -D_GNU_SOURCE -std=gnu99  -c -o tools/gpimage-common.o tools/gpimage-common.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  cc -Wp,-MD,tools/.mtk_image.o.d -Wall -Wstrict-prototypes -O2 -fomit-frame-pointer    -std=gnu11   -include ./include/compiler.h -idirafterinclude -idirafter./arch/arm/include -I./scripts/dtc/libfdt -I./tools -DUSE_HOSTCC -D__KERNEL_STRICT_NAMES -D_GNU_SOURCE -std=gnu99  -c -o tools/mtk_image.o tools/mtk_image.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  cc -Wp,-MD,tools/.dumpimage.o.d -Wall -Wstrict-prototypes -O2 -fomit-frame-pointer    -std=gnu11   -include ./include/compiler.h -idirafterinclude -idirafter./arch/arm/include -I./scripts/dtc/libfdt -I./tools -DUSE_HOSTCC -D__KERNEL_STRICT_NAMES -D_GNU_SOURCE -std=gnu99  -c -o tools/dumpimage.o tools/dumpimage.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  cc   -o tools/dumpimage tools/aisimage.o tools/atmelimage.o tools/common/fdt_region.o tools/common/bootm.o tools/lib/crc32.o tools/default_image.o tools/lib/fdtdec_common.o tools/lib/fdtdec.o tools/common/image.o tools/imagetool.o tools/imximage.o tools/imx8image.o tools/imx8mimage.o tools/kwbimage.o tools/lib/md5.o tools/lpc32xximage.o tools/mxsimage.o tools/omapimage.o tools/os_support.o tools/pblimage.o tools/pbl_crc32.o tools/vybridimage.o tools/stm32image.o tools/lib/rc4.o tools/rkcommon.o tools/rkimage.o tools/rksd.o tools/rkspi.o tools/socfpgaimage.o tools/lib/crc16.o tools/lib/sha1.o tools/lib/sha256.o tools/common/hash.o tools/ublimage.o tools/zynqimage.o tools/zynqmpimage.o tools/zynqmpbif.o tools/libfdt/fdt.o tools/libfdt/fdt_ro.o tools/libfdt/fdt_wip.o tools/libfdt/fdt_sw.o tools/libfdt/fdt_rw.o tools/libfdt/fdt_strerror.o tools/libfdt/fdt_empty_tree.o tools/libfdt/fdt_addresses.o tools/libfdt/fdt_overlay.o tools/gpimage.o tools/gpimage-common.o tools/mtk_image.o tools/dumpimage.o   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  cc -Wp,-MD,tools/.mkimage.o.d -Wall -Wstrict-prototypes -O2 -fomit-frame-pointer    -std=gnu11   -include ./include/compiler.h -idirafterinclude -idirafter./arch/arm/include -I./scripts/dtc/libfdt -I./tools -DUSE_HOSTCC -D__KERNEL_STRICT_NAMES -D_GNU_SOURCE -std=gnu99  -c -o tools/mkimage.o tools/mkimage.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  cc   -o tools/mkimage tools/aisimage.o tools/atmelimage.o tools/common/fdt_region.o tools/common/bootm.o tools/lib/crc32.o tools/default_image.o tools/lib/fdtdec_common.o tools/lib/fdtdec.o tools/common/image.o tools/imagetool.o tools/imximage.o tools/imx8image.o tools/imx8mimage.o tools/kwbimage.o tools/lib/md5.o tools/lpc32xximage.o tools/mxsimage.o tools/omapimage.o tools/os_support.o tools/pblimage.o tools/pbl_crc32.o tools/vybridimage.o tools/stm32image.o tools/lib/rc4.o tools/rkcommon.o tools/rkimage.o tools/rksd.o tools/rkspi.o tools/socfpgaimage.o tools/lib/crc16.o tools/lib/sha1.o tools/lib/sha256.o tools/common/hash.o tools/ublimage.o tools/zynqimage.o tools/zynqmpimage.o tools/zynqmpbif.o tools/libfdt/fdt.o tools/libfdt/fdt_ro.o tools/libfdt/fdt_wip.o tools/libfdt/fdt_sw.o tools/libfdt/fdt_rw.o tools/libfdt/fdt_strerror.o tools/libfdt/fdt_empty_tree.o tools/libfdt/fdt_addresses.o tools/libfdt/fdt_overlay.o tools/gpimage.o tools/gpimage-common.o tools/mtk_image.o tools/mkimage.o   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  cc -Wp,-MD,tools/.proftool.d -Wall -Wstrict-prototypes -O2 -fomit-frame-pointer    -std=gnu11   -include ./include/compiler.h -idirafterinclude -idirafter./arch/arm/include -I./scripts/dtc/libfdt -I./tools -DUSE_HOSTCC -D__KERNEL_STRICT_NAMES -D_GNU_SOURCE -std=gnu99  -o tools/proftool tools/proftool.c   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  cc -Wp,-MD,tools/.fdtgrep.o.d -Wall -Wstrict-prototypes -O2 -fomit-frame-pointer    -std=gnu11   -include ./include/compiler.h -idirafterinclude -idirafter./arch/arm/include -I./scripts/dtc/libfdt -I./tools -DUSE_HOSTCC -D__KERNEL_STRICT_NAMES -D_GNU_SOURCE -std=gnu99  -c -o tools/fdtgrep.o tools/fdtgrep.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  cc   -o tools/fdtgrep tools/libfdt/fdt.o tools/libfdt/fdt_ro.o tools/libfdt/fdt_wip.o tools/libfdt/fdt_sw.o tools/libfdt/fdt_rw.o tools/libfdt/fdt_strerror.o tools/libfdt/fdt_empty_tree.o tools/libfdt/fdt_addresses.o tools/libfdt/fdt_overlay.o tools/common/fdt_region.o tools/fdtgrep.o   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  cc -Wp,-MD,tools/.spl_size_limit.d -Wall -Wstrict-prototypes -O2 -fomit-frame-pointer    -std=gnu11   -include ./include/compiler.h -idirafterinclude -idirafter./arch/arm/include -I./scripts/dtc/libfdt -I./tools -DUSE_HOSTCC -D__KERNEL_STRICT_NAMES -D_GNU_SOURCE -std=gnu99  -o tools/spl_size_limit tools/spl_size_limit.c   </t>
+  </si>
+  <si>
+    <t>make -f ./scripts/Makefile.build obj=arch/arm/cpu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   rm -f arch/arm/cpu/built-in.o; arm-hpsp-linux-gnueabi-ar rcs arch/arm/cpu/built-in.o</t>
+  </si>
+  <si>
+    <t>make -f ./scripts/Makefile.build obj=arch/arm/cpu/armv7</t>
+  </si>
+  <si>
+    <t>make -f ./scripts/Makefile.build obj=arch/arm/cpu/armv7/s5p-common</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  arm-hpsp-linux-gnueabi-gcc -Wp,-MD,arch/arm/cpu/armv7/s5p-common/.cpu_info.o.d  -nostdinc -isystem /home/hpsp/rock_space/uboot_code/crosstool-ng-1.24.0/.build/arm-hpsp-linux-gnueabi/buildtools/lib/gcc/arm-hpsp-linux-gnueabi/8.3.0/include -Iinclude   -I./arch/arm/include -include ./include/linux/kconfig.h -D__KERNEL__ -D__UBOOT__ -Wall -Wstrict-prototypes -Wno-format-security -fno-builtin -ffreestanding -std=gnu11 -fshort-wchar -fno-strict-aliasing -fno-PIE -O2 -fno-stack-protector -fno-delete-null-pointer-checks -Wno-stringop-truncation -fmacro-prefix-map=./= -g -fstack-usage -Wno-format-nonliteral -Wno-unused-but-set-variable -Werror=date-time -D__ARM__ -marm -mno-thumb-interwork -mabi=aapcs-linux -mword-relocations -fno-pic -mno-unaligned-access -ffunction-sections -fdata-sections -fno-common -ffixed-r9 -msoft-float -pipe -march=armv7-a -D__LINUX_ARM_ARCH__=7 -mtune=generic-armv7-a -I./arch/arm/mach-exynos/include    -DKBUILD_BASENAME='"cpu_info"'  -DKBUILD_MODNAME='"cpu_info"' -c -o arch/arm/cpu/armv7/s5p-common/cpu_info.o arch/arm/cpu/armv7/s5p-common/cpu_info.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  arm-hpsp-linux-gnueabi-gcc -Wp,-MD,arch/arm/cpu/armv7/s5p-common/.timer.o.d  -nostdinc -isystem /home/hpsp/rock_space/uboot_code/crosstool-ng-1.24.0/.build/arm-hpsp-linux-gnueabi/buildtools/lib/gcc/arm-hpsp-linux-gnueabi/8.3.0/include -Iinclude   -I./arch/arm/include -include ./include/linux/kconfig.h -D__KERNEL__ -D__UBOOT__ -Wall -Wstrict-prototypes -Wno-format-security -fno-builtin -ffreestanding -std=gnu11 -fshort-wchar -fno-strict-aliasing -fno-PIE -O2 -fno-stack-protector -fno-delete-null-pointer-checks -Wno-stringop-truncation -fmacro-prefix-map=./= -g -fstack-usage -Wno-format-nonliteral -Wno-unused-but-set-variable -Werror=date-time -D__ARM__ -marm -mno-thumb-interwork -mabi=aapcs-linux -mword-relocations -fno-pic -mno-unaligned-access -ffunction-sections -fdata-sections -fno-common -ffixed-r9 -msoft-float -pipe -march=armv7-a -D__LINUX_ARM_ARCH__=7 -mtune=generic-armv7-a -I./arch/arm/mach-exynos/include    -DKBUILD_BASENAME='"timer"'  -DKBUILD_MODNAME='"timer"' -c -o arch/arm/cpu/armv7/s5p-common/timer.o arch/arm/cpu/armv7/s5p-common/timer.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  arm-hpsp-linux-gnueabi-gcc -Wp,-MD,arch/arm/cpu/armv7/s5p-common/.sromc.o.d  -nostdinc -isystem /home/hpsp/rock_space/uboot_code/crosstool-ng-1.24.0/.build/arm-hpsp-linux-gnueabi/buildtools/lib/gcc/arm-hpsp-linux-gnueabi/8.3.0/include -Iinclude   -I./arch/arm/include -include ./include/linux/kconfig.h -D__KERNEL__ -D__UBOOT__ -Wall -Wstrict-prototypes -Wno-format-security -fno-builtin -ffreestanding -std=gnu11 -fshort-wchar -fno-strict-aliasing -fno-PIE -O2 -fno-stack-protector -fno-delete-null-pointer-checks -Wno-stringop-truncation -fmacro-prefix-map=./= -g -fstack-usage -Wno-format-nonliteral -Wno-unused-but-set-variable -Werror=date-time -D__ARM__ -marm -mno-thumb-interwork -mabi=aapcs-linux -mword-relocations -fno-pic -mno-unaligned-access -ffunction-sections -fdata-sections -fno-common -ffixed-r9 -msoft-float -pipe -march=armv7-a -D__LINUX_ARM_ARCH__=7 -mtune=generic-armv7-a -I./arch/arm/mach-exynos/include    -DKBUILD_BASENAME='"sromc"'  -DKBUILD_MODNAME='"sromc"' -c -o arch/arm/cpu/armv7/s5p-common/sromc.o arch/arm/cpu/armv7/s5p-common/sromc.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  arm-hpsp-linux-gnueabi-gcc -Wp,-MD,arch/arm/cpu/armv7/s5p-common/.pwm.o.d  -nostdinc -isystem /home/hpsp/rock_space/uboot_code/crosstool-ng-1.24.0/.build/arm-hpsp-linux-gnueabi/buildtools/lib/gcc/arm-hpsp-linux-gnueabi/8.3.0/include -Iinclude   -I./arch/arm/include -include ./include/linux/kconfig.h -D__KERNEL__ -D__UBOOT__ -Wall -Wstrict-prototypes -Wno-format-security -fno-builtin -ffreestanding -std=gnu11 -fshort-wchar -fno-strict-aliasing -fno-PIE -O2 -fno-stack-protector -fno-delete-null-pointer-checks -Wno-stringop-truncation -fmacro-prefix-map=./= -g -fstack-usage -Wno-format-nonliteral -Wno-unused-but-set-variable -Werror=date-time -D__ARM__ -marm -mno-thumb-interwork -mabi=aapcs-linux -mword-relocations -fno-pic -mno-unaligned-access -ffunction-sections -fdata-sections -fno-common -ffixed-r9 -msoft-float -pipe -march=armv7-a -D__LINUX_ARM_ARCH__=7 -mtune=generic-armv7-a -I./arch/arm/mach-exynos/include    -DKBUILD_BASENAME='"pwm"'  -DKBUILD_MODNAME='"pwm"' -c -o arch/arm/cpu/armv7/s5p-common/pwm.o arch/arm/cpu/armv7/s5p-common/pwm.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   arm-hpsp-linux-gnueabi-ld.bfd     -r -o arch/arm/cpu/armv7/s5p-common/built-in.o arch/arm/cpu/armv7/s5p-common/cpu_info.o arch/arm/cpu/armv7/s5p-common/timer.o arch/arm/cpu/armv7/s5p-common/sromc.o arch/arm/cpu/armv7/s5p-common/pwm.o </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  arm-hpsp-linux-gnueabi-gcc -Wp,-MD,arch/arm/cpu/armv7/.cache_v7.o.d  -nostdinc -isystem /home/hpsp/rock_space/uboot_code/crosstool-ng-1.24.0/.build/arm-hpsp-linux-gnueabi/buildtools/lib/gcc/arm-hpsp-linux-gnueabi/8.3.0/include -Iinclude   -I./arch/arm/include -include ./include/linux/kconfig.h -D__KERNEL__ -D__UBOOT__ -Wall -Wstrict-prototypes -Wno-format-security -fno-builtin -ffreestanding -std=gnu11 -fshort-wchar -fno-strict-aliasing -fno-PIE -O2 -fno-stack-protector -fno-delete-null-pointer-checks -Wno-stringop-truncation -fmacro-prefix-map=./= -g -fstack-usage -Wno-format-nonliteral -Wno-unused-but-set-variable -Werror=date-time -D__ARM__ -marm -mno-thumb-interwork -mabi=aapcs-linux -mword-relocations -fno-pic -mno-unaligned-access -ffunction-sections -fdata-sections -fno-common -ffixed-r9 -msoft-float -pipe -march=armv7-a -D__LINUX_ARM_ARCH__=7 -mtune=generic-armv7-a -I./arch/arm/mach-exynos/include    -DKBUILD_BASENAME='"cache_v7"'  -DKBUILD_MODNAME='"cache_v7"' -c -o arch/arm/cpu/armv7/cache_v7.o arch/arm/cpu/armv7/cache_v7.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  arm-hpsp-linux-gnueabi-gcc -Wp,-MD,arch/arm/cpu/armv7/.cache_v7_asm.o.d  -nostdinc -isystem /home/hpsp/rock_space/uboot_code/crosstool-ng-1.24.0/.build/arm-hpsp-linux-gnueabi/buildtools/lib/gcc/arm-hpsp-linux-gnueabi/8.3.0/include -Iinclude   -I./arch/arm/include -include ./include/linux/kconfig.h -D__KERNEL__ -D__UBOOT__ -D__ASSEMBLY__ -fno-PIE -g -D__ARM__ -marm -mno-thumb-interwork -mabi=aapcs-linux -mword-relocations -fno-pic -mno-unaligned-access -ffunction-sections -fdata-sections -fno-common -ffixed-r9 -msoft-float -pipe -march=armv7-a -D__LINUX_ARM_ARCH__=7 -mtune=generic-armv7-a -I./arch/arm/mach-exynos/include   -c -o arch/arm/cpu/armv7/cache_v7_asm.o arch/arm/cpu/armv7/cache_v7_asm.S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  arm-hpsp-linux-gnueabi-gcc -Wp,-MD,arch/arm/cpu/armv7/.cpu.o.d  -nostdinc -isystem /home/hpsp/rock_space/uboot_code/crosstool-ng-1.24.0/.build/arm-hpsp-linux-gnueabi/buildtools/lib/gcc/arm-hpsp-linux-gnueabi/8.3.0/include -Iinclude   -I./arch/arm/include -include ./include/linux/kconfig.h -D__KERNEL__ -D__UBOOT__ -Wall -Wstrict-prototypes -Wno-format-security -fno-builtin -ffreestanding -std=gnu11 -fshort-wchar -fno-strict-aliasing -fno-PIE -O2 -fno-stack-protector -fno-delete-null-pointer-checks -Wno-stringop-truncation -fmacro-prefix-map=./= -g -fstack-usage -Wno-format-nonliteral -Wno-unused-but-set-variable -Werror=date-time -D__ARM__ -marm -mno-thumb-interwork -mabi=aapcs-linux -mword-relocations -fno-pic -mno-unaligned-access -ffunction-sections -fdata-sections -fno-common -ffixed-r9 -msoft-float -pipe -march=armv7-a -D__LINUX_ARM_ARCH__=7 -mtune=generic-armv7-a -I./arch/arm/mach-exynos/include    -DKBUILD_BASENAME='"cpu"'  -DKBUILD_MODNAME='"cpu"' -c -o arch/arm/cpu/armv7/cpu.o arch/arm/cpu/armv7/cpu.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  arm-hpsp-linux-gnueabi-gcc -Wp,-MD,arch/arm/cpu/armv7/.cp15.o.d  -nostdinc -isystem /home/hpsp/rock_space/uboot_code/crosstool-ng-1.24.0/.build/arm-hpsp-linux-gnueabi/buildtools/lib/gcc/arm-hpsp-linux-gnueabi/8.3.0/include -Iinclude   -I./arch/arm/include -include ./include/linux/kconfig.h -D__KERNEL__ -D__UBOOT__ -Wall -Wstrict-prototypes -Wno-format-security -fno-builtin -ffreestanding -std=gnu11 -fshort-wchar -fno-strict-aliasing -fno-PIE -O2 -fno-stack-protector -fno-delete-null-pointer-checks -Wno-stringop-truncation -fmacro-prefix-map=./= -g -fstack-usage -Wno-format-nonliteral -Wno-unused-but-set-variable -Werror=date-time -D__ARM__ -marm -mno-thumb-interwork -mabi=aapcs-linux -mword-relocations -fno-pic -mno-unaligned-access -ffunction-sections -fdata-sections -fno-common -ffixed-r9 -msoft-float -pipe -march=armv7-a -D__LINUX_ARM_ARCH__=7 -mtune=generic-armv7-a -I./arch/arm/mach-exynos/include    -DKBUILD_BASENAME='"cp15"'  -DKBUILD_MODNAME='"cp15"' -c -o arch/arm/cpu/armv7/cp15.o arch/arm/cpu/armv7/cp15.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  arm-hpsp-linux-gnueabi-gcc -Wp,-MD,arch/arm/cpu/armv7/.syslib.o.d  -nostdinc -isystem /home/hpsp/rock_space/uboot_code/crosstool-ng-1.24.0/.build/arm-hpsp-linux-gnueabi/buildtools/lib/gcc/arm-hpsp-linux-gnueabi/8.3.0/include -Iinclude   -I./arch/arm/include -include ./include/linux/kconfig.h -D__KERNEL__ -D__UBOOT__ -Wall -Wstrict-prototypes -Wno-format-security -fno-builtin -ffreestanding -std=gnu11 -fshort-wchar -fno-strict-aliasing -fno-PIE -O2 -fno-stack-protector -fno-delete-null-pointer-checks -Wno-stringop-truncation -fmacro-prefix-map=./= -g -fstack-usage -Wno-format-nonliteral -Wno-unused-but-set-variable -Werror=date-time -D__ARM__ -marm -mno-thumb-interwork -mabi=aapcs-linux -mword-relocations -fno-pic -mno-unaligned-access -ffunction-sections -fdata-sections -fno-common -ffixed-r9 -msoft-float -pipe -march=armv7-a -D__LINUX_ARM_ARCH__=7 -mtune=generic-armv7-a -I./arch/arm/mach-exynos/include    -DKBUILD_BASENAME='"syslib"'  -DKBUILD_MODNAME='"syslib"' -c -o arch/arm/cpu/armv7/syslib.o arch/arm/cpu/armv7/syslib.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   arm-hpsp-linux-gnueabi-ld.bfd     -r -o arch/arm/cpu/armv7/built-in.o arch/arm/cpu/armv7/cache_v7.o arch/arm/cpu/armv7/cache_v7_asm.o arch/arm/cpu/armv7/cpu.o arch/arm/cpu/armv7/cp15.o arch/arm/cpu/armv7/syslib.o arch/arm/cpu/armv7/s5p-common/built-in.o </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  arm-hpsp-linux-gnueabi-gcc -Wp,-MD,arch/arm/cpu/armv7/.start.o.d  -nostdinc -isystem /home/hpsp/rock_space/uboot_code/crosstool-ng-1.24.0/.build/arm-hpsp-linux-gnueabi/buildtools/lib/gcc/arm-hpsp-linux-gnueabi/8.3.0/include -Iinclude   -I./arch/arm/include -include ./include/linux/kconfig.h -D__KERNEL__ -D__UBOOT__ -D__ASSEMBLY__ -fno-PIE -g -D__ARM__ -marm -mno-thumb-interwork -mabi=aapcs-linux -mword-relocations -fno-pic -mno-unaligned-access -ffunction-sections -fdata-sections -fno-common -ffixed-r9 -msoft-float -pipe -march=armv7-a -D__LINUX_ARM_ARCH__=7 -mtune=generic-armv7-a -I./arch/arm/mach-exynos/include   -c -o arch/arm/cpu/armv7/start.o arch/arm/cpu/armv7/start.S</t>
+  </si>
+  <si>
+    <t>make -f ./scripts/Makefile.build obj=arch/arm/lib</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  arm-hpsp-linux-gnueabi-gcc -Wp,-MD,arch/arm/lib/.vectors.o.d  -nostdinc -isystem /home/hpsp/rock_space/uboot_code/crosstool-ng-1.24.0/.build/arm-hpsp-linux-gnueabi/buildtools/lib/gcc/arm-hpsp-linux-gnueabi/8.3.0/include -Iinclude   -I./arch/arm/include -include ./include/linux/kconfig.h -D__KERNEL__ -D__UBOOT__ -D__ASSEMBLY__ -fno-PIE -g -D__ARM__ -marm -mno-thumb-interwork -mabi=aapcs-linux -mword-relocations -fno-pic -mno-unaligned-access -ffunction-sections -fdata-sections -fno-common -ffixed-r9 -msoft-float -pipe -march=armv7-a -D__LINUX_ARM_ARCH__=7 -mtune=generic-armv7-a -I./arch/arm/mach-exynos/include   -c -o arch/arm/lib/vectors.o arch/arm/lib/vectors.S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  arm-hpsp-linux-gnueabi-gcc -Wp,-MD,arch/arm/lib/.crt0.o.d  -nostdinc -isystem /home/hpsp/rock_space/uboot_code/crosstool-ng-1.24.0/.build/arm-hpsp-linux-gnueabi/buildtools/lib/gcc/arm-hpsp-linux-gnueabi/8.3.0/include -Iinclude   -I./arch/arm/include -include ./include/linux/kconfig.h -D__KERNEL__ -D__UBOOT__ -D__ASSEMBLY__ -fno-PIE -g -D__ARM__ -marm -mno-thumb-interwork -mabi=aapcs-linux -mword-relocations -fno-pic -mno-unaligned-access -ffunction-sections -fdata-sections -fno-common -ffixed-r9 -msoft-float -pipe -march=armv7-a -D__LINUX_ARM_ARCH__=7 -mtune=generic-armv7-a -I./arch/arm/mach-exynos/include   -c -o arch/arm/lib/crt0.o arch/arm/lib/crt0.S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  arm-hpsp-linux-gnueabi-gcc -Wp,-MD,arch/arm/lib/.setjmp.o.d  -nostdinc -isystem /home/hpsp/rock_space/uboot_code/crosstool-ng-1.24.0/.build/arm-hpsp-linux-gnueabi/buildtools/lib/gcc/arm-hpsp-linux-gnueabi/8.3.0/include -Iinclude   -I./arch/arm/include -include ./include/linux/kconfig.h -D__KERNEL__ -D__UBOOT__ -D__ASSEMBLY__ -fno-PIE -g -D__ARM__ -marm -mno-thumb-interwork -mabi=aapcs-linux -mword-relocations -fno-pic -mno-unaligned-access -ffunction-sections -fdata-sections -fno-common -ffixed-r9 -msoft-float -pipe -march=armv7-a -D__LINUX_ARM_ARCH__=7 -mtune=generic-armv7-a -I./arch/arm/mach-exynos/include   -c -o arch/arm/lib/setjmp.o arch/arm/lib/setjmp.S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  arm-hpsp-linux-gnueabi-gcc -Wp,-MD,arch/arm/lib/.relocate.o.d  -nostdinc -isystem /home/hpsp/rock_space/uboot_code/crosstool-ng-1.24.0/.build/arm-hpsp-linux-gnueabi/buildtools/lib/gcc/arm-hpsp-linux-gnueabi/8.3.0/include -Iinclude   -I./arch/arm/include -include ./include/linux/kconfig.h -D__KERNEL__ -D__UBOOT__ -D__ASSEMBLY__ -fno-PIE -g -D__ARM__ -marm -mno-thumb-interwork -mabi=aapcs-linux -mword-relocations -fno-pic -mno-unaligned-access -ffunction-sections -fdata-sections -fno-common -ffixed-r9 -msoft-float -pipe -march=armv7-a -D__LINUX_ARM_ARCH__=7 -mtune=generic-armv7-a -I./arch/arm/mach-exynos/include   -c -o arch/arm/lib/relocate.o arch/arm/lib/relocate.S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  arm-hpsp-linux-gnueabi-gcc -Wp,-MD,arch/arm/lib/.bootm-fdt.o.d  -nostdinc -isystem /home/hpsp/rock_space/uboot_code/crosstool-ng-1.24.0/.build/arm-hpsp-linux-gnueabi/buildtools/lib/gcc/arm-hpsp-linux-gnueabi/8.3.0/include -Iinclude   -I./arch/arm/include -include ./include/linux/kconfig.h -D__KERNEL__ -D__UBOOT__ -Wall -Wstrict-prototypes -Wno-format-security -fno-builtin -ffreestanding -std=gnu11 -fshort-wchar -fno-strict-aliasing -fno-PIE -O2 -fno-stack-protector -fno-delete-null-pointer-checks -Wno-stringop-truncation -fmacro-prefix-map=./= -g -fstack-usage -Wno-format-nonliteral -Wno-unused-but-set-variable -Werror=date-time -D__ARM__ -marm -mno-thumb-interwork -mabi=aapcs-linux -mword-relocations -fno-pic -mno-unaligned-access -ffunction-sections -fdata-sections -fno-common -ffixed-r9 -msoft-float -pipe -march=armv7-a -D__LINUX_ARM_ARCH__=7 -mtune=generic-armv7-a -I./arch/arm/mach-exynos/include    -DKBUILD_BASENAME='"bootm_fdt"'  -DKBUILD_MODNAME='"bootm_fdt"' -c -o arch/arm/lib/bootm-fdt.o arch/arm/lib/bootm-fdt.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  arm-hpsp-linux-gnueabi-gcc -Wp,-MD,arch/arm/lib/.sections.o.d  -nostdinc -isystem /home/hpsp/rock_space/uboot_code/crosstool-ng-1.24.0/.build/arm-hpsp-linux-gnueabi/buildtools/lib/gcc/arm-hpsp-linux-gnueabi/8.3.0/include -Iinclude   -I./arch/arm/include -include ./include/linux/kconfig.h -D__KERNEL__ -D__UBOOT__ -Wall -Wstrict-prototypes -Wno-format-security -fno-builtin -ffreestanding -std=gnu11 -fshort-wchar -fno-strict-aliasing -fno-PIE -O2 -fno-stack-protector -fno-delete-null-pointer-checks -Wno-stringop-truncation -fmacro-prefix-map=./= -g -fstack-usage -Wno-format-nonliteral -Wno-unused-but-set-variable -Werror=date-time -D__ARM__ -marm -mno-thumb-interwork -mabi=aapcs-linux -mword-relocations -fno-pic -mno-unaligned-access -ffunction-sections -fdata-sections -fno-common -ffixed-r9 -msoft-float -pipe -march=armv7-a -D__LINUX_ARM_ARCH__=7 -mtune=generic-armv7-a -I./arch/arm/mach-exynos/include    -DKBUILD_BASENAME='"sections"'  -DKBUILD_MODNAME='"sections"' -c -o arch/arm/lib/sections.o arch/arm/lib/sections.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  arm-hpsp-linux-gnueabi-gcc -Wp,-MD,arch/arm/lib/.stack.o.d  -nostdinc -isystem /home/hpsp/rock_space/uboot_code/crosstool-ng-1.24.0/.build/arm-hpsp-linux-gnueabi/buildtools/lib/gcc/arm-hpsp-linux-gnueabi/8.3.0/include -Iinclude   -I./arch/arm/include -include ./include/linux/kconfig.h -D__KERNEL__ -D__UBOOT__ -Wall -Wstrict-prototypes -Wno-format-security -fno-builtin -ffreestanding -std=gnu11 -fshort-wchar -fno-strict-aliasing -fno-PIE -O2 -fno-stack-protector -fno-delete-null-pointer-checks -Wno-stringop-truncation -fmacro-prefix-map=./= -g -fstack-usage -Wno-format-nonliteral -Wno-unused-but-set-variable -Werror=date-time -D__ARM__ -marm -mno-thumb-interwork -mabi=aapcs-linux -mword-relocations -fno-pic -mno-unaligned-access -ffunction-sections -fdata-sections -fno-common -ffixed-r9 -msoft-float -pipe -march=armv7-a -D__LINUX_ARM_ARCH__=7 -mtune=generic-armv7-a -I./arch/arm/mach-exynos/include    -DKBUILD_BASENAME='"stack"'  -DKBUILD_MODNAME='"stack"' -c -o arch/arm/lib/stack.o arch/arm/lib/stack.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  arm-hpsp-linux-gnueabi-gcc -Wp,-MD,arch/arm/lib/.interrupts.o.d  -nostdinc -isystem /home/hpsp/rock_space/uboot_code/crosstool-ng-1.24.0/.build/arm-hpsp-linux-gnueabi/buildtools/lib/gcc/arm-hpsp-linux-gnueabi/8.3.0/include -Iinclude   -I./arch/arm/include -include ./include/linux/kconfig.h -D__KERNEL__ -D__UBOOT__ -Wall -Wstrict-prototypes -Wno-format-security -fno-builtin -ffreestanding -std=gnu11 -fshort-wchar -fno-strict-aliasing -fno-PIE -O2 -fno-stack-protector -fno-delete-null-pointer-checks -Wno-stringop-truncation -fmacro-prefix-map=./= -g -fstack-usage -Wno-format-nonliteral -Wno-unused-but-set-variable -Werror=date-time -D__ARM__ -marm -mno-thumb-interwork -mabi=aapcs-linux -mword-relocations -fno-pic -mno-unaligned-access -ffunction-sections -fdata-sections -fno-common -ffixed-r9 -msoft-float -pipe -march=armv7-a -D__LINUX_ARM_ARCH__=7 -mtune=generic-armv7-a -I./arch/arm/mach-exynos/include    -DKBUILD_BASENAME='"interrupts"'  -DKBUILD_MODNAME='"interrupts"' -c -o arch/arm/lib/interrupts.o arch/arm/lib/interrupts.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  arm-hpsp-linux-gnueabi-gcc -Wp,-MD,arch/arm/lib/.reset.o.d  -nostdinc -isystem /home/hpsp/rock_space/uboot_code/crosstool-ng-1.24.0/.build/arm-hpsp-linux-gnueabi/buildtools/lib/gcc/arm-hpsp-linux-gnueabi/8.3.0/include -Iinclude   -I./arch/arm/include -include ./include/linux/kconfig.h -D__KERNEL__ -D__UBOOT__ -Wall -Wstrict-prototypes -Wno-format-security -fno-builtin -ffreestanding -std=gnu11 -fshort-wchar -fno-strict-aliasing -fno-PIE -O2 -fno-stack-protector -fno-delete-null-pointer-checks -Wno-stringop-truncation -fmacro-prefix-map=./= -g -fstack-usage -Wno-format-nonliteral -Wno-unused-but-set-variable -Werror=date-time -D__ARM__ -marm -mno-thumb-interwork -mabi=aapcs-linux -mword-relocations -fno-pic -mno-unaligned-access -ffunction-sections -fdata-sections -fno-common -ffixed-r9 -msoft-float -pipe -march=armv7-a -D__LINUX_ARM_ARCH__=7 -mtune=generic-armv7-a -I./arch/arm/mach-exynos/include    -DKBUILD_BASENAME='"reset"'  -DKBUILD_MODNAME='"reset"' -c -o arch/arm/lib/reset.o arch/arm/lib/reset.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  arm-hpsp-linux-gnueabi-gcc -Wp,-MD,arch/arm/lib/.cache.o.d  -nostdinc -isystem /home/hpsp/rock_space/uboot_code/crosstool-ng-1.24.0/.build/arm-hpsp-linux-gnueabi/buildtools/lib/gcc/arm-hpsp-linux-gnueabi/8.3.0/include -Iinclude   -I./arch/arm/include -include ./include/linux/kconfig.h -D__KERNEL__ -D__UBOOT__ -Wall -Wstrict-prototypes -Wno-format-security -fno-builtin -ffreestanding -std=gnu11 -fshort-wchar -fno-strict-aliasing -fno-PIE -O2 -fno-stack-protector -fno-delete-null-pointer-checks -Wno-stringop-truncation -fmacro-prefix-map=./= -g -fstack-usage -Wno-format-nonliteral -Wno-unused-but-set-variable -Werror=date-time -D__ARM__ -marm -mno-thumb-interwork -mabi=aapcs-linux -mword-relocations -fno-pic -mno-unaligned-access -ffunction-sections -fdata-sections -fno-common -ffixed-r9 -msoft-float -pipe -march=armv7-a -D__LINUX_ARM_ARCH__=7 -mtune=generic-armv7-a -I./arch/arm/mach-exynos/include    -DKBUILD_BASENAME='"cache"'  -DKBUILD_MODNAME='"cache"' -c -o arch/arm/lib/cache.o arch/arm/lib/cache.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  arm-hpsp-linux-gnueabi-gcc -Wp,-MD,arch/arm/lib/.psci-dt.o.d  -nostdinc -isystem /home/hpsp/rock_space/uboot_code/crosstool-ng-1.24.0/.build/arm-hpsp-linux-gnueabi/buildtools/lib/gcc/arm-hpsp-linux-gnueabi/8.3.0/include -Iinclude   -I./arch/arm/include -include ./include/linux/kconfig.h -D__KERNEL__ -D__UBOOT__ -Wall -Wstrict-prototypes -Wno-format-security -fno-builtin -ffreestanding -std=gnu11 -fshort-wchar -fno-strict-aliasing -fno-PIE -O2 -fno-stack-protector -fno-delete-null-pointer-checks -Wno-stringop-truncation -fmacro-prefix-map=./= -g -fstack-usage -Wno-format-nonliteral -Wno-unused-but-set-variable -Werror=date-time -D__ARM__ -marm -mno-thumb-interwork -mabi=aapcs-linux -mword-relocations -fno-pic -mno-unaligned-access -ffunction-sections -fdata-sections -fno-common -ffixed-r9 -msoft-float -pipe -march=armv7-a -D__LINUX_ARM_ARCH__=7 -mtune=generic-armv7-a -I./arch/arm/mach-exynos/include    -DKBUILD_BASENAME='"psci_dt"'  -DKBUILD_MODNAME='"psci_dt"' -c -o arch/arm/lib/psci-dt.o arch/arm/lib/psci-dt.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   arm-hpsp-linux-gnueabi-ld.bfd     -r -o arch/arm/lib/built-in.o arch/arm/lib/vectors.o arch/arm/lib/crt0.o arch/arm/lib/setjmp.o arch/arm/lib/relocate.o arch/arm/lib/bootm-fdt.o arch/arm/lib/sections.o arch/arm/lib/stack.o arch/arm/lib/interrupts.o arch/arm/lib/reset.o arch/arm/lib/cache.o arch/arm/lib/psci-dt.o </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  rm -f arch/arm/lib/lib.a; arm-hpsp-linux-gnueabi-ar rcs arch/arm/lib/lib.a </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  arm-hpsp-linux-gnueabi-gcc -Wp,-MD,arch/arm/lib/.eabi_compat.o.d  -nostdinc -isystem /home/hpsp/rock_space/uboot_code/crosstool-ng-1.24.0/.build/arm-hpsp-linux-gnueabi/buildtools/lib/gcc/arm-hpsp-linux-gnueabi/8.3.0/include -Iinclude   -I./arch/arm/include -include ./include/linux/kconfig.h -D__KERNEL__ -D__UBOOT__ -Wall -Wstrict-prototypes -Wno-format-security -fno-builtin -ffreestanding -std=gnu11 -fshort-wchar -fno-strict-aliasing -fno-PIE -O2 -fno-stack-protector -fno-delete-null-pointer-checks -Wno-stringop-truncation -fmacro-prefix-map=./= -g -fstack-usage -Wno-format-nonliteral -Wno-unused-but-set-variable -Werror=date-time -D__ARM__ -marm -mno-thumb-interwork -mabi=aapcs-linux -mword-relocations -fno-pic -mno-unaligned-access -ffunction-sections -fdata-sections -fno-common -ffixed-r9 -msoft-float -pipe -march=armv7-a -D__LINUX_ARM_ARCH__=7 -mtune=generic-armv7-a -I./arch/arm/mach-exynos/include    -DKBUILD_BASENAME='"eabi_compat"'  -DKBUILD_MODNAME='"eabi_compat"' -c -o arch/arm/lib/eabi_compat.o arch/arm/lib/eabi_compat.c</t>
+  </si>
+  <si>
+    <t>make -f ./scripts/Makefile.build obj=arch/arm/mach-exynos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  arm-hpsp-linux-gnueabi-gcc -Wp,-MD,arch/arm/mach-exynos/.soc.o.d  -nostdinc -isystem /home/hpsp/rock_space/uboot_code/crosstool-ng-1.24.0/.build/arm-hpsp-linux-gnueabi/buildtools/lib/gcc/arm-hpsp-linux-gnueabi/8.3.0/include -Iinclude   -I./arch/arm/include -include ./include/linux/kconfig.h -D__KERNEL__ -D__UBOOT__ -Wall -Wstrict-prototypes -Wno-format-security -fno-builtin -ffreestanding -std=gnu11 -fshort-wchar -fno-strict-aliasing -fno-PIE -O2 -fno-stack-protector -fno-delete-null-pointer-checks -Wno-stringop-truncation -fmacro-prefix-map=./= -g -fstack-usage -Wno-format-nonliteral -Wno-unused-but-set-variable -Werror=date-time -D__ARM__ -marm -mno-thumb-interwork -mabi=aapcs-linux -mword-relocations -fno-pic -mno-unaligned-access -ffunction-sections -fdata-sections -fno-common -ffixed-r9 -msoft-float -pipe -march=armv7-a -D__LINUX_ARM_ARCH__=7 -mtune=generic-armv7-a -I./arch/arm/mach-exynos/include    -DKBUILD_BASENAME='"soc"'  -DKBUILD_MODNAME='"soc"' -c -o arch/arm/mach-exynos/soc.o arch/arm/mach-exynos/soc.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  arm-hpsp-linux-gnueabi-gcc -Wp,-MD,arch/arm/mach-exynos/.clock.o.d  -nostdinc -isystem /home/hpsp/rock_space/uboot_code/crosstool-ng-1.24.0/.build/arm-hpsp-linux-gnueabi/buildtools/lib/gcc/arm-hpsp-linux-gnueabi/8.3.0/include -Iinclude   -I./arch/arm/include -include ./include/linux/kconfig.h -D__KERNEL__ -D__UBOOT__ -Wall -Wstrict-prototypes -Wno-format-security -fno-builtin -ffreestanding -std=gnu11 -fshort-wchar -fno-strict-aliasing -fno-PIE -O2 -fno-stack-protector -fno-delete-null-pointer-checks -Wno-stringop-truncation -fmacro-prefix-map=./= -g -fstack-usage -Wno-format-nonliteral -Wno-unused-but-set-variable -Werror=date-time -D__ARM__ -marm -mno-thumb-interwork -mabi=aapcs-linux -mword-relocations -fno-pic -mno-unaligned-access -ffunction-sections -fdata-sections -fno-common -ffixed-r9 -msoft-float -pipe -march=armv7-a -D__LINUX_ARM_ARCH__=7 -mtune=generic-armv7-a -I./arch/arm/mach-exynos/include    -DKBUILD_BASENAME='"clock"'  -DKBUILD_MODNAME='"clock"' -c -o arch/arm/mach-exynos/clock.o arch/arm/mach-exynos/clock.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  arm-hpsp-linux-gnueabi-gcc -Wp,-MD,arch/arm/mach-exynos/.pinmux.o.d  -nostdinc -isystem /home/hpsp/rock_space/uboot_code/crosstool-ng-1.24.0/.build/arm-hpsp-linux-gnueabi/buildtools/lib/gcc/arm-hpsp-linux-gnueabi/8.3.0/include -Iinclude   -I./arch/arm/include -include ./include/linux/kconfig.h -D__KERNEL__ -D__UBOOT__ -Wall -Wstrict-prototypes -Wno-format-security -fno-builtin -ffreestanding -std=gnu11 -fshort-wchar -fno-strict-aliasing -fno-PIE -O2 -fno-stack-protector -fno-delete-null-pointer-checks -Wno-stringop-truncation -fmacro-prefix-map=./= -g -fstack-usage -Wno-format-nonliteral -Wno-unused-but-set-variable -Werror=date-time -D__ARM__ -marm -mno-thumb-interwork -mabi=aapcs-linux -mword-relocations -fno-pic -mno-unaligned-access -ffunction-sections -fdata-sections -fno-common -ffixed-r9 -msoft-float -pipe -march=armv7-a -D__LINUX_ARM_ARCH__=7 -mtune=generic-armv7-a -I./arch/arm/mach-exynos/include    -DKBUILD_BASENAME='"pinmux"'  -DKBUILD_MODNAME='"pinmux"' -c -o arch/arm/mach-exynos/pinmux.o arch/arm/mach-exynos/pinmux.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  arm-hpsp-linux-gnueabi-gcc -Wp,-MD,arch/arm/mach-exynos/.power.o.d  -nostdinc -isystem /home/hpsp/rock_space/uboot_code/crosstool-ng-1.24.0/.build/arm-hpsp-linux-gnueabi/buildtools/lib/gcc/arm-hpsp-linux-gnueabi/8.3.0/include -Iinclude   -I./arch/arm/include -include ./include/linux/kconfig.h -D__KERNEL__ -D__UBOOT__ -Wall -Wstrict-prototypes -Wno-format-security -fno-builtin -ffreestanding -std=gnu11 -fshort-wchar -fno-strict-aliasing -fno-PIE -O2 -fno-stack-protector -fno-delete-null-pointer-checks -Wno-stringop-truncation -fmacro-prefix-map=./= -g -fstack-usage -Wno-format-nonliteral -Wno-unused-but-set-variable -Werror=date-time -D__ARM__ -marm -mno-thumb-interwork -mabi=aapcs-linux -mword-relocations -fno-pic -mno-unaligned-access -ffunction-sections -fdata-sections -fno-common -ffixed-r9 -msoft-float -pipe -march=armv7-a -D__LINUX_ARM_ARCH__=7 -mtune=generic-armv7-a -I./arch/arm/mach-exynos/include    -DKBUILD_BASENAME='"power"'  -DKBUILD_MODNAME='"power"' -c -o arch/arm/mach-exynos/power.o arch/arm/mach-exynos/power.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  arm-hpsp-linux-gnueabi-gcc -Wp,-MD,arch/arm/mach-exynos/.system.o.d  -nostdinc -isystem /home/hpsp/rock_space/uboot_code/crosstool-ng-1.24.0/.build/arm-hpsp-linux-gnueabi/buildtools/lib/gcc/arm-hpsp-linux-gnueabi/8.3.0/include -Iinclude   -I./arch/arm/include -include ./include/linux/kconfig.h -D__KERNEL__ -D__UBOOT__ -Wall -Wstrict-prototypes -Wno-format-security -fno-builtin -ffreestanding -std=gnu11 -fshort-wchar -fno-strict-aliasing -fno-PIE -O2 -fno-stack-protector -fno-delete-null-pointer-checks -Wno-stringop-truncation -fmacro-prefix-map=./= -g -fstack-usage -Wno-format-nonliteral -Wno-unused-but-set-variable -Werror=date-time -D__ARM__ -marm -mno-thumb-interwork -mabi=aapcs-linux -mword-relocations -fno-pic -mno-unaligned-access -ffunction-sections -fdata-sections -fno-common -ffixed-r9 -msoft-float -pipe -march=armv7-a -D__LINUX_ARM_ARCH__=7 -mtune=generic-armv7-a -I./arch/arm/mach-exynos/include    -DKBUILD_BASENAME='"system"'  -DKBUILD_MODNAME='"system"' -c -o arch/arm/mach-exynos/system.o arch/arm/mach-exynos/system.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   arm-hpsp-linux-gnueabi-ld.bfd     -r -o arch/arm/mach-exynos/built-in.o arch/arm/mach-exynos/soc.o arch/arm/mach-exynos/clock.o arch/arm/mach-exynos/pinmux.o arch/arm/mach-exynos/power.o arch/arm/mach-exynos/system.o </t>
+  </si>
+  <si>
+    <t>make -f ./scripts/Makefile.build obj=board/samsung/common</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  arm-hpsp-linux-gnueabi-gcc -Wp,-MD,board/samsung/common/.board.o.d  -nostdinc -isystem /home/hpsp/rock_space/uboot_code/crosstool-ng-1.24.0/.build/arm-hpsp-linux-gnueabi/buildtools/lib/gcc/arm-hpsp-linux-gnueabi/8.3.0/include -Iinclude   -I./arch/arm/include -include ./include/linux/kconfig.h -D__KERNEL__ -D__UBOOT__ -Wall -Wstrict-prototypes -Wno-format-security -fno-builtin -ffreestanding -std=gnu11 -fshort-wchar -fno-strict-aliasing -fno-PIE -O2 -fno-stack-protector -fno-delete-null-pointer-checks -Wno-stringop-truncation -fmacro-prefix-map=./= -g -fstack-usage -Wno-format-nonliteral -Wno-unused-but-set-variable -Werror=date-time -D__ARM__ -marm -mno-thumb-interwork -mabi=aapcs-linux -mword-relocations -fno-pic -mno-unaligned-access -ffunction-sections -fdata-sections -fno-common -ffixed-r9 -msoft-float -pipe -march=armv7-a -D__LINUX_ARM_ARCH__=7 -mtune=generic-armv7-a -I./arch/arm/mach-exynos/include    -DKBUILD_BASENAME='"board"'  -DKBUILD_MODNAME='"board"' -c -o board/samsung/common/board.o board/samsung/common/board.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   arm-hpsp-linux-gnueabi-ld.bfd     -r -o board/samsung/common/built-in.o board/samsung/common/board.o </t>
+  </si>
+  <si>
+    <t>make -f ./scripts/Makefile.build obj=board/samsung/origen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  arm-hpsp-linux-gnueabi-gcc -Wp,-MD,board/samsung/origen/.origen.o.d  -nostdinc -isystem /home/hpsp/rock_space/uboot_code/crosstool-ng-1.24.0/.build/arm-hpsp-linux-gnueabi/buildtools/lib/gcc/arm-hpsp-linux-gnueabi/8.3.0/include -Iinclude   -I./arch/arm/include -include ./include/linux/kconfig.h -D__KERNEL__ -D__UBOOT__ -Wall -Wstrict-prototypes -Wno-format-security -fno-builtin -ffreestanding -std=gnu11 -fshort-wchar -fno-strict-aliasing -fno-PIE -O2 -fno-stack-protector -fno-delete-null-pointer-checks -Wno-stringop-truncation -fmacro-prefix-map=./= -g -fstack-usage -Wno-format-nonliteral -Wno-unused-but-set-variable -Werror=date-time -D__ARM__ -marm -mno-thumb-interwork -mabi=aapcs-linux -mword-relocations -fno-pic -mno-unaligned-access -ffunction-sections -fdata-sections -fno-common -ffixed-r9 -msoft-float -pipe -march=armv7-a -D__LINUX_ARM_ARCH__=7 -mtune=generic-armv7-a -I./arch/arm/mach-exynos/include    -DKBUILD_BASENAME='"origen"'  -DKBUILD_MODNAME='"origen"' -c -o board/samsung/origen/origen.o board/samsung/origen/origen.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   arm-hpsp-linux-gnueabi-ld.bfd     -r -o board/samsung/origen/built-in.o board/samsung/origen/origen.o </t>
+  </si>
+  <si>
+    <t>make -f ./scripts/Makefile.build obj=cmd</t>
+  </si>
+  <si>
+    <t>make -f ./scripts/Makefile.build obj=cmd/arm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   rm -f cmd/arm/built-in.o; arm-hpsp-linux-gnueabi-ar rcs cmd/arm/built-in.o</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  arm-hpsp-linux-gnueabi-gcc -Wp,-MD,cmd/.boot.o.d  -nostdinc -isystem /home/hpsp/rock_space/uboot_code/crosstool-ng-1.24.0/.build/arm-hpsp-linux-gnueabi/buildtools/lib/gcc/arm-hpsp-linux-gnueabi/8.3.0/include -Iinclude   -I./arch/arm/include -include ./include/linux/kconfig.h -D__KERNEL__ -D__UBOOT__ -Wall -Wstrict-prototypes -Wno-format-security -fno-builtin -ffreestanding -std=gnu11 -fshort-wchar -fno-strict-aliasing -fno-PIE -O2 -fno-stack-protector -fno-delete-null-pointer-checks -Wno-stringop-truncation -fmacro-prefix-map=./= -g -fstack-usage -Wno-format-nonliteral -Wno-unused-but-set-variable -Werror=date-time -D__ARM__ -marm -mno-thumb-interwork -mabi=aapcs-linux -mword-relocations -fno-pic -mno-unaligned-access -ffunction-sections -fdata-sections -fno-common -ffixed-r9 -msoft-float -pipe -march=armv7-a -D__LINUX_ARM_ARCH__=7 -mtune=generic-armv7-a -I./arch/arm/mach-exynos/include    -DKBUILD_BASENAME='"boot"'  -DKBUILD_MODNAME='"boot"' -c -o cmd/boot.o cmd/boot.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  arm-hpsp-linux-gnueabi-gcc -Wp,-MD,cmd/.help.o.d  -nostdinc -isystem /home/hpsp/rock_space/uboot_code/crosstool-ng-1.24.0/.build/arm-hpsp-linux-gnueabi/buildtools/lib/gcc/arm-hpsp-linux-gnueabi/8.3.0/include -Iinclude   -I./arch/arm/include -include ./include/linux/kconfig.h -D__KERNEL__ -D__UBOOT__ -Wall -Wstrict-prototypes -Wno-format-security -fno-builtin -ffreestanding -std=gnu11 -fshort-wchar -fno-strict-aliasing -fno-PIE -O2 -fno-stack-protector -fno-delete-null-pointer-checks -Wno-stringop-truncation -fmacro-prefix-map=./= -g -fstack-usage -Wno-format-nonliteral -Wno-unused-but-set-variable -Werror=date-time -D__ARM__ -marm -mno-thumb-interwork -mabi=aapcs-linux -mword-relocations -fno-pic -mno-unaligned-access -ffunction-sections -fdata-sections -fno-common -ffixed-r9 -msoft-float -pipe -march=armv7-a -D__LINUX_ARM_ARCH__=7 -mtune=generic-armv7-a -I./arch/arm/mach-exynos/include    -DKBUILD_BASENAME='"help"'  -DKBUILD_MODNAME='"help"' -c -o cmd/help.o cmd/help.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  arm-hpsp-linux-gnueabi-gcc -Wp,-MD,cmd/.version.o.d  -nostdinc -isystem /home/hpsp/rock_space/uboot_code/crosstool-ng-1.24.0/.build/arm-hpsp-linux-gnueabi/buildtools/lib/gcc/arm-hpsp-linux-gnueabi/8.3.0/include -Iinclude   -I./arch/arm/include -include ./include/linux/kconfig.h -D__KERNEL__ -D__UBOOT__ -Wall -Wstrict-prototypes -Wno-format-security -fno-builtin -ffreestanding -std=gnu11 -fshort-wchar -fno-strict-aliasing -fno-PIE -O2 -fno-stack-protector -fno-delete-null-pointer-checks -Wno-stringop-truncation -fmacro-prefix-map=./= -g -fstack-usage -Wno-format-nonliteral -Wno-unused-but-set-variable -Werror=date-time -D__ARM__ -marm -mno-thumb-interwork -mabi=aapcs-linux -mword-relocations -fno-pic -mno-unaligned-access -ffunction-sections -fdata-sections -fno-common -ffixed-r9 -msoft-float -pipe -march=armv7-a -D__LINUX_ARM_ARCH__=7 -mtune=generic-armv7-a -I./arch/arm/mach-exynos/include    -DKBUILD_BASENAME='"version"'  -DKBUILD_MODNAME='"version"' -c -o cmd/version.o cmd/version.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  arm-hpsp-linux-gnueabi-gcc -Wp,-MD,cmd/.load.o.d  -nostdinc -isystem /home/hpsp/rock_space/uboot_code/crosstool-ng-1.24.0/.build/arm-hpsp-linux-gnueabi/buildtools/lib/gcc/arm-hpsp-linux-gnueabi/8.3.0/include -Iinclude   -I./arch/arm/include -include ./include/linux/kconfig.h -D__KERNEL__ -D__UBOOT__ -Wall -Wstrict-prototypes -Wno-format-security -fno-builtin -ffreestanding -std=gnu11 -fshort-wchar -fno-strict-aliasing -fno-PIE -O2 -fno-stack-protector -fno-delete-null-pointer-checks -Wno-stringop-truncation -fmacro-prefix-map=./= -g -fstack-usage -Wno-format-nonliteral -Wno-unused-but-set-variable -Werror=date-time -D__ARM__ -marm -mno-thumb-interwork -mabi=aapcs-linux -mword-relocations -fno-pic -mno-unaligned-access -ffunction-sections -fdata-sections -fno-common -ffixed-r9 -msoft-float -pipe -march=armv7-a -D__LINUX_ARM_ARCH__=7 -mtune=generic-armv7-a -I./arch/arm/mach-exynos/include    -DKBUILD_BASENAME='"load"'  -DKBUILD_MODNAME='"load"' -c -o cmd/load.o cmd/load.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  arm-hpsp-linux-gnueabi-gcc -Wp,-MD,cmd/.nvedit.o.d  -nostdinc -isystem /home/hpsp/rock_space/uboot_code/crosstool-ng-1.24.0/.build/arm-hpsp-linux-gnueabi/buildtools/lib/gcc/arm-hpsp-linux-gnueabi/8.3.0/include -Iinclude   -I./arch/arm/include -include ./include/linux/kconfig.h -D__KERNEL__ -D__UBOOT__ -Wall -Wstrict-prototypes -Wno-format-security -fno-builtin -ffreestanding -std=gnu11 -fshort-wchar -fno-strict-aliasing -fno-PIE -O2 -fno-stack-protector -fno-delete-null-pointer-checks -Wno-stringop-truncation -fmacro-prefix-map=./= -g -fstack-usage -Wno-format-nonliteral -Wno-unused-but-set-variable -Werror=date-time -D__ARM__ -marm -mno-thumb-interwork -mabi=aapcs-linux -mword-relocations -fno-pic -mno-unaligned-access -ffunction-sections -fdata-sections -fno-common -ffixed-r9 -msoft-float -pipe -march=armv7-a -D__LINUX_ARM_ARCH__=7 -mtune=generic-armv7-a -I./arch/arm/mach-exynos/include    -DKBUILD_BASENAME='"nvedit"'  -DKBUILD_MODNAME='"nvedit"' -c -o cmd/nvedit.o cmd/nvedit.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   arm-hpsp-linux-gnueabi-ld.bfd     -r -o cmd/built-in.o cmd/boot.o cmd/help.o cmd/version.o cmd/load.o cmd/arm/built-in.o cmd/nvedit.o </t>
+  </si>
+  <si>
+    <t>make -f ./scripts/Makefile.build obj=common</t>
+  </si>
+  <si>
+    <t>make -f ./scripts/Makefile.build obj=common/init</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  arm-hpsp-linux-gnueabi-gcc -Wp,-MD,common/init/.board_init.o.d  -nostdinc -isystem /home/hpsp/rock_space/uboot_code/crosstool-ng-1.24.0/.build/arm-hpsp-linux-gnueabi/buildtools/lib/gcc/arm-hpsp-linux-gnueabi/8.3.0/include -Iinclude   -I./arch/arm/include -include ./include/linux/kconfig.h -D__KERNEL__ -D__UBOOT__ -Wall -Wstrict-prototypes -Wno-format-security -fno-builtin -ffreestanding -std=gnu11 -fshort-wchar -fno-strict-aliasing -fno-PIE -O2 -fno-stack-protector -fno-delete-null-pointer-checks -Wno-stringop-truncation -fmacro-prefix-map=./= -g -fstack-usage -Wno-format-nonliteral -Wno-unused-but-set-variable -Werror=date-time -D__ARM__ -marm -mno-thumb-interwork -mabi=aapcs-linux -mword-relocations -fno-pic -mno-unaligned-access -ffunction-sections -fdata-sections -fno-common -ffixed-r9 -msoft-float -pipe -march=armv7-a -D__LINUX_ARM_ARCH__=7 -mtune=generic-armv7-a -I./arch/arm/mach-exynos/include    -DKBUILD_BASENAME='"board_init"'  -DKBUILD_MODNAME='"board_init"' -c -o common/init/board_init.o common/init/board_init.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   arm-hpsp-linux-gnueabi-ld.bfd     -r -o common/init/built-in.o common/init/board_init.o </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  arm-hpsp-linux-gnueabi-gcc -Wp,-MD,common/.main.o.d  -nostdinc -isystem /home/hpsp/rock_space/uboot_code/crosstool-ng-1.24.0/.build/arm-hpsp-linux-gnueabi/buildtools/lib/gcc/arm-hpsp-linux-gnueabi/8.3.0/include -Iinclude   -I./arch/arm/include -include ./include/linux/kconfig.h -D__KERNEL__ -D__UBOOT__ -Wall -Wstrict-prototypes -Wno-format-security -fno-builtin -ffreestanding -std=gnu11 -fshort-wchar -fno-strict-aliasing -fno-PIE -O2 -fno-stack-protector -fno-delete-null-pointer-checks -Wno-stringop-truncation -fmacro-prefix-map=./= -g -fstack-usage -Wno-format-nonliteral -Wno-unused-but-set-variable -Werror=date-time -D__ARM__ -marm -mno-thumb-interwork -mabi=aapcs-linux -mword-relocations -fno-pic -mno-unaligned-access -ffunction-sections -fdata-sections -fno-common -ffixed-r9 -msoft-float -pipe -march=armv7-a -D__LINUX_ARM_ARCH__=7 -mtune=generic-armv7-a -I./arch/arm/mach-exynos/include    -DKBUILD_BASENAME='"main"'  -DKBUILD_MODNAME='"main"' -c -o common/main.o common/main.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  arm-hpsp-linux-gnueabi-gcc -Wp,-MD,common/.exports.o.d  -nostdinc -isystem /home/hpsp/rock_space/uboot_code/crosstool-ng-1.24.0/.build/arm-hpsp-linux-gnueabi/buildtools/lib/gcc/arm-hpsp-linux-gnueabi/8.3.0/include -Iinclude   -I./arch/arm/include -include ./include/linux/kconfig.h -D__KERNEL__ -D__UBOOT__ -Wall -Wstrict-prototypes -Wno-format-security -fno-builtin -ffreestanding -std=gnu11 -fshort-wchar -fno-strict-aliasing -fno-PIE -O2 -fno-stack-protector -fno-delete-null-pointer-checks -Wno-stringop-truncation -fmacro-prefix-map=./= -g -fstack-usage -Wno-format-nonliteral -Wno-unused-but-set-variable -Werror=date-time -D__ARM__ -marm -mno-thumb-interwork -mabi=aapcs-linux -mword-relocations -fno-pic -mno-unaligned-access -ffunction-sections -fdata-sections -fno-common -ffixed-r9 -msoft-float -pipe -march=armv7-a -D__LINUX_ARM_ARCH__=7 -mtune=generic-armv7-a -I./arch/arm/mach-exynos/include    -DKBUILD_BASENAME='"exports"'  -DKBUILD_MODNAME='"exports"' -c -o common/exports.o common/exports.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  arm-hpsp-linux-gnueabi-gcc -Wp,-MD,common/.board_f.o.d  -nostdinc -isystem /home/hpsp/rock_space/uboot_code/crosstool-ng-1.24.0/.build/arm-hpsp-linux-gnueabi/buildtools/lib/gcc/arm-hpsp-linux-gnueabi/8.3.0/include -Iinclude   -I./arch/arm/include -include ./include/linux/kconfig.h -D__KERNEL__ -D__UBOOT__ -Wall -Wstrict-prototypes -Wno-format-security -fno-builtin -ffreestanding -std=gnu11 -fshort-wchar -fno-strict-aliasing -fno-PIE -O2 -fno-stack-protector -fno-delete-null-pointer-checks -Wno-stringop-truncation -fmacro-prefix-map=./= -g -fstack-usage -Wno-format-nonliteral -Wno-unused-but-set-variable -Werror=date-time -D__ARM__ -marm -mno-thumb-interwork -mabi=aapcs-linux -mword-relocations -fno-pic -mno-unaligned-access -ffunction-sections -fdata-sections -fno-common -ffixed-r9 -msoft-float -pipe -march=armv7-a -D__LINUX_ARM_ARCH__=7 -mtune=generic-armv7-a -I./arch/arm/mach-exynos/include    -DKBUILD_BASENAME='"board_f"'  -DKBUILD_MODNAME='"board_f"' -c -o common/board_f.o common/board_f.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  arm-hpsp-linux-gnueabi-gcc -Wp,-MD,common/.board_r.o.d  -nostdinc -isystem /home/hpsp/rock_space/uboot_code/crosstool-ng-1.24.0/.build/arm-hpsp-linux-gnueabi/buildtools/lib/gcc/arm-hpsp-linux-gnueabi/8.3.0/include -Iinclude   -I./arch/arm/include -include ./include/linux/kconfig.h -D__KERNEL__ -D__UBOOT__ -Wall -Wstrict-prototypes -Wno-format-security -fno-builtin -ffreestanding -std=gnu11 -fshort-wchar -fno-strict-aliasing -fno-PIE -O2 -fno-stack-protector -fno-delete-null-pointer-checks -Wno-stringop-truncation -fmacro-prefix-map=./= -g -fstack-usage -Wno-format-nonliteral -Wno-unused-but-set-variable -Werror=date-time -D__ARM__ -marm -mno-thumb-interwork -mabi=aapcs-linux -mword-relocations -fno-pic -mno-unaligned-access -ffunction-sections -fdata-sections -fno-common -ffixed-r9 -msoft-float -pipe -march=armv7-a -D__LINUX_ARM_ARCH__=7 -mtune=generic-armv7-a -I./arch/arm/mach-exynos/include    -DKBUILD_BASENAME='"board_r"'  -DKBUILD_MODNAME='"board_r"' -c -o common/board_r.o common/board_r.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  arm-hpsp-linux-gnueabi-gcc -Wp,-MD,common/.fdt_support.o.d  -nostdinc -isystem /home/hpsp/rock_space/uboot_code/crosstool-ng-1.24.0/.build/arm-hpsp-linux-gnueabi/buildtools/lib/gcc/arm-hpsp-linux-gnueabi/8.3.0/include -Iinclude   -I./arch/arm/include -include ./include/linux/kconfig.h -D__KERNEL__ -D__UBOOT__ -Wall -Wstrict-prototypes -Wno-format-security -fno-builtin -ffreestanding -std=gnu11 -fshort-wchar -fno-strict-aliasing -fno-PIE -O2 -fno-stack-protector -fno-delete-null-pointer-checks -Wno-stringop-truncation -fmacro-prefix-map=./= -g -fstack-usage -Wno-format-nonliteral -Wno-unused-but-set-variable -Werror=date-time -D__ARM__ -marm -mno-thumb-interwork -mabi=aapcs-linux -mword-relocations -fno-pic -mno-unaligned-access -ffunction-sections -fdata-sections -fno-common -ffixed-r9 -msoft-float -pipe -march=armv7-a -D__LINUX_ARM_ARCH__=7 -mtune=generic-armv7-a -I./arch/arm/mach-exynos/include    -DKBUILD_BASENAME='"fdt_support"'  -DKBUILD_MODNAME='"fdt_support"' -c -o common/fdt_support.o common/fdt_support.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  arm-hpsp-linux-gnueabi-gcc -Wp,-MD,common/.splash.o.d  -nostdinc -isystem /home/hpsp/rock_space/uboot_code/crosstool-ng-1.24.0/.build/arm-hpsp-linux-gnueabi/buildtools/lib/gcc/arm-hpsp-linux-gnueabi/8.3.0/include -Iinclude   -I./arch/arm/include -include ./include/linux/kconfig.h -D__KERNEL__ -D__UBOOT__ -Wall -Wstrict-prototypes -Wno-format-security -fno-builtin -ffreestanding -std=gnu11 -fshort-wchar -fno-strict-aliasing -fno-PIE -O2 -fno-stack-protector -fno-delete-null-pointer-checks -Wno-stringop-truncation -fmacro-prefix-map=./= -g -fstack-usage -Wno-format-nonliteral -Wno-unused-but-set-variable -Werror=date-time -D__ARM__ -marm -mno-thumb-interwork -mabi=aapcs-linux -mword-relocations -fno-pic -mno-unaligned-access -ffunction-sections -fdata-sections -fno-common -ffixed-r9 -msoft-float -pipe -march=armv7-a -D__LINUX_ARM_ARCH__=7 -mtune=generic-armv7-a -I./arch/arm/mach-exynos/include    -DKBUILD_BASENAME='"splash"'  -DKBUILD_MODNAME='"splash"' -c -o common/splash.o common/splash.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  arm-hpsp-linux-gnueabi-gcc -Wp,-MD,common/.console.o.d  -nostdinc -isystem /home/hpsp/rock_space/uboot_code/crosstool-ng-1.24.0/.build/arm-hpsp-linux-gnueabi/buildtools/lib/gcc/arm-hpsp-linux-gnueabi/8.3.0/include -Iinclude   -I./arch/arm/include -include ./include/linux/kconfig.h -D__KERNEL__ -D__UBOOT__ -Wall -Wstrict-prototypes -Wno-format-security -fno-builtin -ffreestanding -std=gnu11 -fshort-wchar -fno-strict-aliasing -fno-PIE -O2 -fno-stack-protector -fno-delete-null-pointer-checks -Wno-stringop-truncation -fmacro-prefix-map=./= -g -fstack-usage -Wno-format-nonliteral -Wno-unused-but-set-variable -Werror=date-time -D__ARM__ -marm -mno-thumb-interwork -mabi=aapcs-linux -mword-relocations -fno-pic -mno-unaligned-access -ffunction-sections -fdata-sections -fno-common -ffixed-r9 -msoft-float -pipe -march=armv7-a -D__LINUX_ARM_ARCH__=7 -mtune=generic-armv7-a -I./arch/arm/mach-exynos/include    -DKBUILD_BASENAME='"console"'  -DKBUILD_MODNAME='"console"' -c -o common/console.o common/console.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  arm-hpsp-linux-gnueabi-gcc -Wp,-MD,common/.dlmalloc.o.d  -nostdinc -isystem /home/hpsp/rock_space/uboot_code/crosstool-ng-1.24.0/.build/arm-hpsp-linux-gnueabi/buildtools/lib/gcc/arm-hpsp-linux-gnueabi/8.3.0/include -Iinclude   -I./arch/arm/include -include ./include/linux/kconfig.h -D__KERNEL__ -D__UBOOT__ -Wall -Wstrict-prototypes -Wno-format-security -fno-builtin -ffreestanding -std=gnu11 -fshort-wchar -fno-strict-aliasing -fno-PIE -O2 -fno-stack-protector -fno-delete-null-pointer-checks -Wno-stringop-truncation -fmacro-prefix-map=./= -g -fstack-usage -Wno-format-nonliteral -Wno-unused-but-set-variable -Werror=date-time -D__ARM__ -marm -mno-thumb-interwork -mabi=aapcs-linux -mword-relocations -fno-pic -mno-unaligned-access -ffunction-sections -fdata-sections -fno-common -ffixed-r9 -msoft-float -pipe -march=armv7-a -D__LINUX_ARM_ARCH__=7 -mtune=generic-armv7-a -I./arch/arm/mach-exynos/include    -DKBUILD_BASENAME='"dlmalloc"'  -DKBUILD_MODNAME='"dlmalloc"' -c -o common/dlmalloc.o common/dlmalloc.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  arm-hpsp-linux-gnueabi-gcc -Wp,-MD,common/.malloc_simple.o.d  -nostdinc -isystem /home/hpsp/rock_space/uboot_code/crosstool-ng-1.24.0/.build/arm-hpsp-linux-gnueabi/buildtools/lib/gcc/arm-hpsp-linux-gnueabi/8.3.0/include -Iinclude   -I./arch/arm/include -include ./include/linux/kconfig.h -D__KERNEL__ -D__UBOOT__ -Wall -Wstrict-prototypes -Wno-format-security -fno-builtin -ffreestanding -std=gnu11 -fshort-wchar -fno-strict-aliasing -fno-PIE -O2 -fno-stack-protector -fno-delete-null-pointer-checks -Wno-stringop-truncation -fmacro-prefix-map=./= -g -fstack-usage -Wno-format-nonliteral -Wno-unused-but-set-variable -Werror=date-time -D__ARM__ -marm -mno-thumb-interwork -mabi=aapcs-linux -mword-relocations -fno-pic -mno-unaligned-access -ffunction-sections -fdata-sections -fno-common -ffixed-r9 -msoft-float -pipe -march=armv7-a -D__LINUX_ARM_ARCH__=7 -mtune=generic-armv7-a -I./arch/arm/mach-exynos/include    -DKBUILD_BASENAME='"malloc_simple"'  -DKBUILD_MODNAME='"malloc_simple"' -c -o common/malloc_simple.o common/malloc_simple.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  arm-hpsp-linux-gnueabi-gcc -Wp,-MD,common/.image.o.d  -nostdinc -isystem /home/hpsp/rock_space/uboot_code/crosstool-ng-1.24.0/.build/arm-hpsp-linux-gnueabi/buildtools/lib/gcc/arm-hpsp-linux-gnueabi/8.3.0/include -Iinclude   -I./arch/arm/include -include ./include/linux/kconfig.h -D__KERNEL__ -D__UBOOT__ -Wall -Wstrict-prototypes -Wno-format-security -fno-builtin -ffreestanding -std=gnu11 -fshort-wchar -fno-strict-aliasing -fno-PIE -O2 -fno-stack-protector -fno-delete-null-pointer-checks -Wno-stringop-truncation -fmacro-prefix-map=./= -g -fstack-usage -Wno-format-nonliteral -Wno-unused-but-set-variable -Werror=date-time -D__ARM__ -marm -mno-thumb-interwork -mabi=aapcs-linux -mword-relocations -fno-pic -mno-unaligned-access -ffunction-sections -fdata-sections -fno-common -ffixed-r9 -msoft-float -pipe -march=armv7-a -D__LINUX_ARM_ARCH__=7 -mtune=generic-armv7-a -I./arch/arm/mach-exynos/include    -DKBUILD_BASENAME='"image"'  -DKBUILD_MODNAME='"image"' -c -o common/image.o common/image.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  arm-hpsp-linux-gnueabi-gcc -Wp,-MD,common/.image-fdt.o.d  -nostdinc -isystem /home/hpsp/rock_space/uboot_code/crosstool-ng-1.24.0/.build/arm-hpsp-linux-gnueabi/buildtools/lib/gcc/arm-hpsp-linux-gnueabi/8.3.0/include -Iinclude   -I./arch/arm/include -include ./include/linux/kconfig.h -D__KERNEL__ -D__UBOOT__ -Wall -Wstrict-prototypes -Wno-format-security -fno-builtin -ffreestanding -std=gnu11 -fshort-wchar -fno-strict-aliasing -fno-PIE -O2 -fno-stack-protector -fno-delete-null-pointer-checks -Wno-stringop-truncation -fmacro-prefix-map=./= -g -fstack-usage -Wno-format-nonliteral -Wno-unused-but-set-variable -Werror=date-time -D__ARM__ -marm -mno-thumb-interwork -mabi=aapcs-linux -mword-relocations -fno-pic -mno-unaligned-access -ffunction-sections -fdata-sections -fno-common -ffixed-r9 -msoft-float -pipe -march=armv7-a -D__LINUX_ARM_ARCH__=7 -mtune=generic-armv7-a -I./arch/arm/mach-exynos/include    -DKBUILD_BASENAME='"image_fdt"'  -DKBUILD_MODNAME='"image_fdt"' -c -o common/image-fdt.o common/image-fdt.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  arm-hpsp-linux-gnueabi-gcc -Wp,-MD,common/.memsize.o.d  -nostdinc -isystem /home/hpsp/rock_space/uboot_code/crosstool-ng-1.24.0/.build/arm-hpsp-linux-gnueabi/buildtools/lib/gcc/arm-hpsp-linux-gnueabi/8.3.0/include -Iinclude   -I./arch/arm/include -include ./include/linux/kconfig.h -D__KERNEL__ -D__UBOOT__ -Wall -Wstrict-prototypes -Wno-format-security -fno-builtin -ffreestanding -std=gnu11 -fshort-wchar -fno-strict-aliasing -fno-PIE -O2 -fno-stack-protector -fno-delete-null-pointer-checks -Wno-stringop-truncation -fmacro-prefix-map=./= -g -fstack-usage -Wno-format-nonliteral -Wno-unused-but-set-variable -Werror=date-time -D__ARM__ -marm -mno-thumb-interwork -mabi=aapcs-linux -mword-relocations -fno-pic -mno-unaligned-access -ffunction-sections -fdata-sections -fno-common -ffixed-r9 -msoft-float -pipe -march=armv7-a -D__LINUX_ARM_ARCH__=7 -mtune=generic-armv7-a -I./arch/arm/mach-exynos/include    -DKBUILD_BASENAME='"memsize"'  -DKBUILD_MODNAME='"memsize"' -c -o common/memsize.o common/memsize.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  arm-hpsp-linux-gnueabi-gcc -Wp,-MD,common/.stdio.o.d  -nostdinc -isystem /home/hpsp/rock_space/uboot_code/crosstool-ng-1.24.0/.build/arm-hpsp-linux-gnueabi/buildtools/lib/gcc/arm-hpsp-linux-gnueabi/8.3.0/include -Iinclude   -I./arch/arm/include -include ./include/linux/kconfig.h -D__KERNEL__ -D__UBOOT__ -Wall -Wstrict-prototypes -Wno-format-security -fno-builtin -ffreestanding -std=gnu11 -fshort-wchar -fno-strict-aliasing -fno-PIE -O2 -fno-stack-protector -fno-delete-null-pointer-checks -Wno-stringop-truncation -fmacro-prefix-map=./= -g -fstack-usage -Wno-format-nonliteral -Wno-unused-but-set-variable -Werror=date-time -D__ARM__ -marm -mno-thumb-interwork -mabi=aapcs-linux -mword-relocations -fno-pic -mno-unaligned-access -ffunction-sections -fdata-sections -fno-common -ffixed-r9 -msoft-float -pipe -march=armv7-a -D__LINUX_ARM_ARCH__=7 -mtune=generic-armv7-a -I./arch/arm/mach-exynos/include    -DKBUILD_BASENAME='"stdio"'  -DKBUILD_MODNAME='"stdio"' -c -o common/stdio.o common/stdio.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  arm-hpsp-linux-gnueabi-gcc -Wp,-MD,common/.cli.o.d  -nostdinc -isystem /home/hpsp/rock_space/uboot_code/crosstool-ng-1.24.0/.build/arm-hpsp-linux-gnueabi/buildtools/lib/gcc/arm-hpsp-linux-gnueabi/8.3.0/include -Iinclude   -I./arch/arm/include -include ./include/linux/kconfig.h -D__KERNEL__ -D__UBOOT__ -Wall -Wstrict-prototypes -Wno-format-security -fno-builtin -ffreestanding -std=gnu11 -fshort-wchar -fno-strict-aliasing -fno-PIE -O2 -fno-stack-protector -fno-delete-null-pointer-checks -Wno-stringop-truncation -fmacro-prefix-map=./= -g -fstack-usage -Wno-format-nonliteral -Wno-unused-but-set-variable -Werror=date-time -D__ARM__ -marm -mno-thumb-interwork -mabi=aapcs-linux -mword-relocations -fno-pic -mno-unaligned-access -ffunction-sections -fdata-sections -fno-common -ffixed-r9 -msoft-float -pipe -march=armv7-a -D__LINUX_ARM_ARCH__=7 -mtune=generic-armv7-a -I./arch/arm/mach-exynos/include    -DKBUILD_BASENAME='"cli"'  -DKBUILD_MODNAME='"cli"' -c -o common/cli.o common/cli.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  arm-hpsp-linux-gnueabi-gcc -Wp,-MD,common/.command.o.d  -nostdinc -isystem /home/hpsp/rock_space/uboot_code/crosstool-ng-1.24.0/.build/arm-hpsp-linux-gnueabi/buildtools/lib/gcc/arm-hpsp-linux-gnueabi/8.3.0/include -Iinclude   -I./arch/arm/include -include ./include/linux/kconfig.h -D__KERNEL__ -D__UBOOT__ -Wall -Wstrict-prototypes -Wno-format-security -fno-builtin -ffreestanding -std=gnu11 -fshort-wchar -fno-strict-aliasing -fno-PIE -O2 -fno-stack-protector -fno-delete-null-pointer-checks -Wno-stringop-truncation -fmacro-prefix-map=./= -g -fstack-usage -Wno-format-nonliteral -Wno-unused-but-set-variable -Werror=date-time -D__ARM__ -marm -mno-thumb-interwork -mabi=aapcs-linux -mword-relocations -fno-pic -mno-unaligned-access -ffunction-sections -fdata-sections -fno-common -ffixed-r9 -msoft-float -pipe -march=armv7-a -D__LINUX_ARM_ARCH__=7 -mtune=generic-armv7-a -I./arch/arm/mach-exynos/include    -DKBUILD_BASENAME='"command"'  -DKBUILD_MODNAME='"command"' -c -o common/command.o common/command.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  arm-hpsp-linux-gnueabi-gcc -Wp,-MD,common/.s_record.o.d  -nostdinc -isystem /home/hpsp/rock_space/uboot_code/crosstool-ng-1.24.0/.build/arm-hpsp-linux-gnueabi/buildtools/lib/gcc/arm-hpsp-linux-gnueabi/8.3.0/include -Iinclude   -I./arch/arm/include -include ./include/linux/kconfig.h -D__KERNEL__ -D__UBOOT__ -Wall -Wstrict-prototypes -Wno-format-security -fno-builtin -ffreestanding -std=gnu11 -fshort-wchar -fno-strict-aliasing -fno-PIE -O2 -fno-stack-protector -fno-delete-null-pointer-checks -Wno-stringop-truncation -fmacro-prefix-map=./= -g -fstack-usage -Wno-format-nonliteral -Wno-unused-but-set-variable -Werror=date-time -D__ARM__ -marm -mno-thumb-interwork -mabi=aapcs-linux -mword-relocations -fno-pic -mno-unaligned-access -ffunction-sections -fdata-sections -fno-common -ffixed-r9 -msoft-float -pipe -march=armv7-a -D__LINUX_ARM_ARCH__=7 -mtune=generic-armv7-a -I./arch/arm/mach-exynos/include    -DKBUILD_BASENAME='"s_record"'  -DKBUILD_MODNAME='"s_record"' -c -o common/s_record.o common/s_record.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   arm-hpsp-linux-gnueabi-ld.bfd     -r -o common/built-in.o common/init/built-in.o common/main.o common/exports.o common/board_f.o common/board_r.o common/fdt_support.o common/splash.o common/console.o common/dlmalloc.o common/malloc_simple.o common/image.o common/image-fdt.o common/memsize.o common/stdio.o common/cli.o common/command.o common/s_record.o </t>
+  </si>
+  <si>
+    <t>make -f ./scripts/Makefile.build obj=disk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   rm -f disk/built-in.o; arm-hpsp-linux-gnueabi-ar rcs disk/built-in.o</t>
+  </si>
+  <si>
+    <t>make -f ./scripts/Makefile.build obj=drivers</t>
+  </si>
+  <si>
+    <t>make -f ./scripts/Makefile.build obj=drivers/adc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   rm -f drivers/adc/built-in.o; arm-hpsp-linux-gnueabi-ar rcs drivers/adc/built-in.o</t>
+  </si>
+  <si>
+    <t>make -f ./scripts/Makefile.build obj=drivers/ata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   rm -f drivers/ata/built-in.o; arm-hpsp-linux-gnueabi-ar rcs drivers/ata/built-in.o</t>
+  </si>
+  <si>
+    <t>make -f ./scripts/Makefile.build obj=drivers/axi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   rm -f drivers/axi/built-in.o; arm-hpsp-linux-gnueabi-ar rcs drivers/axi/built-in.o</t>
+  </si>
+  <si>
+    <t>make -f ./scripts/Makefile.build obj=drivers/block</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  arm-hpsp-linux-gnueabi-gcc -Wp,-MD,drivers/block/.blk-uclass.o.d  -nostdinc -isystem /home/hpsp/rock_space/uboot_code/crosstool-ng-1.24.0/.build/arm-hpsp-linux-gnueabi/buildtools/lib/gcc/arm-hpsp-linux-gnueabi/8.3.0/include -Iinclude   -I./arch/arm/include -include ./include/linux/kconfig.h -D__KERNEL__ -D__UBOOT__ -Wall -Wstrict-prototypes -Wno-format-security -fno-builtin -ffreestanding -std=gnu11 -fshort-wchar -fno-strict-aliasing -fno-PIE -O2 -fno-stack-protector -fno-delete-null-pointer-checks -Wno-stringop-truncation -fmacro-prefix-map=./= -g -fstack-usage -Wno-format-nonliteral -Wno-unused-but-set-variable -Werror=date-time -D__ARM__ -marm -mno-thumb-interwork -mabi=aapcs-linux -mword-relocations -fno-pic -mno-unaligned-access -ffunction-sections -fdata-sections -fno-common -ffixed-r9 -msoft-float -pipe -march=armv7-a -D__LINUX_ARM_ARCH__=7 -mtune=generic-armv7-a -I./arch/arm/mach-exynos/include    -DKBUILD_BASENAME='"blk_uclass"'  -DKBUILD_MODNAME='"blk_uclass"' -c -o drivers/block/blk-uclass.o drivers/block/blk-uclass.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   arm-hpsp-linux-gnueabi-ld.bfd     -r -o drivers/block/built-in.o drivers/block/blk-uclass.o </t>
+  </si>
+  <si>
+    <t>make -f ./scripts/Makefile.build obj=drivers/cache</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   rm -f drivers/cache/built-in.o; arm-hpsp-linux-gnueabi-ar rcs drivers/cache/built-in.o</t>
+  </si>
+  <si>
+    <t>make -f ./scripts/Makefile.build obj=drivers/core</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  arm-hpsp-linux-gnueabi-gcc -Wp,-MD,drivers/core/.device.o.d  -nostdinc -isystem /home/hpsp/rock_space/uboot_code/crosstool-ng-1.24.0/.build/arm-hpsp-linux-gnueabi/buildtools/lib/gcc/arm-hpsp-linux-gnueabi/8.3.0/include -Iinclude   -I./arch/arm/include -include ./include/linux/kconfig.h -D__KERNEL__ -D__UBOOT__ -Wall -Wstrict-prototypes -Wno-format-security -fno-builtin -ffreestanding -std=gnu11 -fshort-wchar -fno-strict-aliasing -fno-PIE -O2 -fno-stack-protector -fno-delete-null-pointer-checks -Wno-stringop-truncation -fmacro-prefix-map=./= -g -fstack-usage -Wno-format-nonliteral -Wno-unused-but-set-variable -Werror=date-time -D__ARM__ -marm -mno-thumb-interwork -mabi=aapcs-linux -mword-relocations -fno-pic -mno-unaligned-access -ffunction-sections -fdata-sections -fno-common -ffixed-r9 -msoft-float -pipe -march=armv7-a -D__LINUX_ARM_ARCH__=7 -mtune=generic-armv7-a -I./arch/arm/mach-exynos/include    -DKBUILD_BASENAME='"device"'  -DKBUILD_MODNAME='"device"' -c -o drivers/core/device.o drivers/core/device.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  arm-hpsp-linux-gnueabi-gcc -Wp,-MD,drivers/core/.fdtaddr.o.d  -nostdinc -isystem /home/hpsp/rock_space/uboot_code/crosstool-ng-1.24.0/.build/arm-hpsp-linux-gnueabi/buildtools/lib/gcc/arm-hpsp-linux-gnueabi/8.3.0/include -Iinclude   -I./arch/arm/include -include ./include/linux/kconfig.h -D__KERNEL__ -D__UBOOT__ -Wall -Wstrict-prototypes -Wno-format-security -fno-builtin -ffreestanding -std=gnu11 -fshort-wchar -fno-strict-aliasing -fno-PIE -O2 -fno-stack-protector -fno-delete-null-pointer-checks -Wno-stringop-truncation -fmacro-prefix-map=./= -g -fstack-usage -Wno-format-nonliteral -Wno-unused-but-set-variable -Werror=date-time -D__ARM__ -marm -mno-thumb-interwork -mabi=aapcs-linux -mword-relocations -fno-pic -mno-unaligned-access -ffunction-sections -fdata-sections -fno-common -ffixed-r9 -msoft-float -pipe -march=armv7-a -D__LINUX_ARM_ARCH__=7 -mtune=generic-armv7-a -I./arch/arm/mach-exynos/include    -DKBUILD_BASENAME='"fdtaddr"'  -DKBUILD_MODNAME='"fdtaddr"' -c -o drivers/core/fdtaddr.o drivers/core/fdtaddr.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  arm-hpsp-linux-gnueabi-gcc -Wp,-MD,drivers/core/.lists.o.d  -nostdinc -isystem /home/hpsp/rock_space/uboot_code/crosstool-ng-1.24.0/.build/arm-hpsp-linux-gnueabi/buildtools/lib/gcc/arm-hpsp-linux-gnueabi/8.3.0/include -Iinclude   -I./arch/arm/include -include ./include/linux/kconfig.h -D__KERNEL__ -D__UBOOT__ -Wall -Wstrict-prototypes -Wno-format-security -fno-builtin -ffreestanding -std=gnu11 -fshort-wchar -fno-strict-aliasing -fno-PIE -O2 -fno-stack-protector -fno-delete-null-pointer-checks -Wno-stringop-truncation -fmacro-prefix-map=./= -g -fstack-usage -Wno-format-nonliteral -Wno-unused-but-set-variable -Werror=date-time -D__ARM__ -marm -mno-thumb-interwork -mabi=aapcs-linux -mword-relocations -fno-pic -mno-unaligned-access -ffunction-sections -fdata-sections -fno-common -ffixed-r9 -msoft-float -pipe -march=armv7-a -D__LINUX_ARM_ARCH__=7 -mtune=generic-armv7-a -I./arch/arm/mach-exynos/include    -DKBUILD_BASENAME='"lists"'  -DKBUILD_MODNAME='"lists"' -c -o drivers/core/lists.o drivers/core/lists.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  arm-hpsp-linux-gnueabi-gcc -Wp,-MD,drivers/core/.root.o.d  -nostdinc -isystem /home/hpsp/rock_space/uboot_code/crosstool-ng-1.24.0/.build/arm-hpsp-linux-gnueabi/buildtools/lib/gcc/arm-hpsp-linux-gnueabi/8.3.0/include -Iinclude   -I./arch/arm/include -include ./include/linux/kconfig.h -D__KERNEL__ -D__UBOOT__ -Wall -Wstrict-prototypes -Wno-format-security -fno-builtin -ffreestanding -std=gnu11 -fshort-wchar -fno-strict-aliasing -fno-PIE -O2 -fno-stack-protector -fno-delete-null-pointer-checks -Wno-stringop-truncation -fmacro-prefix-map=./= -g -fstack-usage -Wno-format-nonliteral -Wno-unused-but-set-variable -Werror=date-time -D__ARM__ -marm -mno-thumb-interwork -mabi=aapcs-linux -mword-relocations -fno-pic -mno-unaligned-access -ffunction-sections -fdata-sections -fno-common -ffixed-r9 -msoft-float -pipe -march=armv7-a -D__LINUX_ARM_ARCH__=7 -mtune=generic-armv7-a -I./arch/arm/mach-exynos/include    -DKBUILD_BASENAME='"root"'  -DKBUILD_MODNAME='"root"' -c -o drivers/core/root.o drivers/core/root.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  arm-hpsp-linux-gnueabi-gcc -Wp,-MD,drivers/core/.uclass.o.d  -nostdinc -isystem /home/hpsp/rock_space/uboot_code/crosstool-ng-1.24.0/.build/arm-hpsp-linux-gnueabi/buildtools/lib/gcc/arm-hpsp-linux-gnueabi/8.3.0/include -Iinclude   -I./arch/arm/include -include ./include/linux/kconfig.h -D__KERNEL__ -D__UBOOT__ -Wall -Wstrict-prototypes -Wno-format-security -fno-builtin -ffreestanding -std=gnu11 -fshort-wchar -fno-strict-aliasing -fno-PIE -O2 -fno-stack-protector -fno-delete-null-pointer-checks -Wno-stringop-truncation -fmacro-prefix-map=./= -g -fstack-usage -Wno-format-nonliteral -Wno-unused-but-set-variable -Werror=date-time -D__ARM__ -marm -mno-thumb-interwork -mabi=aapcs-linux -mword-relocations -fno-pic -mno-unaligned-access -ffunction-sections -fdata-sections -fno-common -ffixed-r9 -msoft-float -pipe -march=armv7-a -D__LINUX_ARM_ARCH__=7 -mtune=generic-armv7-a -I./arch/arm/mach-exynos/include    -DKBUILD_BASENAME='"uclass"'  -DKBUILD_MODNAME='"uclass"' -c -o drivers/core/uclass.o drivers/core/uclass.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  arm-hpsp-linux-gnueabi-gcc -Wp,-MD,drivers/core/.util.o.d  -nostdinc -isystem /home/hpsp/rock_space/uboot_code/crosstool-ng-1.24.0/.build/arm-hpsp-linux-gnueabi/buildtools/lib/gcc/arm-hpsp-linux-gnueabi/8.3.0/include -Iinclude   -I./arch/arm/include -include ./include/linux/kconfig.h -D__KERNEL__ -D__UBOOT__ -Wall -Wstrict-prototypes -Wno-format-security -fno-builtin -ffreestanding -std=gnu11 -fshort-wchar -fno-strict-aliasing -fno-PIE -O2 -fno-stack-protector -fno-delete-null-pointer-checks -Wno-stringop-truncation -fmacro-prefix-map=./= -g -fstack-usage -Wno-format-nonliteral -Wno-unused-but-set-variable -Werror=date-time -D__ARM__ -marm -mno-thumb-interwork -mabi=aapcs-linux -mword-relocations -fno-pic -mno-unaligned-access -ffunction-sections -fdata-sections -fno-common -ffixed-r9 -msoft-float -pipe -march=armv7-a -D__LINUX_ARM_ARCH__=7 -mtune=generic-armv7-a -I./arch/arm/mach-exynos/include    -DKBUILD_BASENAME='"util"'  -DKBUILD_MODNAME='"util"' -c -o drivers/core/util.o drivers/core/util.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  arm-hpsp-linux-gnueabi-gcc -Wp,-MD,drivers/core/.simple-bus.o.d  -nostdinc -isystem /home/hpsp/rock_space/uboot_code/crosstool-ng-1.24.0/.build/arm-hpsp-linux-gnueabi/buildtools/lib/gcc/arm-hpsp-linux-gnueabi/8.3.0/include -Iinclude   -I./arch/arm/include -include ./include/linux/kconfig.h -D__KERNEL__ -D__UBOOT__ -Wall -Wstrict-prototypes -Wno-format-security -fno-builtin -ffreestanding -std=gnu11 -fshort-wchar -fno-strict-aliasing -fno-PIE -O2 -fno-stack-protector -fno-delete-null-pointer-checks -Wno-stringop-truncation -fmacro-prefix-map=./= -g -fstack-usage -Wno-format-nonliteral -Wno-unused-but-set-variable -Werror=date-time -D__ARM__ -marm -mno-thumb-interwork -mabi=aapcs-linux -mword-relocations -fno-pic -mno-unaligned-access -ffunction-sections -fdata-sections -fno-common -ffixed-r9 -msoft-float -pipe -march=armv7-a -D__LINUX_ARM_ARCH__=7 -mtune=generic-armv7-a -I./arch/arm/mach-exynos/include    -DKBUILD_BASENAME='"simple_bus"'  -DKBUILD_MODNAME='"simple_bus"' -c -o drivers/core/simple-bus.o drivers/core/simple-bus.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  arm-hpsp-linux-gnueabi-gcc -Wp,-MD,drivers/core/.dump.o.d  -nostdinc -isystem /home/hpsp/rock_space/uboot_code/crosstool-ng-1.24.0/.build/arm-hpsp-linux-gnueabi/buildtools/lib/gcc/arm-hpsp-linux-gnueabi/8.3.0/include -Iinclude   -I./arch/arm/include -include ./include/linux/kconfig.h -D__KERNEL__ -D__UBOOT__ -Wall -Wstrict-prototypes -Wno-format-security -fno-builtin -ffreestanding -std=gnu11 -fshort-wchar -fno-strict-aliasing -fno-PIE -O2 -fno-stack-protector -fno-delete-null-pointer-checks -Wno-stringop-truncation -fmacro-prefix-map=./= -g -fstack-usage -Wno-format-nonliteral -Wno-unused-but-set-variable -Werror=date-time -D__ARM__ -marm -mno-thumb-interwork -mabi=aapcs-linux -mword-relocations -fno-pic -mno-unaligned-access -ffunction-sections -fdata-sections -fno-common -ffixed-r9 -msoft-float -pipe -march=armv7-a -D__LINUX_ARM_ARCH__=7 -mtune=generic-armv7-a -I./arch/arm/mach-exynos/include    -DKBUILD_BASENAME='"dump"'  -DKBUILD_MODNAME='"dump"' -c -o drivers/core/dump.o drivers/core/dump.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  arm-hpsp-linux-gnueabi-gcc -Wp,-MD,drivers/core/.of_access.o.d  -nostdinc -isystem /home/hpsp/rock_space/uboot_code/crosstool-ng-1.24.0/.build/arm-hpsp-linux-gnueabi/buildtools/lib/gcc/arm-hpsp-linux-gnueabi/8.3.0/include -Iinclude   -I./arch/arm/include -include ./include/linux/kconfig.h -D__KERNEL__ -D__UBOOT__ -Wall -Wstrict-prototypes -Wno-format-security -fno-builtin -ffreestanding -std=gnu11 -fshort-wchar -fno-strict-aliasing -fno-PIE -O2 -fno-stack-protector -fno-delete-null-pointer-checks -Wno-stringop-truncation -fmacro-prefix-map=./= -g -fstack-usage -Wno-format-nonliteral -Wno-unused-but-set-variable -Werror=date-time -D__ARM__ -marm -mno-thumb-interwork -mabi=aapcs-linux -mword-relocations -fno-pic -mno-unaligned-access -ffunction-sections -fdata-sections -fno-common -ffixed-r9 -msoft-float -pipe -march=armv7-a -D__LINUX_ARM_ARCH__=7 -mtune=generic-armv7-a -I./arch/arm/mach-exynos/include    -DKBUILD_BASENAME='"of_access"'  -DKBUILD_MODNAME='"of_access"' -c -o drivers/core/of_access.o drivers/core/of_access.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  arm-hpsp-linux-gnueabi-gcc -Wp,-MD,drivers/core/.of_addr.o.d  -nostdinc -isystem /home/hpsp/rock_space/uboot_code/crosstool-ng-1.24.0/.build/arm-hpsp-linux-gnueabi/buildtools/lib/gcc/arm-hpsp-linux-gnueabi/8.3.0/include -Iinclude   -I./arch/arm/include -include ./include/linux/kconfig.h -D__KERNEL__ -D__UBOOT__ -Wall -Wstrict-prototypes -Wno-format-security -fno-builtin -ffreestanding -std=gnu11 -fshort-wchar -fno-strict-aliasing -fno-PIE -O2 -fno-stack-protector -fno-delete-null-pointer-checks -Wno-stringop-truncation -fmacro-prefix-map=./= -g -fstack-usage -Wno-format-nonliteral -Wno-unused-but-set-variable -Werror=date-time -D__ARM__ -marm -mno-thumb-interwork -mabi=aapcs-linux -mword-relocations -fno-pic -mno-unaligned-access -ffunction-sections -fdata-sections -fno-common -ffixed-r9 -msoft-float -pipe -march=armv7-a -D__LINUX_ARM_ARCH__=7 -mtune=generic-armv7-a -I./arch/arm/mach-exynos/include    -DKBUILD_BASENAME='"of_addr"'  -DKBUILD_MODNAME='"of_addr"' -c -o drivers/core/of_addr.o drivers/core/of_addr.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  arm-hpsp-linux-gnueabi-gcc -Wp,-MD,drivers/core/.read.o.d  -nostdinc -isystem /home/hpsp/rock_space/uboot_code/crosstool-ng-1.24.0/.build/arm-hpsp-linux-gnueabi/buildtools/lib/gcc/arm-hpsp-linux-gnueabi/8.3.0/include -Iinclude   -I./arch/arm/include -include ./include/linux/kconfig.h -D__KERNEL__ -D__UBOOT__ -Wall -Wstrict-prototypes -Wno-format-security -fno-builtin -ffreestanding -std=gnu11 -fshort-wchar -fno-strict-aliasing -fno-PIE -O2 -fno-stack-protector -fno-delete-null-pointer-checks -Wno-stringop-truncation -fmacro-prefix-map=./= -g -fstack-usage -Wno-format-nonliteral -Wno-unused-but-set-variable -Werror=date-time -D__ARM__ -marm -mno-thumb-interwork -mabi=aapcs-linux -mword-relocations -fno-pic -mno-unaligned-access -ffunction-sections -fdata-sections -fno-common -ffixed-r9 -msoft-float -pipe -march=armv7-a -D__LINUX_ARM_ARCH__=7 -mtune=generic-armv7-a -I./arch/arm/mach-exynos/include    -DKBUILD_BASENAME='"read"'  -DKBUILD_MODNAME='"read"' -c -o drivers/core/read.o drivers/core/read.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  arm-hpsp-linux-gnueabi-gcc -Wp,-MD,drivers/core/.of_extra.o.d  -nostdinc -isystem /home/hpsp/rock_space/uboot_code/crosstool-ng-1.24.0/.build/arm-hpsp-linux-gnueabi/buildtools/lib/gcc/arm-hpsp-linux-gnueabi/8.3.0/include -Iinclude   -I./arch/arm/include -include ./include/linux/kconfig.h -D__KERNEL__ -D__UBOOT__ -Wall -Wstrict-prototypes -Wno-format-security -fno-builtin -ffreestanding -std=gnu11 -fshort-wchar -fno-strict-aliasing -fno-PIE -O2 -fno-stack-protector -fno-delete-null-pointer-checks -Wno-stringop-truncation -fmacro-prefix-map=./= -g -fstack-usage -Wno-format-nonliteral -Wno-unused-but-set-variable -Werror=date-time -D__ARM__ -marm -mno-thumb-interwork -mabi=aapcs-linux -mword-relocations -fno-pic -mno-unaligned-access -ffunction-sections -fdata-sections -fno-common -ffixed-r9 -msoft-float -pipe -march=armv7-a -D__LINUX_ARM_ARCH__=7 -mtune=generic-armv7-a -I./arch/arm/mach-exynos/include    -DKBUILD_BASENAME='"of_extra"'  -DKBUILD_MODNAME='"of_extra"' -c -o drivers/core/of_extra.o drivers/core/of_extra.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  arm-hpsp-linux-gnueabi-gcc -Wp,-MD,drivers/core/.ofnode.o.d  -nostdinc -isystem /home/hpsp/rock_space/uboot_code/crosstool-ng-1.24.0/.build/arm-hpsp-linux-gnueabi/buildtools/lib/gcc/arm-hpsp-linux-gnueabi/8.3.0/include -Iinclude   -I./arch/arm/include -include ./include/linux/kconfig.h -D__KERNEL__ -D__UBOOT__ -Wall -Wstrict-prototypes -Wno-format-security -fno-builtin -ffreestanding -std=gnu11 -fshort-wchar -fno-strict-aliasing -fno-PIE -O2 -fno-stack-protector -fno-delete-null-pointer-checks -Wno-stringop-truncation -fmacro-prefix-map=./= -g -fstack-usage -Wno-format-nonliteral -Wno-unused-but-set-variable -Werror=date-time -D__ARM__ -marm -mno-thumb-interwork -mabi=aapcs-linux -mword-relocations -fno-pic -mno-unaligned-access -ffunction-sections -fdata-sections -fno-common -ffixed-r9 -msoft-float -pipe -march=armv7-a -D__LINUX_ARM_ARCH__=7 -mtune=generic-armv7-a -I./arch/arm/mach-exynos/include    -DKBUILD_BASENAME='"ofnode"'  -DKBUILD_MODNAME='"ofnode"' -c -o drivers/core/ofnode.o drivers/core/ofnode.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  arm-hpsp-linux-gnueabi-gcc -Wp,-MD,drivers/core/.read_extra.o.d  -nostdinc -isystem /home/hpsp/rock_space/uboot_code/crosstool-ng-1.24.0/.build/arm-hpsp-linux-gnueabi/buildtools/lib/gcc/arm-hpsp-linux-gnueabi/8.3.0/include -Iinclude   -I./arch/arm/include -include ./include/linux/kconfig.h -D__KERNEL__ -D__UBOOT__ -Wall -Wstrict-prototypes -Wno-format-security -fno-builtin -ffreestanding -std=gnu11 -fshort-wchar -fno-strict-aliasing -fno-PIE -O2 -fno-stack-protector -fno-delete-null-pointer-checks -Wno-stringop-truncation -fmacro-prefix-map=./= -g -fstack-usage -Wno-format-nonliteral -Wno-unused-but-set-variable -Werror=date-time -D__ARM__ -marm -mno-thumb-interwork -mabi=aapcs-linux -mword-relocations -fno-pic -mno-unaligned-access -ffunction-sections -fdata-sections -fno-common -ffixed-r9 -msoft-float -pipe -march=armv7-a -D__LINUX_ARM_ARCH__=7 -mtune=generic-armv7-a -I./arch/arm/mach-exynos/include    -DKBUILD_BASENAME='"read_extra"'  -DKBUILD_MODNAME='"read_extra"' -c -o drivers/core/read_extra.o drivers/core/read_extra.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   arm-hpsp-linux-gnueabi-ld.bfd     -r -o drivers/core/built-in.o drivers/core/device.o drivers/core/fdtaddr.o drivers/core/lists.o drivers/core/root.o drivers/core/uclass.o drivers/core/util.o drivers/core/simple-bus.o drivers/core/dump.o drivers/core/of_access.o drivers/core/of_addr.o drivers/core/read.o drivers/core/of_extra.o drivers/core/ofnode.o drivers/core/read_extra.o </t>
+  </si>
+  <si>
+    <t>make -f ./scripts/Makefile.build obj=drivers/crypto</t>
+  </si>
+  <si>
+    <t>make -f ./scripts/Makefile.build obj=drivers/crypto/fsl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  arm-hpsp-linux-gnueabi-gcc -Wp,-MD,drivers/crypto/fsl/.sec.o.d  -nostdinc -isystem /home/hpsp/rock_space/uboot_code/crosstool-ng-1.24.0/.build/arm-hpsp-linux-gnueabi/buildtools/lib/gcc/arm-hpsp-linux-gnueabi/8.3.0/include -Iinclude   -I./arch/arm/include -include ./include/linux/kconfig.h -D__KERNEL__ -D__UBOOT__ -Wall -Wstrict-prototypes -Wno-format-security -fno-builtin -ffreestanding -std=gnu11 -fshort-wchar -fno-strict-aliasing -fno-PIE -O2 -fno-stack-protector -fno-delete-null-pointer-checks -Wno-stringop-truncation -fmacro-prefix-map=./= -g -fstack-usage -Wno-format-nonliteral -Wno-unused-but-set-variable -Werror=date-time -D__ARM__ -marm -mno-thumb-interwork -mabi=aapcs-linux -mword-relocations -fno-pic -mno-unaligned-access -ffunction-sections -fdata-sections -fno-common -ffixed-r9 -msoft-float -pipe -march=armv7-a -D__LINUX_ARM_ARCH__=7 -mtune=generic-armv7-a -I./arch/arm/mach-exynos/include    -DKBUILD_BASENAME='"sec"'  -DKBUILD_MODNAME='"sec"' -c -o drivers/crypto/fsl/sec.o drivers/crypto/fsl/sec.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   arm-hpsp-linux-gnueabi-ld.bfd     -r -o drivers/crypto/fsl/built-in.o drivers/crypto/fsl/sec.o </t>
+  </si>
+  <si>
+    <t>make -f ./scripts/Makefile.build obj=drivers/crypto/rsa_mod_exp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  arm-hpsp-linux-gnueabi-gcc -Wp,-MD,drivers/crypto/rsa_mod_exp/.mod_exp_uclass.o.d  -nostdinc -isystem /home/hpsp/rock_space/uboot_code/crosstool-ng-1.24.0/.build/arm-hpsp-linux-gnueabi/buildtools/lib/gcc/arm-hpsp-linux-gnueabi/8.3.0/include -Iinclude   -I./arch/arm/include -include ./include/linux/kconfig.h -D__KERNEL__ -D__UBOOT__ -Wall -Wstrict-prototypes -Wno-format-security -fno-builtin -ffreestanding -std=gnu11 -fshort-wchar -fno-strict-aliasing -fno-PIE -O2 -fno-stack-protector -fno-delete-null-pointer-checks -Wno-stringop-truncation -fmacro-prefix-map=./= -g -fstack-usage -Wno-format-nonliteral -Wno-unused-but-set-variable -Werror=date-time -D__ARM__ -marm -mno-thumb-interwork -mabi=aapcs-linux -mword-relocations -fno-pic -mno-unaligned-access -ffunction-sections -fdata-sections -fno-common -ffixed-r9 -msoft-float -pipe -march=armv7-a -D__LINUX_ARM_ARCH__=7 -mtune=generic-armv7-a -I./arch/arm/mach-exynos/include    -DKBUILD_BASENAME='"mod_exp_uclass"'  -DKBUILD_MODNAME='"mod_exp_uclass"' -c -o drivers/crypto/rsa_mod_exp/mod_exp_uclass.o drivers/crypto/rsa_mod_exp/mod_exp_uclass.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  arm-hpsp-linux-gnueabi-gcc -Wp,-MD,drivers/crypto/rsa_mod_exp/.mod_exp_sw.o.d  -nostdinc -isystem /home/hpsp/rock_space/uboot_code/crosstool-ng-1.24.0/.build/arm-hpsp-linux-gnueabi/buildtools/lib/gcc/arm-hpsp-linux-gnueabi/8.3.0/include -Iinclude   -I./arch/arm/include -include ./include/linux/kconfig.h -D__KERNEL__ -D__UBOOT__ -Wall -Wstrict-prototypes -Wno-format-security -fno-builtin -ffreestanding -std=gnu11 -fshort-wchar -fno-strict-aliasing -fno-PIE -O2 -fno-stack-protector -fno-delete-null-pointer-checks -Wno-stringop-truncation -fmacro-prefix-map=./= -g -fstack-usage -Wno-format-nonliteral -Wno-unused-but-set-variable -Werror=date-time -D__ARM__ -marm -mno-thumb-interwork -mabi=aapcs-linux -mword-relocations -fno-pic -mno-unaligned-access -ffunction-sections -fdata-sections -fno-common -ffixed-r9 -msoft-float -pipe -march=armv7-a -D__LINUX_ARM_ARCH__=7 -mtune=generic-armv7-a -I./arch/arm/mach-exynos/include    -DKBUILD_BASENAME='"mod_exp_sw"'  -DKBUILD_MODNAME='"mod_exp_sw"' -c -o drivers/crypto/rsa_mod_exp/mod_exp_sw.o drivers/crypto/rsa_mod_exp/mod_exp_sw.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   arm-hpsp-linux-gnueabi-ld.bfd     -r -o drivers/crypto/rsa_mod_exp/built-in.o drivers/crypto/rsa_mod_exp/mod_exp_uclass.o drivers/crypto/rsa_mod_exp/mod_exp_sw.o </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   arm-hpsp-linux-gnueabi-ld.bfd     -r -o drivers/crypto/built-in.o drivers/crypto/rsa_mod_exp/built-in.o drivers/crypto/fsl/built-in.o </t>
+  </si>
+  <si>
+    <t>make -f ./scripts/Makefile.build obj=drivers/dfu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   rm -f drivers/dfu/built-in.o; arm-hpsp-linux-gnueabi-ar rcs drivers/dfu/built-in.o</t>
+  </si>
+  <si>
+    <t>make -f ./scripts/Makefile.build obj=drivers/input</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  arm-hpsp-linux-gnueabi-gcc -Wp,-MD,drivers/input/.key_matrix.o.d  -nostdinc -isystem /home/hpsp/rock_space/uboot_code/crosstool-ng-1.24.0/.build/arm-hpsp-linux-gnueabi/buildtools/lib/gcc/arm-hpsp-linux-gnueabi/8.3.0/include -Iinclude   -I./arch/arm/include -include ./include/linux/kconfig.h -D__KERNEL__ -D__UBOOT__ -Wall -Wstrict-prototypes -Wno-format-security -fno-builtin -ffreestanding -std=gnu11 -fshort-wchar -fno-strict-aliasing -fno-PIE -O2 -fno-stack-protector -fno-delete-null-pointer-checks -Wno-stringop-truncation -fmacro-prefix-map=./= -g -fstack-usage -Wno-format-nonliteral -Wno-unused-but-set-variable -Werror=date-time -D__ARM__ -marm -mno-thumb-interwork -mabi=aapcs-linux -mword-relocations -fno-pic -mno-unaligned-access -ffunction-sections -fdata-sections -fno-common -ffixed-r9 -msoft-float -pipe -march=armv7-a -D__LINUX_ARM_ARCH__=7 -mtune=generic-armv7-a -I./arch/arm/mach-exynos/include    -DKBUILD_BASENAME='"key_matrix"'  -DKBUILD_MODNAME='"key_matrix"' -c -o drivers/input/key_matrix.o drivers/input/key_matrix.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  arm-hpsp-linux-gnueabi-gcc -Wp,-MD,drivers/input/.input.o.d  -nostdinc -isystem /home/hpsp/rock_space/uboot_code/crosstool-ng-1.24.0/.build/arm-hpsp-linux-gnueabi/buildtools/lib/gcc/arm-hpsp-linux-gnueabi/8.3.0/include -Iinclude   -I./arch/arm/include -include ./include/linux/kconfig.h -D__KERNEL__ -D__UBOOT__ -Wall -Wstrict-prototypes -Wno-format-security -fno-builtin -ffreestanding -std=gnu11 -fshort-wchar -fno-strict-aliasing -fno-PIE -O2 -fno-stack-protector -fno-delete-null-pointer-checks -Wno-stringop-truncation -fmacro-prefix-map=./= -g -fstack-usage -Wno-format-nonliteral -Wno-unused-but-set-variable -Werror=date-time -D__ARM__ -marm -mno-thumb-interwork -mabi=aapcs-linux -mword-relocations -fno-pic -mno-unaligned-access -ffunction-sections -fdata-sections -fno-common -ffixed-r9 -msoft-float -pipe -march=armv7-a -D__LINUX_ARM_ARCH__=7 -mtune=generic-armv7-a -I./arch/arm/mach-exynos/include    -DKBUILD_BASENAME='"input"'  -DKBUILD_MODNAME='"input"' -c -o drivers/input/input.o drivers/input/input.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  arm-hpsp-linux-gnueabi-gcc -Wp,-MD,drivers/input/.keyboard-uclass.o.d  -nostdinc -isystem /home/hpsp/rock_space/uboot_code/crosstool-ng-1.24.0/.build/arm-hpsp-linux-gnueabi/buildtools/lib/gcc/arm-hpsp-linux-gnueabi/8.3.0/include -Iinclude   -I./arch/arm/include -include ./include/linux/kconfig.h -D__KERNEL__ -D__UBOOT__ -Wall -Wstrict-prototypes -Wno-format-security -fno-builtin -ffreestanding -std=gnu11 -fshort-wchar -fno-strict-aliasing -fno-PIE -O2 -fno-stack-protector -fno-delete-null-pointer-checks -Wno-stringop-truncation -fmacro-prefix-map=./= -g -fstack-usage -Wno-format-nonliteral -Wno-unused-but-set-variable -Werror=date-time -D__ARM__ -marm -mno-thumb-interwork -mabi=aapcs-linux -mword-relocations -fno-pic -mno-unaligned-access -ffunction-sections -fdata-sections -fno-common -ffixed-r9 -msoft-float -pipe -march=armv7-a -D__LINUX_ARM_ARCH__=7 -mtune=generic-armv7-a -I./arch/arm/mach-exynos/include    -DKBUILD_BASENAME='"keyboard_uclass"'  -DKBUILD_MODNAME='"keyboard_uclass"' -c -o drivers/input/keyboard-uclass.o drivers/input/keyboard-uclass.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   arm-hpsp-linux-gnueabi-ld.bfd     -r -o drivers/input/built-in.o drivers/input/key_matrix.o drivers/input/input.o drivers/input/keyboard-uclass.o </t>
+  </si>
+  <si>
+    <t>make -f ./scripts/Makefile.build obj=drivers/mailbox</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   rm -f drivers/mailbox/built-in.o; arm-hpsp-linux-gnueabi-ar rcs drivers/mailbox/built-in.o</t>
+  </si>
+  <si>
+    <t>make -f ./scripts/Makefile.build obj=drivers/memory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   rm -f drivers/memory/built-in.o; arm-hpsp-linux-gnueabi-ar rcs drivers/memory/built-in.o</t>
+  </si>
+  <si>
+    <t>make -f ./scripts/Makefile.build obj=drivers/misc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   rm -f drivers/misc/built-in.o; arm-hpsp-linux-gnueabi-ar rcs drivers/misc/built-in.o</t>
+  </si>
+  <si>
+    <t>make -f ./scripts/Makefile.build obj=drivers/mtd</t>
+  </si>
+  <si>
+    <t>make -f ./scripts/Makefile.build obj=drivers/mtd/nand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   rm -f drivers/mtd/nand/built-in.o; arm-hpsp-linux-gnueabi-ar rcs drivers/mtd/nand/built-in.o</t>
+  </si>
+  <si>
+    <t>make -f ./scripts/Makefile.build obj=drivers/mtd/onenand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   rm -f drivers/mtd/onenand/built-in.o; arm-hpsp-linux-gnueabi-ar rcs drivers/mtd/onenand/built-in.o</t>
+  </si>
+  <si>
+    <t>make -f ./scripts/Makefile.build obj=drivers/mtd/spi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  arm-hpsp-linux-gnueabi-gcc -Wp,-MD,drivers/mtd/spi/.sf-uclass.o.d  -nostdinc -isystem /home/hpsp/rock_space/uboot_code/crosstool-ng-1.24.0/.build/arm-hpsp-linux-gnueabi/buildtools/lib/gcc/arm-hpsp-linux-gnueabi/8.3.0/include -Iinclude   -I./arch/arm/include -include ./include/linux/kconfig.h -D__KERNEL__ -D__UBOOT__ -Wall -Wstrict-prototypes -Wno-format-security -fno-builtin -ffreestanding -std=gnu11 -fshort-wchar -fno-strict-aliasing -fno-PIE -O2 -fno-stack-protector -fno-delete-null-pointer-checks -Wno-stringop-truncation -fmacro-prefix-map=./= -g -fstack-usage -Wno-format-nonliteral -Wno-unused-but-set-variable -Werror=date-time -D__ARM__ -marm -mno-thumb-interwork -mabi=aapcs-linux -mword-relocations -fno-pic -mno-unaligned-access -ffunction-sections -fdata-sections -fno-common -ffixed-r9 -msoft-float -pipe -march=armv7-a -D__LINUX_ARM_ARCH__=7 -mtune=generic-armv7-a -I./arch/arm/mach-exynos/include    -DKBUILD_BASENAME='"sf_uclass"'  -DKBUILD_MODNAME='"sf_uclass"' -c -o drivers/mtd/spi/sf-uclass.o drivers/mtd/spi/sf-uclass.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   arm-hpsp-linux-gnueabi-ld.bfd     -r -o drivers/mtd/spi/built-in.o drivers/mtd/spi/sf-uclass.o </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   arm-hpsp-linux-gnueabi-ld.bfd     -r -o drivers/mtd/built-in.o drivers/mtd/nand/built-in.o drivers/mtd/onenand/built-in.o drivers/mtd/spi/built-in.o </t>
+  </si>
+  <si>
+    <t>make -f ./scripts/Makefile.build obj=drivers/phy/allwinner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   rm -f drivers/phy/allwinner/built-in.o; arm-hpsp-linux-gnueabi-ar rcs drivers/phy/allwinner/built-in.o</t>
+  </si>
+  <si>
+    <t>make -f ./scripts/Makefile.build obj=drivers/phy/marvell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   rm -f drivers/phy/marvell/built-in.o; arm-hpsp-linux-gnueabi-ar rcs drivers/phy/marvell/built-in.o</t>
+  </si>
+  <si>
+    <t>make -f ./scripts/Makefile.build obj=drivers/pwm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   rm -f drivers/pwm/built-in.o; arm-hpsp-linux-gnueabi-ar rcs drivers/pwm/built-in.o</t>
+  </si>
+  <si>
+    <t>make -f ./scripts/Makefile.build obj=drivers/reset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   rm -f drivers/reset/built-in.o; arm-hpsp-linux-gnueabi-ar rcs drivers/reset/built-in.o</t>
+  </si>
+  <si>
+    <t>make -f ./scripts/Makefile.build obj=drivers/rtc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  arm-hpsp-linux-gnueabi-gcc -Wp,-MD,drivers/rtc/.rtc-lib.o.d  -nostdinc -isystem /home/hpsp/rock_space/uboot_code/crosstool-ng-1.24.0/.build/arm-hpsp-linux-gnueabi/buildtools/lib/gcc/arm-hpsp-linux-gnueabi/8.3.0/include -Iinclude   -I./arch/arm/include -include ./include/linux/kconfig.h -D__KERNEL__ -D__UBOOT__ -Wall -Wstrict-prototypes -Wno-format-security -fno-builtin -ffreestanding -std=gnu11 -fshort-wchar -fno-strict-aliasing -fno-PIE -O2 -fno-stack-protector -fno-delete-null-pointer-checks -Wno-stringop-truncation -fmacro-prefix-map=./= -g -fstack-usage -Wno-format-nonliteral -Wno-unused-but-set-variable -Werror=date-time -D__ARM__ -marm -mno-thumb-interwork -mabi=aapcs-linux -mword-relocations -fno-pic -mno-unaligned-access -ffunction-sections -fdata-sections -fno-common -ffixed-r9 -msoft-float -pipe -march=armv7-a -D__LINUX_ARM_ARCH__=7 -mtune=generic-armv7-a -I./arch/arm/mach-exynos/include    -DKBUILD_BASENAME='"rtc_lib"'  -DKBUILD_MODNAME='"rtc_lib"' -c -o drivers/rtc/rtc-lib.o drivers/rtc/rtc-lib.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   arm-hpsp-linux-gnueabi-ld.bfd     -r -o drivers/rtc/built-in.o drivers/rtc/rtc-lib.o </t>
+  </si>
+  <si>
+    <t>make -f ./scripts/Makefile.build obj=drivers/scsi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   rm -f drivers/scsi/built-in.o; arm-hpsp-linux-gnueabi-ar rcs drivers/scsi/built-in.o</t>
+  </si>
+  <si>
+    <t>make -f ./scripts/Makefile.build obj=drivers/smem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   rm -f drivers/smem/built-in.o; arm-hpsp-linux-gnueabi-ar rcs drivers/smem/built-in.o</t>
+  </si>
+  <si>
+    <t>make -f ./scripts/Makefile.build obj=drivers/soc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   rm -f drivers/soc/built-in.o; arm-hpsp-linux-gnueabi-ar rcs drivers/soc/built-in.o</t>
+  </si>
+  <si>
+    <t>make -f ./scripts/Makefile.build obj=drivers/sound</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   rm -f drivers/sound/built-in.o; arm-hpsp-linux-gnueabi-ar rcs drivers/sound/built-in.o</t>
+  </si>
+  <si>
+    <t>make -f ./scripts/Makefile.build obj=drivers/spmi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   rm -f drivers/spmi/built-in.o; arm-hpsp-linux-gnueabi-ar rcs drivers/spmi/built-in.o</t>
+  </si>
+  <si>
+    <t>make -f ./scripts/Makefile.build obj=drivers/thermal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   rm -f drivers/thermal/built-in.o; arm-hpsp-linux-gnueabi-ar rcs drivers/thermal/built-in.o</t>
+  </si>
+  <si>
+    <t>make -f ./scripts/Makefile.build obj=drivers/ufs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   rm -f drivers/ufs/built-in.o; arm-hpsp-linux-gnueabi-ar rcs drivers/ufs/built-in.o</t>
+  </si>
+  <si>
+    <t>make -f ./scripts/Makefile.build obj=drivers/video</t>
+  </si>
+  <si>
+    <t>make -f ./scripts/Makefile.build obj=drivers/video/bridge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   rm -f drivers/video/bridge/built-in.o; arm-hpsp-linux-gnueabi-ar rcs drivers/video/bridge/built-in.o</t>
+  </si>
+  <si>
+    <t>make -f ./scripts/Makefile.build obj=drivers/video/sunxi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   rm -f drivers/video/sunxi/built-in.o; arm-hpsp-linux-gnueabi-ar rcs drivers/video/sunxi/built-in.o</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   arm-hpsp-linux-gnueabi-ld.bfd     -r -o drivers/video/built-in.o drivers/video/bridge/built-in.o drivers/video/sunxi/built-in.o </t>
+  </si>
+  <si>
+    <t>make -f ./scripts/Makefile.build obj=drivers/watchdog</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  arm-hpsp-linux-gnueabi-gcc -Wp,-MD,drivers/watchdog/.s5p_wdt.o.d  -nostdinc -isystem /home/hpsp/rock_space/uboot_code/crosstool-ng-1.24.0/.build/arm-hpsp-linux-gnueabi/buildtools/lib/gcc/arm-hpsp-linux-gnueabi/8.3.0/include -Iinclude   -I./arch/arm/include -include ./include/linux/kconfig.h -D__KERNEL__ -D__UBOOT__ -Wall -Wstrict-prototypes -Wno-format-security -fno-builtin -ffreestanding -std=gnu11 -fshort-wchar -fno-strict-aliasing -fno-PIE -O2 -fno-stack-protector -fno-delete-null-pointer-checks -Wno-stringop-truncation -fmacro-prefix-map=./= -g -fstack-usage -Wno-format-nonliteral -Wno-unused-but-set-variable -Werror=date-time -D__ARM__ -marm -mno-thumb-interwork -mabi=aapcs-linux -mword-relocations -fno-pic -mno-unaligned-access -ffunction-sections -fdata-sections -fno-common -ffixed-r9 -msoft-float -pipe -march=armv7-a -D__LINUX_ARM_ARCH__=7 -mtune=generic-armv7-a -I./arch/arm/mach-exynos/include    -DKBUILD_BASENAME='"s5p_wdt"'  -DKBUILD_MODNAME='"s5p_wdt"' -c -o drivers/watchdog/s5p_wdt.o drivers/watchdog/s5p_wdt.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   arm-hpsp-linux-gnueabi-ld.bfd     -r -o drivers/watchdog/built-in.o drivers/watchdog/s5p_wdt.o </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   arm-hpsp-linux-gnueabi-ld.bfd     -r -o drivers/built-in.o drivers/core/built-in.o drivers/mtd/built-in.o drivers/adc/built-in.o drivers/ata/built-in.o drivers/block/built-in.o drivers/cache/built-in.o drivers/crypto/built-in.o drivers/misc/built-in.o drivers/dfu/built-in.o drivers/phy/allwinner/built-in.o drivers/phy/marvell/built-in.o drivers/rtc/built-in.o drivers/scsi/built-in.o drivers/sound/built-in.o drivers/spmi/built-in.o drivers/video/built-in.o drivers/watchdog/built-in.o drivers/mailbox/built-in.o drivers/memory/built-in.o drivers/pwm/built-in.o drivers/reset/built-in.o drivers/input/built-in.o drivers/smem/built-in.o drivers/thermal/built-in.o drivers/axi/built-in.o drivers/ufs/built-in.o drivers/soc/built-in.o </t>
+  </si>
+  <si>
+    <t>make -f ./scripts/Makefile.build obj=drivers/dma</t>
+  </si>
+  <si>
+    <t>make -f ./scripts/Makefile.build obj=drivers/dma/ti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   rm -f drivers/dma/ti/built-in.o; arm-hpsp-linux-gnueabi-ar rcs drivers/dma/ti/built-in.o</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   arm-hpsp-linux-gnueabi-ld.bfd     -r -o drivers/dma/built-in.o drivers/dma/ti/built-in.o </t>
+  </si>
+  <si>
+    <t>make -f ./scripts/Makefile.build obj=drivers/gpio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  arm-hpsp-linux-gnueabi-gcc -Wp,-MD,drivers/gpio/.gpio-uclass.o.d  -nostdinc -isystem /home/hpsp/rock_space/uboot_code/crosstool-ng-1.24.0/.build/arm-hpsp-linux-gnueabi/buildtools/lib/gcc/arm-hpsp-linux-gnueabi/8.3.0/include -Iinclude   -I./arch/arm/include -include ./include/linux/kconfig.h -D__KERNEL__ -D__UBOOT__ -Wall -Wstrict-prototypes -Wno-format-security -fno-builtin -ffreestanding -std=gnu11 -fshort-wchar -fno-strict-aliasing -fno-PIE -O2 -fno-stack-protector -fno-delete-null-pointer-checks -Wno-stringop-truncation -fmacro-prefix-map=./= -g -fstack-usage -Wno-format-nonliteral -Wno-unused-but-set-variable -Werror=date-time -D__ARM__ -marm -mno-thumb-interwork -mabi=aapcs-linux -mword-relocations -fno-pic -mno-unaligned-access -ffunction-sections -fdata-sections -fno-common -ffixed-r9 -msoft-float -pipe -march=armv7-a -D__LINUX_ARM_ARCH__=7 -mtune=generic-armv7-a -I./arch/arm/mach-exynos/include    -DKBUILD_BASENAME='"gpio_uclass"'  -DKBUILD_MODNAME='"gpio_uclass"' -c -o drivers/gpio/gpio-uclass.o drivers/gpio/gpio-uclass.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  arm-hpsp-linux-gnueabi-gcc -Wp,-MD,drivers/gpio/.s5p_gpio.o.d  -nostdinc -isystem /home/hpsp/rock_space/uboot_code/crosstool-ng-1.24.0/.build/arm-hpsp-linux-gnueabi/buildtools/lib/gcc/arm-hpsp-linux-gnueabi/8.3.0/include -Iinclude   -I./arch/arm/include -include ./include/linux/kconfig.h -D__KERNEL__ -D__UBOOT__ -Wall -Wstrict-prototypes -Wno-format-security -fno-builtin -ffreestanding -std=gnu11 -fshort-wchar -fno-strict-aliasing -fno-PIE -O2 -fno-stack-protector -fno-delete-null-pointer-checks -Wno-stringop-truncation -fmacro-prefix-map=./= -g -fstack-usage -Wno-format-nonliteral -Wno-unused-but-set-variable -Werror=date-time -D__ARM__ -marm -mno-thumb-interwork -mabi=aapcs-linux -mword-relocations -fno-pic -mno-unaligned-access -ffunction-sections -fdata-sections -fno-common -ffixed-r9 -msoft-float -pipe -march=armv7-a -D__LINUX_ARM_ARCH__=7 -mtune=generic-armv7-a -I./arch/arm/mach-exynos/include    -DKBUILD_BASENAME='"s5p_gpio"'  -DKBUILD_MODNAME='"s5p_gpio"' -c -o drivers/gpio/s5p_gpio.o drivers/gpio/s5p_gpio.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  arm-hpsp-linux-gnueabi-gcc -Wp,-MD,drivers/gpio/.altera_pio.o.d  -nostdinc -isystem /home/hpsp/rock_space/uboot_code/crosstool-ng-1.24.0/.build/arm-hpsp-linux-gnueabi/buildtools/lib/gcc/arm-hpsp-linux-gnueabi/8.3.0/include -Iinclude   -I./arch/arm/include -include ./include/linux/kconfig.h -D__KERNEL__ -D__UBOOT__ -Wall -Wstrict-prototypes -Wno-format-security -fno-builtin -ffreestanding -std=gnu11 -fshort-wchar -fno-strict-aliasing -fno-PIE -O2 -fno-stack-protector -fno-delete-null-pointer-checks -Wno-stringop-truncation -fmacro-prefix-map=./= -g -fstack-usage -Wno-format-nonliteral -Wno-unused-but-set-variable -Werror=date-time -D__ARM__ -marm -mno-thumb-interwork -mabi=aapcs-linux -mword-relocations -fno-pic -mno-unaligned-access -ffunction-sections -fdata-sections -fno-common -ffixed-r9 -msoft-float -pipe -march=armv7-a -D__LINUX_ARM_ARCH__=7 -mtune=generic-armv7-a -I./arch/arm/mach-exynos/include    -DKBUILD_BASENAME='"altera_pio"'  -DKBUILD_MODNAME='"altera_pio"' -c -o drivers/gpio/altera_pio.o drivers/gpio/altera_pio.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   arm-hpsp-linux-gnueabi-ld.bfd     -r -o drivers/gpio/built-in.o drivers/gpio/gpio-uclass.o drivers/gpio/s5p_gpio.o drivers/gpio/altera_pio.o </t>
+  </si>
+  <si>
+    <t>make -f ./scripts/Makefile.build obj=drivers/i2c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  arm-hpsp-linux-gnueabi-gcc -Wp,-MD,drivers/i2c/.i2c-uclass.o.d  -nostdinc -isystem /home/hpsp/rock_space/uboot_code/crosstool-ng-1.24.0/.build/arm-hpsp-linux-gnueabi/buildtools/lib/gcc/arm-hpsp-linux-gnueabi/8.3.0/include -Iinclude   -I./arch/arm/include -include ./include/linux/kconfig.h -D__KERNEL__ -D__UBOOT__ -Wall -Wstrict-prototypes -Wno-format-security -fno-builtin -ffreestanding -std=gnu11 -fshort-wchar -fno-strict-aliasing -fno-PIE -O2 -fno-stack-protector -fno-delete-null-pointer-checks -Wno-stringop-truncation -fmacro-prefix-map=./= -g -fstack-usage -Wno-format-nonliteral -Wno-unused-but-set-variable -Werror=date-time -D__ARM__ -marm -mno-thumb-interwork -mabi=aapcs-linux -mword-relocations -fno-pic -mno-unaligned-access -ffunction-sections -fdata-sections -fno-common -ffixed-r9 -msoft-float -pipe -march=armv7-a -D__LINUX_ARM_ARCH__=7 -mtune=generic-armv7-a -I./arch/arm/mach-exynos/include    -DKBUILD_BASENAME='"i2c_uclass"'  -DKBUILD_MODNAME='"i2c_uclass"' -c -o drivers/i2c/i2c-uclass.o drivers/i2c/i2c-uclass.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   arm-hpsp-linux-gnueabi-ld.bfd     -r -o drivers/i2c/built-in.o drivers/i2c/i2c-uclass.o </t>
+  </si>
+  <si>
+    <t>make -f ./scripts/Makefile.build obj=drivers/net</t>
+  </si>
+  <si>
+    <t>make -f ./scripts/Makefile.build obj=drivers/net/mscc_eswitch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   rm -f drivers/net/mscc_eswitch/built-in.o; arm-hpsp-linux-gnueabi-ar rcs drivers/net/mscc_eswitch/built-in.o</t>
+  </si>
+  <si>
+    <t>make -f ./scripts/Makefile.build obj=drivers/net/ti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   rm -f drivers/net/ti/built-in.o; arm-hpsp-linux-gnueabi-ar rcs drivers/net/ti/built-in.o</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   arm-hpsp-linux-gnueabi-ld.bfd     -r -o drivers/net/built-in.o drivers/net/ti/built-in.o drivers/net/mscc_eswitch/built-in.o </t>
+  </si>
+  <si>
+    <t>make -f ./scripts/Makefile.build obj=drivers/net/phy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   rm -f drivers/net/phy/built-in.o; arm-hpsp-linux-gnueabi-ar rcs drivers/net/phy/built-in.o</t>
+  </si>
+  <si>
+    <t>make -f ./scripts/Makefile.build obj=drivers/power</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   rm -f drivers/power/built-in.o; arm-hpsp-linux-gnueabi-ar rcs drivers/power/built-in.o</t>
+  </si>
+  <si>
+    <t>make -f ./scripts/Makefile.build obj=drivers/power/battery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   rm -f drivers/power/battery/built-in.o; arm-hpsp-linux-gnueabi-ar rcs drivers/power/battery/built-in.o</t>
+  </si>
+  <si>
+    <t>make -f ./scripts/Makefile.build obj=drivers/power/domain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   rm -f drivers/power/domain/built-in.o; arm-hpsp-linux-gnueabi-ar rcs drivers/power/domain/built-in.o</t>
+  </si>
+  <si>
+    <t>make -f ./scripts/Makefile.build obj=drivers/power/fuel_gauge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   rm -f drivers/power/fuel_gauge/built-in.o; arm-hpsp-linux-gnueabi-ar rcs drivers/power/fuel_gauge/built-in.o</t>
+  </si>
+  <si>
+    <t>make -f ./scripts/Makefile.build obj=drivers/power/mfd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   rm -f drivers/power/mfd/built-in.o; arm-hpsp-linux-gnueabi-ar rcs drivers/power/mfd/built-in.o</t>
+  </si>
+  <si>
+    <t>make -f ./scripts/Makefile.build obj=drivers/power/pmic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   rm -f drivers/power/pmic/built-in.o; arm-hpsp-linux-gnueabi-ar rcs drivers/power/pmic/built-in.o</t>
+  </si>
+  <si>
+    <t>make -f ./scripts/Makefile.build obj=drivers/power/regulator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   rm -f drivers/power/regulator/built-in.o; arm-hpsp-linux-gnueabi-ar rcs drivers/power/regulator/built-in.o</t>
+  </si>
+  <si>
+    <t>make -f ./scripts/Makefile.build obj=drivers/serial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  arm-hpsp-linux-gnueabi-gcc -Wp,-MD,drivers/serial/.serial-uclass.o.d  -nostdinc -isystem /home/hpsp/rock_space/uboot_code/crosstool-ng-1.24.0/.build/arm-hpsp-linux-gnueabi/buildtools/lib/gcc/arm-hpsp-linux-gnueabi/8.3.0/include -Iinclude   -I./arch/arm/include -include ./include/linux/kconfig.h -D__KERNEL__ -D__UBOOT__ -Wall -Wstrict-prototypes -Wno-format-security -fno-builtin -ffreestanding -std=gnu11 -fshort-wchar -fno-strict-aliasing -fno-PIE -O2 -fno-stack-protector -fno-delete-null-pointer-checks -Wno-stringop-truncation -fmacro-prefix-map=./= -g -fstack-usage -Wno-format-nonliteral -Wno-unused-but-set-variable -Werror=date-time -D__ARM__ -marm -mno-thumb-interwork -mabi=aapcs-linux -mword-relocations -fno-pic -mno-unaligned-access -ffunction-sections -fdata-sections -fno-common -ffixed-r9 -msoft-float -pipe -march=armv7-a -D__LINUX_ARM_ARCH__=7 -mtune=generic-armv7-a -I./arch/arm/mach-exynos/include    -DKBUILD_BASENAME='"serial_uclass"'  -DKBUILD_MODNAME='"serial_uclass"' -c -o drivers/serial/serial-uclass.o drivers/serial/serial-uclass.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  arm-hpsp-linux-gnueabi-gcc -Wp,-MD,drivers/serial/.serial_s5p.o.d  -nostdinc -isystem /home/hpsp/rock_space/uboot_code/crosstool-ng-1.24.0/.build/arm-hpsp-linux-gnueabi/buildtools/lib/gcc/arm-hpsp-linux-gnueabi/8.3.0/include -Iinclude   -I./arch/arm/include -include ./include/linux/kconfig.h -D__KERNEL__ -D__UBOOT__ -Wall -Wstrict-prototypes -Wno-format-security -fno-builtin -ffreestanding -std=gnu11 -fshort-wchar -fno-strict-aliasing -fno-PIE -O2 -fno-stack-protector -fno-delete-null-pointer-checks -Wno-stringop-truncation -fmacro-prefix-map=./= -g -fstack-usage -Wno-format-nonliteral -Wno-unused-but-set-variable -Werror=date-time -D__ARM__ -marm -mno-thumb-interwork -mabi=aapcs-linux -mword-relocations -fno-pic -mno-unaligned-access -ffunction-sections -fdata-sections -fno-common -ffixed-r9 -msoft-float -pipe -march=armv7-a -D__LINUX_ARM_ARCH__=7 -mtune=generic-armv7-a -I./arch/arm/mach-exynos/include    -DKBUILD_BASENAME='"serial_s5p"'  -DKBUILD_MODNAME='"serial_s5p"' -c -o drivers/serial/serial_s5p.o drivers/serial/serial_s5p.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   arm-hpsp-linux-gnueabi-ld.bfd     -r -o drivers/serial/built-in.o drivers/serial/serial-uclass.o drivers/serial/serial_s5p.o </t>
+  </si>
+  <si>
+    <t>make -f ./scripts/Makefile.build obj=drivers/spi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  arm-hpsp-linux-gnueabi-gcc -Wp,-MD,drivers/spi/.spi-uclass.o.d  -nostdinc -isystem /home/hpsp/rock_space/uboot_code/crosstool-ng-1.24.0/.build/arm-hpsp-linux-gnueabi/buildtools/lib/gcc/arm-hpsp-linux-gnueabi/8.3.0/include -Iinclude   -I./arch/arm/include -include ./include/linux/kconfig.h -D__KERNEL__ -D__UBOOT__ -Wall -Wstrict-prototypes -Wno-format-security -fno-builtin -ffreestanding -std=gnu11 -fshort-wchar -fno-strict-aliasing -fno-PIE -O2 -fno-stack-protector -fno-delete-null-pointer-checks -Wno-stringop-truncation -fmacro-prefix-map=./= -g -fstack-usage -Wno-format-nonliteral -Wno-unused-but-set-variable -Werror=date-time -D__ARM__ -marm -mno-thumb-interwork -mabi=aapcs-linux -mword-relocations -fno-pic -mno-unaligned-access -ffunction-sections -fdata-sections -fno-common -ffixed-r9 -msoft-float -pipe -march=armv7-a -D__LINUX_ARM_ARCH__=7 -mtune=generic-armv7-a -I./arch/arm/mach-exynos/include    -DKBUILD_BASENAME='"spi_uclass"'  -DKBUILD_MODNAME='"spi_uclass"' -c -o drivers/spi/spi-uclass.o drivers/spi/spi-uclass.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   arm-hpsp-linux-gnueabi-ld.bfd     -r -o drivers/spi/built-in.o drivers/spi/spi-uclass.o </t>
+  </si>
+  <si>
+    <t>make -f ./scripts/Makefile.build obj=drivers/usb/cdns3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   rm -f drivers/usb/cdns3/built-in.o; arm-hpsp-linux-gnueabi-ar rcs drivers/usb/cdns3/built-in.o</t>
+  </si>
+  <si>
+    <t>make -f ./scripts/Makefile.build obj=drivers/usb/common</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   rm -f drivers/usb/common/built-in.o; arm-hpsp-linux-gnueabi-ar rcs drivers/usb/common/built-in.o</t>
+  </si>
+  <si>
+    <t>make -f ./scripts/Makefile.build obj=drivers/usb/dwc3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   rm -f drivers/usb/dwc3/built-in.o; arm-hpsp-linux-gnueabi-ar rcs drivers/usb/dwc3/built-in.o</t>
+  </si>
+  <si>
+    <t>make -f ./scripts/Makefile.build obj=drivers/usb/emul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   rm -f drivers/usb/emul/built-in.o; arm-hpsp-linux-gnueabi-ar rcs drivers/usb/emul/built-in.o</t>
+  </si>
+  <si>
+    <t>make -f ./scripts/Makefile.build obj=drivers/usb/eth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   rm -f drivers/usb/eth/built-in.o; arm-hpsp-linux-gnueabi-ar rcs drivers/usb/eth/built-in.o</t>
+  </si>
+  <si>
+    <t>make -f ./scripts/Makefile.build obj=drivers/usb/host</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   rm -f drivers/usb/host/built-in.o; arm-hpsp-linux-gnueabi-ar rcs drivers/usb/host/built-in.o</t>
+  </si>
+  <si>
+    <t>make -f ./scripts/Makefile.build obj=drivers/usb/musb-new</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   rm -f drivers/usb/musb-new/built-in.o; arm-hpsp-linux-gnueabi-ar rcs drivers/usb/musb-new/built-in.o</t>
+  </si>
+  <si>
+    <t>make -f ./scripts/Makefile.build obj=drivers/usb/musb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   rm -f drivers/usb/musb/built-in.o; arm-hpsp-linux-gnueabi-ar rcs drivers/usb/musb/built-in.o</t>
+  </si>
+  <si>
+    <t>make -f ./scripts/Makefile.build obj=drivers/usb/phy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   rm -f drivers/usb/phy/built-in.o; arm-hpsp-linux-gnueabi-ar rcs drivers/usb/phy/built-in.o</t>
+  </si>
+  <si>
+    <t>make -f ./scripts/Makefile.build obj=drivers/usb/ulpi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   rm -f drivers/usb/ulpi/built-in.o; arm-hpsp-linux-gnueabi-ar rcs drivers/usb/ulpi/built-in.o</t>
+  </si>
+  <si>
+    <t>make -f ./scripts/Makefile.build obj=env</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  arm-hpsp-linux-gnueabi-gcc -Wp,-MD,env/.common.o.d  -nostdinc -isystem /home/hpsp/rock_space/uboot_code/crosstool-ng-1.24.0/.build/arm-hpsp-linux-gnueabi/buildtools/lib/gcc/arm-hpsp-linux-gnueabi/8.3.0/include -Iinclude   -I./arch/arm/include -include ./include/linux/kconfig.h -D__KERNEL__ -D__UBOOT__ -Wall -Wstrict-prototypes -Wno-format-security -fno-builtin -ffreestanding -std=gnu11 -fshort-wchar -fno-strict-aliasing -fno-PIE -O2 -fno-stack-protector -fno-delete-null-pointer-checks -Wno-stringop-truncation -fmacro-prefix-map=./= -g -fstack-usage -Wno-format-nonliteral -Wno-unused-but-set-variable -Werror=date-time -D__ARM__ -marm -mno-thumb-interwork -mabi=aapcs-linux -mword-relocations -fno-pic -mno-unaligned-access -ffunction-sections -fdata-sections -fno-common -ffixed-r9 -msoft-float -pipe -march=armv7-a -D__LINUX_ARM_ARCH__=7 -mtune=generic-armv7-a -I./arch/arm/mach-exynos/include    -DKBUILD_BASENAME='"common"'  -DKBUILD_MODNAME='"common"' -c -o env/common.o env/common.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  arm-hpsp-linux-gnueabi-gcc -Wp,-MD,env/.env.o.d  -nostdinc -isystem /home/hpsp/rock_space/uboot_code/crosstool-ng-1.24.0/.build/arm-hpsp-linux-gnueabi/buildtools/lib/gcc/arm-hpsp-linux-gnueabi/8.3.0/include -Iinclude   -I./arch/arm/include -include ./include/linux/kconfig.h -D__KERNEL__ -D__UBOOT__ -Wall -Wstrict-prototypes -Wno-format-security -fno-builtin -ffreestanding -std=gnu11 -fshort-wchar -fno-strict-aliasing -fno-PIE -O2 -fno-stack-protector -fno-delete-null-pointer-checks -Wno-stringop-truncation -fmacro-prefix-map=./= -g -fstack-usage -Wno-format-nonliteral -Wno-unused-but-set-variable -Werror=date-time -D__ARM__ -marm -mno-thumb-interwork -mabi=aapcs-linux -mword-relocations -fno-pic -mno-unaligned-access -ffunction-sections -fdata-sections -fno-common -ffixed-r9 -msoft-float -pipe -march=armv7-a -D__LINUX_ARM_ARCH__=7 -mtune=generic-armv7-a -I./arch/arm/mach-exynos/include    -DKBUILD_BASENAME='"env"'  -DKBUILD_MODNAME='"env"' -c -o env/env.o env/env.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  arm-hpsp-linux-gnueabi-gcc -Wp,-MD,env/.attr.o.d  -nostdinc -isystem /home/hpsp/rock_space/uboot_code/crosstool-ng-1.24.0/.build/arm-hpsp-linux-gnueabi/buildtools/lib/gcc/arm-hpsp-linux-gnueabi/8.3.0/include -Iinclude   -I./arch/arm/include -include ./include/linux/kconfig.h -D__KERNEL__ -D__UBOOT__ -Wall -Wstrict-prototypes -Wno-format-security -fno-builtin -ffreestanding -std=gnu11 -fshort-wchar -fno-strict-aliasing -fno-PIE -O2 -fno-stack-protector -fno-delete-null-pointer-checks -Wno-stringop-truncation -fmacro-prefix-map=./= -g -fstack-usage -Wno-format-nonliteral -Wno-unused-but-set-variable -Werror=date-time -D__ARM__ -marm -mno-thumb-interwork -mabi=aapcs-linux -mword-relocations -fno-pic -mno-unaligned-access -ffunction-sections -fdata-sections -fno-common -ffixed-r9 -msoft-float -pipe -march=armv7-a -D__LINUX_ARM_ARCH__=7 -mtune=generic-armv7-a -I./arch/arm/mach-exynos/include    -DKBUILD_BASENAME='"attr"'  -DKBUILD_MODNAME='"attr"' -c -o env/attr.o env/attr.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  arm-hpsp-linux-gnueabi-gcc -Wp,-MD,env/.flags.o.d  -nostdinc -isystem /home/hpsp/rock_space/uboot_code/crosstool-ng-1.24.0/.build/arm-hpsp-linux-gnueabi/buildtools/lib/gcc/arm-hpsp-linux-gnueabi/8.3.0/include -Iinclude   -I./arch/arm/include -include ./include/linux/kconfig.h -D__KERNEL__ -D__UBOOT__ -Wall -Wstrict-prototypes -Wno-format-security -fno-builtin -ffreestanding -std=gnu11 -fshort-wchar -fno-strict-aliasing -fno-PIE -O2 -fno-stack-protector -fno-delete-null-pointer-checks -Wno-stringop-truncation -fmacro-prefix-map=./= -g -fstack-usage -Wno-format-nonliteral -Wno-unused-but-set-variable -Werror=date-time -D__ARM__ -marm -mno-thumb-interwork -mabi=aapcs-linux -mword-relocations -fno-pic -mno-unaligned-access -ffunction-sections -fdata-sections -fno-common -ffixed-r9 -msoft-float -pipe -march=armv7-a -D__LINUX_ARM_ARCH__=7 -mtune=generic-armv7-a -I./arch/arm/mach-exynos/include    -DKBUILD_BASENAME='"flags"'  -DKBUILD_MODNAME='"flags"' -c -o env/flags.o env/flags.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  arm-hpsp-linux-gnueabi-gcc -Wp,-MD,env/.callback.o.d  -nostdinc -isystem /home/hpsp/rock_space/uboot_code/crosstool-ng-1.24.0/.build/arm-hpsp-linux-gnueabi/buildtools/lib/gcc/arm-hpsp-linux-gnueabi/8.3.0/include -Iinclude   -I./arch/arm/include -include ./include/linux/kconfig.h -D__KERNEL__ -D__UBOOT__ -Wall -Wstrict-prototypes -Wno-format-security -fno-builtin -ffreestanding -std=gnu11 -fshort-wchar -fno-strict-aliasing -fno-PIE -O2 -fno-stack-protector -fno-delete-null-pointer-checks -Wno-stringop-truncation -fmacro-prefix-map=./= -g -fstack-usage -Wno-format-nonliteral -Wno-unused-but-set-variable -Werror=date-time -D__ARM__ -marm -mno-thumb-interwork -mabi=aapcs-linux -mword-relocations -fno-pic -mno-unaligned-access -ffunction-sections -fdata-sections -fno-common -ffixed-r9 -msoft-float -pipe -march=armv7-a -D__LINUX_ARM_ARCH__=7 -mtune=generic-armv7-a -I./arch/arm/mach-exynos/include    -DKBUILD_BASENAME='"callback"'  -DKBUILD_MODNAME='"callback"' -c -o env/callback.o env/callback.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  arm-hpsp-linux-gnueabi-gcc -Wp,-MD,env/.nowhere.o.d  -nostdinc -isystem /home/hpsp/rock_space/uboot_code/crosstool-ng-1.24.0/.build/arm-hpsp-linux-gnueabi/buildtools/lib/gcc/arm-hpsp-linux-gnueabi/8.3.0/include -Iinclude   -I./arch/arm/include -include ./include/linux/kconfig.h -D__KERNEL__ -D__UBOOT__ -Wall -Wstrict-prototypes -Wno-format-security -fno-builtin -ffreestanding -std=gnu11 -fshort-wchar -fno-strict-aliasing -fno-PIE -O2 -fno-stack-protector -fno-delete-null-pointer-checks -Wno-stringop-truncation -fmacro-prefix-map=./= -g -fstack-usage -Wno-format-nonliteral -Wno-unused-but-set-variable -Werror=date-time -D__ARM__ -marm -mno-thumb-interwork -mabi=aapcs-linux -mword-relocations -fno-pic -mno-unaligned-access -ffunction-sections -fdata-sections -fno-common -ffixed-r9 -msoft-float -pipe -march=armv7-a -D__LINUX_ARM_ARCH__=7 -mtune=generic-armv7-a -I./arch/arm/mach-exynos/include    -DKBUILD_BASENAME='"nowhere"'  -DKBUILD_MODNAME='"nowhere"' -c -o env/nowhere.o env/nowhere.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   arm-hpsp-linux-gnueabi-ld.bfd     -r -o env/built-in.o env/common.o env/env.o env/attr.o env/flags.o env/callback.o env/nowhere.o </t>
+  </si>
+  <si>
+    <t>make -f ./scripts/Makefile.build obj=fs</t>
+  </si>
+  <si>
+    <t>make -f ./scripts/Makefile.build obj=fs/ext4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  arm-hpsp-linux-gnueabi-gcc -Wp,-MD,fs/ext4/.ext4fs.o.d  -nostdinc -isystem /home/hpsp/rock_space/uboot_code/crosstool-ng-1.24.0/.build/arm-hpsp-linux-gnueabi/buildtools/lib/gcc/arm-hpsp-linux-gnueabi/8.3.0/include -Iinclude   -I./arch/arm/include -include ./include/linux/kconfig.h -D__KERNEL__ -D__UBOOT__ -Wall -Wstrict-prototypes -Wno-format-security -fno-builtin -ffreestanding -std=gnu11 -fshort-wchar -fno-strict-aliasing -fno-PIE -O2 -fno-stack-protector -fno-delete-null-pointer-checks -Wno-stringop-truncation -fmacro-prefix-map=./= -g -fstack-usage -Wno-format-nonliteral -Wno-unused-but-set-variable -Werror=date-time -D__ARM__ -marm -mno-thumb-interwork -mabi=aapcs-linux -mword-relocations -fno-pic -mno-unaligned-access -ffunction-sections -fdata-sections -fno-common -ffixed-r9 -msoft-float -pipe -march=armv7-a -D__LINUX_ARM_ARCH__=7 -mtune=generic-armv7-a -I./arch/arm/mach-exynos/include    -DKBUILD_BASENAME='"ext4fs"'  -DKBUILD_MODNAME='"ext4fs"' -c -o fs/ext4/ext4fs.o fs/ext4/ext4fs.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  arm-hpsp-linux-gnueabi-gcc -Wp,-MD,fs/ext4/.ext4_common.o.d  -nostdinc -isystem /home/hpsp/rock_space/uboot_code/crosstool-ng-1.24.0/.build/arm-hpsp-linux-gnueabi/buildtools/lib/gcc/arm-hpsp-linux-gnueabi/8.3.0/include -Iinclude   -I./arch/arm/include -include ./include/linux/kconfig.h -D__KERNEL__ -D__UBOOT__ -Wall -Wstrict-prototypes -Wno-format-security -fno-builtin -ffreestanding -std=gnu11 -fshort-wchar -fno-strict-aliasing -fno-PIE -O2 -fno-stack-protector -fno-delete-null-pointer-checks -Wno-stringop-truncation -fmacro-prefix-map=./= -g -fstack-usage -Wno-format-nonliteral -Wno-unused-but-set-variable -Werror=date-time -D__ARM__ -marm -mno-thumb-interwork -mabi=aapcs-linux -mword-relocations -fno-pic -mno-unaligned-access -ffunction-sections -fdata-sections -fno-common -ffixed-r9 -msoft-float -pipe -march=armv7-a -D__LINUX_ARM_ARCH__=7 -mtune=generic-armv7-a -I./arch/arm/mach-exynos/include    -DKBUILD_BASENAME='"ext4_common"'  -DKBUILD_MODNAME='"ext4_common"' -c -o fs/ext4/ext4_common.o fs/ext4/ext4_common.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  arm-hpsp-linux-gnueabi-gcc -Wp,-MD,fs/ext4/.dev.o.d  -nostdinc -isystem /home/hpsp/rock_space/uboot_code/crosstool-ng-1.24.0/.build/arm-hpsp-linux-gnueabi/buildtools/lib/gcc/arm-hpsp-linux-gnueabi/8.3.0/include -Iinclude   -I./arch/arm/include -include ./include/linux/kconfig.h -D__KERNEL__ -D__UBOOT__ -Wall -Wstrict-prototypes -Wno-format-security -fno-builtin -ffreestanding -std=gnu11 -fshort-wchar -fno-strict-aliasing -fno-PIE -O2 -fno-stack-protector -fno-delete-null-pointer-checks -Wno-stringop-truncation -fmacro-prefix-map=./= -g -fstack-usage -Wno-format-nonliteral -Wno-unused-but-set-variable -Werror=date-time -D__ARM__ -marm -mno-thumb-interwork -mabi=aapcs-linux -mword-relocations -fno-pic -mno-unaligned-access -ffunction-sections -fdata-sections -fno-common -ffixed-r9 -msoft-float -pipe -march=armv7-a -D__LINUX_ARM_ARCH__=7 -mtune=generic-armv7-a -I./arch/arm/mach-exynos/include    -DKBUILD_BASENAME='"dev"'  -DKBUILD_MODNAME='"dev"' -c -o fs/ext4/dev.o fs/ext4/dev.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   arm-hpsp-linux-gnueabi-ld.bfd     -r -o fs/ext4/built-in.o fs/ext4/ext4fs.o fs/ext4/ext4_common.o fs/ext4/dev.o </t>
+  </si>
+  <si>
+    <t>make -f ./scripts/Makefile.build obj=fs/fat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  arm-hpsp-linux-gnueabi-gcc -Wp,-MD,fs/fat/.fat.o.d  -nostdinc -isystem /home/hpsp/rock_space/uboot_code/crosstool-ng-1.24.0/.build/arm-hpsp-linux-gnueabi/buildtools/lib/gcc/arm-hpsp-linux-gnueabi/8.3.0/include -Iinclude   -I./arch/arm/include -include ./include/linux/kconfig.h -D__KERNEL__ -D__UBOOT__ -Wall -Wstrict-prototypes -Wno-format-security -fno-builtin -ffreestanding -std=gnu11 -fshort-wchar -fno-strict-aliasing -fno-PIE -O2 -fno-stack-protector -fno-delete-null-pointer-checks -Wno-stringop-truncation -fmacro-prefix-map=./= -g -fstack-usage -Wno-format-nonliteral -Wno-unused-but-set-variable -Werror=date-time -D__ARM__ -marm -mno-thumb-interwork -mabi=aapcs-linux -mword-relocations -fno-pic -mno-unaligned-access -ffunction-sections -fdata-sections -fno-common -ffixed-r9 -msoft-float -pipe -march=armv7-a -D__LINUX_ARM_ARCH__=7 -mtune=generic-armv7-a -I./arch/arm/mach-exynos/include    -DKBUILD_BASENAME='"fat"'  -DKBUILD_MODNAME='"fat"' -c -o fs/fat/fat.o fs/fat/fat.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   arm-hpsp-linux-gnueabi-ld.bfd     -r -o fs/fat/built-in.o fs/fat/fat.o </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  arm-hpsp-linux-gnueabi-gcc -Wp,-MD,fs/.fs.o.d  -nostdinc -isystem /home/hpsp/rock_space/uboot_code/crosstool-ng-1.24.0/.build/arm-hpsp-linux-gnueabi/buildtools/lib/gcc/arm-hpsp-linux-gnueabi/8.3.0/include -Iinclude   -I./arch/arm/include -include ./include/linux/kconfig.h -D__KERNEL__ -D__UBOOT__ -Wall -Wstrict-prototypes -Wno-format-security -fno-builtin -ffreestanding -std=gnu11 -fshort-wchar -fno-strict-aliasing -fno-PIE -O2 -fno-stack-protector -fno-delete-null-pointer-checks -Wno-stringop-truncation -fmacro-prefix-map=./= -g -fstack-usage -Wno-format-nonliteral -Wno-unused-but-set-variable -Werror=date-time -D__ARM__ -marm -mno-thumb-interwork -mabi=aapcs-linux -mword-relocations -fno-pic -mno-unaligned-access -ffunction-sections -fdata-sections -fno-common -ffixed-r9 -msoft-float -pipe -march=armv7-a -D__LINUX_ARM_ARCH__=7 -mtune=generic-armv7-a -I./arch/arm/mach-exynos/include    -DKBUILD_BASENAME='"fs"'  -DKBUILD_MODNAME='"fs"' -c -o fs/fs.o fs/fs.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  arm-hpsp-linux-gnueabi-gcc -Wp,-MD,fs/.fs_internal.o.d  -nostdinc -isystem /home/hpsp/rock_space/uboot_code/crosstool-ng-1.24.0/.build/arm-hpsp-linux-gnueabi/buildtools/lib/gcc/arm-hpsp-linux-gnueabi/8.3.0/include -Iinclude   -I./arch/arm/include -include ./include/linux/kconfig.h -D__KERNEL__ -D__UBOOT__ -Wall -Wstrict-prototypes -Wno-format-security -fno-builtin -ffreestanding -std=gnu11 -fshort-wchar -fno-strict-aliasing -fno-PIE -O2 -fno-stack-protector -fno-delete-null-pointer-checks -Wno-stringop-truncation -fmacro-prefix-map=./= -g -fstack-usage -Wno-format-nonliteral -Wno-unused-but-set-variable -Werror=date-time -D__ARM__ -marm -mno-thumb-interwork -mabi=aapcs-linux -mword-relocations -fno-pic -mno-unaligned-access -ffunction-sections -fdata-sections -fno-common -ffixed-r9 -msoft-float -pipe -march=armv7-a -D__LINUX_ARM_ARCH__=7 -mtune=generic-armv7-a -I./arch/arm/mach-exynos/include    -DKBUILD_BASENAME='"fs_internal"'  -DKBUILD_MODNAME='"fs_internal"' -c -o fs/fs_internal.o fs/fs_internal.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   arm-hpsp-linux-gnueabi-ld.bfd     -r -o fs/built-in.o fs/fs.o fs/ext4/built-in.o fs/fat/built-in.o fs/fs_internal.o </t>
+  </si>
+  <si>
+    <t>make -f ./scripts/Makefile.build obj=lib</t>
+  </si>
+  <si>
+    <t>make -f ./scripts/Makefile.build obj=lib/crypto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   rm -f lib/crypto/built-in.o; arm-hpsp-linux-gnueabi-ar rcs lib/crypto/built-in.o</t>
+  </si>
+  <si>
+    <t>make -f ./scripts/Makefile.build obj=lib/libfdt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  arm-hpsp-linux-gnueabi-gcc -Wp,-MD,lib/libfdt/.fdt.o.d  -nostdinc -isystem /home/hpsp/rock_space/uboot_code/crosstool-ng-1.24.0/.build/arm-hpsp-linux-gnueabi/buildtools/lib/gcc/arm-hpsp-linux-gnueabi/8.3.0/include -Iinclude   -I./arch/arm/include -include ./include/linux/kconfig.h -D__KERNEL__ -D__UBOOT__ -Wall -Wstrict-prototypes -Wno-format-security -fno-builtin -ffreestanding -std=gnu11 -fshort-wchar -fno-strict-aliasing -fno-PIE -O2 -fno-stack-protector -fno-delete-null-pointer-checks -Wno-stringop-truncation -fmacro-prefix-map=./= -g -fstack-usage -Wno-format-nonliteral -Wno-unused-but-set-variable -Werror=date-time -I./scripts/dtc/libfdt -DFDT_ASSUME_MASK=0 -D__ARM__ -marm -mno-thumb-interwork -mabi=aapcs-linux -mword-relocations -fno-pic -mno-unaligned-access -ffunction-sections -fdata-sections -fno-common -ffixed-r9 -msoft-float -pipe -march=armv7-a -D__LINUX_ARM_ARCH__=7 -mtune=generic-armv7-a -I./arch/arm/mach-exynos/include    -DKBUILD_BASENAME='"fdt"'  -DKBUILD_MODNAME='"fdt"' -c -o lib/libfdt/fdt.o lib/libfdt/fdt.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  arm-hpsp-linux-gnueabi-gcc -Wp,-MD,lib/libfdt/.fdt_ro.o.d  -nostdinc -isystem /home/hpsp/rock_space/uboot_code/crosstool-ng-1.24.0/.build/arm-hpsp-linux-gnueabi/buildtools/lib/gcc/arm-hpsp-linux-gnueabi/8.3.0/include -Iinclude   -I./arch/arm/include -include ./include/linux/kconfig.h -D__KERNEL__ -D__UBOOT__ -Wall -Wstrict-prototypes -Wno-format-security -fno-builtin -ffreestanding -std=gnu11 -fshort-wchar -fno-strict-aliasing -fno-PIE -O2 -fno-stack-protector -fno-delete-null-pointer-checks -Wno-stringop-truncation -fmacro-prefix-map=./= -g -fstack-usage -Wno-format-nonliteral -Wno-unused-but-set-variable -Werror=date-time -I./scripts/dtc/libfdt -DFDT_ASSUME_MASK=0 -D__ARM__ -marm -mno-thumb-interwork -mabi=aapcs-linux -mword-relocations -fno-pic -mno-unaligned-access -ffunction-sections -fdata-sections -fno-common -ffixed-r9 -msoft-float -pipe -march=armv7-a -D__LINUX_ARM_ARCH__=7 -mtune=generic-armv7-a -I./arch/arm/mach-exynos/include    -DKBUILD_BASENAME='"fdt_ro"'  -DKBUILD_MODNAME='"fdt_ro"' -c -o lib/libfdt/fdt_ro.o lib/libfdt/fdt_ro.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  arm-hpsp-linux-gnueabi-gcc -Wp,-MD,lib/libfdt/.fdt_wip.o.d  -nostdinc -isystem /home/hpsp/rock_space/uboot_code/crosstool-ng-1.24.0/.build/arm-hpsp-linux-gnueabi/buildtools/lib/gcc/arm-hpsp-linux-gnueabi/8.3.0/include -Iinclude   -I./arch/arm/include -include ./include/linux/kconfig.h -D__KERNEL__ -D__UBOOT__ -Wall -Wstrict-prototypes -Wno-format-security -fno-builtin -ffreestanding -std=gnu11 -fshort-wchar -fno-strict-aliasing -fno-PIE -O2 -fno-stack-protector -fno-delete-null-pointer-checks -Wno-stringop-truncation -fmacro-prefix-map=./= -g -fstack-usage -Wno-format-nonliteral -Wno-unused-but-set-variable -Werror=date-time -I./scripts/dtc/libfdt -DFDT_ASSUME_MASK=0 -D__ARM__ -marm -mno-thumb-interwork -mabi=aapcs-linux -mword-relocations -fno-pic -mno-unaligned-access -ffunction-sections -fdata-sections -fno-common -ffixed-r9 -msoft-float -pipe -march=armv7-a -D__LINUX_ARM_ARCH__=7 -mtune=generic-armv7-a -I./arch/arm/mach-exynos/include    -DKBUILD_BASENAME='"fdt_wip"'  -DKBUILD_MODNAME='"fdt_wip"' -c -o lib/libfdt/fdt_wip.o lib/libfdt/fdt_wip.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  arm-hpsp-linux-gnueabi-gcc -Wp,-MD,lib/libfdt/.fdt_strerror.o.d  -nostdinc -isystem /home/hpsp/rock_space/uboot_code/crosstool-ng-1.24.0/.build/arm-hpsp-linux-gnueabi/buildtools/lib/gcc/arm-hpsp-linux-gnueabi/8.3.0/include -Iinclude   -I./arch/arm/include -include ./include/linux/kconfig.h -D__KERNEL__ -D__UBOOT__ -Wall -Wstrict-prototypes -Wno-format-security -fno-builtin -ffreestanding -std=gnu11 -fshort-wchar -fno-strict-aliasing -fno-PIE -O2 -fno-stack-protector -fno-delete-null-pointer-checks -Wno-stringop-truncation -fmacro-prefix-map=./= -g -fstack-usage -Wno-format-nonliteral -Wno-unused-but-set-variable -Werror=date-time -I./scripts/dtc/libfdt -DFDT_ASSUME_MASK=0 -D__ARM__ -marm -mno-thumb-interwork -mabi=aapcs-linux -mword-relocations -fno-pic -mno-unaligned-access -ffunction-sections -fdata-sections -fno-common -ffixed-r9 -msoft-float -pipe -march=armv7-a -D__LINUX_ARM_ARCH__=7 -mtune=generic-armv7-a -I./arch/arm/mach-exynos/include    -DKBUILD_BASENAME='"fdt_strerror"'  -DKBUILD_MODNAME='"fdt_strerror"' -c -o lib/libfdt/fdt_strerror.o lib/libfdt/fdt_strerror.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  arm-hpsp-linux-gnueabi-gcc -Wp,-MD,lib/libfdt/.fdt_sw.o.d  -nostdinc -isystem /home/hpsp/rock_space/uboot_code/crosstool-ng-1.24.0/.build/arm-hpsp-linux-gnueabi/buildtools/lib/gcc/arm-hpsp-linux-gnueabi/8.3.0/include -Iinclude   -I./arch/arm/include -include ./include/linux/kconfig.h -D__KERNEL__ -D__UBOOT__ -Wall -Wstrict-prototypes -Wno-format-security -fno-builtin -ffreestanding -std=gnu11 -fshort-wchar -fno-strict-aliasing -fno-PIE -O2 -fno-stack-protector -fno-delete-null-pointer-checks -Wno-stringop-truncation -fmacro-prefix-map=./= -g -fstack-usage -Wno-format-nonliteral -Wno-unused-but-set-variable -Werror=date-time -I./scripts/dtc/libfdt -DFDT_ASSUME_MASK=0 -D__ARM__ -marm -mno-thumb-interwork -mabi=aapcs-linux -mword-relocations -fno-pic -mno-unaligned-access -ffunction-sections -fdata-sections -fno-common -ffixed-r9 -msoft-float -pipe -march=armv7-a -D__LINUX_ARM_ARCH__=7 -mtune=generic-armv7-a -I./arch/arm/mach-exynos/include    -DKBUILD_BASENAME='"fdt_sw"'  -DKBUILD_MODNAME='"fdt_sw"' -c -o lib/libfdt/fdt_sw.o lib/libfdt/fdt_sw.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  arm-hpsp-linux-gnueabi-gcc -Wp,-MD,lib/libfdt/.fdt_rw.o.d  -nostdinc -isystem /home/hpsp/rock_space/uboot_code/crosstool-ng-1.24.0/.build/arm-hpsp-linux-gnueabi/buildtools/lib/gcc/arm-hpsp-linux-gnueabi/8.3.0/include -Iinclude   -I./arch/arm/include -include ./include/linux/kconfig.h -D__KERNEL__ -D__UBOOT__ -Wall -Wstrict-prototypes -Wno-format-security -fno-builtin -ffreestanding -std=gnu11 -fshort-wchar -fno-strict-aliasing -fno-PIE -O2 -fno-stack-protector -fno-delete-null-pointer-checks -Wno-stringop-truncation -fmacro-prefix-map=./= -g -fstack-usage -Wno-format-nonliteral -Wno-unused-but-set-variable -Werror=date-time -I./scripts/dtc/libfdt -DFDT_ASSUME_MASK=0 -D__ARM__ -marm -mno-thumb-interwork -mabi=aapcs-linux -mword-relocations -fno-pic -mno-unaligned-access -ffunction-sections -fdata-sections -fno-common -ffixed-r9 -msoft-float -pipe -march=armv7-a -D__LINUX_ARM_ARCH__=7 -mtune=generic-armv7-a -I./arch/arm/mach-exynos/include    -DKBUILD_BASENAME='"fdt_rw"'  -DKBUILD_MODNAME='"fdt_rw"' -c -o lib/libfdt/fdt_rw.o lib/libfdt/fdt_rw.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  arm-hpsp-linux-gnueabi-gcc -Wp,-MD,lib/libfdt/.fdt_empty_tree.o.d  -nostdinc -isystem /home/hpsp/rock_space/uboot_code/crosstool-ng-1.24.0/.build/arm-hpsp-linux-gnueabi/buildtools/lib/gcc/arm-hpsp-linux-gnueabi/8.3.0/include -Iinclude   -I./arch/arm/include -include ./include/linux/kconfig.h -D__KERNEL__ -D__UBOOT__ -Wall -Wstrict-prototypes -Wno-format-security -fno-builtin -ffreestanding -std=gnu11 -fshort-wchar -fno-strict-aliasing -fno-PIE -O2 -fno-stack-protector -fno-delete-null-pointer-checks -Wno-stringop-truncation -fmacro-prefix-map=./= -g -fstack-usage -Wno-format-nonliteral -Wno-unused-but-set-variable -Werror=date-time -I./scripts/dtc/libfdt -DFDT_ASSUME_MASK=0 -D__ARM__ -marm -mno-thumb-interwork -mabi=aapcs-linux -mword-relocations -fno-pic -mno-unaligned-access -ffunction-sections -fdata-sections -fno-common -ffixed-r9 -msoft-float -pipe -march=armv7-a -D__LINUX_ARM_ARCH__=7 -mtune=generic-armv7-a -I./arch/arm/mach-exynos/include    -DKBUILD_BASENAME='"fdt_empty_tree"'  -DKBUILD_MODNAME='"fdt_empty_tree"' -c -o lib/libfdt/fdt_empty_tree.o lib/libfdt/fdt_empty_tree.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  arm-hpsp-linux-gnueabi-gcc -Wp,-MD,lib/libfdt/.fdt_addresses.o.d  -nostdinc -isystem /home/hpsp/rock_space/uboot_code/crosstool-ng-1.24.0/.build/arm-hpsp-linux-gnueabi/buildtools/lib/gcc/arm-hpsp-linux-gnueabi/8.3.0/include -Iinclude   -I./arch/arm/include -include ./include/linux/kconfig.h -D__KERNEL__ -D__UBOOT__ -Wall -Wstrict-prototypes -Wno-format-security -fno-builtin -ffreestanding -std=gnu11 -fshort-wchar -fno-strict-aliasing -fno-PIE -O2 -fno-stack-protector -fno-delete-null-pointer-checks -Wno-stringop-truncation -fmacro-prefix-map=./= -g -fstack-usage -Wno-format-nonliteral -Wno-unused-but-set-variable -Werror=date-time -I./scripts/dtc/libfdt -DFDT_ASSUME_MASK=0 -D__ARM__ -marm -mno-thumb-interwork -mabi=aapcs-linux -mword-relocations -fno-pic -mno-unaligned-access -ffunction-sections -fdata-sections -fno-common -ffixed-r9 -msoft-float -pipe -march=armv7-a -D__LINUX_ARM_ARCH__=7 -mtune=generic-armv7-a -I./arch/arm/mach-exynos/include    -DKBUILD_BASENAME='"fdt_addresses"'  -DKBUILD_MODNAME='"fdt_addresses"' -c -o lib/libfdt/fdt_addresses.o lib/libfdt/fdt_addresses.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   arm-hpsp-linux-gnueabi-ld.bfd     -r -o lib/libfdt/built-in.o lib/libfdt/fdt.o lib/libfdt/fdt_ro.o lib/libfdt/fdt_wip.o lib/libfdt/fdt_strerror.o lib/libfdt/fdt_sw.o lib/libfdt/fdt_rw.o lib/libfdt/fdt_empty_tree.o lib/libfdt/fdt_addresses.o </t>
+  </si>
+  <si>
+    <t>make -f ./scripts/Makefile.build obj=lib/rsa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  arm-hpsp-linux-gnueabi-gcc -Wp,-MD,lib/rsa/.rsa-mod-exp.o.d  -nostdinc -isystem /home/hpsp/rock_space/uboot_code/crosstool-ng-1.24.0/.build/arm-hpsp-linux-gnueabi/buildtools/lib/gcc/arm-hpsp-linux-gnueabi/8.3.0/include -Iinclude   -I./arch/arm/include -include ./include/linux/kconfig.h -D__KERNEL__ -D__UBOOT__ -Wall -Wstrict-prototypes -Wno-format-security -fno-builtin -ffreestanding -std=gnu11 -fshort-wchar -fno-strict-aliasing -fno-PIE -O2 -fno-stack-protector -fno-delete-null-pointer-checks -Wno-stringop-truncation -fmacro-prefix-map=./= -g -fstack-usage -Wno-format-nonliteral -Wno-unused-but-set-variable -Werror=date-time -D__ARM__ -marm -mno-thumb-interwork -mabi=aapcs-linux -mword-relocations -fno-pic -mno-unaligned-access -ffunction-sections -fdata-sections -fno-common -ffixed-r9 -msoft-float -pipe -march=armv7-a -D__LINUX_ARM_ARCH__=7 -mtune=generic-armv7-a -I./arch/arm/mach-exynos/include    -DKBUILD_BASENAME='"rsa_mod_exp"'  -DKBUILD_MODNAME='"rsa_mod_exp"' -c -o lib/rsa/rsa-mod-exp.o lib/rsa/rsa-mod-exp.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   arm-hpsp-linux-gnueabi-ld.bfd     -r -o lib/rsa/built-in.o lib/rsa/rsa-mod-exp.o </t>
+  </si>
+  <si>
+    <t>make -f ./scripts/Makefile.build obj=lib/zlib</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  arm-hpsp-linux-gnueabi-gcc -Wp,-MD,lib/zlib/.zlib.o.d  -nostdinc -isystem /home/hpsp/rock_space/uboot_code/crosstool-ng-1.24.0/.build/arm-hpsp-linux-gnueabi/buildtools/lib/gcc/arm-hpsp-linux-gnueabi/8.3.0/include -Iinclude   -I./arch/arm/include -include ./include/linux/kconfig.h -D__KERNEL__ -D__UBOOT__ -Wall -Wstrict-prototypes -Wno-format-security -fno-builtin -ffreestanding -std=gnu11 -fshort-wchar -fno-strict-aliasing -fno-PIE -O2 -fno-stack-protector -fno-delete-null-pointer-checks -Wno-stringop-truncation -fmacro-prefix-map=./= -g -fstack-usage -Wno-format-nonliteral -Wno-unused-but-set-variable -Werror=date-time -D__ARM__ -marm -mno-thumb-interwork -mabi=aapcs-linux -mword-relocations -fno-pic -mno-unaligned-access -ffunction-sections -fdata-sections -fno-common -ffixed-r9 -msoft-float -pipe -march=armv7-a -D__LINUX_ARM_ARCH__=7 -mtune=generic-armv7-a -I./arch/arm/mach-exynos/include    -DKBUILD_BASENAME='"zlib"'  -DKBUILD_MODNAME='"zlib"' -c -o lib/zlib/zlib.o lib/zlib/zlib.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   arm-hpsp-linux-gnueabi-ld.bfd     -r -o lib/zlib/built-in.o lib/zlib/zlib.o </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  arm-hpsp-linux-gnueabi-gcc -Wp,-MD,lib/.of_live.o.d  -nostdinc -isystem /home/hpsp/rock_space/uboot_code/crosstool-ng-1.24.0/.build/arm-hpsp-linux-gnueabi/buildtools/lib/gcc/arm-hpsp-linux-gnueabi/8.3.0/include -Iinclude   -I./arch/arm/include -include ./include/linux/kconfig.h -D__KERNEL__ -D__UBOOT__ -Wall -Wstrict-prototypes -Wno-format-security -fno-builtin -ffreestanding -std=gnu11 -fshort-wchar -fno-strict-aliasing -fno-PIE -O2 -fno-stack-protector -fno-delete-null-pointer-checks -Wno-stringop-truncation -fmacro-prefix-map=./= -g -fstack-usage -Wno-format-nonliteral -Wno-unused-but-set-variable -Werror=date-time -D__ARM__ -marm -mno-thumb-interwork -mabi=aapcs-linux -mword-relocations -fno-pic -mno-unaligned-access -ffunction-sections -fdata-sections -fno-common -ffixed-r9 -msoft-float -pipe -march=armv7-a -D__LINUX_ARM_ARCH__=7 -mtune=generic-armv7-a -I./arch/arm/mach-exynos/include    -DKBUILD_BASENAME='"of_live"'  -DKBUILD_MODNAME='"of_live"' -c -o lib/of_live.o lib/of_live.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  arm-hpsp-linux-gnueabi-gcc -Wp,-MD,lib/.crc7.o.d  -nostdinc -isystem /home/hpsp/rock_space/uboot_code/crosstool-ng-1.24.0/.build/arm-hpsp-linux-gnueabi/buildtools/lib/gcc/arm-hpsp-linux-gnueabi/8.3.0/include -Iinclude   -I./arch/arm/include -include ./include/linux/kconfig.h -D__KERNEL__ -D__UBOOT__ -Wall -Wstrict-prototypes -Wno-format-security -fno-builtin -ffreestanding -std=gnu11 -fshort-wchar -fno-strict-aliasing -fno-PIE -O2 -fno-stack-protector -fno-delete-null-pointer-checks -Wno-stringop-truncation -fmacro-prefix-map=./= -g -fstack-usage -Wno-format-nonliteral -Wno-unused-but-set-variable -Werror=date-time -D__ARM__ -marm -mno-thumb-interwork -mabi=aapcs-linux -mword-relocations -fno-pic -mno-unaligned-access -ffunction-sections -fdata-sections -fno-common -ffixed-r9 -msoft-float -pipe -march=armv7-a -D__LINUX_ARM_ARCH__=7 -mtune=generic-armv7-a -I./arch/arm/mach-exynos/include    -DKBUILD_BASENAME='"crc7"'  -DKBUILD_MODNAME='"crc7"' -c -o lib/crc7.o lib/crc7.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  arm-hpsp-linux-gnueabi-gcc -Wp,-MD,lib/.crc8.o.d  -nostdinc -isystem /home/hpsp/rock_space/uboot_code/crosstool-ng-1.24.0/.build/arm-hpsp-linux-gnueabi/buildtools/lib/gcc/arm-hpsp-linux-gnueabi/8.3.0/include -Iinclude   -I./arch/arm/include -include ./include/linux/kconfig.h -D__KERNEL__ -D__UBOOT__ -Wall -Wstrict-prototypes -Wno-format-security -fno-builtin -ffreestanding -std=gnu11 -fshort-wchar -fno-strict-aliasing -fno-PIE -O2 -fno-stack-protector -fno-delete-null-pointer-checks -Wno-stringop-truncation -fmacro-prefix-map=./= -g -fstack-usage -Wno-format-nonliteral -Wno-unused-but-set-variable -Werror=date-time -D__ARM__ -marm -mno-thumb-interwork -mabi=aapcs-linux -mword-relocations -fno-pic -mno-unaligned-access -ffunction-sections -fdata-sections -fno-common -ffixed-r9 -msoft-float -pipe -march=armv7-a -D__LINUX_ARM_ARCH__=7 -mtune=generic-armv7-a -I./arch/arm/mach-exynos/include    -DKBUILD_BASENAME='"crc8"'  -DKBUILD_MODNAME='"crc8"' -c -o lib/crc8.o lib/crc8.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  arm-hpsp-linux-gnueabi-gcc -Wp,-MD,lib/.crc16.o.d  -nostdinc -isystem /home/hpsp/rock_space/uboot_code/crosstool-ng-1.24.0/.build/arm-hpsp-linux-gnueabi/buildtools/lib/gcc/arm-hpsp-linux-gnueabi/8.3.0/include -Iinclude   -I./arch/arm/include -include ./include/linux/kconfig.h -D__KERNEL__ -D__UBOOT__ -Wall -Wstrict-prototypes -Wno-format-security -fno-builtin -ffreestanding -std=gnu11 -fshort-wchar -fno-strict-aliasing -fno-PIE -O2 -fno-stack-protector -fno-delete-null-pointer-checks -Wno-stringop-truncation -fmacro-prefix-map=./= -g -fstack-usage -Wno-format-nonliteral -Wno-unused-but-set-variable -Werror=date-time -D__ARM__ -marm -mno-thumb-interwork -mabi=aapcs-linux -mword-relocations -fno-pic -mno-unaligned-access -ffunction-sections -fdata-sections -fno-common -ffixed-r9 -msoft-float -pipe -march=armv7-a -D__LINUX_ARM_ARCH__=7 -mtune=generic-armv7-a -I./arch/arm/mach-exynos/include    -DKBUILD_BASENAME='"crc16"'  -DKBUILD_MODNAME='"crc16"' -c -o lib/crc16.o lib/crc16.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  arm-hpsp-linux-gnueabi-gcc -Wp,-MD,lib/.ldiv.o.d  -nostdinc -isystem /home/hpsp/rock_space/uboot_code/crosstool-ng-1.24.0/.build/arm-hpsp-linux-gnueabi/buildtools/lib/gcc/arm-hpsp-linux-gnueabi/8.3.0/include -Iinclude   -I./arch/arm/include -include ./include/linux/kconfig.h -D__KERNEL__ -D__UBOOT__ -Wall -Wstrict-prototypes -Wno-format-security -fno-builtin -ffreestanding -std=gnu11 -fshort-wchar -fno-strict-aliasing -fno-PIE -O2 -fno-stack-protector -fno-delete-null-pointer-checks -Wno-stringop-truncation -fmacro-prefix-map=./= -g -fstack-usage -Wno-format-nonliteral -Wno-unused-but-set-variable -Werror=date-time -D__ARM__ -marm -mno-thumb-interwork -mabi=aapcs-linux -mword-relocations -fno-pic -mno-unaligned-access -ffunction-sections -fdata-sections -fno-common -ffixed-r9 -msoft-float -pipe -march=armv7-a -D__LINUX_ARM_ARCH__=7 -mtune=generic-armv7-a -I./arch/arm/mach-exynos/include    -DKBUILD_BASENAME='"ldiv"'  -DKBUILD_MODNAME='"ldiv"' -c -o lib/ldiv.o lib/ldiv.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  arm-hpsp-linux-gnueabi-gcc -Wp,-MD,lib/.net_utils.o.d  -nostdinc -isystem /home/hpsp/rock_space/uboot_code/crosstool-ng-1.24.0/.build/arm-hpsp-linux-gnueabi/buildtools/lib/gcc/arm-hpsp-linux-gnueabi/8.3.0/include -Iinclude   -I./arch/arm/include -include ./include/linux/kconfig.h -D__KERNEL__ -D__UBOOT__ -Wall -Wstrict-prototypes -Wno-format-security -fno-builtin -ffreestanding -std=gnu11 -fshort-wchar -fno-strict-aliasing -fno-PIE -O2 -fno-stack-protector -fno-delete-null-pointer-checks -Wno-stringop-truncation -fmacro-prefix-map=./= -g -fstack-usage -Wno-format-nonliteral -Wno-unused-but-set-variable -Werror=date-time -D__ARM__ -marm -mno-thumb-interwork -mabi=aapcs-linux -mword-relocations -fno-pic -mno-unaligned-access -ffunction-sections -fdata-sections -fno-common -ffixed-r9 -msoft-float -pipe -march=armv7-a -D__LINUX_ARM_ARCH__=7 -mtune=generic-armv7-a -I./arch/arm/mach-exynos/include    -DKBUILD_BASENAME='"net_utils"'  -DKBUILD_MODNAME='"net_utils"' -c -o lib/net_utils.o lib/net_utils.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  arm-hpsp-linux-gnueabi-gcc -Wp,-MD,lib/.rc4.o.d  -nostdinc -isystem /home/hpsp/rock_space/uboot_code/crosstool-ng-1.24.0/.build/arm-hpsp-linux-gnueabi/buildtools/lib/gcc/arm-hpsp-linux-gnueabi/8.3.0/include -Iinclude   -I./arch/arm/include -include ./include/linux/kconfig.h -D__KERNEL__ -D__UBOOT__ -Wall -Wstrict-prototypes -Wno-format-security -fno-builtin -ffreestanding -std=gnu11 -fshort-wchar -fno-strict-aliasing -fno-PIE -O2 -fno-stack-protector -fno-delete-null-pointer-checks -Wno-stringop-truncation -fmacro-prefix-map=./= -g -fstack-usage -Wno-format-nonliteral -Wno-unused-but-set-variable -Werror=date-time -D__ARM__ -marm -mno-thumb-interwork -mabi=aapcs-linux -mword-relocations -fno-pic -mno-unaligned-access -ffunction-sections -fdata-sections -fno-common -ffixed-r9 -msoft-float -pipe -march=armv7-a -D__LINUX_ARM_ARCH__=7 -mtune=generic-armv7-a -I./arch/arm/mach-exynos/include    -DKBUILD_BASENAME='"rc4"'  -DKBUILD_MODNAME='"rc4"' -c -o lib/rc4.o lib/rc4.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  arm-hpsp-linux-gnueabi-gcc -Wp,-MD,lib/.list_sort.o.d  -nostdinc -isystem /home/hpsp/rock_space/uboot_code/crosstool-ng-1.24.0/.build/arm-hpsp-linux-gnueabi/buildtools/lib/gcc/arm-hpsp-linux-gnueabi/8.3.0/include -Iinclude   -I./arch/arm/include -include ./include/linux/kconfig.h -D__KERNEL__ -D__UBOOT__ -Wall -Wstrict-prototypes -Wno-format-security -fno-builtin -ffreestanding -std=gnu11 -fshort-wchar -fno-strict-aliasing -fno-PIE -O2 -fno-stack-protector -fno-delete-null-pointer-checks -Wno-stringop-truncation -fmacro-prefix-map=./= -g -fstack-usage -Wno-format-nonliteral -Wno-unused-but-set-variable -Werror=date-time -D__ARM__ -marm -mno-thumb-interwork -mabi=aapcs-linux -mword-relocations -fno-pic -mno-unaligned-access -ffunction-sections -fdata-sections -fno-common -ffixed-r9 -msoft-float -pipe -march=armv7-a -D__LINUX_ARM_ARCH__=7 -mtune=generic-armv7-a -I./arch/arm/mach-exynos/include    -DKBUILD_BASENAME='"list_sort"'  -DKBUILD_MODNAME='"list_sort"' -c -o lib/list_sort.o lib/list_sort.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  arm-hpsp-linux-gnueabi-gcc -Wp,-MD,lib/.md5.o.d  -nostdinc -isystem /home/hpsp/rock_space/uboot_code/crosstool-ng-1.24.0/.build/arm-hpsp-linux-gnueabi/buildtools/lib/gcc/arm-hpsp-linux-gnueabi/8.3.0/include -Iinclude   -I./arch/arm/include -include ./include/linux/kconfig.h -D__KERNEL__ -D__UBOOT__ -Wall -Wstrict-prototypes -Wno-format-security -fno-builtin -ffreestanding -std=gnu11 -fshort-wchar -fno-strict-aliasing -fno-PIE -O2 -fno-stack-protector -fno-delete-null-pointer-checks -Wno-stringop-truncation -fmacro-prefix-map=./= -g -fstack-usage -Wno-format-nonliteral -Wno-unused-but-set-variable -Werror=date-time -D__ARM__ -marm -mno-thumb-interwork -mabi=aapcs-linux -mword-relocations -fno-pic -mno-unaligned-access -ffunction-sections -fdata-sections -fno-common -ffixed-r9 -msoft-float -pipe -march=armv7-a -D__LINUX_ARM_ARCH__=7 -mtune=generic-armv7-a -I./arch/arm/mach-exynos/include    -DKBUILD_BASENAME='"md5"'  -DKBUILD_MODNAME='"md5"' -c -o lib/md5.o lib/md5.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  arm-hpsp-linux-gnueabi-gcc -Wp,-MD,lib/.sha1.o.d  -nostdinc -isystem /home/hpsp/rock_space/uboot_code/crosstool-ng-1.24.0/.build/arm-hpsp-linux-gnueabi/buildtools/lib/gcc/arm-hpsp-linux-gnueabi/8.3.0/include -Iinclude   -I./arch/arm/include -include ./include/linux/kconfig.h -D__KERNEL__ -D__UBOOT__ -Wall -Wstrict-prototypes -Wno-format-security -fno-builtin -ffreestanding -std=gnu11 -fshort-wchar -fno-strict-aliasing -fno-PIE -O2 -fno-stack-protector -fno-delete-null-pointer-checks -Wno-stringop-truncation -fmacro-prefix-map=./= -g -fstack-usage -Wno-format-nonliteral -Wno-unused-but-set-variable -Werror=date-time -D__ARM__ -marm -mno-thumb-interwork -mabi=aapcs-linux -mword-relocations -fno-pic -mno-unaligned-access -ffunction-sections -fdata-sections -fno-common -ffixed-r9 -msoft-float -pipe -march=armv7-a -D__LINUX_ARM_ARCH__=7 -mtune=generic-armv7-a -I./arch/arm/mach-exynos/include    -DKBUILD_BASENAME='"sha1"'  -DKBUILD_MODNAME='"sha1"' -c -o lib/sha1.o lib/sha1.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  arm-hpsp-linux-gnueabi-gcc -Wp,-MD,lib/.sha256.o.d  -nostdinc -isystem /home/hpsp/rock_space/uboot_code/crosstool-ng-1.24.0/.build/arm-hpsp-linux-gnueabi/buildtools/lib/gcc/arm-hpsp-linux-gnueabi/8.3.0/include -Iinclude   -I./arch/arm/include -include ./include/linux/kconfig.h -D__KERNEL__ -D__UBOOT__ -Wall -Wstrict-prototypes -Wno-format-security -fno-builtin -ffreestanding -std=gnu11 -fshort-wchar -fno-strict-aliasing -fno-PIE -O2 -fno-stack-protector -fno-delete-null-pointer-checks -Wno-stringop-truncation -fmacro-prefix-map=./= -g -fstack-usage -Wno-format-nonliteral -Wno-unused-but-set-variable -Werror=date-time -D__ARM__ -marm -mno-thumb-interwork -mabi=aapcs-linux -mword-relocations -fno-pic -mno-unaligned-access -ffunction-sections -fdata-sections -fno-common -ffixed-r9 -msoft-float -pipe -march=armv7-a -D__LINUX_ARM_ARCH__=7 -mtune=generic-armv7-a -I./arch/arm/mach-exynos/include    -DKBUILD_BASENAME='"sha256"'  -DKBUILD_MODNAME='"sha256"' -c -o lib/sha256.o lib/sha256.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  arm-hpsp-linux-gnueabi-gcc -Wp,-MD,lib/.gunzip.o.d  -nostdinc -isystem /home/hpsp/rock_space/uboot_code/crosstool-ng-1.24.0/.build/arm-hpsp-linux-gnueabi/buildtools/lib/gcc/arm-hpsp-linux-gnueabi/8.3.0/include -Iinclude   -I./arch/arm/include -include ./include/linux/kconfig.h -D__KERNEL__ -D__UBOOT__ -Wall -Wstrict-prototypes -Wno-format-security -fno-builtin -ffreestanding -std=gnu11 -fshort-wchar -fno-strict-aliasing -fno-PIE -O2 -fno-stack-protector -fno-delete-null-pointer-checks -Wno-stringop-truncation -fmacro-prefix-map=./= -g -fstack-usage -Wno-format-nonliteral -Wno-unused-but-set-variable -Werror=date-time -D__ARM__ -marm -mno-thumb-interwork -mabi=aapcs-linux -mword-relocations -fno-pic -mno-unaligned-access -ffunction-sections -fdata-sections -fno-common -ffixed-r9 -msoft-float -pipe -march=armv7-a -D__LINUX_ARM_ARCH__=7 -mtune=generic-armv7-a -I./arch/arm/mach-exynos/include    -DKBUILD_BASENAME='"gunzip"'  -DKBUILD_MODNAME='"gunzip"' -c -o lib/gunzip.o lib/gunzip.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  arm-hpsp-linux-gnueabi-gcc -Wp,-MD,lib/.fdtdec_common.o.d  -nostdinc -isystem /home/hpsp/rock_space/uboot_code/crosstool-ng-1.24.0/.build/arm-hpsp-linux-gnueabi/buildtools/lib/gcc/arm-hpsp-linux-gnueabi/8.3.0/include -Iinclude   -I./arch/arm/include -include ./include/linux/kconfig.h -D__KERNEL__ -D__UBOOT__ -Wall -Wstrict-prototypes -Wno-format-security -fno-builtin -ffreestanding -std=gnu11 -fshort-wchar -fno-strict-aliasing -fno-PIE -O2 -fno-stack-protector -fno-delete-null-pointer-checks -Wno-stringop-truncation -fmacro-prefix-map=./= -g -fstack-usage -Wno-format-nonliteral -Wno-unused-but-set-variable -Werror=date-time -D__ARM__ -marm -mno-thumb-interwork -mabi=aapcs-linux -mword-relocations -fno-pic -mno-unaligned-access -ffunction-sections -fdata-sections -fno-common -ffixed-r9 -msoft-float -pipe -march=armv7-a -D__LINUX_ARM_ARCH__=7 -mtune=generic-armv7-a -I./arch/arm/mach-exynos/include    -DKBUILD_BASENAME='"fdtdec_common"'  -DKBUILD_MODNAME='"fdtdec_common"' -c -o lib/fdtdec_common.o lib/fdtdec_common.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  arm-hpsp-linux-gnueabi-gcc -Wp,-MD,lib/.fdtdec.o.d  -nostdinc -isystem /home/hpsp/rock_space/uboot_code/crosstool-ng-1.24.0/.build/arm-hpsp-linux-gnueabi/buildtools/lib/gcc/arm-hpsp-linux-gnueabi/8.3.0/include -Iinclude   -I./arch/arm/include -include ./include/linux/kconfig.h -D__KERNEL__ -D__UBOOT__ -Wall -Wstrict-prototypes -Wno-format-security -fno-builtin -ffreestanding -std=gnu11 -fshort-wchar -fno-strict-aliasing -fno-PIE -O2 -fno-stack-protector -fno-delete-null-pointer-checks -Wno-stringop-truncation -fmacro-prefix-map=./= -g -fstack-usage -Wno-format-nonliteral -Wno-unused-but-set-variable -Werror=date-time -D__ARM__ -marm -mno-thumb-interwork -mabi=aapcs-linux -mword-relocations -fno-pic -mno-unaligned-access -ffunction-sections -fdata-sections -fno-common -ffixed-r9 -msoft-float -pipe -march=armv7-a -D__LINUX_ARM_ARCH__=7 -mtune=generic-armv7-a -I./arch/arm/mach-exynos/include    -DKBUILD_BASENAME='"fdtdec"'  -DKBUILD_MODNAME='"fdtdec"' -c -o lib/fdtdec.o lib/fdtdec.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  arm-hpsp-linux-gnueabi-gcc -Wp,-MD,lib/.qsort.o.d  -nostdinc -isystem /home/hpsp/rock_space/uboot_code/crosstool-ng-1.24.0/.build/arm-hpsp-linux-gnueabi/buildtools/lib/gcc/arm-hpsp-linux-gnueabi/8.3.0/include -Iinclude   -I./arch/arm/include -include ./include/linux/kconfig.h -D__KERNEL__ -D__UBOOT__ -Wall -Wstrict-prototypes -Wno-format-security -fno-builtin -ffreestanding -std=gnu11 -fshort-wchar -fno-strict-aliasing -fno-PIE -O2 -fno-stack-protector -fno-delete-null-pointer-checks -Wno-stringop-truncation -fmacro-prefix-map=./= -g -fstack-usage -Wno-format-nonliteral -Wno-unused-but-set-variable -Werror=date-time -D__ARM__ -marm -mno-thumb-interwork -mabi=aapcs-linux -mword-relocations -fno-pic -mno-unaligned-access -ffunction-sections -fdata-sections -fno-common -ffixed-r9 -msoft-float -pipe -march=armv7-a -D__LINUX_ARM_ARCH__=7 -mtune=generic-armv7-a -I./arch/arm/mach-exynos/include    -DKBUILD_BASENAME='"qsort"'  -DKBUILD_MODNAME='"qsort"' -c -o lib/qsort.o lib/qsort.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  arm-hpsp-linux-gnueabi-gcc -Wp,-MD,lib/.hashtable.o.d  -nostdinc -isystem /home/hpsp/rock_space/uboot_code/crosstool-ng-1.24.0/.build/arm-hpsp-linux-gnueabi/buildtools/lib/gcc/arm-hpsp-linux-gnueabi/8.3.0/include -Iinclude   -I./arch/arm/include -include ./include/linux/kconfig.h -D__KERNEL__ -D__UBOOT__ -Wall -Wstrict-prototypes -Wno-format-security -fno-builtin -ffreestanding -std=gnu11 -fshort-wchar -fno-strict-aliasing -fno-PIE -O2 -fno-stack-protector -fno-delete-null-pointer-checks -Wno-stringop-truncation -fmacro-prefix-map=./= -g -fstack-usage -Wno-format-nonliteral -Wno-unused-but-set-variable -Werror=date-time -D__ARM__ -marm -mno-thumb-interwork -mabi=aapcs-linux -mword-relocations -fno-pic -mno-unaligned-access -ffunction-sections -fdata-sections -fno-common -ffixed-r9 -msoft-float -pipe -march=armv7-a -D__LINUX_ARM_ARCH__=7 -mtune=generic-armv7-a -I./arch/arm/mach-exynos/include    -DKBUILD_BASENAME='"hashtable"'  -DKBUILD_MODNAME='"hashtable"' -c -o lib/hashtable.o lib/hashtable.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  arm-hpsp-linux-gnueabi-gcc -Wp,-MD,lib/.errno.o.d  -nostdinc -isystem /home/hpsp/rock_space/uboot_code/crosstool-ng-1.24.0/.build/arm-hpsp-linux-gnueabi/buildtools/lib/gcc/arm-hpsp-linux-gnueabi/8.3.0/include -Iinclude   -I./arch/arm/include -include ./include/linux/kconfig.h -D__KERNEL__ -D__UBOOT__ -Wall -Wstrict-prototypes -Wno-format-security -fno-builtin -ffreestanding -std=gnu11 -fshort-wchar -fno-strict-aliasing -fno-PIE -O2 -fno-stack-protector -fno-delete-null-pointer-checks -Wno-stringop-truncation -fmacro-prefix-map=./= -g -fstack-usage -Wno-format-nonliteral -Wno-unused-but-set-variable -Werror=date-time -D__ARM__ -marm -mno-thumb-interwork -mabi=aapcs-linux -mword-relocations -fno-pic -mno-unaligned-access -ffunction-sections -fdata-sections -fno-common -ffixed-r9 -msoft-float -pipe -march=armv7-a -D__LINUX_ARM_ARCH__=7 -mtune=generic-armv7-a -I./arch/arm/mach-exynos/include    -DKBUILD_BASENAME='"errno"'  -DKBUILD_MODNAME='"errno"' -c -o lib/errno.o lib/errno.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  arm-hpsp-linux-gnueabi-gcc -Wp,-MD,lib/.display_options.o.d  -nostdinc -isystem /home/hpsp/rock_space/uboot_code/crosstool-ng-1.24.0/.build/arm-hpsp-linux-gnueabi/buildtools/lib/gcc/arm-hpsp-linux-gnueabi/8.3.0/include -Iinclude   -I./arch/arm/include -include ./include/linux/kconfig.h -D__KERNEL__ -D__UBOOT__ -Wall -Wstrict-prototypes -Wno-format-security -fno-builtin -ffreestanding -std=gnu11 -fshort-wchar -fno-strict-aliasing -fno-PIE -O2 -fno-stack-protector -fno-delete-null-pointer-checks -Wno-stringop-truncation -fmacro-prefix-map=./= -g -fstack-usage -Wno-format-nonliteral -Wno-unused-but-set-variable -Werror=date-time -D__ARM__ -marm -mno-thumb-interwork -mabi=aapcs-linux -mword-relocations -fno-pic -mno-unaligned-access -ffunction-sections -fdata-sections -fno-common -ffixed-r9 -msoft-float -pipe -march=armv7-a -D__LINUX_ARM_ARCH__=7 -mtune=generic-armv7-a -I./arch/arm/mach-exynos/include    -DKBUILD_BASENAME='"display_options"'  -DKBUILD_MODNAME='"display_options"' -c -o lib/display_options.o lib/display_options.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  arm-hpsp-linux-gnueabi-gcc -Wp,-MD,lib/.crc32.o.d  -nostdinc -isystem /home/hpsp/rock_space/uboot_code/crosstool-ng-1.24.0/.build/arm-hpsp-linux-gnueabi/buildtools/lib/gcc/arm-hpsp-linux-gnueabi/8.3.0/include -Iinclude   -I./arch/arm/include -include ./include/linux/kconfig.h -D__KERNEL__ -D__UBOOT__ -Wall -Wstrict-prototypes -Wno-format-security -fno-builtin -ffreestanding -std=gnu11 -fshort-wchar -fno-strict-aliasing -fno-PIE -O2 -fno-stack-protector -fno-delete-null-pointer-checks -Wno-stringop-truncation -fmacro-prefix-map=./= -g -fstack-usage -Wno-format-nonliteral -Wno-unused-but-set-variable -Werror=date-time -D__ARM__ -marm -mno-thumb-interwork -mabi=aapcs-linux -mword-relocations -fno-pic -mno-unaligned-access -ffunction-sections -fdata-sections -fno-common -ffixed-r9 -msoft-float -pipe -march=armv7-a -D__LINUX_ARM_ARCH__=7 -mtune=generic-armv7-a -I./arch/arm/mach-exynos/include    -DKBUILD_BASENAME='"crc32"'  -DKBUILD_MODNAME='"crc32"' -c -o lib/crc32.o lib/crc32.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  arm-hpsp-linux-gnueabi-gcc -Wp,-MD,lib/.ctype.o.d  -nostdinc -isystem /home/hpsp/rock_space/uboot_code/crosstool-ng-1.24.0/.build/arm-hpsp-linux-gnueabi/buildtools/lib/gcc/arm-hpsp-linux-gnueabi/8.3.0/include -Iinclude   -I./arch/arm/include -include ./include/linux/kconfig.h -D__KERNEL__ -D__UBOOT__ -Wall -Wstrict-prototypes -Wno-format-security -fno-builtin -ffreestanding -std=gnu11 -fshort-wchar -fno-strict-aliasing -fno-PIE -O2 -fno-stack-protector -fno-delete-null-pointer-checks -Wno-stringop-truncation -fmacro-prefix-map=./= -g -fstack-usage -Wno-format-nonliteral -Wno-unused-but-set-variable -Werror=date-time -D__ARM__ -marm -mno-thumb-interwork -mabi=aapcs-linux -mword-relocations -fno-pic -mno-unaligned-access -ffunction-sections -fdata-sections -fno-common -ffixed-r9 -msoft-float -pipe -march=armv7-a -D__LINUX_ARM_ARCH__=7 -mtune=generic-armv7-a -I./arch/arm/mach-exynos/include    -DKBUILD_BASENAME='"ctype"'  -DKBUILD_MODNAME='"ctype"' -c -o lib/ctype.o lib/ctype.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  arm-hpsp-linux-gnueabi-gcc -Wp,-MD,lib/.div64.o.d  -nostdinc -isystem /home/hpsp/rock_space/uboot_code/crosstool-ng-1.24.0/.build/arm-hpsp-linux-gnueabi/buildtools/lib/gcc/arm-hpsp-linux-gnueabi/8.3.0/include -Iinclude   -I./arch/arm/include -include ./include/linux/kconfig.h -D__KERNEL__ -D__UBOOT__ -Wall -Wstrict-prototypes -Wno-format-security -fno-builtin -ffreestanding -std=gnu11 -fshort-wchar -fno-strict-aliasing -fno-PIE -O2 -fno-stack-protector -fno-delete-null-pointer-checks -Wno-stringop-truncation -fmacro-prefix-map=./= -g -fstack-usage -Wno-format-nonliteral -Wno-unused-but-set-variable -Werror=date-time -D__ARM__ -marm -mno-thumb-interwork -mabi=aapcs-linux -mword-relocations -fno-pic -mno-unaligned-access -ffunction-sections -fdata-sections -fno-common -ffixed-r9 -msoft-float -pipe -march=armv7-a -D__LINUX_ARM_ARCH__=7 -mtune=generic-armv7-a -I./arch/arm/mach-exynos/include    -DKBUILD_BASENAME='"div64"'  -DKBUILD_MODNAME='"div64"' -c -o lib/div64.o lib/div64.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  arm-hpsp-linux-gnueabi-gcc -Wp,-MD,lib/.hang.o.d  -nostdinc -isystem /home/hpsp/rock_space/uboot_code/crosstool-ng-1.24.0/.build/arm-hpsp-linux-gnueabi/buildtools/lib/gcc/arm-hpsp-linux-gnueabi/8.3.0/include -Iinclude   -I./arch/arm/include -include ./include/linux/kconfig.h -D__KERNEL__ -D__UBOOT__ -Wall -Wstrict-prototypes -Wno-format-security -fno-builtin -ffreestanding -std=gnu11 -fshort-wchar -fno-strict-aliasing -fno-PIE -O2 -fno-stack-protector -fno-delete-null-pointer-checks -Wno-stringop-truncation -fmacro-prefix-map=./= -g -fstack-usage -Wno-format-nonliteral -Wno-unused-but-set-variable -Werror=date-time -D__ARM__ -marm -mno-thumb-interwork -mabi=aapcs-linux -mword-relocations -fno-pic -mno-unaligned-access -ffunction-sections -fdata-sections -fno-common -ffixed-r9 -msoft-float -pipe -march=armv7-a -D__LINUX_ARM_ARCH__=7 -mtune=generic-armv7-a -I./arch/arm/mach-exynos/include    -DKBUILD_BASENAME='"hang"'  -DKBUILD_MODNAME='"hang"' -c -o lib/hang.o lib/hang.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  arm-hpsp-linux-gnueabi-gcc -Wp,-MD,lib/.linux_compat.o.d  -nostdinc -isystem /home/hpsp/rock_space/uboot_code/crosstool-ng-1.24.0/.build/arm-hpsp-linux-gnueabi/buildtools/lib/gcc/arm-hpsp-linux-gnueabi/8.3.0/include -Iinclude   -I./arch/arm/include -include ./include/linux/kconfig.h -D__KERNEL__ -D__UBOOT__ -Wall -Wstrict-prototypes -Wno-format-security -fno-builtin -ffreestanding -std=gnu11 -fshort-wchar -fno-strict-aliasing -fno-PIE -O2 -fno-stack-protector -fno-delete-null-pointer-checks -Wno-stringop-truncation -fmacro-prefix-map=./= -g -fstack-usage -Wno-format-nonliteral -Wno-unused-but-set-variable -Werror=date-time -D__ARM__ -marm -mno-thumb-interwork -mabi=aapcs-linux -mword-relocations -fno-pic -mno-unaligned-access -ffunction-sections -fdata-sections -fno-common -ffixed-r9 -msoft-float -pipe -march=armv7-a -D__LINUX_ARM_ARCH__=7 -mtune=generic-armv7-a -I./arch/arm/mach-exynos/include    -DKBUILD_BASENAME='"linux_compat"'  -DKBUILD_MODNAME='"linux_compat"' -c -o lib/linux_compat.o lib/linux_compat.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  arm-hpsp-linux-gnueabi-gcc -Wp,-MD,lib/.linux_string.o.d  -nostdinc -isystem /home/hpsp/rock_space/uboot_code/crosstool-ng-1.24.0/.build/arm-hpsp-linux-gnueabi/buildtools/lib/gcc/arm-hpsp-linux-gnueabi/8.3.0/include -Iinclude   -I./arch/arm/include -include ./include/linux/kconfig.h -D__KERNEL__ -D__UBOOT__ -Wall -Wstrict-prototypes -Wno-format-security -fno-builtin -ffreestanding -std=gnu11 -fshort-wchar -fno-strict-aliasing -fno-PIE -O2 -fno-stack-protector -fno-delete-null-pointer-checks -Wno-stringop-truncation -fmacro-prefix-map=./= -g -fstack-usage -Wno-format-nonliteral -Wno-unused-but-set-variable -Werror=date-time -D__ARM__ -marm -mno-thumb-interwork -mabi=aapcs-linux -mword-relocations -fno-pic -mno-unaligned-access -ffunction-sections -fdata-sections -fno-common -ffixed-r9 -msoft-float -pipe -march=armv7-a -D__LINUX_ARM_ARCH__=7 -mtune=generic-armv7-a -I./arch/arm/mach-exynos/include    -DKBUILD_BASENAME='"linux_string"'  -DKBUILD_MODNAME='"linux_string"' -c -o lib/linux_string.o lib/linux_string.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  arm-hpsp-linux-gnueabi-gcc -Wp,-MD,lib/.lmb.o.d  -nostdinc -isystem /home/hpsp/rock_space/uboot_code/crosstool-ng-1.24.0/.build/arm-hpsp-linux-gnueabi/buildtools/lib/gcc/arm-hpsp-linux-gnueabi/8.3.0/include -Iinclude   -I./arch/arm/include -include ./include/linux/kconfig.h -D__KERNEL__ -D__UBOOT__ -Wall -Wstrict-prototypes -Wno-format-security -fno-builtin -ffreestanding -std=gnu11 -fshort-wchar -fno-strict-aliasing -fno-PIE -O2 -fno-stack-protector -fno-delete-null-pointer-checks -Wno-stringop-truncation -fmacro-prefix-map=./= -g -fstack-usage -Wno-format-nonliteral -Wno-unused-but-set-variable -Werror=date-time -D__ARM__ -marm -mno-thumb-interwork -mabi=aapcs-linux -mword-relocations -fno-pic -mno-unaligned-access -ffunction-sections -fdata-sections -fno-common -ffixed-r9 -msoft-float -pipe -march=armv7-a -D__LINUX_ARM_ARCH__=7 -mtune=generic-armv7-a -I./arch/arm/mach-exynos/include    -DKBUILD_BASENAME='"lmb"'  -DKBUILD_MODNAME='"lmb"' -c -o lib/lmb.o lib/lmb.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  arm-hpsp-linux-gnueabi-gcc -Wp,-MD,lib/.membuff.o.d  -nostdinc -isystem /home/hpsp/rock_space/uboot_code/crosstool-ng-1.24.0/.build/arm-hpsp-linux-gnueabi/buildtools/lib/gcc/arm-hpsp-linux-gnueabi/8.3.0/include -Iinclude   -I./arch/arm/include -include ./include/linux/kconfig.h -D__KERNEL__ -D__UBOOT__ -Wall -Wstrict-prototypes -Wno-format-security -fno-builtin -ffreestanding -std=gnu11 -fshort-wchar -fno-strict-aliasing -fno-PIE -O2 -fno-stack-protector -fno-delete-null-pointer-checks -Wno-stringop-truncation -fmacro-prefix-map=./= -g -fstack-usage -Wno-format-nonliteral -Wno-unused-but-set-variable -Werror=date-time -D__ARM__ -marm -mno-thumb-interwork -mabi=aapcs-linux -mword-relocations -fno-pic -mno-unaligned-access -ffunction-sections -fdata-sections -fno-common -ffixed-r9 -msoft-float -pipe -march=armv7-a -D__LINUX_ARM_ARCH__=7 -mtune=generic-armv7-a -I./arch/arm/mach-exynos/include    -DKBUILD_BASENAME='"membuff"'  -DKBUILD_MODNAME='"membuff"' -c -o lib/membuff.o lib/membuff.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  arm-hpsp-linux-gnueabi-gcc -Wp,-MD,lib/.slre.o.d  -nostdinc -isystem /home/hpsp/rock_space/uboot_code/crosstool-ng-1.24.0/.build/arm-hpsp-linux-gnueabi/buildtools/lib/gcc/arm-hpsp-linux-gnueabi/8.3.0/include -Iinclude   -I./arch/arm/include -include ./include/linux/kconfig.h -D__KERNEL__ -D__UBOOT__ -Wall -Wstrict-prototypes -Wno-format-security -fno-builtin -ffreestanding -std=gnu11 -fshort-wchar -fno-strict-aliasing -fno-PIE -O2 -fno-stack-protector -fno-delete-null-pointer-checks -Wno-stringop-truncation -fmacro-prefix-map=./= -g -fstack-usage -Wno-format-nonliteral -Wno-unused-but-set-variable -Werror=date-time -D__ARM__ -marm -mno-thumb-interwork -mabi=aapcs-linux -mword-relocations -fno-pic -mno-unaligned-access -ffunction-sections -fdata-sections -fno-common -ffixed-r9 -msoft-float -pipe -march=armv7-a -D__LINUX_ARM_ARCH__=7 -mtune=generic-armv7-a -I./arch/arm/mach-exynos/include    -DKBUILD_BASENAME='"slre"'  -DKBUILD_MODNAME='"slre"' -c -o lib/slre.o lib/slre.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  arm-hpsp-linux-gnueabi-gcc -Wp,-MD,lib/.string.o.d  -nostdinc -isystem /home/hpsp/rock_space/uboot_code/crosstool-ng-1.24.0/.build/arm-hpsp-linux-gnueabi/buildtools/lib/gcc/arm-hpsp-linux-gnueabi/8.3.0/include -Iinclude   -I./arch/arm/include -include ./include/linux/kconfig.h -D__KERNEL__ -D__UBOOT__ -Wall -Wstrict-prototypes -Wno-format-security -fno-builtin -ffreestanding -std=gnu11 -fshort-wchar -fno-strict-aliasing -fno-PIE -O2 -fno-stack-protector -fno-delete-null-pointer-checks -Wno-stringop-truncation -fmacro-prefix-map=./= -g -fstack-usage -Wno-format-nonliteral -Wno-unused-but-set-variable -Werror=date-time -D__ARM__ -marm -mno-thumb-interwork -mabi=aapcs-linux -mword-relocations -fno-pic -mno-unaligned-access -ffunction-sections -fdata-sections -fno-common -ffixed-r9 -msoft-float -pipe -march=armv7-a -D__LINUX_ARM_ARCH__=7 -mtune=generic-armv7-a -I./arch/arm/mach-exynos/include    -DKBUILD_BASENAME='"string"'  -DKBUILD_MODNAME='"string"' -c -o lib/string.o lib/string.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  arm-hpsp-linux-gnueabi-gcc -Wp,-MD,lib/.tables_csum.o.d  -nostdinc -isystem /home/hpsp/rock_space/uboot_code/crosstool-ng-1.24.0/.build/arm-hpsp-linux-gnueabi/buildtools/lib/gcc/arm-hpsp-linux-gnueabi/8.3.0/include -Iinclude   -I./arch/arm/include -include ./include/linux/kconfig.h -D__KERNEL__ -D__UBOOT__ -Wall -Wstrict-prototypes -Wno-format-security -fno-builtin -ffreestanding -std=gnu11 -fshort-wchar -fno-strict-aliasing -fno-PIE -O2 -fno-stack-protector -fno-delete-null-pointer-checks -Wno-stringop-truncation -fmacro-prefix-map=./= -g -fstack-usage -Wno-format-nonliteral -Wno-unused-but-set-variable -Werror=date-time -D__ARM__ -marm -mno-thumb-interwork -mabi=aapcs-linux -mword-relocations -fno-pic -mno-unaligned-access -ffunction-sections -fdata-sections -fno-common -ffixed-r9 -msoft-float -pipe -march=armv7-a -D__LINUX_ARM_ARCH__=7 -mtune=generic-armv7-a -I./arch/arm/mach-exynos/include    -DKBUILD_BASENAME='"tables_csum"'  -DKBUILD_MODNAME='"tables_csum"' -c -o lib/tables_csum.o lib/tables_csum.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  arm-hpsp-linux-gnueabi-gcc -Wp,-MD,lib/.time.o.d  -nostdinc -isystem /home/hpsp/rock_space/uboot_code/crosstool-ng-1.24.0/.build/arm-hpsp-linux-gnueabi/buildtools/lib/gcc/arm-hpsp-linux-gnueabi/8.3.0/include -Iinclude   -I./arch/arm/include -include ./include/linux/kconfig.h -D__KERNEL__ -D__UBOOT__ -Wall -Wstrict-prototypes -Wno-format-security -fno-builtin -ffreestanding -std=gnu11 -fshort-wchar -fno-strict-aliasing -fno-PIE -O2 -fno-stack-protector -fno-delete-null-pointer-checks -Wno-stringop-truncation -fmacro-prefix-map=./= -g -fstack-usage -Wno-format-nonliteral -Wno-unused-but-set-variable -Werror=date-time -D__ARM__ -marm -mno-thumb-interwork -mabi=aapcs-linux -mword-relocations -fno-pic -mno-unaligned-access -ffunction-sections -fdata-sections -fno-common -ffixed-r9 -msoft-float -pipe -march=armv7-a -D__LINUX_ARM_ARCH__=7 -mtune=generic-armv7-a -I./arch/arm/mach-exynos/include    -DKBUILD_BASENAME='"time"'  -DKBUILD_MODNAME='"time"' -c -o lib/time.o lib/time.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  arm-hpsp-linux-gnueabi-gcc -Wp,-MD,lib/.hexdump.o.d  -nostdinc -isystem /home/hpsp/rock_space/uboot_code/crosstool-ng-1.24.0/.build/arm-hpsp-linux-gnueabi/buildtools/lib/gcc/arm-hpsp-linux-gnueabi/8.3.0/include -Iinclude   -I./arch/arm/include -include ./include/linux/kconfig.h -D__KERNEL__ -D__UBOOT__ -Wall -Wstrict-prototypes -Wno-format-security -fno-builtin -ffreestanding -std=gnu11 -fshort-wchar -fno-strict-aliasing -fno-PIE -O2 -fno-stack-protector -fno-delete-null-pointer-checks -Wno-stringop-truncation -fmacro-prefix-map=./= -g -fstack-usage -Wno-format-nonliteral -Wno-unused-but-set-variable -Werror=date-time -D__ARM__ -marm -mno-thumb-interwork -mabi=aapcs-linux -mword-relocations -fno-pic -mno-unaligned-access -ffunction-sections -fdata-sections -fno-common -ffixed-r9 -msoft-float -pipe -march=armv7-a -D__LINUX_ARM_ARCH__=7 -mtune=generic-armv7-a -I./arch/arm/mach-exynos/include    -DKBUILD_BASENAME='"hexdump"'  -DKBUILD_MODNAME='"hexdump"' -c -o lib/hexdump.o lib/hexdump.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  arm-hpsp-linux-gnueabi-gcc -Wp,-MD,lib/.panic.o.d  -nostdinc -isystem /home/hpsp/rock_space/uboot_code/crosstool-ng-1.24.0/.build/arm-hpsp-linux-gnueabi/buildtools/lib/gcc/arm-hpsp-linux-gnueabi/8.3.0/include -Iinclude   -I./arch/arm/include -include ./include/linux/kconfig.h -D__KERNEL__ -D__UBOOT__ -Wall -Wstrict-prototypes -Wno-format-security -fno-builtin -ffreestanding -std=gnu11 -fshort-wchar -fno-strict-aliasing -fno-PIE -O2 -fno-stack-protector -fno-delete-null-pointer-checks -Wno-stringop-truncation -fmacro-prefix-map=./= -g -fstack-usage -Wno-format-nonliteral -Wno-unused-but-set-variable -Werror=date-time -D__ARM__ -marm -mno-thumb-interwork -mabi=aapcs-linux -mword-relocations -fno-pic -mno-unaligned-access -ffunction-sections -fdata-sections -fno-common -ffixed-r9 -msoft-float -pipe -march=armv7-a -D__LINUX_ARM_ARCH__=7 -mtune=generic-armv7-a -I./arch/arm/mach-exynos/include    -DKBUILD_BASENAME='"panic"'  -DKBUILD_MODNAME='"panic"' -c -o lib/panic.o lib/panic.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  arm-hpsp-linux-gnueabi-gcc -Wp,-MD,lib/.vsprintf.o.d  -nostdinc -isystem /home/hpsp/rock_space/uboot_code/crosstool-ng-1.24.0/.build/arm-hpsp-linux-gnueabi/buildtools/lib/gcc/arm-hpsp-linux-gnueabi/8.3.0/include -Iinclude   -I./arch/arm/include -include ./include/linux/kconfig.h -D__KERNEL__ -D__UBOOT__ -Wall -Wstrict-prototypes -Wno-format-security -fno-builtin -ffreestanding -std=gnu11 -fshort-wchar -fno-strict-aliasing -fno-PIE -O2 -fno-stack-protector -fno-delete-null-pointer-checks -Wno-stringop-truncation -fmacro-prefix-map=./= -g -fstack-usage -Wno-format-nonliteral -Wno-unused-but-set-variable -Werror=date-time -D__ARM__ -marm -mno-thumb-interwork -mabi=aapcs-linux -mword-relocations -fno-pic -mno-unaligned-access -ffunction-sections -fdata-sections -fno-common -ffixed-r9 -msoft-float -pipe -march=armv7-a -D__LINUX_ARM_ARCH__=7 -mtune=generic-armv7-a -I./arch/arm/mach-exynos/include    -DKBUILD_BASENAME='"vsprintf"'  -DKBUILD_MODNAME='"vsprintf"' -c -o lib/vsprintf.o lib/vsprintf.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  arm-hpsp-linux-gnueabi-gcc -Wp,-MD,lib/.strto.o.d  -nostdinc -isystem /home/hpsp/rock_space/uboot_code/crosstool-ng-1.24.0/.build/arm-hpsp-linux-gnueabi/buildtools/lib/gcc/arm-hpsp-linux-gnueabi/8.3.0/include -Iinclude   -I./arch/arm/include -include ./include/linux/kconfig.h -D__KERNEL__ -D__UBOOT__ -Wall -Wstrict-prototypes -Wno-format-security -fno-builtin -ffreestanding -std=gnu11 -fshort-wchar -fno-strict-aliasing -fno-PIE -O2 -fno-stack-protector -fno-delete-null-pointer-checks -Wno-stringop-truncation -fmacro-prefix-map=./= -g -fstack-usage -Wno-format-nonliteral -Wno-unused-but-set-variable -Werror=date-time -D__ARM__ -marm -mno-thumb-interwork -mabi=aapcs-linux -mword-relocations -fno-pic -mno-unaligned-access -ffunction-sections -fdata-sections -fno-common -ffixed-r9 -msoft-float -pipe -march=armv7-a -D__LINUX_ARM_ARCH__=7 -mtune=generic-armv7-a -I./arch/arm/mach-exynos/include    -DKBUILD_BASENAME='"strto"'  -DKBUILD_MODNAME='"strto"' -c -o lib/strto.o lib/strto.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  arm-hpsp-linux-gnueabi-gcc -Wp,-MD,lib/.date.o.d  -nostdinc -isystem /home/hpsp/rock_space/uboot_code/crosstool-ng-1.24.0/.build/arm-hpsp-linux-gnueabi/buildtools/lib/gcc/arm-hpsp-linux-gnueabi/8.3.0/include -Iinclude   -I./arch/arm/include -include ./include/linux/kconfig.h -D__KERNEL__ -D__UBOOT__ -Wall -Wstrict-prototypes -Wno-format-security -fno-builtin -ffreestanding -std=gnu11 -fshort-wchar -fno-strict-aliasing -fno-PIE -O2 -fno-stack-protector -fno-delete-null-pointer-checks -Wno-stringop-truncation -fmacro-prefix-map=./= -g -fstack-usage -Wno-format-nonliteral -Wno-unused-but-set-variable -Werror=date-time -D__ARM__ -marm -mno-thumb-interwork -mabi=aapcs-linux -mword-relocations -fno-pic -mno-unaligned-access -ffunction-sections -fdata-sections -fno-common -ffixed-r9 -msoft-float -pipe -march=armv7-a -D__LINUX_ARM_ARCH__=7 -mtune=generic-armv7-a -I./arch/arm/mach-exynos/include    -DKBUILD_BASENAME='"date"'  -DKBUILD_MODNAME='"date"' -c -o lib/date.o lib/date.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   arm-hpsp-linux-gnueabi-ld.bfd     -r -o lib/built-in.o lib/of_live.o lib/crypto/built-in.o lib/crc7.o lib/crc8.o lib/crc16.o lib/ldiv.o lib/net_utils.o lib/rc4.o lib/list_sort.o lib/md5.o lib/rsa/built-in.o lib/sha1.o lib/sha256.o lib/zlib/built-in.o lib/gunzip.o lib/libfdt/built-in.o lib/fdtdec_common.o lib/fdtdec.o lib/qsort.o lib/hashtable.o lib/errno.o lib/display_options.o lib/crc32.o lib/ctype.o lib/div64.o lib/hang.o lib/linux_compat.o lib/linux_string.o lib/lmb.o lib/membuff.o lib/slre.o lib/string.o lib/tables_csum.o lib/time.o lib/hexdump.o lib/panic.o lib/vsprintf.o lib/strto.o lib/date.o </t>
+  </si>
+  <si>
+    <t>make -f ./scripts/Makefile.build obj=net</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   rm -f net/built-in.o; arm-hpsp-linux-gnueabi-ar rcs net/built-in.o</t>
+  </si>
+  <si>
+    <t>make -f ./scripts/Makefile.build obj=examples</t>
+  </si>
+  <si>
+    <t>make -f ./scripts/Makefile.build obj=examples/standalone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  arm-hpsp-linux-gnueabi-gcc -Wp,-MD,examples/standalone/.hello_world.o.d  -nostdinc -isystem /home/hpsp/rock_space/uboot_code/crosstool-ng-1.24.0/.build/arm-hpsp-linux-gnueabi/buildtools/lib/gcc/arm-hpsp-linux-gnueabi/8.3.0/include -Iinclude   -I./arch/arm/include -include ./include/linux/kconfig.h -D__KERNEL__ -D__UBOOT__ -Wall -Wstrict-prototypes -Wno-format-security -fno-builtin -ffreestanding -std=gnu11 -fshort-wchar -fno-strict-aliasing -fno-PIE -O2 -fno-stack-protector -fno-delete-null-pointer-checks -Wno-stringop-truncation -fmacro-prefix-map=./= -g -fstack-usage -Wno-format-nonliteral -Wno-unused-but-set-variable -Werror=date-time -fno-toplevel-reorder -D__ARM__ -marm -mno-thumb-interwork -mabi=aapcs-linux -mword-relocations -fno-pic -mno-unaligned-access -ffunction-sections -fdata-sections -fno-common -ffixed-r9 -msoft-float -pipe -march=armv7-a -D__LINUX_ARM_ARCH__=7 -mtune=generic-armv7-a -I./arch/arm/mach-exynos/include    -DKBUILD_BASENAME='"hello_world"'  -DKBUILD_MODNAME='"hello_world"' -c -o examples/standalone/hello_world.o examples/standalone/hello_world.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  arm-hpsp-linux-gnueabi-gcc -Wp,-MD,examples/standalone/.stubs.o.d  -nostdinc -isystem /home/hpsp/rock_space/uboot_code/crosstool-ng-1.24.0/.build/arm-hpsp-linux-gnueabi/buildtools/lib/gcc/arm-hpsp-linux-gnueabi/8.3.0/include -Iinclude   -I./arch/arm/include -include ./include/linux/kconfig.h -D__KERNEL__ -D__UBOOT__ -Wall -Wstrict-prototypes -Wno-format-security -fno-builtin -ffreestanding -std=gnu11 -fshort-wchar -fno-strict-aliasing -fno-PIE -O2 -fno-stack-protector -fno-delete-null-pointer-checks -Wno-stringop-truncation -fmacro-prefix-map=./= -g -fstack-usage -Wno-format-nonliteral -Wno-unused-but-set-variable -Werror=date-time -fno-toplevel-reorder -D__ARM__ -marm -mno-thumb-interwork -mabi=aapcs-linux -mword-relocations -fno-pic -mno-unaligned-access -ffunction-sections -fdata-sections -fno-common -ffixed-r9 -msoft-float -pipe -march=armv7-a -D__LINUX_ARM_ARCH__=7 -mtune=generic-armv7-a -I./arch/arm/mach-exynos/include    -DKBUILD_BASENAME='"stubs"'  -DKBUILD_MODNAME='"stubs"' -c -o examples/standalone/stubs.o examples/standalone/stubs.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  arm-hpsp-linux-gnueabi-ld.bfd     -r -o examples/standalone/libstubs.o examples/standalone/stubs.o</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  arm-hpsp-linux-gnueabi-ld.bfd   -Ttext 0xc100000 -g -o examples/standalone/hello_world -e hello_world examples/standalone/hello_world.o examples/standalone/libstubs.o -L /home/hpsp/rock_space/uboot_code/crosstool-ng-1.24.0/.build/arm-hpsp-linux-gnueabi/buildtools/lib/gcc/arm-hpsp-linux-gnueabi/8.3.0 -lgcc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  arm-hpsp-linux-gnueabi-objcopy  -j .text -j .secure_text -j .secure_data -j .rodata -j .hash -j .data -j .got -j .got.plt -j .u_boot_list -j .rel.dyn -j .binman_sym_table -j .text_rest -j .dtb.init.rodata -O srec  examples/standalone/hello_world examples/standalone/hello_world.srec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  arm-hpsp-linux-gnueabi-objcopy  -j .text -j .secure_text -j .secure_data -j .rodata -j .hash -j .data -j .got -j .got.plt -j .u_boot_list -j .rel.dyn -j .binman_sym_table -j .text_rest -j .dtb.init.rodata -O binary  examples/standalone/hello_world examples/standalone/hello_world.bin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  arm-hpsp-linux-gnueabi-gcc -E -Wp,-MD,./.u-boot.lds.d -D__KERNEL__ -D__UBOOT__   -D__ARM__ -marm -mno-thumb-interwork  -mabi=aapcs-linux  -mword-relocations  -fno-pic  -mno-unaligned-access  -ffunction-sections -fdata-sections -fno-common -ffixed-r9  -msoft-float    -pipe  -march=armv7-a -D__LINUX_ARM_ARCH__=7 -mtune=generic-armv7-a -I./arch/arm/mach-exynos/include -Iinclude   -I./arch/arm/include -include ./include/linux/kconfig.h  -nostdinc -isystem /home/hpsp/rock_space/uboot_code/crosstool-ng-1.24.0/.build/arm-hpsp-linux-gnueabi/buildtools/lib/gcc/arm-hpsp-linux-gnueabi/8.3.0/include -ansi -include ./include/u-boot/u-boot.lds.h -DCPUDIR=arch/arm/cpu/armv7  -D__ASSEMBLY__ -x assembler-with-cpp -std=c99 -P -o u-boot.lds arch/arm/cpu/u-boot.lds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  arm-hpsp-linux-gnueabi-ld.bfd  -pie  --gc-sections -Bstatic  --no-dynamic-linker -Ttext 0x00000000 -o u-boot -T u-boot.lds arch/arm/cpu/armv7/start.o --start-group  arch/arm/cpu/built-in.o  arch/arm/cpu/armv7/built-in.o  arch/arm/lib/built-in.o  arch/arm/mach-exynos/built-in.o  board/samsung/common/built-in.o  board/samsung/origen/built-in.o  cmd/built-in.o  common/built-in.o  disk/built-in.o  drivers/built-in.o  drivers/dma/built-in.o  drivers/gpio/built-in.o  drivers/i2c/built-in.o  drivers/net/built-in.o  drivers/net/phy/built-in.o  drivers/power/built-in.o  drivers/power/battery/built-in.o  drivers/power/domain/built-in.o  drivers/power/fuel_gauge/built-in.o  drivers/power/mfd/built-in.o  drivers/power/pmic/built-in.o  drivers/power/regulator/built-in.o  drivers/serial/built-in.o  drivers/spi/built-in.o  drivers/usb/cdns3/built-in.o  drivers/usb/common/built-in.o  drivers/usb/dwc3/built-in.o  drivers/usb/emul/built-in.o  drivers/usb/eth/built-in.o  drivers/usb/host/built-in.o  drivers/usb/musb-new/built-in.o  drivers/usb/musb/built-in.o  drivers/usb/phy/built-in.o  drivers/usb/ulpi/built-in.o  env/built-in.o  fs/built-in.o  lib/built-in.o  net/built-in.o --end-group arch/arm/lib/eabi_compat.o  -L /home/hpsp/rock_space/uboot_code/crosstool-ng-1.24.0/.build/arm-hpsp-linux-gnueabi/buildtools/lib/gcc/arm-hpsp-linux-gnueabi/8.3.0 -lgcc -Map u-boot.map;  true</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  arm-hpsp-linux-gnueabi-objcopy --gap-fill=0xff  -j .text -j .secure_text -j .secure_data -j .rodata -j .hash -j .data -j .got -j .got.plt -j .u_boot_list -j .rel.dyn -j .binman_sym_table -j .text_rest -j .dtb.init.rodata -O srec u-boot u-boot.srec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  arm-hpsp-linux-gnueabi-objcopy --gap-fill=0xff  -j .text -j .secure_text -j .secure_data -j .rodata -j .hash -j .data -j .got -j .got.plt -j .u_boot_list -j .rel.dyn -j .binman_sym_table -j .text_rest -j .dtb.init.rodata -O binary   u-boot u-boot-nodtb.bin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  cp u-boot-nodtb.bin u-boot.bin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  arm-hpsp-linux-gnueabi-objdump -t u-boot &gt; u-boot.sym</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ./scripts/check-config.sh u-boot.cfg ./scripts/config_whitelist.txt .</t>
+  </si>
+  <si>
+    <t>make: Leaving directory '/home/hpsp/rock_space/uboot_code/hpsp_uboot/u-boot'</t>
+  </si>
+  <si>
     <t>﻿【参考 《uboot 编译顶层流程分析》--&gt; make menuconfig 的流程分析】</t>
   </si>
   <si>
@@ -5975,6 +7379,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>       当执行Make menuconfig后会由autoconfig工具（脚本）生成一个配置文件config.in文件，这个脚本会</t>
     </r>
     <r>
@@ -6080,6 +7491,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>      配置完成生成这个.config文件后，在编译的时候会层层调用到我们这一级的Makefile去编译，此时我们的</t>
     </r>
     <r>
@@ -6105,6 +7523,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>     通</t>
     </r>
     <r>
@@ -6148,6 +7573,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">     </t>
     </r>
     <r>
@@ -6177,6 +7609,7 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="11"/>
         <color rgb="FF9966FF"/>
         <rFont val="Calibri"/>
@@ -6187,6 +7620,7 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
@@ -6197,6 +7631,7 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="11"/>
         <color rgb="FF9966FF"/>
         <rFont val="Calibri"/>
@@ -6207,6 +7642,7 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
@@ -6221,6 +7657,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">       我想之所以能够在.c中全局的使用这个宏，就是因为生成的这个Autoconf.h文件，这个.h被很多文件层层包含成为一个全局的文件安。 </t>
     </r>
     <r>
@@ -6242,6 +7685,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF800000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>1.</t>
     </r>
     <r>
@@ -6320,6 +7771,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF800000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>2.</t>
     </r>
     <r>
@@ -6398,6 +7857,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF800000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>3.</t>
     </r>
     <r>
@@ -6572,6 +8039,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF800000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>bool: </t>
     </r>
     <r>
@@ -6587,6 +8062,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF800000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>tristate:</t>
     </r>
     <r>
@@ -6602,6 +8085,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF800000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>string: </t>
     </r>
     <r>
@@ -6628,6 +8119,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF800000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>hex: </t>
     </r>
     <r>
@@ -6664,6 +8163,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF800000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>int:   </t>
     </r>
     <r>
@@ -6693,6 +8200,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF800000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>default y:  </t>
     </r>
     <r>
@@ -6708,6 +8223,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF800000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>help:           </t>
     </r>
     <r>
@@ -6723,6 +8246,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF800000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>depends on:</t>
     </r>
     <r>
@@ -6749,6 +8280,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF800000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>select :      </t>
     </r>
     <r>
@@ -6775,6 +8314,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF800000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>choice:      </t>
     </r>
     <r>
@@ -6811,6 +8358,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF800000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>prompt:     </t>
     </r>
     <r>
@@ -6837,6 +8392,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF800000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>range :      </t>
     </r>
     <r>
@@ -6873,6 +8436,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF800000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>menuconfig:</t>
     </r>
     <r>
@@ -6924,6 +8495,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>接下来我们来试试如何给不同宏设置不同参数,以</t>
     </r>
     <r>
@@ -6950,6 +8528,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>设置MY_SYMBOL3~ MY_SYMBOL5</t>
     </r>
     <r>
@@ -7048,6 +8633,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>如上图所示,可以看到我们设置</t>
     </r>
     <r>
@@ -7098,6 +8690,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>其中上面的CONFIG_MY_SYMBOL2_MODULE宏是因为我们在Kconfig设置它为default m,所以</t>
     </r>
     <r>
@@ -7542,12 +9141,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="33">
+  <fonts count="37">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7559,6 +9158,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -7601,6 +9208,20 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF1D41D5"/>
@@ -7637,13 +9258,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -7652,11 +9266,41 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -7677,15 +9321,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7700,13 +9343,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -7714,15 +9350,16 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7730,28 +9367,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7765,14 +9380,28 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9966FF"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF9966FF"/>
       <name val="Calibri"/>
@@ -7787,9 +9416,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF1D41D5"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -7804,13 +9432,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7822,19 +9450,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7852,7 +9486,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7864,13 +9510,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7882,7 +9522,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7894,49 +9552,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7948,25 +9576,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7978,13 +9612,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8023,6 +9651,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -8037,17 +9680,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8057,15 +9705,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8084,168 +9723,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -8261,16 +9889,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -8279,22 +9904,34 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
@@ -8371,18 +10008,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/activeX/activeX1.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D124-5CC6-11CF-8D67-00AA00BDCE1D}" r:id="rId1" ax:persistence="persistStreamInit"/>
-</file>
-
-<file path=xl/activeX/activeX2.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D124-5CC6-11CF-8D67-00AA00BDCE1D}" r:id="rId1" ax:persistence="persistStreamInit"/>
-</file>
-
-<file path=xl/activeX/activeX3.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D124-5CC6-11CF-8D67-00AA00BDCE1D}" r:id="rId1" ax:persistence="persistStreamInit"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -36801,88 +38426,74 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>83</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>84</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp>
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="4103" name="" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s4103"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="2514600" y="16687800"/>
-              <a:ext cx="838200" cy="200025"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>140</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>141</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp>
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="4104" name="" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s4104"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="2514600" y="28232100"/>
-              <a:ext cx="838200" cy="200025"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4103" name="Rectangle 4102"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2514600" y="16687800"/>
+          <a:ext cx="838200" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4104" name="Rectangle 4103"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2514600" y="28232100"/>
+          <a:ext cx="838200" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>11</xdr:col>
@@ -36893,8 +38504,8 @@
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>145</xdr:row>
-      <xdr:rowOff>210185</xdr:rowOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -36906,7 +38517,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9296400" y="25850850"/>
-          <a:ext cx="6743700" cy="3591560"/>
+          <a:ext cx="6743700" cy="3590925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -37111,47 +38722,40 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>160</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>161</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp>
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="4105" name="" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s4105"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="2514600" y="32251650"/>
-              <a:ext cx="838200" cy="200025"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4105" name="Rectangle 4104"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2514600" y="32251650"/>
+          <a:ext cx="838200" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -41705,8 +43309,8 @@
   <sheetPr/>
   <dimension ref="B84:CA161"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="D95" sqref="D95"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="B115" sqref="B115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75"/>
@@ -41717,551 +43321,551 @@
   </cols>
   <sheetData>
     <row r="84" ht="23.25" spans="3:3">
-      <c r="C84" s="10"/>
+      <c r="C84" s="13"/>
     </row>
     <row r="85" ht="23.25" spans="3:3">
-      <c r="C85" s="10"/>
+      <c r="C85" s="13"/>
     </row>
     <row r="86" ht="23.25" spans="3:3">
-      <c r="C86" s="10"/>
+      <c r="C86" s="13"/>
     </row>
     <row r="119" spans="6:14">
-      <c r="F119" s="11"/>
-      <c r="G119" s="11"/>
-      <c r="H119" s="11"/>
-      <c r="I119" s="11"/>
-      <c r="J119" s="15"/>
-      <c r="K119" s="11"/>
-      <c r="L119" s="11"/>
-      <c r="M119" s="11"/>
-      <c r="N119" s="11"/>
+      <c r="F119" s="14"/>
+      <c r="G119" s="14"/>
+      <c r="H119" s="14"/>
+      <c r="I119" s="14"/>
+      <c r="J119" s="18"/>
+      <c r="K119" s="14"/>
+      <c r="L119" s="14"/>
+      <c r="M119" s="14"/>
+      <c r="N119" s="14"/>
     </row>
     <row r="120" spans="6:14">
-      <c r="F120" s="11"/>
-      <c r="G120" s="11"/>
-      <c r="H120" s="11"/>
-      <c r="I120" s="11"/>
-      <c r="J120" s="11"/>
-      <c r="K120" s="11"/>
-      <c r="L120" s="11"/>
-      <c r="M120" s="11"/>
-      <c r="N120" s="11"/>
+      <c r="F120" s="14"/>
+      <c r="G120" s="14"/>
+      <c r="H120" s="14"/>
+      <c r="I120" s="14"/>
+      <c r="J120" s="14"/>
+      <c r="K120" s="14"/>
+      <c r="L120" s="14"/>
+      <c r="M120" s="14"/>
+      <c r="N120" s="14"/>
     </row>
     <row r="121" spans="6:14">
-      <c r="F121" s="11"/>
-      <c r="G121" s="11"/>
-      <c r="H121" s="11"/>
-      <c r="I121" s="11"/>
-      <c r="J121" s="11"/>
-      <c r="K121" s="11"/>
-      <c r="L121" s="11"/>
-      <c r="M121" s="11"/>
-      <c r="N121" s="11"/>
+      <c r="F121" s="14"/>
+      <c r="G121" s="14"/>
+      <c r="H121" s="14"/>
+      <c r="I121" s="14"/>
+      <c r="J121" s="14"/>
+      <c r="K121" s="14"/>
+      <c r="L121" s="14"/>
+      <c r="M121" s="14"/>
+      <c r="N121" s="14"/>
     </row>
     <row r="122" spans="6:14">
-      <c r="F122" s="11"/>
-      <c r="G122" s="11"/>
-      <c r="H122" s="11"/>
-      <c r="I122" s="11"/>
-      <c r="J122" s="11"/>
-      <c r="K122" s="11"/>
-      <c r="L122" s="11"/>
-      <c r="M122" s="11"/>
-      <c r="N122" s="11"/>
+      <c r="F122" s="14"/>
+      <c r="G122" s="14"/>
+      <c r="H122" s="14"/>
+      <c r="I122" s="14"/>
+      <c r="J122" s="14"/>
+      <c r="K122" s="14"/>
+      <c r="L122" s="14"/>
+      <c r="M122" s="14"/>
+      <c r="N122" s="14"/>
     </row>
     <row r="123" spans="6:14">
-      <c r="F123" s="11"/>
-      <c r="G123" s="11"/>
-      <c r="H123" s="13"/>
-      <c r="I123" s="11"/>
-      <c r="J123" s="11"/>
-      <c r="K123" s="11"/>
-      <c r="L123" s="11"/>
-      <c r="M123" s="11"/>
-      <c r="N123" s="11"/>
+      <c r="F123" s="14"/>
+      <c r="G123" s="14"/>
+      <c r="H123" s="16"/>
+      <c r="I123" s="14"/>
+      <c r="J123" s="14"/>
+      <c r="K123" s="14"/>
+      <c r="L123" s="14"/>
+      <c r="M123" s="14"/>
+      <c r="N123" s="14"/>
     </row>
     <row r="124" spans="6:14">
-      <c r="F124" s="11"/>
-      <c r="G124" s="11"/>
-      <c r="H124" s="11"/>
-      <c r="I124" s="11"/>
-      <c r="J124" s="11"/>
-      <c r="K124" s="11"/>
-      <c r="L124" s="11"/>
-      <c r="M124" s="11"/>
-      <c r="N124" s="11"/>
+      <c r="F124" s="14"/>
+      <c r="G124" s="14"/>
+      <c r="H124" s="14"/>
+      <c r="I124" s="14"/>
+      <c r="J124" s="14"/>
+      <c r="K124" s="14"/>
+      <c r="L124" s="14"/>
+      <c r="M124" s="14"/>
+      <c r="N124" s="14"/>
     </row>
     <row r="125" spans="6:14">
-      <c r="F125" s="14"/>
-      <c r="G125" s="14"/>
-      <c r="H125" s="11"/>
-      <c r="I125" s="11"/>
-      <c r="J125" s="11"/>
-      <c r="K125" s="11"/>
-      <c r="L125" s="11"/>
-      <c r="M125" s="11"/>
-      <c r="N125" s="11"/>
+      <c r="F125" s="17"/>
+      <c r="G125" s="17"/>
+      <c r="H125" s="14"/>
+      <c r="I125" s="14"/>
+      <c r="J125" s="14"/>
+      <c r="K125" s="14"/>
+      <c r="L125" s="14"/>
+      <c r="M125" s="14"/>
+      <c r="N125" s="14"/>
     </row>
     <row r="126" spans="2:14">
-      <c r="B126" s="11"/>
-      <c r="C126" s="11"/>
-      <c r="D126" s="12"/>
-      <c r="E126" s="11"/>
-      <c r="F126" s="14"/>
-      <c r="G126" s="14"/>
-      <c r="H126" s="11"/>
-      <c r="I126" s="11"/>
-      <c r="J126" s="11"/>
-      <c r="K126" s="11"/>
-      <c r="L126" s="11"/>
-      <c r="M126" s="11"/>
-      <c r="N126" s="11"/>
+      <c r="B126" s="14"/>
+      <c r="C126" s="14"/>
+      <c r="D126" s="15"/>
+      <c r="E126" s="14"/>
+      <c r="F126" s="17"/>
+      <c r="G126" s="17"/>
+      <c r="H126" s="14"/>
+      <c r="I126" s="14"/>
+      <c r="J126" s="14"/>
+      <c r="K126" s="14"/>
+      <c r="L126" s="14"/>
+      <c r="M126" s="14"/>
+      <c r="N126" s="14"/>
     </row>
     <row r="127" spans="2:14">
-      <c r="B127" s="11"/>
-      <c r="C127" s="11"/>
-      <c r="D127" s="12"/>
-      <c r="E127" s="11"/>
-      <c r="F127" s="11"/>
-      <c r="G127" s="11"/>
-      <c r="H127" s="11"/>
-      <c r="I127" s="11"/>
-      <c r="J127" s="11"/>
-      <c r="K127" s="11"/>
-      <c r="L127" s="11"/>
-      <c r="M127" s="11"/>
-      <c r="N127" s="11"/>
+      <c r="B127" s="14"/>
+      <c r="C127" s="14"/>
+      <c r="D127" s="15"/>
+      <c r="E127" s="14"/>
+      <c r="F127" s="14"/>
+      <c r="G127" s="14"/>
+      <c r="H127" s="14"/>
+      <c r="I127" s="14"/>
+      <c r="J127" s="14"/>
+      <c r="K127" s="14"/>
+      <c r="L127" s="14"/>
+      <c r="M127" s="14"/>
+      <c r="N127" s="14"/>
     </row>
     <row r="128" spans="2:14">
-      <c r="B128" s="11"/>
-      <c r="C128" s="11"/>
-      <c r="D128" s="12"/>
-      <c r="E128" s="11"/>
-      <c r="F128" s="11"/>
-      <c r="G128" s="11"/>
-      <c r="H128" s="11"/>
-      <c r="I128" s="11"/>
-      <c r="J128" s="11"/>
-      <c r="K128" s="11"/>
-      <c r="L128" s="11"/>
-      <c r="M128" s="11"/>
-      <c r="N128" s="11"/>
+      <c r="B128" s="14"/>
+      <c r="C128" s="14"/>
+      <c r="D128" s="15"/>
+      <c r="E128" s="14"/>
+      <c r="F128" s="14"/>
+      <c r="G128" s="14"/>
+      <c r="H128" s="14"/>
+      <c r="I128" s="14"/>
+      <c r="J128" s="14"/>
+      <c r="K128" s="14"/>
+      <c r="L128" s="14"/>
+      <c r="M128" s="14"/>
+      <c r="N128" s="14"/>
     </row>
     <row r="129" spans="2:14">
-      <c r="B129" s="11"/>
-      <c r="C129" s="11"/>
-      <c r="D129" s="12"/>
-      <c r="E129" s="11"/>
-      <c r="F129" s="11"/>
-      <c r="G129" s="11"/>
-      <c r="H129" s="11"/>
-      <c r="I129" s="11"/>
-      <c r="J129" s="11"/>
-      <c r="K129" s="11"/>
-      <c r="L129" s="11"/>
-      <c r="M129" s="11"/>
-      <c r="N129" s="11"/>
+      <c r="B129" s="14"/>
+      <c r="C129" s="14"/>
+      <c r="D129" s="15"/>
+      <c r="E129" s="14"/>
+      <c r="F129" s="14"/>
+      <c r="G129" s="14"/>
+      <c r="H129" s="14"/>
+      <c r="I129" s="14"/>
+      <c r="J129" s="14"/>
+      <c r="K129" s="14"/>
+      <c r="L129" s="14"/>
+      <c r="M129" s="14"/>
+      <c r="N129" s="14"/>
     </row>
     <row r="130" spans="2:14">
-      <c r="B130" s="11"/>
-      <c r="C130" s="11"/>
-      <c r="D130" s="12"/>
-      <c r="E130" s="11"/>
-      <c r="F130" s="11"/>
-      <c r="G130" s="11"/>
-      <c r="H130" s="11"/>
-      <c r="I130" s="11"/>
-      <c r="J130" s="11"/>
-      <c r="K130" s="11"/>
-      <c r="L130" s="11"/>
-      <c r="M130" s="11"/>
-      <c r="N130" s="11"/>
+      <c r="B130" s="14"/>
+      <c r="C130" s="14"/>
+      <c r="D130" s="15"/>
+      <c r="E130" s="14"/>
+      <c r="F130" s="14"/>
+      <c r="G130" s="14"/>
+      <c r="H130" s="14"/>
+      <c r="I130" s="14"/>
+      <c r="J130" s="14"/>
+      <c r="K130" s="14"/>
+      <c r="L130" s="14"/>
+      <c r="M130" s="14"/>
+      <c r="N130" s="14"/>
     </row>
     <row r="131" spans="6:14">
-      <c r="F131" s="11"/>
-      <c r="G131" s="11"/>
-      <c r="H131" s="11"/>
-      <c r="I131" s="11"/>
-      <c r="J131" s="11"/>
-      <c r="K131" s="11"/>
-      <c r="L131" s="11"/>
-      <c r="M131" s="11"/>
-      <c r="N131" s="11"/>
+      <c r="F131" s="14"/>
+      <c r="G131" s="14"/>
+      <c r="H131" s="14"/>
+      <c r="I131" s="14"/>
+      <c r="J131" s="14"/>
+      <c r="K131" s="14"/>
+      <c r="L131" s="14"/>
+      <c r="M131" s="14"/>
+      <c r="N131" s="14"/>
     </row>
     <row r="132" spans="6:79">
-      <c r="F132" s="14"/>
-      <c r="G132" s="11"/>
-      <c r="H132" s="11"/>
-      <c r="I132" s="11"/>
-      <c r="J132" s="11"/>
-      <c r="K132" s="11"/>
-      <c r="L132" s="11"/>
-      <c r="M132" s="11"/>
-      <c r="N132" s="11"/>
+      <c r="F132" s="17"/>
+      <c r="G132" s="14"/>
+      <c r="H132" s="14"/>
+      <c r="I132" s="14"/>
+      <c r="J132" s="14"/>
+      <c r="K132" s="14"/>
+      <c r="L132" s="14"/>
+      <c r="M132" s="14"/>
+      <c r="N132" s="14"/>
       <c r="CA132" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="133" spans="6:14">
-      <c r="F133" s="11"/>
-      <c r="G133" s="11"/>
-      <c r="H133" s="11"/>
-      <c r="I133" s="11"/>
-      <c r="J133" s="11"/>
-      <c r="K133" s="11"/>
-      <c r="L133" s="11"/>
-      <c r="M133" s="11"/>
-      <c r="N133" s="11"/>
+      <c r="F133" s="14"/>
+      <c r="G133" s="14"/>
+      <c r="H133" s="14"/>
+      <c r="I133" s="14"/>
+      <c r="J133" s="14"/>
+      <c r="K133" s="14"/>
+      <c r="L133" s="14"/>
+      <c r="M133" s="14"/>
+      <c r="N133" s="14"/>
     </row>
     <row r="134" spans="6:14">
-      <c r="F134" s="11"/>
-      <c r="G134" s="11"/>
-      <c r="H134" s="11"/>
-      <c r="I134" s="11"/>
-      <c r="J134" s="11"/>
-      <c r="K134" s="11"/>
-      <c r="L134" s="11"/>
-      <c r="M134" s="11"/>
-      <c r="N134" s="11"/>
+      <c r="F134" s="14"/>
+      <c r="G134" s="14"/>
+      <c r="H134" s="14"/>
+      <c r="I134" s="14"/>
+      <c r="J134" s="14"/>
+      <c r="K134" s="14"/>
+      <c r="L134" s="14"/>
+      <c r="M134" s="14"/>
+      <c r="N134" s="14"/>
     </row>
     <row r="135" spans="6:14">
-      <c r="F135" s="11"/>
-      <c r="G135" s="11"/>
-      <c r="H135" s="11"/>
-      <c r="I135" s="11"/>
-      <c r="J135" s="11"/>
-      <c r="K135" s="11"/>
-      <c r="L135" s="11"/>
-      <c r="M135" s="11"/>
-      <c r="N135" s="11"/>
+      <c r="F135" s="14"/>
+      <c r="G135" s="14"/>
+      <c r="H135" s="14"/>
+      <c r="I135" s="14"/>
+      <c r="J135" s="14"/>
+      <c r="K135" s="14"/>
+      <c r="L135" s="14"/>
+      <c r="M135" s="14"/>
+      <c r="N135" s="14"/>
     </row>
     <row r="136" spans="6:21">
-      <c r="F136" s="11"/>
-      <c r="G136" s="11"/>
-      <c r="H136" s="11"/>
-      <c r="I136" s="11"/>
-      <c r="J136" s="11"/>
-      <c r="K136" s="11"/>
-      <c r="L136" s="11"/>
-      <c r="M136" s="11"/>
-      <c r="N136" s="11"/>
-      <c r="O136" s="13"/>
-      <c r="P136" s="11"/>
-      <c r="Q136" s="11"/>
-      <c r="R136" s="11"/>
-      <c r="S136" s="11"/>
-      <c r="T136" s="11"/>
-      <c r="U136" s="11"/>
+      <c r="F136" s="14"/>
+      <c r="G136" s="14"/>
+      <c r="H136" s="14"/>
+      <c r="I136" s="14"/>
+      <c r="J136" s="14"/>
+      <c r="K136" s="14"/>
+      <c r="L136" s="14"/>
+      <c r="M136" s="14"/>
+      <c r="N136" s="14"/>
+      <c r="O136" s="16"/>
+      <c r="P136" s="14"/>
+      <c r="Q136" s="14"/>
+      <c r="R136" s="14"/>
+      <c r="S136" s="14"/>
+      <c r="T136" s="14"/>
+      <c r="U136" s="14"/>
     </row>
     <row r="137" spans="6:21">
-      <c r="F137" s="11"/>
-      <c r="G137" s="11"/>
-      <c r="H137" s="11"/>
-      <c r="I137" s="11"/>
-      <c r="J137" s="11"/>
-      <c r="K137" s="11"/>
-      <c r="L137" s="11"/>
-      <c r="M137" s="11"/>
-      <c r="N137" s="11"/>
-      <c r="O137" s="11"/>
-      <c r="P137" s="11"/>
-      <c r="Q137" s="11"/>
-      <c r="R137" s="11"/>
-      <c r="S137" s="11"/>
-      <c r="T137" s="11"/>
-      <c r="U137" s="11"/>
+      <c r="F137" s="14"/>
+      <c r="G137" s="14"/>
+      <c r="H137" s="14"/>
+      <c r="I137" s="14"/>
+      <c r="J137" s="14"/>
+      <c r="K137" s="14"/>
+      <c r="L137" s="14"/>
+      <c r="M137" s="14"/>
+      <c r="N137" s="14"/>
+      <c r="O137" s="14"/>
+      <c r="P137" s="14"/>
+      <c r="Q137" s="14"/>
+      <c r="R137" s="14"/>
+      <c r="S137" s="14"/>
+      <c r="T137" s="14"/>
+      <c r="U137" s="14"/>
     </row>
     <row r="138" spans="6:21">
-      <c r="F138" s="16"/>
-      <c r="G138" s="16"/>
-      <c r="H138" s="16"/>
-      <c r="I138" s="16"/>
-      <c r="J138" s="11"/>
-      <c r="K138" s="11"/>
-      <c r="L138" s="11"/>
-      <c r="M138" s="11"/>
-      <c r="N138" s="14"/>
-      <c r="O138" s="11"/>
-      <c r="P138" s="11"/>
-      <c r="Q138" s="11"/>
-      <c r="R138" s="11"/>
-      <c r="S138" s="11"/>
-      <c r="T138" s="11"/>
-      <c r="U138" s="11"/>
+      <c r="F138" s="19"/>
+      <c r="G138" s="19"/>
+      <c r="H138" s="19"/>
+      <c r="I138" s="19"/>
+      <c r="J138" s="14"/>
+      <c r="K138" s="14"/>
+      <c r="L138" s="14"/>
+      <c r="M138" s="14"/>
+      <c r="N138" s="17"/>
+      <c r="O138" s="14"/>
+      <c r="P138" s="14"/>
+      <c r="Q138" s="14"/>
+      <c r="R138" s="14"/>
+      <c r="S138" s="14"/>
+      <c r="T138" s="14"/>
+      <c r="U138" s="14"/>
     </row>
     <row r="139" spans="6:21">
-      <c r="F139" s="16"/>
-      <c r="G139" s="16"/>
-      <c r="H139" s="16"/>
-      <c r="I139" s="16"/>
-      <c r="J139" s="11"/>
-      <c r="K139" s="11"/>
-      <c r="L139" s="11"/>
-      <c r="M139" s="11"/>
-      <c r="N139" s="14"/>
-      <c r="O139" s="11"/>
-      <c r="P139" s="11"/>
-      <c r="Q139" s="11"/>
-      <c r="R139" s="11"/>
-      <c r="S139" s="11"/>
-      <c r="T139" s="11"/>
-      <c r="U139" s="11"/>
+      <c r="F139" s="19"/>
+      <c r="G139" s="19"/>
+      <c r="H139" s="19"/>
+      <c r="I139" s="19"/>
+      <c r="J139" s="14"/>
+      <c r="K139" s="14"/>
+      <c r="L139" s="14"/>
+      <c r="M139" s="14"/>
+      <c r="N139" s="17"/>
+      <c r="O139" s="14"/>
+      <c r="P139" s="14"/>
+      <c r="Q139" s="14"/>
+      <c r="R139" s="14"/>
+      <c r="S139" s="14"/>
+      <c r="T139" s="14"/>
+      <c r="U139" s="14"/>
     </row>
     <row r="140" spans="6:21">
-      <c r="F140" s="16"/>
-      <c r="G140" s="16"/>
-      <c r="H140" s="16"/>
-      <c r="I140" s="16"/>
-      <c r="J140" s="11"/>
-      <c r="K140" s="11"/>
-      <c r="L140" s="11"/>
-      <c r="M140" s="11"/>
-      <c r="N140" s="14"/>
-      <c r="O140" s="11"/>
-      <c r="P140" s="11"/>
-      <c r="Q140" s="11"/>
-      <c r="R140" s="11"/>
-      <c r="S140" s="11"/>
-      <c r="T140" s="11"/>
-      <c r="U140" s="11"/>
+      <c r="F140" s="19"/>
+      <c r="G140" s="19"/>
+      <c r="H140" s="19"/>
+      <c r="I140" s="19"/>
+      <c r="J140" s="14"/>
+      <c r="K140" s="14"/>
+      <c r="L140" s="14"/>
+      <c r="M140" s="14"/>
+      <c r="N140" s="17"/>
+      <c r="O140" s="14"/>
+      <c r="P140" s="14"/>
+      <c r="Q140" s="14"/>
+      <c r="R140" s="14"/>
+      <c r="S140" s="14"/>
+      <c r="T140" s="14"/>
+      <c r="U140" s="14"/>
     </row>
     <row r="141" spans="6:21">
-      <c r="F141" s="16"/>
-      <c r="G141" s="16"/>
-      <c r="H141" s="16"/>
-      <c r="I141" s="16"/>
-      <c r="J141" s="11"/>
-      <c r="K141" s="11"/>
-      <c r="L141" s="11"/>
-      <c r="M141" s="11"/>
-      <c r="N141" s="14"/>
-      <c r="O141" s="11"/>
-      <c r="P141" s="11"/>
-      <c r="Q141" s="11"/>
-      <c r="R141" s="11"/>
-      <c r="S141" s="11"/>
-      <c r="T141" s="11"/>
-      <c r="U141" s="11"/>
+      <c r="F141" s="19"/>
+      <c r="G141" s="19"/>
+      <c r="H141" s="19"/>
+      <c r="I141" s="19"/>
+      <c r="J141" s="14"/>
+      <c r="K141" s="14"/>
+      <c r="L141" s="14"/>
+      <c r="M141" s="14"/>
+      <c r="N141" s="17"/>
+      <c r="O141" s="14"/>
+      <c r="P141" s="14"/>
+      <c r="Q141" s="14"/>
+      <c r="R141" s="14"/>
+      <c r="S141" s="14"/>
+      <c r="T141" s="14"/>
+      <c r="U141" s="14"/>
     </row>
     <row r="142" spans="6:21">
-      <c r="F142" s="16"/>
-      <c r="G142" s="16"/>
-      <c r="H142" s="16"/>
-      <c r="I142" s="16"/>
-      <c r="J142" s="11"/>
-      <c r="K142" s="11"/>
-      <c r="L142" s="11"/>
-      <c r="M142" s="11"/>
-      <c r="N142" s="14"/>
-      <c r="O142" s="11"/>
-      <c r="P142" s="11"/>
-      <c r="Q142" s="11"/>
-      <c r="R142" s="11"/>
-      <c r="S142" s="11"/>
-      <c r="T142" s="11"/>
-      <c r="U142" s="11"/>
+      <c r="F142" s="19"/>
+      <c r="G142" s="19"/>
+      <c r="H142" s="19"/>
+      <c r="I142" s="19"/>
+      <c r="J142" s="14"/>
+      <c r="K142" s="14"/>
+      <c r="L142" s="14"/>
+      <c r="M142" s="14"/>
+      <c r="N142" s="17"/>
+      <c r="O142" s="14"/>
+      <c r="P142" s="14"/>
+      <c r="Q142" s="14"/>
+      <c r="R142" s="14"/>
+      <c r="S142" s="14"/>
+      <c r="T142" s="14"/>
+      <c r="U142" s="14"/>
     </row>
     <row r="143" spans="6:51">
-      <c r="F143" s="16"/>
-      <c r="G143" s="16"/>
-      <c r="H143" s="16"/>
-      <c r="I143" s="16"/>
-      <c r="J143" s="11"/>
-      <c r="K143" s="11"/>
-      <c r="L143" s="11"/>
-      <c r="M143" s="11"/>
-      <c r="N143" s="14"/>
-      <c r="O143" s="11"/>
-      <c r="P143" s="11"/>
-      <c r="Q143" s="11"/>
-      <c r="R143" s="11"/>
-      <c r="S143" s="11"/>
-      <c r="T143" s="11"/>
-      <c r="U143" s="11"/>
+      <c r="F143" s="19"/>
+      <c r="G143" s="19"/>
+      <c r="H143" s="19"/>
+      <c r="I143" s="19"/>
+      <c r="J143" s="14"/>
+      <c r="K143" s="14"/>
+      <c r="L143" s="14"/>
+      <c r="M143" s="14"/>
+      <c r="N143" s="17"/>
+      <c r="O143" s="14"/>
+      <c r="P143" s="14"/>
+      <c r="Q143" s="14"/>
+      <c r="R143" s="14"/>
+      <c r="S143" s="14"/>
+      <c r="T143" s="14"/>
+      <c r="U143" s="14"/>
       <c r="AY143" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="144" spans="6:21">
-      <c r="F144" s="16"/>
-      <c r="G144" s="16"/>
-      <c r="H144" s="16"/>
-      <c r="I144" s="16"/>
-      <c r="J144" s="11"/>
-      <c r="K144" s="11"/>
-      <c r="L144" s="11"/>
-      <c r="M144" s="11"/>
-      <c r="N144" s="14"/>
-      <c r="O144" s="11"/>
-      <c r="P144" s="11"/>
-      <c r="Q144" s="11"/>
-      <c r="R144" s="11"/>
-      <c r="S144" s="11"/>
-      <c r="T144" s="11"/>
-      <c r="U144" s="11"/>
+      <c r="F144" s="19"/>
+      <c r="G144" s="19"/>
+      <c r="H144" s="19"/>
+      <c r="I144" s="19"/>
+      <c r="J144" s="14"/>
+      <c r="K144" s="14"/>
+      <c r="L144" s="14"/>
+      <c r="M144" s="14"/>
+      <c r="N144" s="17"/>
+      <c r="O144" s="14"/>
+      <c r="P144" s="14"/>
+      <c r="Q144" s="14"/>
+      <c r="R144" s="14"/>
+      <c r="S144" s="14"/>
+      <c r="T144" s="14"/>
+      <c r="U144" s="14"/>
     </row>
     <row r="145" spans="6:21">
-      <c r="F145" s="16"/>
-      <c r="G145" s="16"/>
-      <c r="H145" s="16"/>
-      <c r="I145" s="16"/>
-      <c r="J145" s="11"/>
-      <c r="K145" s="11"/>
-      <c r="L145" s="11"/>
-      <c r="M145" s="11"/>
-      <c r="N145" s="14"/>
-      <c r="O145" s="11"/>
-      <c r="P145" s="11"/>
-      <c r="Q145" s="11"/>
-      <c r="R145" s="11"/>
-      <c r="S145" s="11"/>
-      <c r="T145" s="11"/>
-      <c r="U145" s="11"/>
+      <c r="F145" s="19"/>
+      <c r="G145" s="19"/>
+      <c r="H145" s="19"/>
+      <c r="I145" s="19"/>
+      <c r="J145" s="14"/>
+      <c r="K145" s="14"/>
+      <c r="L145" s="14"/>
+      <c r="M145" s="14"/>
+      <c r="N145" s="17"/>
+      <c r="O145" s="14"/>
+      <c r="P145" s="14"/>
+      <c r="Q145" s="14"/>
+      <c r="R145" s="14"/>
+      <c r="S145" s="14"/>
+      <c r="T145" s="14"/>
+      <c r="U145" s="14"/>
     </row>
     <row r="146" spans="6:21">
-      <c r="F146" s="16"/>
-      <c r="G146" s="16"/>
-      <c r="H146" s="16"/>
-      <c r="I146" s="16"/>
-      <c r="J146" s="11"/>
-      <c r="K146" s="11"/>
-      <c r="L146" s="11"/>
-      <c r="M146" s="11"/>
-      <c r="N146" s="14"/>
-      <c r="O146" s="11"/>
-      <c r="P146" s="11"/>
-      <c r="Q146" s="11"/>
-      <c r="R146" s="11"/>
-      <c r="S146" s="11"/>
-      <c r="T146" s="11"/>
-      <c r="U146" s="11"/>
+      <c r="F146" s="19"/>
+      <c r="G146" s="19"/>
+      <c r="H146" s="19"/>
+      <c r="I146" s="19"/>
+      <c r="J146" s="14"/>
+      <c r="K146" s="14"/>
+      <c r="L146" s="14"/>
+      <c r="M146" s="14"/>
+      <c r="N146" s="17"/>
+      <c r="O146" s="14"/>
+      <c r="P146" s="14"/>
+      <c r="Q146" s="14"/>
+      <c r="R146" s="14"/>
+      <c r="S146" s="14"/>
+      <c r="T146" s="14"/>
+      <c r="U146" s="14"/>
     </row>
     <row r="147" spans="6:21">
-      <c r="F147" s="16"/>
-      <c r="G147" s="16"/>
-      <c r="H147" s="16"/>
-      <c r="I147" s="16"/>
-      <c r="J147" s="11"/>
-      <c r="K147" s="11"/>
-      <c r="L147" s="11"/>
-      <c r="M147" s="11"/>
-      <c r="N147" s="14"/>
-      <c r="O147" s="11"/>
-      <c r="P147" s="11"/>
-      <c r="Q147" s="11"/>
-      <c r="R147" s="11"/>
-      <c r="S147" s="11"/>
-      <c r="T147" s="11"/>
-      <c r="U147" s="11"/>
+      <c r="F147" s="19"/>
+      <c r="G147" s="19"/>
+      <c r="H147" s="19"/>
+      <c r="I147" s="19"/>
+      <c r="J147" s="14"/>
+      <c r="K147" s="14"/>
+      <c r="L147" s="14"/>
+      <c r="M147" s="14"/>
+      <c r="N147" s="17"/>
+      <c r="O147" s="14"/>
+      <c r="P147" s="14"/>
+      <c r="Q147" s="14"/>
+      <c r="R147" s="14"/>
+      <c r="S147" s="14"/>
+      <c r="T147" s="14"/>
+      <c r="U147" s="14"/>
     </row>
     <row r="148" spans="6:21">
-      <c r="F148" s="14"/>
-      <c r="G148" s="11"/>
-      <c r="H148" s="11"/>
-      <c r="I148" s="11"/>
-      <c r="J148" s="11"/>
-      <c r="K148" s="11"/>
-      <c r="L148" s="11"/>
-      <c r="M148" s="11"/>
-      <c r="N148" s="14"/>
-      <c r="O148" s="11"/>
-      <c r="P148" s="11"/>
-      <c r="Q148" s="11"/>
-      <c r="R148" s="11"/>
-      <c r="S148" s="11"/>
-      <c r="T148" s="11"/>
-      <c r="U148" s="11"/>
+      <c r="F148" s="17"/>
+      <c r="G148" s="14"/>
+      <c r="H148" s="14"/>
+      <c r="I148" s="14"/>
+      <c r="J148" s="14"/>
+      <c r="K148" s="14"/>
+      <c r="L148" s="14"/>
+      <c r="M148" s="14"/>
+      <c r="N148" s="17"/>
+      <c r="O148" s="14"/>
+      <c r="P148" s="14"/>
+      <c r="Q148" s="14"/>
+      <c r="R148" s="14"/>
+      <c r="S148" s="14"/>
+      <c r="T148" s="14"/>
+      <c r="U148" s="14"/>
     </row>
     <row r="149" spans="6:21">
-      <c r="F149" s="14"/>
-      <c r="G149" s="11"/>
-      <c r="H149" s="11"/>
-      <c r="I149" s="11"/>
-      <c r="J149" s="11"/>
-      <c r="K149" s="11"/>
-      <c r="L149" s="11"/>
-      <c r="M149" s="11"/>
-      <c r="N149" s="14"/>
-      <c r="O149" s="11"/>
-      <c r="P149" s="11"/>
-      <c r="Q149" s="11"/>
-      <c r="R149" s="11"/>
-      <c r="S149" s="11"/>
-      <c r="T149" s="11"/>
-      <c r="U149" s="11"/>
+      <c r="F149" s="17"/>
+      <c r="G149" s="14"/>
+      <c r="H149" s="14"/>
+      <c r="I149" s="14"/>
+      <c r="J149" s="14"/>
+      <c r="K149" s="14"/>
+      <c r="L149" s="14"/>
+      <c r="M149" s="14"/>
+      <c r="N149" s="17"/>
+      <c r="O149" s="14"/>
+      <c r="P149" s="14"/>
+      <c r="Q149" s="14"/>
+      <c r="R149" s="14"/>
+      <c r="S149" s="14"/>
+      <c r="T149" s="14"/>
+      <c r="U149" s="14"/>
     </row>
     <row r="150" spans="6:21">
-      <c r="F150" s="11"/>
-      <c r="G150" s="11"/>
-      <c r="H150" s="11"/>
-      <c r="I150" s="11"/>
-      <c r="J150" s="11"/>
-      <c r="K150" s="11"/>
-      <c r="L150" s="11"/>
-      <c r="M150" s="11"/>
-      <c r="N150" s="11"/>
-      <c r="O150" s="11"/>
-      <c r="P150" s="11"/>
-      <c r="Q150" s="11"/>
-      <c r="R150" s="11"/>
-      <c r="S150" s="11"/>
-      <c r="T150" s="11"/>
-      <c r="U150" s="11"/>
+      <c r="F150" s="14"/>
+      <c r="G150" s="14"/>
+      <c r="H150" s="14"/>
+      <c r="I150" s="14"/>
+      <c r="J150" s="14"/>
+      <c r="K150" s="14"/>
+      <c r="L150" s="14"/>
+      <c r="M150" s="14"/>
+      <c r="N150" s="14"/>
+      <c r="O150" s="14"/>
+      <c r="P150" s="14"/>
+      <c r="Q150" s="14"/>
+      <c r="R150" s="14"/>
+      <c r="S150" s="14"/>
+      <c r="T150" s="14"/>
+      <c r="U150" s="14"/>
     </row>
     <row r="151" spans="6:14">
-      <c r="F151" s="11"/>
-      <c r="G151" s="11"/>
-      <c r="H151" s="11"/>
-      <c r="I151" s="11"/>
-      <c r="J151" s="11"/>
-      <c r="K151" s="11"/>
-      <c r="L151" s="11"/>
-      <c r="M151" s="11"/>
-      <c r="N151" s="11"/>
+      <c r="F151" s="14"/>
+      <c r="G151" s="14"/>
+      <c r="H151" s="14"/>
+      <c r="I151" s="14"/>
+      <c r="J151" s="14"/>
+      <c r="K151" s="14"/>
+      <c r="L151" s="14"/>
+      <c r="M151" s="14"/>
+      <c r="N151" s="14"/>
     </row>
     <row r="152" spans="6:14">
-      <c r="F152" s="11"/>
-      <c r="G152" s="11"/>
-      <c r="H152" s="11"/>
-      <c r="I152" s="11"/>
-      <c r="J152" s="11"/>
-      <c r="K152" s="11"/>
-      <c r="L152" s="11"/>
-      <c r="M152" s="11"/>
-      <c r="N152" s="11"/>
+      <c r="F152" s="14"/>
+      <c r="G152" s="14"/>
+      <c r="H152" s="14"/>
+      <c r="I152" s="14"/>
+      <c r="J152" s="14"/>
+      <c r="K152" s="14"/>
+      <c r="L152" s="14"/>
+      <c r="M152" s="14"/>
+      <c r="N152" s="14"/>
     </row>
     <row r="153" spans="6:14">
-      <c r="F153" s="17"/>
-      <c r="G153" s="11"/>
-      <c r="H153" s="11"/>
-      <c r="I153" s="11"/>
-      <c r="J153" s="11"/>
-      <c r="K153" s="11"/>
-      <c r="L153" s="11"/>
-      <c r="M153" s="11"/>
-      <c r="N153" s="11"/>
+      <c r="F153" s="20"/>
+      <c r="G153" s="14"/>
+      <c r="H153" s="14"/>
+      <c r="I153" s="14"/>
+      <c r="J153" s="14"/>
+      <c r="K153" s="14"/>
+      <c r="L153" s="14"/>
+      <c r="M153" s="14"/>
+      <c r="N153" s="14"/>
     </row>
     <row r="154" spans="6:14">
-      <c r="F154" s="11"/>
-      <c r="G154" s="11"/>
-      <c r="H154" s="11"/>
-      <c r="I154" s="11"/>
-      <c r="J154" s="11"/>
-      <c r="K154" s="11"/>
-      <c r="L154" s="11"/>
-      <c r="M154" s="11"/>
-      <c r="N154" s="11"/>
+      <c r="F154" s="14"/>
+      <c r="G154" s="14"/>
+      <c r="H154" s="14"/>
+      <c r="I154" s="14"/>
+      <c r="J154" s="14"/>
+      <c r="K154" s="14"/>
+      <c r="L154" s="14"/>
+      <c r="M154" s="14"/>
+      <c r="N154" s="14"/>
     </row>
     <row r="155" spans="6:14">
-      <c r="F155" s="11"/>
-      <c r="G155" s="11"/>
-      <c r="H155" s="11"/>
-      <c r="I155" s="11"/>
-      <c r="J155" s="11"/>
-      <c r="K155" s="11"/>
-      <c r="L155" s="11"/>
-      <c r="M155" s="11"/>
-      <c r="N155" s="11"/>
+      <c r="F155" s="14"/>
+      <c r="G155" s="14"/>
+      <c r="H155" s="14"/>
+      <c r="I155" s="14"/>
+      <c r="J155" s="14"/>
+      <c r="K155" s="14"/>
+      <c r="L155" s="14"/>
+      <c r="M155" s="14"/>
+      <c r="N155" s="14"/>
     </row>
     <row r="161" spans="6:6">
       <c r="F161" s="1"/>
@@ -42278,7 +43882,7 @@
   <sheetPr/>
   <dimension ref="D1:L2285"/>
   <sheetViews>
-    <sheetView topLeftCell="A247" workbookViewId="0">
+    <sheetView topLeftCell="A251" workbookViewId="0">
       <selection activeCell="B266" sqref="B266"/>
     </sheetView>
   </sheetViews>
@@ -42683,7 +44287,7 @@
       </c>
     </row>
     <row r="88" ht="16.5" spans="4:4">
-      <c r="D88" s="8" t="s">
+      <c r="D88" s="11" t="s">
         <v>73</v>
       </c>
     </row>
@@ -43149,7 +44753,7 @@
       </c>
     </row>
     <row r="200" spans="4:4">
-      <c r="D200" s="8" t="s">
+      <c r="D200" s="11" t="s">
         <v>152</v>
       </c>
     </row>
@@ -43449,7 +45053,7 @@
       </c>
     </row>
     <row r="268" ht="16.5" spans="4:4">
-      <c r="D268" s="9" t="s">
+      <c r="D268" s="12" t="s">
         <v>202</v>
       </c>
     </row>
@@ -44085,7 +45689,7 @@
       <c r="D408" t="s">
         <v>324</v>
       </c>
-      <c r="F408" s="18" t="s">
+      <c r="F408" s="21" t="s">
         <v>325</v>
       </c>
     </row>
@@ -44093,7 +45697,7 @@
       <c r="D409" t="s">
         <v>326</v>
       </c>
-      <c r="F409" s="18" t="s">
+      <c r="F409" s="21" t="s">
         <v>327</v>
       </c>
     </row>
@@ -44101,7 +45705,7 @@
       <c r="D410" t="s">
         <v>328</v>
       </c>
-      <c r="F410" s="18" t="s">
+      <c r="F410" s="21" t="s">
         <v>329</v>
       </c>
     </row>
@@ -44109,7 +45713,7 @@
       <c r="D411" t="s">
         <v>330</v>
       </c>
-      <c r="F411" s="18" t="s">
+      <c r="F411" s="21" t="s">
         <v>331</v>
       </c>
     </row>
@@ -44117,7 +45721,7 @@
       <c r="D412" t="s">
         <v>332</v>
       </c>
-      <c r="F412" s="18" t="s">
+      <c r="F412" s="21" t="s">
         <v>333</v>
       </c>
     </row>
@@ -44125,7 +45729,7 @@
       <c r="D413" t="s">
         <v>334</v>
       </c>
-      <c r="F413" s="18" t="s">
+      <c r="F413" s="21" t="s">
         <v>335</v>
       </c>
     </row>
@@ -44133,7 +45737,7 @@
       <c r="D414" t="s">
         <v>336</v>
       </c>
-      <c r="F414" s="18" t="s">
+      <c r="F414" s="21" t="s">
         <v>337</v>
       </c>
     </row>
@@ -44141,7 +45745,7 @@
       <c r="D415" t="s">
         <v>338</v>
       </c>
-      <c r="F415" s="18" t="s">
+      <c r="F415" s="21" t="s">
         <v>339</v>
       </c>
     </row>
@@ -44149,7 +45753,7 @@
       <c r="D416" t="s">
         <v>340</v>
       </c>
-      <c r="F416" s="18" t="s">
+      <c r="F416" s="21" t="s">
         <v>341</v>
       </c>
     </row>
@@ -52065,7 +53669,7 @@
   <sheetPr/>
   <dimension ref="C2:R445"/>
   <sheetViews>
-    <sheetView topLeftCell="C410" workbookViewId="0">
+    <sheetView topLeftCell="C158" workbookViewId="0">
       <selection activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
@@ -52248,7 +53852,7 @@
       <c r="C21">
         <v>20</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="11" t="s">
         <v>1611</v>
       </c>
     </row>
@@ -55484,844 +57088,3090 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="C4:K457"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="3" max="3" width="28.7" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:3">
+      <c r="C4" t="s">
+        <v>1905</v>
+      </c>
+    </row>
+    <row r="7" spans="3:3">
+      <c r="C7" s="1" t="s">
+        <v>1906</v>
+      </c>
+    </row>
+    <row r="9" spans="3:3">
+      <c r="C9" s="9" t="s">
+        <v>1907</v>
+      </c>
+    </row>
+    <row r="10" spans="3:3">
+      <c r="C10" s="9" t="s">
+        <v>1908</v>
+      </c>
+    </row>
+    <row r="11" spans="3:3">
+      <c r="C11" s="9" t="s">
+        <v>1909</v>
+      </c>
+    </row>
+    <row r="12" spans="3:3">
+      <c r="C12" t="s">
+        <v>1910</v>
+      </c>
+    </row>
+    <row r="13" spans="3:3">
+      <c r="C13" s="9" t="s">
+        <v>1911</v>
+      </c>
+    </row>
+    <row r="14" spans="3:3">
+      <c r="C14" s="9" t="s">
+        <v>1912</v>
+      </c>
+    </row>
+    <row r="15" spans="3:3">
+      <c r="C15" t="s">
+        <v>1913</v>
+      </c>
+    </row>
+    <row r="16" spans="3:3">
+      <c r="C16" t="s">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3">
+      <c r="C17" t="s">
+        <v>1915</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3">
+      <c r="C18" t="s">
+        <v>1916</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3">
+      <c r="C19" t="s">
+        <v>1917</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3">
+      <c r="C20" s="10" t="s">
+        <v>1918</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3">
+      <c r="C21" s="9" t="s">
+        <v>1919</v>
+      </c>
+    </row>
+    <row r="22" spans="4:4">
+      <c r="D22" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="23" spans="3:4">
+      <c r="C23" t="s">
+        <v>1920</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="24" spans="4:7">
+      <c r="D24" t="s">
+        <v>1921</v>
+      </c>
+      <c r="G24" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="25" spans="3:11">
+      <c r="C25" t="s">
+        <v>81</v>
+      </c>
+      <c r="D25"/>
+      <c r="K25" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="26" spans="4:7">
+      <c r="D26" t="s">
+        <v>1922</v>
+      </c>
+      <c r="G26" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="27" spans="3:11">
+      <c r="C27" t="s">
+        <v>1266</v>
+      </c>
+      <c r="K27" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="28" spans="3:3">
+      <c r="C28" t="s">
+        <v>1923</v>
+      </c>
+    </row>
+    <row r="29" spans="3:6">
+      <c r="C29" s="11" t="s">
+        <v>1924</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1925</v>
+      </c>
+      <c r="E29" t="s">
+        <v>1926</v>
+      </c>
+      <c r="F29" t="s">
+        <v>1927</v>
+      </c>
+    </row>
+    <row r="30" spans="3:3">
+      <c r="C30" t="s">
+        <v>1928</v>
+      </c>
+    </row>
+    <row r="31" spans="3:3">
+      <c r="C31" t="s">
+        <v>1929</v>
+      </c>
+    </row>
+    <row r="32" spans="3:3">
+      <c r="C32" t="s">
+        <v>1930</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3">
+      <c r="C33" t="s">
+        <v>1931</v>
+      </c>
+    </row>
+    <row r="34" spans="3:4">
+      <c r="C34" s="11" t="s">
+        <v>1932</v>
+      </c>
+      <c r="D34" t="s">
+        <v>1933</v>
+      </c>
+    </row>
+    <row r="35" spans="3:4">
+      <c r="C35" s="11" t="s">
+        <v>1934</v>
+      </c>
+      <c r="D35" t="s">
+        <v>1935</v>
+      </c>
+    </row>
+    <row r="36" spans="3:4">
+      <c r="C36" s="11" t="s">
+        <v>1934</v>
+      </c>
+      <c r="D36" t="s">
+        <v>1936</v>
+      </c>
+    </row>
+    <row r="37" spans="3:4">
+      <c r="C37" s="11" t="s">
+        <v>1934</v>
+      </c>
+      <c r="D37" t="s">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="38" spans="3:3">
+      <c r="C38" s="9" t="s">
+        <v>1909</v>
+      </c>
+    </row>
+    <row r="39" spans="3:3">
+      <c r="C39" t="s">
+        <v>1911</v>
+      </c>
+    </row>
+    <row r="40" spans="3:3">
+      <c r="C40" s="9" t="s">
+        <v>1938</v>
+      </c>
+    </row>
+    <row r="41" spans="3:3">
+      <c r="C41" t="s">
+        <v>1939</v>
+      </c>
+    </row>
+    <row r="42" spans="3:5">
+      <c r="C42" s="11" t="s">
+        <v>1934</v>
+      </c>
+      <c r="D42" t="s">
+        <v>1940</v>
+      </c>
+      <c r="E42" t="s">
+        <v>1941</v>
+      </c>
+    </row>
+    <row r="43" spans="3:3">
+      <c r="C43" t="s">
+        <v>1942</v>
+      </c>
+    </row>
+    <row r="44" spans="3:5">
+      <c r="C44" s="11" t="s">
+        <v>1934</v>
+      </c>
+      <c r="D44" t="s">
+        <v>1943</v>
+      </c>
+      <c r="E44" t="s">
+        <v>1944</v>
+      </c>
+    </row>
+    <row r="45" spans="3:3">
+      <c r="C45" s="9" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="46" spans="3:3">
+      <c r="C46" s="9" t="s">
+        <v>1946</v>
+      </c>
+    </row>
+    <row r="47" spans="3:3">
+      <c r="C47" t="s">
+        <v>1947</v>
+      </c>
+    </row>
+    <row r="48" spans="3:3">
+      <c r="C48" t="s">
+        <v>1948</v>
+      </c>
+    </row>
+    <row r="49" spans="3:3">
+      <c r="C49" t="s">
+        <v>1949</v>
+      </c>
+    </row>
+    <row r="50" spans="3:3">
+      <c r="C50" t="s">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="51" spans="3:3">
+      <c r="C51" t="s">
+        <v>1951</v>
+      </c>
+    </row>
+    <row r="52" spans="3:3">
+      <c r="C52" t="s">
+        <v>1952</v>
+      </c>
+    </row>
+    <row r="53" spans="3:3">
+      <c r="C53" t="s">
+        <v>1953</v>
+      </c>
+    </row>
+    <row r="54" spans="3:3">
+      <c r="C54" t="s">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="55" spans="3:3">
+      <c r="C55" t="s">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="56" spans="3:3">
+      <c r="C56" t="s">
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="57" spans="3:3">
+      <c r="C57" t="s">
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="58" spans="3:3">
+      <c r="C58" t="s">
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="59" spans="3:3">
+      <c r="C59" t="s">
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="60" spans="3:3">
+      <c r="C60" t="s">
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="61" spans="3:3">
+      <c r="C61" t="s">
+        <v>1961</v>
+      </c>
+    </row>
+    <row r="62" spans="3:3">
+      <c r="C62" s="9" t="s">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="63" spans="3:3">
+      <c r="C63" t="s">
+        <v>1963</v>
+      </c>
+    </row>
+    <row r="64" spans="3:3">
+      <c r="C64" t="s">
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="65" spans="3:3">
+      <c r="C65" t="s">
+        <v>1965</v>
+      </c>
+    </row>
+    <row r="66" spans="3:3">
+      <c r="C66" t="s">
+        <v>1966</v>
+      </c>
+    </row>
+    <row r="67" spans="3:3">
+      <c r="C67" t="s">
+        <v>1967</v>
+      </c>
+    </row>
+    <row r="68" spans="3:3">
+      <c r="C68" t="s">
+        <v>1968</v>
+      </c>
+    </row>
+    <row r="69" spans="3:3">
+      <c r="C69" t="s">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="70" spans="3:3">
+      <c r="C70" t="s">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="71" spans="3:3">
+      <c r="C71" t="s">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="72" spans="3:3">
+      <c r="C72" t="s">
+        <v>1972</v>
+      </c>
+    </row>
+    <row r="73" spans="3:3">
+      <c r="C73" t="s">
+        <v>1973</v>
+      </c>
+    </row>
+    <row r="74" spans="3:3">
+      <c r="C74" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="75" spans="3:3">
+      <c r="C75" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="76" spans="3:3">
+      <c r="C76" t="s">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="77" spans="3:3">
+      <c r="C77" t="s">
+        <v>1977</v>
+      </c>
+    </row>
+    <row r="78" spans="3:3">
+      <c r="C78" t="s">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="79" spans="3:3">
+      <c r="C79" t="s">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="80" spans="3:3">
+      <c r="C80" t="s">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="81" spans="3:3">
+      <c r="C81" t="s">
+        <v>1981</v>
+      </c>
+    </row>
+    <row r="82" spans="3:3">
+      <c r="C82" t="s">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="83" spans="3:3">
+      <c r="C83" t="s">
+        <v>1983</v>
+      </c>
+    </row>
+    <row r="84" spans="3:3">
+      <c r="C84" t="s">
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="85" spans="3:3">
+      <c r="C85" t="s">
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="86" spans="3:3">
+      <c r="C86" t="s">
+        <v>1986</v>
+      </c>
+    </row>
+    <row r="87" spans="3:3">
+      <c r="C87" t="s">
+        <v>1987</v>
+      </c>
+    </row>
+    <row r="88" spans="3:3">
+      <c r="C88" t="s">
+        <v>1988</v>
+      </c>
+    </row>
+    <row r="89" spans="3:3">
+      <c r="C89" t="s">
+        <v>1989</v>
+      </c>
+    </row>
+    <row r="90" spans="3:3">
+      <c r="C90" t="s">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="91" spans="3:3">
+      <c r="C91" t="s">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="92" spans="3:3">
+      <c r="C92" t="s">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="93" spans="3:3">
+      <c r="C93" t="s">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="94" spans="3:3">
+      <c r="C94" t="s">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="95" spans="3:3">
+      <c r="C95" t="s">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="96" spans="3:3">
+      <c r="C96" t="s">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="97" spans="3:3">
+      <c r="C97" t="s">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="98" spans="3:3">
+      <c r="C98" t="s">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="99" spans="3:3">
+      <c r="C99" t="s">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="100" spans="3:3">
+      <c r="C100" t="s">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="101" spans="3:3">
+      <c r="C101" t="s">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="102" spans="3:3">
+      <c r="C102" t="s">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="103" spans="3:3">
+      <c r="C103" t="s">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="104" spans="3:3">
+      <c r="C104" t="s">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="105" spans="3:3">
+      <c r="C105" t="s">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="106" spans="3:3">
+      <c r="C106" t="s">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="107" spans="3:3">
+      <c r="C107" t="s">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="108" spans="3:3">
+      <c r="C108" t="s">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="109" spans="3:3">
+      <c r="C109" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="110" spans="3:3">
+      <c r="C110" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="111" spans="3:3">
+      <c r="C111" t="s">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="112" spans="3:3">
+      <c r="C112" t="s">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="113" spans="3:3">
+      <c r="C113" t="s">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="114" spans="3:3">
+      <c r="C114" t="s">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="115" spans="3:3">
+      <c r="C115" t="s">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="116" spans="3:3">
+      <c r="C116" t="s">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="117" spans="3:3">
+      <c r="C117" t="s">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="118" spans="3:3">
+      <c r="C118" t="s">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="119" spans="3:3">
+      <c r="C119" t="s">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="120" spans="3:3">
+      <c r="C120" t="s">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="121" spans="3:3">
+      <c r="C121" t="s">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="122" spans="3:3">
+      <c r="C122" t="s">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="123" spans="3:3">
+      <c r="C123" t="s">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="124" spans="3:3">
+      <c r="C124" t="s">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="125" spans="3:3">
+      <c r="C125" t="s">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="126" spans="3:3">
+      <c r="C126" t="s">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="127" spans="3:3">
+      <c r="C127" t="s">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="128" spans="3:3">
+      <c r="C128" t="s">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="129" spans="3:3">
+      <c r="C129" t="s">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="130" spans="3:3">
+      <c r="C130" t="s">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="131" spans="3:3">
+      <c r="C131" t="s">
+        <v>2031</v>
+      </c>
+    </row>
+    <row r="132" spans="3:3">
+      <c r="C132" t="s">
+        <v>2032</v>
+      </c>
+    </row>
+    <row r="133" spans="3:3">
+      <c r="C133" t="s">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="134" spans="3:3">
+      <c r="C134" s="9" t="s">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="135" spans="3:3">
+      <c r="C135" t="s">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="136" spans="3:3">
+      <c r="C136" s="9" t="s">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="137" spans="3:3">
+      <c r="C137" s="9" t="s">
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="138" spans="3:3">
+      <c r="C138" t="s">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="139" spans="3:3">
+      <c r="C139" t="s">
+        <v>2039</v>
+      </c>
+    </row>
+    <row r="140" spans="3:3">
+      <c r="C140" t="s">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="141" spans="3:3">
+      <c r="C141" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="142" spans="3:3">
+      <c r="C142" t="s">
+        <v>2042</v>
+      </c>
+    </row>
+    <row r="143" spans="3:3">
+      <c r="C143" t="s">
+        <v>2043</v>
+      </c>
+    </row>
+    <row r="144" spans="3:3">
+      <c r="C144" t="s">
+        <v>2044</v>
+      </c>
+    </row>
+    <row r="145" spans="3:3">
+      <c r="C145" t="s">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="146" spans="3:3">
+      <c r="C146" t="s">
+        <v>2046</v>
+      </c>
+    </row>
+    <row r="147" spans="3:3">
+      <c r="C147" t="s">
+        <v>2047</v>
+      </c>
+    </row>
+    <row r="148" spans="3:3">
+      <c r="C148" t="s">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="149" spans="3:3">
+      <c r="C149" t="s">
+        <v>2049</v>
+      </c>
+    </row>
+    <row r="150" spans="3:3">
+      <c r="C150" s="9" t="s">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="151" spans="3:3">
+      <c r="C151" t="s">
+        <v>2051</v>
+      </c>
+    </row>
+    <row r="152" spans="3:3">
+      <c r="C152" t="s">
+        <v>2052</v>
+      </c>
+    </row>
+    <row r="153" spans="3:3">
+      <c r="C153" t="s">
+        <v>2053</v>
+      </c>
+    </row>
+    <row r="154" spans="3:3">
+      <c r="C154" t="s">
+        <v>2054</v>
+      </c>
+    </row>
+    <row r="155" spans="3:3">
+      <c r="C155" t="s">
+        <v>2055</v>
+      </c>
+    </row>
+    <row r="156" spans="3:3">
+      <c r="C156" t="s">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="157" spans="3:3">
+      <c r="C157" t="s">
+        <v>2057</v>
+      </c>
+    </row>
+    <row r="158" spans="3:3">
+      <c r="C158" t="s">
+        <v>2058</v>
+      </c>
+    </row>
+    <row r="159" spans="3:3">
+      <c r="C159" t="s">
+        <v>2059</v>
+      </c>
+    </row>
+    <row r="160" spans="3:3">
+      <c r="C160" t="s">
+        <v>2060</v>
+      </c>
+    </row>
+    <row r="161" spans="3:3">
+      <c r="C161" t="s">
+        <v>2061</v>
+      </c>
+    </row>
+    <row r="162" spans="3:3">
+      <c r="C162" t="s">
+        <v>2062</v>
+      </c>
+    </row>
+    <row r="163" spans="3:3">
+      <c r="C163" t="s">
+        <v>2063</v>
+      </c>
+    </row>
+    <row r="164" spans="3:3">
+      <c r="C164" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="165" spans="3:3">
+      <c r="C165" s="9" t="s">
+        <v>2065</v>
+      </c>
+    </row>
+    <row r="166" spans="3:3">
+      <c r="C166" t="s">
+        <v>2066</v>
+      </c>
+    </row>
+    <row r="167" spans="3:3">
+      <c r="C167" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="168" spans="3:3">
+      <c r="C168" t="s">
+        <v>2068</v>
+      </c>
+    </row>
+    <row r="169" spans="3:3">
+      <c r="C169" t="s">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="170" spans="3:3">
+      <c r="C170" t="s">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="171" spans="3:3">
+      <c r="C171" t="s">
+        <v>2071</v>
+      </c>
+    </row>
+    <row r="172" spans="3:3">
+      <c r="C172" s="9" t="s">
+        <v>2072</v>
+      </c>
+    </row>
+    <row r="173" spans="3:3">
+      <c r="C173" t="s">
+        <v>2073</v>
+      </c>
+    </row>
+    <row r="174" spans="3:3">
+      <c r="C174" t="s">
+        <v>2074</v>
+      </c>
+    </row>
+    <row r="175" spans="3:3">
+      <c r="C175" s="9" t="s">
+        <v>2075</v>
+      </c>
+    </row>
+    <row r="176" spans="3:3">
+      <c r="C176" t="s">
+        <v>2076</v>
+      </c>
+    </row>
+    <row r="177" spans="3:3">
+      <c r="C177" t="s">
+        <v>2077</v>
+      </c>
+    </row>
+    <row r="178" spans="3:3">
+      <c r="C178" s="9" t="s">
+        <v>2078</v>
+      </c>
+    </row>
+    <row r="179" spans="3:3">
+      <c r="C179" s="9" t="s">
+        <v>2079</v>
+      </c>
+    </row>
+    <row r="180" spans="3:3">
+      <c r="C180" t="s">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="181" spans="3:3">
+      <c r="C181" t="s">
+        <v>2081</v>
+      </c>
+    </row>
+    <row r="182" spans="3:3">
+      <c r="C182" t="s">
+        <v>2082</v>
+      </c>
+    </row>
+    <row r="183" spans="3:3">
+      <c r="C183" t="s">
+        <v>2083</v>
+      </c>
+    </row>
+    <row r="184" spans="3:3">
+      <c r="C184" t="s">
+        <v>2084</v>
+      </c>
+    </row>
+    <row r="185" spans="3:3">
+      <c r="C185" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="186" spans="3:3">
+      <c r="C186" t="s">
+        <v>2086</v>
+      </c>
+    </row>
+    <row r="187" spans="3:3">
+      <c r="C187" s="9" t="s">
+        <v>2087</v>
+      </c>
+    </row>
+    <row r="188" spans="3:3">
+      <c r="C188" s="9" t="s">
+        <v>2088</v>
+      </c>
+    </row>
+    <row r="189" spans="3:3">
+      <c r="C189" t="s">
+        <v>2089</v>
+      </c>
+    </row>
+    <row r="190" spans="3:3">
+      <c r="C190" t="s">
+        <v>2090</v>
+      </c>
+    </row>
+    <row r="191" spans="3:3">
+      <c r="C191" t="s">
+        <v>2091</v>
+      </c>
+    </row>
+    <row r="192" spans="3:3">
+      <c r="C192" t="s">
+        <v>2092</v>
+      </c>
+    </row>
+    <row r="193" spans="3:3">
+      <c r="C193" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="194" spans="3:3">
+      <c r="C194" t="s">
+        <v>2094</v>
+      </c>
+    </row>
+    <row r="195" spans="3:3">
+      <c r="C195" t="s">
+        <v>2095</v>
+      </c>
+    </row>
+    <row r="196" spans="3:3">
+      <c r="C196" t="s">
+        <v>2096</v>
+      </c>
+    </row>
+    <row r="197" spans="3:3">
+      <c r="C197" t="s">
+        <v>2097</v>
+      </c>
+    </row>
+    <row r="198" spans="3:3">
+      <c r="C198" t="s">
+        <v>2098</v>
+      </c>
+    </row>
+    <row r="199" spans="3:3">
+      <c r="C199" t="s">
+        <v>2099</v>
+      </c>
+    </row>
+    <row r="200" spans="3:3">
+      <c r="C200" t="s">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="201" spans="3:3">
+      <c r="C201" t="s">
+        <v>2101</v>
+      </c>
+    </row>
+    <row r="202" spans="3:3">
+      <c r="C202" t="s">
+        <v>2102</v>
+      </c>
+    </row>
+    <row r="203" spans="3:3">
+      <c r="C203" t="s">
+        <v>2103</v>
+      </c>
+    </row>
+    <row r="204" spans="3:3">
+      <c r="C204" t="s">
+        <v>2104</v>
+      </c>
+    </row>
+    <row r="205" spans="3:3">
+      <c r="C205" t="s">
+        <v>2105</v>
+      </c>
+    </row>
+    <row r="206" spans="3:3">
+      <c r="C206" t="s">
+        <v>2106</v>
+      </c>
+    </row>
+    <row r="207" spans="3:3">
+      <c r="C207" t="s">
+        <v>2107</v>
+      </c>
+    </row>
+    <row r="208" spans="3:3">
+      <c r="C208" s="9" t="s">
+        <v>2108</v>
+      </c>
+    </row>
+    <row r="209" spans="3:3">
+      <c r="C209" t="s">
+        <v>2109</v>
+      </c>
+    </row>
+    <row r="210" spans="3:3">
+      <c r="C210" s="9" t="s">
+        <v>2110</v>
+      </c>
+    </row>
+    <row r="211" spans="3:3">
+      <c r="C211" s="9" t="s">
+        <v>2111</v>
+      </c>
+    </row>
+    <row r="212" spans="3:3">
+      <c r="C212" t="s">
+        <v>2112</v>
+      </c>
+    </row>
+    <row r="213" spans="3:3">
+      <c r="C213" s="9" t="s">
+        <v>2113</v>
+      </c>
+    </row>
+    <row r="214" spans="3:3">
+      <c r="C214" t="s">
+        <v>2114</v>
+      </c>
+    </row>
+    <row r="215" spans="3:3">
+      <c r="C215" s="9" t="s">
+        <v>2115</v>
+      </c>
+    </row>
+    <row r="216" spans="3:3">
+      <c r="C216" t="s">
+        <v>2116</v>
+      </c>
+    </row>
+    <row r="217" spans="3:3">
+      <c r="C217" s="9" t="s">
+        <v>2117</v>
+      </c>
+    </row>
+    <row r="218" spans="3:3">
+      <c r="C218" t="s">
+        <v>2118</v>
+      </c>
+    </row>
+    <row r="219" spans="3:3">
+      <c r="C219" t="s">
+        <v>2119</v>
+      </c>
+    </row>
+    <row r="220" spans="3:3">
+      <c r="C220" s="9" t="s">
+        <v>2120</v>
+      </c>
+    </row>
+    <row r="221" spans="3:3">
+      <c r="C221" t="s">
+        <v>2121</v>
+      </c>
+    </row>
+    <row r="222" spans="3:3">
+      <c r="C222" s="9" t="s">
+        <v>2122</v>
+      </c>
+    </row>
+    <row r="223" spans="3:3">
+      <c r="C223" t="s">
+        <v>2123</v>
+      </c>
+    </row>
+    <row r="224" spans="3:3">
+      <c r="C224" t="s">
+        <v>2124</v>
+      </c>
+    </row>
+    <row r="225" spans="3:3">
+      <c r="C225" t="s">
+        <v>2125</v>
+      </c>
+    </row>
+    <row r="226" spans="3:3">
+      <c r="C226" t="s">
+        <v>2126</v>
+      </c>
+    </row>
+    <row r="227" spans="3:3">
+      <c r="C227" t="s">
+        <v>2127</v>
+      </c>
+    </row>
+    <row r="228" spans="3:3">
+      <c r="C228" t="s">
+        <v>2128</v>
+      </c>
+    </row>
+    <row r="229" spans="3:3">
+      <c r="C229" t="s">
+        <v>2129</v>
+      </c>
+    </row>
+    <row r="230" spans="3:3">
+      <c r="C230" t="s">
+        <v>2130</v>
+      </c>
+    </row>
+    <row r="231" spans="3:3">
+      <c r="C231" t="s">
+        <v>2131</v>
+      </c>
+    </row>
+    <row r="232" spans="3:3">
+      <c r="C232" t="s">
+        <v>2132</v>
+      </c>
+    </row>
+    <row r="233" spans="3:3">
+      <c r="C233" t="s">
+        <v>2133</v>
+      </c>
+    </row>
+    <row r="234" spans="3:3">
+      <c r="C234" t="s">
+        <v>2134</v>
+      </c>
+    </row>
+    <row r="235" spans="3:3">
+      <c r="C235" t="s">
+        <v>2135</v>
+      </c>
+    </row>
+    <row r="236" spans="3:3">
+      <c r="C236" t="s">
+        <v>2136</v>
+      </c>
+    </row>
+    <row r="237" spans="3:3">
+      <c r="C237" t="s">
+        <v>2137</v>
+      </c>
+    </row>
+    <row r="238" spans="3:3">
+      <c r="C238" s="9" t="s">
+        <v>2138</v>
+      </c>
+    </row>
+    <row r="239" spans="3:3">
+      <c r="C239" s="9" t="s">
+        <v>2139</v>
+      </c>
+    </row>
+    <row r="240" spans="3:3">
+      <c r="C240" t="s">
+        <v>2140</v>
+      </c>
+    </row>
+    <row r="241" spans="3:3">
+      <c r="C241" t="s">
+        <v>2141</v>
+      </c>
+    </row>
+    <row r="242" spans="3:3">
+      <c r="C242" s="9" t="s">
+        <v>2142</v>
+      </c>
+    </row>
+    <row r="243" spans="3:3">
+      <c r="C243" t="s">
+        <v>2143</v>
+      </c>
+    </row>
+    <row r="244" spans="3:3">
+      <c r="C244" t="s">
+        <v>2144</v>
+      </c>
+    </row>
+    <row r="245" spans="3:3">
+      <c r="C245" t="s">
+        <v>2145</v>
+      </c>
+    </row>
+    <row r="246" spans="3:3">
+      <c r="C246" t="s">
+        <v>2146</v>
+      </c>
+    </row>
+    <row r="247" spans="3:3">
+      <c r="C247" s="9" t="s">
+        <v>2147</v>
+      </c>
+    </row>
+    <row r="248" spans="3:3">
+      <c r="C248" t="s">
+        <v>2148</v>
+      </c>
+    </row>
+    <row r="249" spans="3:3">
+      <c r="C249" s="9" t="s">
+        <v>2149</v>
+      </c>
+    </row>
+    <row r="250" spans="3:3">
+      <c r="C250" t="s">
+        <v>2150</v>
+      </c>
+    </row>
+    <row r="251" spans="3:3">
+      <c r="C251" t="s">
+        <v>2151</v>
+      </c>
+    </row>
+    <row r="252" spans="3:3">
+      <c r="C252" t="s">
+        <v>2152</v>
+      </c>
+    </row>
+    <row r="253" spans="3:3">
+      <c r="C253" t="s">
+        <v>2153</v>
+      </c>
+    </row>
+    <row r="254" spans="3:3">
+      <c r="C254" t="s">
+        <v>2154</v>
+      </c>
+    </row>
+    <row r="255" spans="3:3">
+      <c r="C255" t="s">
+        <v>2155</v>
+      </c>
+    </row>
+    <row r="256" spans="3:3">
+      <c r="C256" t="s">
+        <v>2156</v>
+      </c>
+    </row>
+    <row r="257" spans="3:3">
+      <c r="C257" t="s">
+        <v>2157</v>
+      </c>
+    </row>
+    <row r="258" spans="3:3">
+      <c r="C258" t="s">
+        <v>2158</v>
+      </c>
+    </row>
+    <row r="259" spans="3:3">
+      <c r="C259" t="s">
+        <v>2159</v>
+      </c>
+    </row>
+    <row r="260" spans="3:3">
+      <c r="C260" t="s">
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="261" spans="3:3">
+      <c r="C261" t="s">
+        <v>2161</v>
+      </c>
+    </row>
+    <row r="262" spans="3:3">
+      <c r="C262" t="s">
+        <v>2162</v>
+      </c>
+    </row>
+    <row r="263" spans="3:3">
+      <c r="C263" t="s">
+        <v>2163</v>
+      </c>
+    </row>
+    <row r="264" spans="3:3">
+      <c r="C264" t="s">
+        <v>2164</v>
+      </c>
+    </row>
+    <row r="265" spans="3:3">
+      <c r="C265" t="s">
+        <v>2165</v>
+      </c>
+    </row>
+    <row r="266" spans="3:3">
+      <c r="C266" t="s">
+        <v>2166</v>
+      </c>
+    </row>
+    <row r="267" spans="3:3">
+      <c r="C267" t="s">
+        <v>2167</v>
+      </c>
+    </row>
+    <row r="268" spans="3:3">
+      <c r="C268" t="s">
+        <v>2168</v>
+      </c>
+    </row>
+    <row r="269" spans="3:3">
+      <c r="C269" t="s">
+        <v>2169</v>
+      </c>
+    </row>
+    <row r="270" spans="3:3">
+      <c r="C270" t="s">
+        <v>2170</v>
+      </c>
+    </row>
+    <row r="271" spans="3:3">
+      <c r="C271" t="s">
+        <v>2171</v>
+      </c>
+    </row>
+    <row r="272" spans="3:3">
+      <c r="C272" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="273" spans="3:3">
+      <c r="C273" t="s">
+        <v>2173</v>
+      </c>
+    </row>
+    <row r="274" spans="3:3">
+      <c r="C274" t="s">
+        <v>2174</v>
+      </c>
+    </row>
+    <row r="275" spans="3:3">
+      <c r="C275" t="s">
+        <v>2175</v>
+      </c>
+    </row>
+    <row r="276" spans="3:3">
+      <c r="C276" t="s">
+        <v>2176</v>
+      </c>
+    </row>
+    <row r="277" spans="3:3">
+      <c r="C277" t="s">
+        <v>2177</v>
+      </c>
+    </row>
+    <row r="278" spans="3:3">
+      <c r="C278" t="s">
+        <v>2178</v>
+      </c>
+    </row>
+    <row r="279" spans="3:3">
+      <c r="C279" t="s">
+        <v>2179</v>
+      </c>
+    </row>
+    <row r="280" spans="3:3">
+      <c r="C280" t="s">
+        <v>2180</v>
+      </c>
+    </row>
+    <row r="281" spans="3:3">
+      <c r="C281" t="s">
+        <v>2181</v>
+      </c>
+    </row>
+    <row r="282" spans="3:3">
+      <c r="C282" t="s">
+        <v>2182</v>
+      </c>
+    </row>
+    <row r="283" spans="3:3">
+      <c r="C283" t="s">
+        <v>2183</v>
+      </c>
+    </row>
+    <row r="284" spans="3:3">
+      <c r="C284" t="s">
+        <v>2184</v>
+      </c>
+    </row>
+    <row r="285" spans="3:3">
+      <c r="C285" t="s">
+        <v>2185</v>
+      </c>
+    </row>
+    <row r="286" spans="3:3">
+      <c r="C286" t="s">
+        <v>2186</v>
+      </c>
+    </row>
+    <row r="287" spans="3:3">
+      <c r="C287" t="s">
+        <v>2187</v>
+      </c>
+    </row>
+    <row r="288" spans="3:3">
+      <c r="C288" t="s">
+        <v>2188</v>
+      </c>
+    </row>
+    <row r="289" spans="3:3">
+      <c r="C289" t="s">
+        <v>2189</v>
+      </c>
+    </row>
+    <row r="290" spans="3:3">
+      <c r="C290" t="s">
+        <v>2190</v>
+      </c>
+    </row>
+    <row r="291" spans="3:3">
+      <c r="C291" t="s">
+        <v>2191</v>
+      </c>
+    </row>
+    <row r="292" spans="3:3">
+      <c r="C292" t="s">
+        <v>2192</v>
+      </c>
+    </row>
+    <row r="293" spans="3:3">
+      <c r="C293" t="s">
+        <v>2193</v>
+      </c>
+    </row>
+    <row r="294" spans="3:3">
+      <c r="C294" t="s">
+        <v>2194</v>
+      </c>
+    </row>
+    <row r="295" spans="3:3">
+      <c r="C295" t="s">
+        <v>2195</v>
+      </c>
+    </row>
+    <row r="296" spans="3:3">
+      <c r="C296" t="s">
+        <v>2196</v>
+      </c>
+    </row>
+    <row r="297" spans="3:3">
+      <c r="C297" t="s">
+        <v>2197</v>
+      </c>
+    </row>
+    <row r="298" spans="3:3">
+      <c r="C298" t="s">
+        <v>2198</v>
+      </c>
+    </row>
+    <row r="299" spans="3:3">
+      <c r="C299" t="s">
+        <v>2199</v>
+      </c>
+    </row>
+    <row r="300" spans="3:3">
+      <c r="C300" t="s">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="301" spans="3:3">
+      <c r="C301" t="s">
+        <v>2201</v>
+      </c>
+    </row>
+    <row r="302" spans="3:3">
+      <c r="C302" t="s">
+        <v>2202</v>
+      </c>
+    </row>
+    <row r="303" spans="3:3">
+      <c r="C303" t="s">
+        <v>2203</v>
+      </c>
+    </row>
+    <row r="304" spans="3:3">
+      <c r="C304" t="s">
+        <v>2204</v>
+      </c>
+    </row>
+    <row r="305" spans="3:3">
+      <c r="C305" t="s">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="306" spans="3:3">
+      <c r="C306" t="s">
+        <v>2206</v>
+      </c>
+    </row>
+    <row r="307" spans="3:3">
+      <c r="C307" t="s">
+        <v>2207</v>
+      </c>
+    </row>
+    <row r="308" spans="3:3">
+      <c r="C308" t="s">
+        <v>2208</v>
+      </c>
+    </row>
+    <row r="309" spans="3:3">
+      <c r="C309" t="s">
+        <v>2209</v>
+      </c>
+    </row>
+    <row r="310" spans="3:3">
+      <c r="C310" t="s">
+        <v>2210</v>
+      </c>
+    </row>
+    <row r="311" spans="3:3">
+      <c r="C311" t="s">
+        <v>2211</v>
+      </c>
+    </row>
+    <row r="312" spans="3:3">
+      <c r="C312" t="s">
+        <v>2212</v>
+      </c>
+    </row>
+    <row r="313" spans="3:3">
+      <c r="C313" t="s">
+        <v>2213</v>
+      </c>
+    </row>
+    <row r="314" spans="3:3">
+      <c r="C314" t="s">
+        <v>2214</v>
+      </c>
+    </row>
+    <row r="315" spans="3:3">
+      <c r="C315" t="s">
+        <v>2215</v>
+      </c>
+    </row>
+    <row r="316" spans="3:3">
+      <c r="C316" t="s">
+        <v>2216</v>
+      </c>
+    </row>
+    <row r="317" spans="3:3">
+      <c r="C317" t="s">
+        <v>2217</v>
+      </c>
+    </row>
+    <row r="318" spans="3:3">
+      <c r="C318" t="s">
+        <v>2218</v>
+      </c>
+    </row>
+    <row r="319" spans="3:3">
+      <c r="C319" t="s">
+        <v>2219</v>
+      </c>
+    </row>
+    <row r="320" spans="3:3">
+      <c r="C320" t="s">
+        <v>2220</v>
+      </c>
+    </row>
+    <row r="321" spans="3:3">
+      <c r="C321" t="s">
+        <v>2221</v>
+      </c>
+    </row>
+    <row r="322" spans="3:3">
+      <c r="C322" t="s">
+        <v>2222</v>
+      </c>
+    </row>
+    <row r="323" spans="3:3">
+      <c r="C323" t="s">
+        <v>2223</v>
+      </c>
+    </row>
+    <row r="324" spans="3:3">
+      <c r="C324" t="s">
+        <v>2224</v>
+      </c>
+    </row>
+    <row r="325" spans="3:3">
+      <c r="C325" t="s">
+        <v>2225</v>
+      </c>
+    </row>
+    <row r="326" spans="3:3">
+      <c r="C326" t="s">
+        <v>2226</v>
+      </c>
+    </row>
+    <row r="327" spans="3:3">
+      <c r="C327" t="s">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="328" spans="3:3">
+      <c r="C328" t="s">
+        <v>2228</v>
+      </c>
+    </row>
+    <row r="329" spans="3:3">
+      <c r="C329" t="s">
+        <v>2229</v>
+      </c>
+    </row>
+    <row r="330" spans="3:3">
+      <c r="C330" t="s">
+        <v>2230</v>
+      </c>
+    </row>
+    <row r="331" spans="3:3">
+      <c r="C331" t="s">
+        <v>2231</v>
+      </c>
+    </row>
+    <row r="332" spans="3:3">
+      <c r="C332" t="s">
+        <v>2232</v>
+      </c>
+    </row>
+    <row r="333" spans="3:3">
+      <c r="C333" t="s">
+        <v>2233</v>
+      </c>
+    </row>
+    <row r="334" spans="3:3">
+      <c r="C334" t="s">
+        <v>2234</v>
+      </c>
+    </row>
+    <row r="335" spans="3:3">
+      <c r="C335" t="s">
+        <v>2235</v>
+      </c>
+    </row>
+    <row r="336" spans="3:3">
+      <c r="C336" t="s">
+        <v>2236</v>
+      </c>
+    </row>
+    <row r="337" spans="3:3">
+      <c r="C337" t="s">
+        <v>2237</v>
+      </c>
+    </row>
+    <row r="338" spans="3:3">
+      <c r="C338" t="s">
+        <v>2238</v>
+      </c>
+    </row>
+    <row r="339" spans="3:3">
+      <c r="C339" t="s">
+        <v>2239</v>
+      </c>
+    </row>
+    <row r="340" spans="3:3">
+      <c r="C340" t="s">
+        <v>2240</v>
+      </c>
+    </row>
+    <row r="341" spans="3:3">
+      <c r="C341" t="s">
+        <v>2241</v>
+      </c>
+    </row>
+    <row r="342" spans="3:3">
+      <c r="C342" t="s">
+        <v>2242</v>
+      </c>
+    </row>
+    <row r="343" spans="3:3">
+      <c r="C343" t="s">
+        <v>2243</v>
+      </c>
+    </row>
+    <row r="344" spans="3:3">
+      <c r="C344" t="s">
+        <v>2244</v>
+      </c>
+    </row>
+    <row r="345" spans="3:3">
+      <c r="C345" t="s">
+        <v>2245</v>
+      </c>
+    </row>
+    <row r="346" spans="3:3">
+      <c r="C346" t="s">
+        <v>2246</v>
+      </c>
+    </row>
+    <row r="347" spans="3:3">
+      <c r="C347" t="s">
+        <v>2247</v>
+      </c>
+    </row>
+    <row r="348" spans="3:3">
+      <c r="C348" t="s">
+        <v>2248</v>
+      </c>
+    </row>
+    <row r="349" spans="3:3">
+      <c r="C349" t="s">
+        <v>2249</v>
+      </c>
+    </row>
+    <row r="350" spans="3:3">
+      <c r="C350" t="s">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="351" spans="3:3">
+      <c r="C351" t="s">
+        <v>2251</v>
+      </c>
+    </row>
+    <row r="352" spans="3:3">
+      <c r="C352" t="s">
+        <v>2252</v>
+      </c>
+    </row>
+    <row r="353" spans="3:3">
+      <c r="C353" t="s">
+        <v>2253</v>
+      </c>
+    </row>
+    <row r="354" spans="3:3">
+      <c r="C354" t="s">
+        <v>2254</v>
+      </c>
+    </row>
+    <row r="355" spans="3:3">
+      <c r="C355" t="s">
+        <v>2255</v>
+      </c>
+    </row>
+    <row r="356" spans="3:3">
+      <c r="C356" t="s">
+        <v>2256</v>
+      </c>
+    </row>
+    <row r="357" spans="3:3">
+      <c r="C357" t="s">
+        <v>2257</v>
+      </c>
+    </row>
+    <row r="358" spans="3:3">
+      <c r="C358" t="s">
+        <v>2258</v>
+      </c>
+    </row>
+    <row r="359" spans="3:3">
+      <c r="C359" t="s">
+        <v>2259</v>
+      </c>
+    </row>
+    <row r="360" spans="3:3">
+      <c r="C360" t="s">
+        <v>2260</v>
+      </c>
+    </row>
+    <row r="361" spans="3:3">
+      <c r="C361" t="s">
+        <v>2261</v>
+      </c>
+    </row>
+    <row r="362" spans="3:3">
+      <c r="C362" t="s">
+        <v>2262</v>
+      </c>
+    </row>
+    <row r="363" spans="3:3">
+      <c r="C363" t="s">
+        <v>2263</v>
+      </c>
+    </row>
+    <row r="364" spans="3:3">
+      <c r="C364" t="s">
+        <v>2264</v>
+      </c>
+    </row>
+    <row r="365" spans="3:3">
+      <c r="C365" t="s">
+        <v>2265</v>
+      </c>
+    </row>
+    <row r="366" spans="3:3">
+      <c r="C366" t="s">
+        <v>2266</v>
+      </c>
+    </row>
+    <row r="367" spans="3:3">
+      <c r="C367" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="368" spans="3:3">
+      <c r="C368" t="s">
+        <v>2268</v>
+      </c>
+    </row>
+    <row r="369" spans="3:3">
+      <c r="C369" t="s">
+        <v>2269</v>
+      </c>
+    </row>
+    <row r="370" spans="3:3">
+      <c r="C370" t="s">
+        <v>2270</v>
+      </c>
+    </row>
+    <row r="371" spans="3:3">
+      <c r="C371" t="s">
+        <v>2271</v>
+      </c>
+    </row>
+    <row r="372" spans="3:3">
+      <c r="C372" t="s">
+        <v>2272</v>
+      </c>
+    </row>
+    <row r="373" spans="3:3">
+      <c r="C373" t="s">
+        <v>2273</v>
+      </c>
+    </row>
+    <row r="374" spans="3:3">
+      <c r="C374" t="s">
+        <v>2274</v>
+      </c>
+    </row>
+    <row r="375" spans="3:3">
+      <c r="C375" t="s">
+        <v>2275</v>
+      </c>
+    </row>
+    <row r="376" spans="3:3">
+      <c r="C376" t="s">
+        <v>2276</v>
+      </c>
+    </row>
+    <row r="377" spans="3:3">
+      <c r="C377" t="s">
+        <v>2277</v>
+      </c>
+    </row>
+    <row r="378" spans="3:3">
+      <c r="C378" t="s">
+        <v>2278</v>
+      </c>
+    </row>
+    <row r="379" spans="3:3">
+      <c r="C379" t="s">
+        <v>2279</v>
+      </c>
+    </row>
+    <row r="380" spans="3:3">
+      <c r="C380" t="s">
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="381" spans="3:3">
+      <c r="C381" t="s">
+        <v>2281</v>
+      </c>
+    </row>
+    <row r="382" spans="3:3">
+      <c r="C382" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="383" spans="3:3">
+      <c r="C383" t="s">
+        <v>2283</v>
+      </c>
+    </row>
+    <row r="384" spans="3:3">
+      <c r="C384" t="s">
+        <v>2284</v>
+      </c>
+    </row>
+    <row r="385" spans="3:3">
+      <c r="C385" t="s">
+        <v>2285</v>
+      </c>
+    </row>
+    <row r="386" spans="3:3">
+      <c r="C386" t="s">
+        <v>2286</v>
+      </c>
+    </row>
+    <row r="387" spans="3:3">
+      <c r="C387" t="s">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="388" spans="3:3">
+      <c r="C388" t="s">
+        <v>2288</v>
+      </c>
+    </row>
+    <row r="389" spans="3:3">
+      <c r="C389" t="s">
+        <v>2289</v>
+      </c>
+    </row>
+    <row r="390" spans="3:3">
+      <c r="C390" t="s">
+        <v>2290</v>
+      </c>
+    </row>
+    <row r="391" spans="3:3">
+      <c r="C391" t="s">
+        <v>2291</v>
+      </c>
+    </row>
+    <row r="392" spans="3:3">
+      <c r="C392" t="s">
+        <v>2292</v>
+      </c>
+    </row>
+    <row r="393" spans="3:3">
+      <c r="C393" t="s">
+        <v>2293</v>
+      </c>
+    </row>
+    <row r="394" spans="3:3">
+      <c r="C394" t="s">
+        <v>2294</v>
+      </c>
+    </row>
+    <row r="395" spans="3:3">
+      <c r="C395" t="s">
+        <v>2295</v>
+      </c>
+    </row>
+    <row r="396" spans="3:3">
+      <c r="C396" t="s">
+        <v>2296</v>
+      </c>
+    </row>
+    <row r="397" spans="3:3">
+      <c r="C397" t="s">
+        <v>2297</v>
+      </c>
+    </row>
+    <row r="398" spans="3:3">
+      <c r="C398" t="s">
+        <v>2298</v>
+      </c>
+    </row>
+    <row r="399" spans="3:3">
+      <c r="C399" t="s">
+        <v>2299</v>
+      </c>
+    </row>
+    <row r="400" spans="3:3">
+      <c r="C400" t="s">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="401" spans="3:3">
+      <c r="C401" t="s">
+        <v>2301</v>
+      </c>
+    </row>
+    <row r="402" spans="3:3">
+      <c r="C402" t="s">
+        <v>2302</v>
+      </c>
+    </row>
+    <row r="403" spans="3:3">
+      <c r="C403" t="s">
+        <v>2303</v>
+      </c>
+    </row>
+    <row r="404" spans="3:3">
+      <c r="C404" t="s">
+        <v>2304</v>
+      </c>
+    </row>
+    <row r="405" spans="3:3">
+      <c r="C405" t="s">
+        <v>2305</v>
+      </c>
+    </row>
+    <row r="406" spans="3:3">
+      <c r="C406" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="407" spans="3:3">
+      <c r="C407" t="s">
+        <v>2307</v>
+      </c>
+    </row>
+    <row r="408" spans="3:3">
+      <c r="C408" t="s">
+        <v>2308</v>
+      </c>
+    </row>
+    <row r="409" spans="3:3">
+      <c r="C409" t="s">
+        <v>2309</v>
+      </c>
+    </row>
+    <row r="410" spans="3:3">
+      <c r="C410" t="s">
+        <v>2310</v>
+      </c>
+    </row>
+    <row r="411" spans="3:3">
+      <c r="C411" t="s">
+        <v>2311</v>
+      </c>
+    </row>
+    <row r="412" spans="3:3">
+      <c r="C412" t="s">
+        <v>2312</v>
+      </c>
+    </row>
+    <row r="413" spans="3:3">
+      <c r="C413" t="s">
+        <v>2313</v>
+      </c>
+    </row>
+    <row r="414" spans="3:3">
+      <c r="C414" t="s">
+        <v>2314</v>
+      </c>
+    </row>
+    <row r="415" spans="3:3">
+      <c r="C415" t="s">
+        <v>2315</v>
+      </c>
+    </row>
+    <row r="416" spans="3:3">
+      <c r="C416" t="s">
+        <v>2316</v>
+      </c>
+    </row>
+    <row r="417" spans="3:3">
+      <c r="C417" t="s">
+        <v>2317</v>
+      </c>
+    </row>
+    <row r="418" spans="3:3">
+      <c r="C418" t="s">
+        <v>2318</v>
+      </c>
+    </row>
+    <row r="419" spans="3:3">
+      <c r="C419" t="s">
+        <v>2319</v>
+      </c>
+    </row>
+    <row r="420" spans="3:3">
+      <c r="C420" t="s">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="421" spans="3:3">
+      <c r="C421" t="s">
+        <v>2321</v>
+      </c>
+    </row>
+    <row r="422" spans="3:3">
+      <c r="C422" t="s">
+        <v>2322</v>
+      </c>
+    </row>
+    <row r="423" spans="3:3">
+      <c r="C423" t="s">
+        <v>2323</v>
+      </c>
+    </row>
+    <row r="424" spans="3:3">
+      <c r="C424" t="s">
+        <v>2324</v>
+      </c>
+    </row>
+    <row r="425" spans="3:3">
+      <c r="C425" t="s">
+        <v>2325</v>
+      </c>
+    </row>
+    <row r="426" spans="3:3">
+      <c r="C426" t="s">
+        <v>2326</v>
+      </c>
+    </row>
+    <row r="427" spans="3:3">
+      <c r="C427" t="s">
+        <v>2327</v>
+      </c>
+    </row>
+    <row r="428" spans="3:3">
+      <c r="C428" t="s">
+        <v>2328</v>
+      </c>
+    </row>
+    <row r="429" spans="3:3">
+      <c r="C429" t="s">
+        <v>2329</v>
+      </c>
+    </row>
+    <row r="430" spans="3:3">
+      <c r="C430" t="s">
+        <v>2330</v>
+      </c>
+    </row>
+    <row r="431" spans="3:3">
+      <c r="C431" t="s">
+        <v>2331</v>
+      </c>
+    </row>
+    <row r="432" spans="3:3">
+      <c r="C432" t="s">
+        <v>2332</v>
+      </c>
+    </row>
+    <row r="433" spans="3:3">
+      <c r="C433" t="s">
+        <v>2333</v>
+      </c>
+    </row>
+    <row r="434" spans="3:3">
+      <c r="C434" t="s">
+        <v>2334</v>
+      </c>
+    </row>
+    <row r="435" spans="3:3">
+      <c r="C435" t="s">
+        <v>2335</v>
+      </c>
+    </row>
+    <row r="436" spans="3:3">
+      <c r="C436" t="s">
+        <v>2336</v>
+      </c>
+    </row>
+    <row r="437" spans="3:3">
+      <c r="C437" t="s">
+        <v>2337</v>
+      </c>
+    </row>
+    <row r="438" spans="3:3">
+      <c r="C438" t="s">
+        <v>2338</v>
+      </c>
+    </row>
+    <row r="439" spans="3:3">
+      <c r="C439" t="s">
+        <v>2339</v>
+      </c>
+    </row>
+    <row r="440" spans="3:3">
+      <c r="C440" t="s">
+        <v>2340</v>
+      </c>
+    </row>
+    <row r="441" spans="3:3">
+      <c r="C441" t="s">
+        <v>2341</v>
+      </c>
+    </row>
+    <row r="442" spans="3:3">
+      <c r="C442" t="s">
+        <v>2342</v>
+      </c>
+    </row>
+    <row r="443" spans="3:3">
+      <c r="C443" t="s">
+        <v>2343</v>
+      </c>
+    </row>
+    <row r="444" spans="3:3">
+      <c r="C444" t="s">
+        <v>2344</v>
+      </c>
+    </row>
+    <row r="445" spans="3:3">
+      <c r="C445" t="s">
+        <v>2345</v>
+      </c>
+    </row>
+    <row r="446" spans="3:3">
+      <c r="C446" t="s">
+        <v>2346</v>
+      </c>
+    </row>
+    <row r="447" spans="3:3">
+      <c r="C447" t="s">
+        <v>2347</v>
+      </c>
+    </row>
+    <row r="448" spans="3:3">
+      <c r="C448" t="s">
+        <v>2348</v>
+      </c>
+    </row>
+    <row r="449" spans="3:3">
+      <c r="C449" t="s">
+        <v>2349</v>
+      </c>
+    </row>
+    <row r="450" spans="3:3">
+      <c r="C450" t="s">
+        <v>2350</v>
+      </c>
+    </row>
+    <row r="451" spans="3:3">
+      <c r="C451" t="s">
+        <v>2351</v>
+      </c>
+    </row>
+    <row r="452" spans="3:3">
+      <c r="C452" t="s">
+        <v>2352</v>
+      </c>
+    </row>
+    <row r="453" spans="3:3">
+      <c r="C453" t="s">
+        <v>2353</v>
+      </c>
+    </row>
+    <row r="454" spans="3:3">
+      <c r="C454" t="s">
+        <v>2354</v>
+      </c>
+    </row>
+    <row r="455" spans="3:3">
+      <c r="C455" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="456" spans="3:3">
+      <c r="C456" t="s">
+        <v>2356</v>
+      </c>
+    </row>
+    <row r="457" spans="3:3">
+      <c r="C457" t="s">
+        <v>2357</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="D3:I185"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="3" spans="4:4">
       <c r="D3" s="1" t="s">
-        <v>1905</v>
+        <v>2358</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>1906</v>
+        <v>2359</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>1907</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="14" ht="16.5" spans="4:4">
       <c r="D14" t="s">
-        <v>1908</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="16" ht="16.5" spans="4:4">
       <c r="D16" t="s">
-        <v>1909</v>
+        <v>2362</v>
       </c>
     </row>
     <row r="18" ht="16.5" spans="4:4">
       <c r="D18" t="s">
-        <v>1910</v>
+        <v>2363</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>1911</v>
+        <v>2364</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>1912</v>
+        <v>2365</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>1913</v>
+        <v>2366</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" t="s">
-        <v>1914</v>
+        <v>2367</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" t="s">
-        <v>1915</v>
+        <v>2368</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" t="s">
-        <v>1916</v>
+        <v>2369</v>
       </c>
     </row>
     <row r="25" ht="16.5" spans="4:4">
       <c r="D25" t="s">
-        <v>1917</v>
+        <v>2370</v>
       </c>
     </row>
     <row r="27" ht="16.5" spans="4:4">
-      <c r="D27" t="s">
-        <v>1918</v>
+      <c r="D27" s="2" t="s">
+        <v>2371</v>
       </c>
     </row>
     <row r="29" spans="4:4">
       <c r="D29" t="s">
-        <v>1919</v>
+        <v>2372</v>
       </c>
     </row>
     <row r="31" ht="16.5" spans="4:4">
       <c r="D31" t="s">
-        <v>1920</v>
+        <v>2373</v>
       </c>
     </row>
     <row r="34" spans="4:4">
-      <c r="D34" s="2" t="s">
-        <v>1921</v>
+      <c r="D34" s="3" t="s">
+        <v>2374</v>
       </c>
     </row>
     <row r="35" spans="4:4">
-      <c r="D35" s="2"/>
+      <c r="D35" s="3"/>
     </row>
     <row r="36" spans="4:4">
-      <c r="D36" s="2"/>
+      <c r="D36" s="3"/>
     </row>
     <row r="37" spans="4:4">
-      <c r="D37" s="2"/>
+      <c r="D37" s="3"/>
     </row>
     <row r="38" spans="4:4">
-      <c r="D38" s="2"/>
+      <c r="D38" s="3"/>
     </row>
     <row r="39" spans="4:4">
-      <c r="D39" s="2"/>
+      <c r="D39" s="3"/>
     </row>
     <row r="42" spans="4:4">
-      <c r="D42" s="3"/>
+      <c r="D42" s="4"/>
     </row>
     <row r="46" spans="4:4">
-      <c r="D46" s="4" t="s">
-        <v>1922</v>
+      <c r="D46" s="5" t="s">
+        <v>2375</v>
       </c>
     </row>
     <row r="48" ht="16.5" spans="4:4">
-      <c r="D48" s="5" t="s">
-        <v>1923</v>
+      <c r="D48" s="6" t="s">
+        <v>2376</v>
       </c>
     </row>
     <row r="50" ht="16.5" spans="4:4">
-      <c r="D50" s="5" t="s">
-        <v>1924</v>
+      <c r="D50" s="6" t="s">
+        <v>2377</v>
       </c>
     </row>
     <row r="52" ht="16.5" spans="4:4">
-      <c r="D52" s="5" t="s">
-        <v>1925</v>
+      <c r="D52" s="6" t="s">
+        <v>2378</v>
       </c>
     </row>
     <row r="57" spans="4:4">
       <c r="D57" t="s">
-        <v>1926</v>
+        <v>2379</v>
       </c>
     </row>
     <row r="58" spans="4:4">
       <c r="D58" t="s">
-        <v>1927</v>
+        <v>2380</v>
       </c>
     </row>
     <row r="59" spans="4:4">
       <c r="D59" t="s">
-        <v>1928</v>
+        <v>2381</v>
       </c>
     </row>
     <row r="60" spans="4:4">
       <c r="D60" t="s">
-        <v>1929</v>
+        <v>2382</v>
       </c>
     </row>
     <row r="61" spans="4:4">
       <c r="D61" t="s">
-        <v>1930</v>
+        <v>2383</v>
       </c>
     </row>
     <row r="62" spans="4:4">
       <c r="D62" t="s">
-        <v>1931</v>
+        <v>2384</v>
       </c>
     </row>
     <row r="63" spans="4:4">
       <c r="D63" t="s">
-        <v>1932</v>
+        <v>2385</v>
       </c>
     </row>
     <row r="64" spans="4:4">
       <c r="D64" t="s">
-        <v>1933</v>
+        <v>2386</v>
       </c>
     </row>
     <row r="65" spans="4:4">
       <c r="D65" t="s">
-        <v>1934</v>
+        <v>2387</v>
       </c>
     </row>
     <row r="66" spans="4:4">
       <c r="D66" t="s">
-        <v>1935</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="67" spans="4:4">
       <c r="D67" t="s">
-        <v>1936</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="68" spans="4:4">
       <c r="D68" t="s">
-        <v>1937</v>
+        <v>2390</v>
       </c>
     </row>
     <row r="69" spans="4:4">
       <c r="D69" t="s">
-        <v>1938</v>
+        <v>2391</v>
       </c>
     </row>
     <row r="70" spans="4:4">
       <c r="D70" t="s">
-        <v>1939</v>
+        <v>2392</v>
       </c>
     </row>
     <row r="71" spans="4:4">
       <c r="D71" t="s">
-        <v>1940</v>
+        <v>2393</v>
       </c>
     </row>
     <row r="72" spans="4:4">
       <c r="D72" t="s">
-        <v>1941</v>
+        <v>2394</v>
       </c>
     </row>
     <row r="73" spans="4:4">
       <c r="D73" t="s">
-        <v>1942</v>
+        <v>2395</v>
       </c>
     </row>
     <row r="74" spans="4:4">
       <c r="D74" t="s">
-        <v>1943</v>
+        <v>2396</v>
       </c>
     </row>
     <row r="75" spans="4:4">
       <c r="D75" t="s">
-        <v>1944</v>
+        <v>2397</v>
       </c>
     </row>
     <row r="76" spans="4:4">
       <c r="D76" t="s">
-        <v>1945</v>
+        <v>2398</v>
       </c>
     </row>
     <row r="77" spans="4:4">
       <c r="D77" t="s">
-        <v>1946</v>
+        <v>2399</v>
       </c>
     </row>
     <row r="78" spans="4:4">
       <c r="D78" t="s">
-        <v>1947</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="79" spans="4:4">
       <c r="D79" t="s">
-        <v>1948</v>
+        <v>2401</v>
       </c>
     </row>
     <row r="80" spans="4:4">
       <c r="D80" t="s">
-        <v>1949</v>
+        <v>2402</v>
       </c>
     </row>
     <row r="86" spans="4:4">
-      <c r="D86" s="4" t="s">
-        <v>1950</v>
+      <c r="D86" s="5" t="s">
+        <v>2403</v>
       </c>
     </row>
     <row r="88" ht="16.5" spans="4:4">
-      <c r="D88" s="5" t="s">
-        <v>1951</v>
+      <c r="D88" s="6" t="s">
+        <v>2404</v>
       </c>
     </row>
     <row r="89" ht="16.5" spans="4:4">
-      <c r="D89" s="5" t="s">
-        <v>1952</v>
+      <c r="D89" s="6" t="s">
+        <v>2405</v>
       </c>
     </row>
     <row r="90" ht="16.5" spans="4:4">
-      <c r="D90" s="5" t="s">
-        <v>1953</v>
+      <c r="D90" s="6" t="s">
+        <v>2406</v>
       </c>
     </row>
     <row r="91" ht="16.5" spans="4:4">
-      <c r="D91" s="5" t="s">
-        <v>1954</v>
+      <c r="D91" s="6" t="s">
+        <v>2407</v>
       </c>
     </row>
     <row r="92" ht="16.5" spans="4:4">
-      <c r="D92" s="5" t="s">
-        <v>1955</v>
+      <c r="D92" s="6" t="s">
+        <v>2408</v>
       </c>
     </row>
     <row r="94" spans="4:4">
-      <c r="D94" s="4" t="s">
-        <v>1956</v>
+      <c r="D94" s="5" t="s">
+        <v>2409</v>
       </c>
     </row>
     <row r="96" ht="16.5" spans="4:4">
-      <c r="D96" s="5" t="s">
-        <v>1957</v>
+      <c r="D96" s="6" t="s">
+        <v>2410</v>
       </c>
     </row>
     <row r="97" ht="16.5" spans="4:4">
-      <c r="D97" s="5" t="s">
-        <v>1958</v>
+      <c r="D97" s="6" t="s">
+        <v>2411</v>
       </c>
     </row>
     <row r="98" ht="16.5" spans="4:4">
-      <c r="D98" s="5" t="s">
-        <v>1959</v>
+      <c r="D98" s="6" t="s">
+        <v>2412</v>
       </c>
     </row>
     <row r="99" ht="16.5" spans="4:4">
-      <c r="D99" s="5" t="s">
-        <v>1960</v>
+      <c r="D99" s="6" t="s">
+        <v>2413</v>
       </c>
     </row>
     <row r="100" ht="16.5" spans="4:4">
-      <c r="D100" s="5" t="s">
-        <v>1961</v>
+      <c r="D100" s="6" t="s">
+        <v>2414</v>
       </c>
     </row>
     <row r="101" ht="16.5" spans="4:4">
-      <c r="D101" s="5" t="s">
-        <v>1962</v>
+      <c r="D101" s="6" t="s">
+        <v>2415</v>
       </c>
     </row>
     <row r="102" ht="16.5" spans="4:4">
-      <c r="D102" s="5" t="s">
-        <v>1963</v>
+      <c r="D102" s="6" t="s">
+        <v>2416</v>
       </c>
     </row>
     <row r="103" ht="16.5" spans="4:4">
-      <c r="D103" s="5" t="s">
-        <v>1964</v>
+      <c r="D103" s="6" t="s">
+        <v>2417</v>
       </c>
     </row>
     <row r="106" spans="4:4">
-      <c r="D106" s="4" t="s">
-        <v>1965</v>
+      <c r="D106" s="5" t="s">
+        <v>2418</v>
       </c>
     </row>
     <row r="107" ht="16.5" spans="4:4">
       <c r="D107" t="s">
-        <v>1966</v>
+        <v>2419</v>
       </c>
     </row>
     <row r="108" ht="16.5" spans="4:4">
       <c r="D108" t="s">
-        <v>1967</v>
+        <v>2420</v>
       </c>
     </row>
     <row r="109" spans="4:4">
-      <c r="D109" s="6" t="s">
-        <v>1968</v>
+      <c r="D109" s="7" t="s">
+        <v>2421</v>
       </c>
     </row>
     <row r="110" spans="4:4">
-      <c r="D110" s="6"/>
+      <c r="D110" s="7"/>
     </row>
     <row r="111" spans="4:9">
-      <c r="D111" s="7" t="s">
-        <v>1969</v>
-      </c>
-      <c r="E111" s="7"/>
-      <c r="F111" s="7"/>
-      <c r="G111" s="7"/>
-      <c r="H111" s="7"/>
-      <c r="I111" s="7"/>
+      <c r="D111" s="8" t="s">
+        <v>2422</v>
+      </c>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="8"/>
+      <c r="H111" s="8"/>
+      <c r="I111" s="8"/>
     </row>
     <row r="112" spans="4:9">
-      <c r="D112" s="7" t="s">
-        <v>1970</v>
-      </c>
-      <c r="E112" s="7"/>
-      <c r="F112" s="7"/>
-      <c r="G112" s="7"/>
-      <c r="H112" s="7"/>
-      <c r="I112" s="7"/>
+      <c r="D112" s="8" t="s">
+        <v>2423</v>
+      </c>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
+      <c r="H112" s="8"/>
+      <c r="I112" s="8"/>
     </row>
     <row r="113" spans="4:9">
-      <c r="D113" s="7" t="s">
-        <v>1971</v>
-      </c>
-      <c r="E113" s="7"/>
-      <c r="F113" s="7"/>
-      <c r="G113" s="7"/>
-      <c r="H113" s="7"/>
-      <c r="I113" s="7"/>
+      <c r="D113" s="8" t="s">
+        <v>2424</v>
+      </c>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="8"/>
+      <c r="H113" s="8"/>
+      <c r="I113" s="8"/>
     </row>
     <row r="114" spans="4:9">
-      <c r="D114" s="7"/>
-      <c r="E114" s="7"/>
-      <c r="F114" s="7"/>
-      <c r="G114" s="7"/>
-      <c r="H114" s="7"/>
-      <c r="I114" s="7"/>
+      <c r="D114" s="8"/>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="8"/>
+      <c r="H114" s="8"/>
+      <c r="I114" s="8"/>
     </row>
     <row r="115" spans="4:9">
-      <c r="D115" s="7" t="s">
-        <v>1972</v>
-      </c>
-      <c r="E115" s="7"/>
-      <c r="F115" s="7"/>
-      <c r="G115" s="7"/>
-      <c r="H115" s="7"/>
-      <c r="I115" s="7"/>
+      <c r="D115" s="8" t="s">
+        <v>2425</v>
+      </c>
+      <c r="E115" s="8"/>
+      <c r="F115" s="8"/>
+      <c r="G115" s="8"/>
+      <c r="H115" s="8"/>
+      <c r="I115" s="8"/>
     </row>
     <row r="116" spans="4:9">
-      <c r="D116" s="7" t="s">
-        <v>1973</v>
-      </c>
-      <c r="E116" s="7"/>
-      <c r="F116" s="7"/>
-      <c r="G116" s="7"/>
-      <c r="H116" s="7"/>
-      <c r="I116" s="7"/>
+      <c r="D116" s="8" t="s">
+        <v>2426</v>
+      </c>
+      <c r="E116" s="8"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="8"/>
+      <c r="H116" s="8"/>
+      <c r="I116" s="8"/>
     </row>
     <row r="117" spans="4:9">
-      <c r="D117" s="7" t="s">
-        <v>1971</v>
-      </c>
-      <c r="E117" s="7"/>
-      <c r="F117" s="7"/>
-      <c r="G117" s="7"/>
-      <c r="H117" s="7"/>
-      <c r="I117" s="7"/>
+      <c r="D117" s="8" t="s">
+        <v>2424</v>
+      </c>
+      <c r="E117" s="8"/>
+      <c r="F117" s="8"/>
+      <c r="G117" s="8"/>
+      <c r="H117" s="8"/>
+      <c r="I117" s="8"/>
     </row>
     <row r="118" spans="4:9">
-      <c r="D118" s="7" t="s">
-        <v>1974</v>
-      </c>
-      <c r="E118" s="7"/>
-      <c r="F118" s="7"/>
-      <c r="G118" s="7"/>
-      <c r="H118" s="7"/>
-      <c r="I118" s="7"/>
+      <c r="D118" s="8" t="s">
+        <v>2427</v>
+      </c>
+      <c r="E118" s="8"/>
+      <c r="F118" s="8"/>
+      <c r="G118" s="8"/>
+      <c r="H118" s="8"/>
+      <c r="I118" s="8"/>
     </row>
     <row r="119" spans="4:9">
-      <c r="D119" s="7" t="s">
-        <v>1975</v>
-      </c>
-      <c r="E119" s="7"/>
-      <c r="F119" s="7"/>
-      <c r="G119" s="7"/>
-      <c r="H119" s="7"/>
-      <c r="I119" s="7"/>
+      <c r="D119" s="8" t="s">
+        <v>2428</v>
+      </c>
+      <c r="E119" s="8"/>
+      <c r="F119" s="8"/>
+      <c r="G119" s="8"/>
+      <c r="H119" s="8"/>
+      <c r="I119" s="8"/>
     </row>
     <row r="120" spans="4:9">
-      <c r="D120" s="7" t="s">
-        <v>1976</v>
-      </c>
-      <c r="E120" s="7"/>
-      <c r="F120" s="7"/>
-      <c r="G120" s="7"/>
-      <c r="H120" s="7"/>
-      <c r="I120" s="7"/>
+      <c r="D120" s="8" t="s">
+        <v>2429</v>
+      </c>
+      <c r="E120" s="8"/>
+      <c r="F120" s="8"/>
+      <c r="G120" s="8"/>
+      <c r="H120" s="8"/>
+      <c r="I120" s="8"/>
     </row>
     <row r="121" spans="4:9">
-      <c r="D121" s="7" t="s">
-        <v>1977</v>
-      </c>
-      <c r="E121" s="7"/>
-      <c r="F121" s="7"/>
-      <c r="G121" s="7"/>
-      <c r="H121" s="7"/>
-      <c r="I121" s="7"/>
+      <c r="D121" s="8" t="s">
+        <v>2430</v>
+      </c>
+      <c r="E121" s="8"/>
+      <c r="F121" s="8"/>
+      <c r="G121" s="8"/>
+      <c r="H121" s="8"/>
+      <c r="I121" s="8"/>
     </row>
     <row r="122" spans="4:9">
-      <c r="D122" s="7" t="s">
-        <v>1978</v>
-      </c>
-      <c r="E122" s="7"/>
-      <c r="F122" s="7"/>
-      <c r="G122" s="7"/>
-      <c r="H122" s="7"/>
-      <c r="I122" s="7"/>
+      <c r="D122" s="8" t="s">
+        <v>2431</v>
+      </c>
+      <c r="E122" s="8"/>
+      <c r="F122" s="8"/>
+      <c r="G122" s="8"/>
+      <c r="H122" s="8"/>
+      <c r="I122" s="8"/>
     </row>
     <row r="123" spans="4:9">
-      <c r="D123" s="7"/>
-      <c r="E123" s="7"/>
-      <c r="F123" s="7"/>
-      <c r="G123" s="7"/>
-      <c r="H123" s="7"/>
-      <c r="I123" s="7"/>
+      <c r="D123" s="8"/>
+      <c r="E123" s="8"/>
+      <c r="F123" s="8"/>
+      <c r="G123" s="8"/>
+      <c r="H123" s="8"/>
+      <c r="I123" s="8"/>
     </row>
     <row r="124" spans="4:9">
-      <c r="D124" s="7" t="s">
-        <v>1979</v>
-      </c>
-      <c r="E124" s="7"/>
-      <c r="F124" s="7"/>
-      <c r="G124" s="7"/>
-      <c r="H124" s="7"/>
-      <c r="I124" s="7"/>
+      <c r="D124" s="8" t="s">
+        <v>2432</v>
+      </c>
+      <c r="E124" s="8"/>
+      <c r="F124" s="8"/>
+      <c r="G124" s="8"/>
+      <c r="H124" s="8"/>
+      <c r="I124" s="8"/>
     </row>
     <row r="125" spans="4:9">
-      <c r="D125" s="7" t="s">
-        <v>1980</v>
-      </c>
-      <c r="E125" s="7"/>
-      <c r="F125" s="7"/>
-      <c r="G125" s="7"/>
-      <c r="H125" s="7"/>
-      <c r="I125" s="7"/>
+      <c r="D125" s="8" t="s">
+        <v>2433</v>
+      </c>
+      <c r="E125" s="8"/>
+      <c r="F125" s="8"/>
+      <c r="G125" s="8"/>
+      <c r="H125" s="8"/>
+      <c r="I125" s="8"/>
     </row>
     <row r="126" spans="4:9">
-      <c r="D126" s="7" t="s">
-        <v>1981</v>
-      </c>
-      <c r="E126" s="7"/>
-      <c r="F126" s="7"/>
-      <c r="G126" s="7"/>
-      <c r="H126" s="7"/>
-      <c r="I126" s="7"/>
+      <c r="D126" s="8" t="s">
+        <v>2434</v>
+      </c>
+      <c r="E126" s="8"/>
+      <c r="F126" s="8"/>
+      <c r="G126" s="8"/>
+      <c r="H126" s="8"/>
+      <c r="I126" s="8"/>
     </row>
     <row r="127" spans="4:9">
-      <c r="D127" s="7" t="s">
-        <v>1982</v>
-      </c>
-      <c r="E127" s="7"/>
-      <c r="F127" s="7"/>
-      <c r="G127" s="7"/>
-      <c r="H127" s="7"/>
-      <c r="I127" s="7"/>
+      <c r="D127" s="8" t="s">
+        <v>2435</v>
+      </c>
+      <c r="E127" s="8"/>
+      <c r="F127" s="8"/>
+      <c r="G127" s="8"/>
+      <c r="H127" s="8"/>
+      <c r="I127" s="8"/>
     </row>
     <row r="128" spans="4:9">
-      <c r="D128" s="7"/>
-      <c r="E128" s="7"/>
-      <c r="F128" s="7"/>
-      <c r="G128" s="7"/>
-      <c r="H128" s="7"/>
-      <c r="I128" s="7"/>
+      <c r="D128" s="8"/>
+      <c r="E128" s="8"/>
+      <c r="F128" s="8"/>
+      <c r="G128" s="8"/>
+      <c r="H128" s="8"/>
+      <c r="I128" s="8"/>
     </row>
     <row r="129" spans="4:9">
-      <c r="D129" s="7" t="s">
-        <v>1983</v>
-      </c>
-      <c r="E129" s="7"/>
-      <c r="F129" s="7"/>
-      <c r="G129" s="7"/>
-      <c r="H129" s="7"/>
-      <c r="I129" s="7"/>
+      <c r="D129" s="8" t="s">
+        <v>2436</v>
+      </c>
+      <c r="E129" s="8"/>
+      <c r="F129" s="8"/>
+      <c r="G129" s="8"/>
+      <c r="H129" s="8"/>
+      <c r="I129" s="8"/>
     </row>
     <row r="130" spans="4:9">
-      <c r="D130" s="7" t="s">
-        <v>1984</v>
-      </c>
-      <c r="E130" s="7"/>
-      <c r="F130" s="7"/>
-      <c r="G130" s="7"/>
-      <c r="H130" s="7"/>
-      <c r="I130" s="7"/>
+      <c r="D130" s="8" t="s">
+        <v>2437</v>
+      </c>
+      <c r="E130" s="8"/>
+      <c r="F130" s="8"/>
+      <c r="G130" s="8"/>
+      <c r="H130" s="8"/>
+      <c r="I130" s="8"/>
     </row>
     <row r="131" spans="4:9">
-      <c r="D131" s="7" t="s">
-        <v>1985</v>
-      </c>
-      <c r="E131" s="7"/>
-      <c r="F131" s="7"/>
-      <c r="G131" s="7"/>
-      <c r="H131" s="7"/>
-      <c r="I131" s="7"/>
+      <c r="D131" s="8" t="s">
+        <v>2438</v>
+      </c>
+      <c r="E131" s="8"/>
+      <c r="F131" s="8"/>
+      <c r="G131" s="8"/>
+      <c r="H131" s="8"/>
+      <c r="I131" s="8"/>
     </row>
     <row r="132" spans="4:9">
-      <c r="D132" s="7" t="s">
-        <v>1986</v>
-      </c>
-      <c r="E132" s="7"/>
-      <c r="F132" s="7"/>
-      <c r="G132" s="7"/>
-      <c r="H132" s="7"/>
-      <c r="I132" s="7"/>
+      <c r="D132" s="8" t="s">
+        <v>2439</v>
+      </c>
+      <c r="E132" s="8"/>
+      <c r="F132" s="8"/>
+      <c r="G132" s="8"/>
+      <c r="H132" s="8"/>
+      <c r="I132" s="8"/>
     </row>
     <row r="133" spans="4:9">
-      <c r="D133" s="7" t="s">
-        <v>1982</v>
-      </c>
-      <c r="E133" s="7"/>
-      <c r="F133" s="7"/>
-      <c r="G133" s="7"/>
-      <c r="H133" s="7"/>
-      <c r="I133" s="7"/>
+      <c r="D133" s="8" t="s">
+        <v>2435</v>
+      </c>
+      <c r="E133" s="8"/>
+      <c r="F133" s="8"/>
+      <c r="G133" s="8"/>
+      <c r="H133" s="8"/>
+      <c r="I133" s="8"/>
     </row>
     <row r="134" spans="4:9">
-      <c r="D134" s="7"/>
-      <c r="E134" s="7"/>
-      <c r="F134" s="7"/>
-      <c r="G134" s="7"/>
-      <c r="H134" s="7"/>
-      <c r="I134" s="7"/>
+      <c r="D134" s="8"/>
+      <c r="E134" s="8"/>
+      <c r="F134" s="8"/>
+      <c r="G134" s="8"/>
+      <c r="H134" s="8"/>
+      <c r="I134" s="8"/>
     </row>
     <row r="135" spans="4:9">
-      <c r="D135" s="7" t="s">
-        <v>1987</v>
-      </c>
-      <c r="E135" s="7"/>
-      <c r="F135" s="7"/>
-      <c r="G135" s="7"/>
-      <c r="H135" s="7"/>
-      <c r="I135" s="7"/>
+      <c r="D135" s="8" t="s">
+        <v>2440</v>
+      </c>
+      <c r="E135" s="8"/>
+      <c r="F135" s="8"/>
+      <c r="G135" s="8"/>
+      <c r="H135" s="8"/>
+      <c r="I135" s="8"/>
     </row>
     <row r="136" spans="4:9">
-      <c r="D136" s="7" t="s">
-        <v>1988</v>
-      </c>
-      <c r="E136" s="7"/>
-      <c r="F136" s="7"/>
-      <c r="G136" s="7"/>
-      <c r="H136" s="7"/>
-      <c r="I136" s="7"/>
+      <c r="D136" s="8" t="s">
+        <v>2441</v>
+      </c>
+      <c r="E136" s="8"/>
+      <c r="F136" s="8"/>
+      <c r="G136" s="8"/>
+      <c r="H136" s="8"/>
+      <c r="I136" s="8"/>
     </row>
     <row r="137" spans="4:9">
-      <c r="D137" s="7" t="s">
-        <v>1989</v>
-      </c>
-      <c r="E137" s="7"/>
-      <c r="F137" s="7"/>
-      <c r="G137" s="7"/>
-      <c r="H137" s="7"/>
-      <c r="I137" s="7"/>
+      <c r="D137" s="8" t="s">
+        <v>2442</v>
+      </c>
+      <c r="E137" s="8"/>
+      <c r="F137" s="8"/>
+      <c r="G137" s="8"/>
+      <c r="H137" s="8"/>
+      <c r="I137" s="8"/>
     </row>
     <row r="138" spans="4:9">
-      <c r="D138" s="7" t="s">
-        <v>1990</v>
-      </c>
-      <c r="E138" s="7"/>
-      <c r="F138" s="7"/>
-      <c r="G138" s="7"/>
-      <c r="H138" s="7"/>
-      <c r="I138" s="7"/>
+      <c r="D138" s="8" t="s">
+        <v>2443</v>
+      </c>
+      <c r="E138" s="8"/>
+      <c r="F138" s="8"/>
+      <c r="G138" s="8"/>
+      <c r="H138" s="8"/>
+      <c r="I138" s="8"/>
     </row>
     <row r="139" spans="4:9">
-      <c r="D139" s="7" t="s">
-        <v>1982</v>
-      </c>
-      <c r="E139" s="7"/>
-      <c r="F139" s="7"/>
-      <c r="G139" s="7"/>
-      <c r="H139" s="7"/>
-      <c r="I139" s="7"/>
+      <c r="D139" s="8" t="s">
+        <v>2435</v>
+      </c>
+      <c r="E139" s="8"/>
+      <c r="F139" s="8"/>
+      <c r="G139" s="8"/>
+      <c r="H139" s="8"/>
+      <c r="I139" s="8"/>
     </row>
     <row r="143" spans="4:4">
-      <c r="D143" s="6" t="s">
-        <v>1991</v>
+      <c r="D143" s="7" t="s">
+        <v>2444</v>
       </c>
     </row>
     <row r="146" ht="16.5" spans="4:4">
       <c r="D146" t="s">
-        <v>1992</v>
+        <v>2445</v>
       </c>
     </row>
     <row r="149" spans="4:4">
-      <c r="D149" s="6" t="s">
-        <v>1993</v>
+      <c r="D149" s="7" t="s">
+        <v>2446</v>
       </c>
     </row>
     <row r="155" ht="16.5" spans="4:4">
       <c r="D155" t="s">
-        <v>1994</v>
+        <v>2447</v>
       </c>
     </row>
     <row r="159" spans="4:4">
-      <c r="D159" s="4" t="s">
-        <v>1995</v>
+      <c r="D159" s="5" t="s">
+        <v>2448</v>
       </c>
     </row>
     <row r="161" spans="4:4">
       <c r="D161" t="s">
-        <v>1996</v>
+        <v>2449</v>
       </c>
     </row>
     <row r="162" spans="4:4">
       <c r="D162" t="s">
-        <v>1997</v>
+        <v>2450</v>
       </c>
     </row>
     <row r="163" spans="4:4">
       <c r="D163" t="s">
-        <v>1971</v>
+        <v>2424</v>
       </c>
     </row>
     <row r="164" spans="4:4">
-      <c r="D164" s="7" t="s">
-        <v>1998</v>
+      <c r="D164" s="8" t="s">
+        <v>2451</v>
       </c>
     </row>
     <row r="166" spans="4:4">
       <c r="D166" t="s">
-        <v>1972</v>
+        <v>2425</v>
       </c>
     </row>
     <row r="167" spans="4:4">
       <c r="D167" t="s">
-        <v>1999</v>
+        <v>2452</v>
       </c>
     </row>
     <row r="168" spans="4:4">
-      <c r="D168" s="7" t="s">
-        <v>2000</v>
+      <c r="D168" s="8" t="s">
+        <v>2453</v>
       </c>
     </row>
     <row r="169" spans="4:4">
       <c r="D169" t="s">
-        <v>2001</v>
+        <v>2454</v>
       </c>
     </row>
     <row r="171" spans="4:4">
       <c r="D171" t="s">
-        <v>1975</v>
+        <v>2428</v>
       </c>
     </row>
     <row r="172" spans="4:4">
-      <c r="D172" s="7" t="s">
-        <v>2002</v>
+      <c r="D172" s="8" t="s">
+        <v>2455</v>
       </c>
     </row>
     <row r="173" spans="4:4">
       <c r="D173" t="s">
-        <v>2000</v>
+        <v>2453</v>
       </c>
     </row>
     <row r="174" spans="4:4">
       <c r="D174" t="s">
-        <v>2003</v>
+        <v>2456</v>
       </c>
     </row>
     <row r="176" spans="4:4">
-      <c r="D176" s="7" t="s">
-        <v>1979</v>
+      <c r="D176" s="8" t="s">
+        <v>2432</v>
       </c>
     </row>
     <row r="177" spans="4:4">
       <c r="D177" t="s">
-        <v>2004</v>
+        <v>2457</v>
       </c>
     </row>
     <row r="178" spans="4:4">
       <c r="D178" t="s">
-        <v>2000</v>
+        <v>2453</v>
       </c>
     </row>
     <row r="179" spans="4:4">
       <c r="D179" t="s">
-        <v>2005</v>
+        <v>2458</v>
       </c>
     </row>
     <row r="180" spans="4:4">
-      <c r="D180" s="7"/>
+      <c r="D180" s="8"/>
     </row>
     <row r="181" spans="4:4">
       <c r="D181" t="s">
-        <v>2006</v>
+        <v>2459</v>
       </c>
     </row>
     <row r="183" spans="4:4">
-      <c r="D183" s="7"/>
+      <c r="D183" s="8"/>
     </row>
     <row r="185" spans="4:4">
-      <c r="D185" s="6" t="s">
-        <v>2007</v>
+      <c r="D185" s="7" t="s">
+        <v>2460</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-  <controls>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="4103" r:id="rId3">
-          <controlPr defaultSize="0">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>83</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>84</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="4103" r:id="rId3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="4104" r:id="rId4">
-          <controlPr defaultSize="0">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>140</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>141</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="4104" r:id="rId4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="4105" r:id="rId5">
-          <controlPr defaultSize="0">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>160</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>161</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="4105" r:id="rId5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-  </controls>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
@@ -56338,12 +60188,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
@@ -56355,120 +60205,120 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="D2:E160"/>
   <sheetViews>
-    <sheetView topLeftCell="A143" workbookViewId="0">
-      <selection activeCell="E170" sqref="E170"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="I78" sqref="I78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelCol="4"/>
   <sheetData>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>2008</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>2009</v>
+        <v>2462</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" t="s">
-        <v>2010</v>
+        <v>2463</v>
       </c>
     </row>
     <row r="5" spans="5:5">
       <c r="E5" t="s">
-        <v>2011</v>
+        <v>2464</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" t="s">
-        <v>2012</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="7" spans="5:5">
       <c r="E7" t="s">
-        <v>2013</v>
+        <v>2466</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>2014</v>
+        <v>2467</v>
       </c>
     </row>
     <row r="9" spans="5:5">
       <c r="E9" t="s">
-        <v>2015</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>2016</v>
+        <v>2469</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>2017</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>2018</v>
+        <v>2471</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" t="s">
-        <v>2019</v>
+        <v>2472</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>2020</v>
+        <v>2473</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" t="s">
-        <v>2021</v>
+        <v>2474</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>2022</v>
+        <v>2475</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>2023</v>
+        <v>2476</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>2024</v>
+        <v>2477</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>2025</v>
+        <v>2478</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" t="s">
-        <v>2026</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" t="s">
-        <v>2027</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="25" spans="4:4">
       <c r="D25" t="s">
-        <v>2028</v>
+        <v>2481</v>
       </c>
     </row>
     <row r="26" spans="4:4">
@@ -56478,427 +60328,427 @@
     </row>
     <row r="27" spans="4:4">
       <c r="D27" t="s">
-        <v>2029</v>
+        <v>2482</v>
       </c>
     </row>
     <row r="28" spans="4:4">
       <c r="D28" t="s">
-        <v>2030</v>
+        <v>2483</v>
       </c>
     </row>
     <row r="29" spans="4:4">
       <c r="D29" t="s">
-        <v>2031</v>
+        <v>2484</v>
       </c>
     </row>
     <row r="30" spans="4:4">
       <c r="D30" t="s">
-        <v>2032</v>
+        <v>2485</v>
       </c>
     </row>
     <row r="31" spans="4:4">
       <c r="D31" t="s">
-        <v>2033</v>
+        <v>2486</v>
       </c>
     </row>
     <row r="32" spans="4:4">
       <c r="D32" t="s">
-        <v>2034</v>
+        <v>2487</v>
       </c>
     </row>
     <row r="33" spans="4:4">
       <c r="D33" t="s">
-        <v>2035</v>
+        <v>2488</v>
       </c>
     </row>
     <row r="34" spans="4:4">
       <c r="D34" t="s">
-        <v>2036</v>
+        <v>2489</v>
       </c>
     </row>
     <row r="37" spans="4:4">
       <c r="D37" t="s">
-        <v>2037</v>
+        <v>2490</v>
       </c>
     </row>
     <row r="38" spans="4:4">
       <c r="D38" t="s">
-        <v>2038</v>
+        <v>2491</v>
       </c>
     </row>
     <row r="39" spans="4:4">
       <c r="D39" t="s">
-        <v>2039</v>
+        <v>2492</v>
       </c>
     </row>
     <row r="40" spans="5:5">
       <c r="E40" t="s">
-        <v>2040</v>
+        <v>2493</v>
       </c>
     </row>
     <row r="41" spans="4:4">
       <c r="D41" t="s">
-        <v>2041</v>
+        <v>2494</v>
       </c>
     </row>
     <row r="42" spans="4:4">
       <c r="D42" t="s">
-        <v>2042</v>
+        <v>2495</v>
       </c>
     </row>
     <row r="43" spans="4:4">
       <c r="D43" t="s">
-        <v>2043</v>
+        <v>2496</v>
       </c>
     </row>
     <row r="44" spans="4:4">
       <c r="D44" t="s">
-        <v>2044</v>
+        <v>2497</v>
       </c>
     </row>
     <row r="46" spans="4:4">
       <c r="D46" t="s">
-        <v>2045</v>
+        <v>2498</v>
       </c>
     </row>
     <row r="47" spans="4:4">
       <c r="D47" t="s">
-        <v>2046</v>
+        <v>2499</v>
       </c>
     </row>
     <row r="48" spans="4:4">
       <c r="D48" t="s">
-        <v>2047</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="49" spans="4:4">
       <c r="D49" t="s">
-        <v>2048</v>
+        <v>2501</v>
       </c>
     </row>
     <row r="51" spans="4:4">
       <c r="D51" t="s">
-        <v>2049</v>
+        <v>2502</v>
       </c>
     </row>
     <row r="52" spans="4:4">
       <c r="D52" t="s">
-        <v>2050</v>
+        <v>2503</v>
       </c>
     </row>
     <row r="53" spans="4:4">
       <c r="D53" t="s">
-        <v>2051</v>
+        <v>2504</v>
       </c>
     </row>
     <row r="54" spans="4:4">
       <c r="D54" t="s">
-        <v>2052</v>
+        <v>2505</v>
       </c>
     </row>
     <row r="55" spans="4:4">
       <c r="D55" t="s">
-        <v>2053</v>
+        <v>2506</v>
       </c>
     </row>
     <row r="56" spans="4:4">
       <c r="D56" t="s">
-        <v>2054</v>
+        <v>2507</v>
       </c>
     </row>
     <row r="57" spans="4:4">
       <c r="D57" t="s">
-        <v>2055</v>
+        <v>2508</v>
       </c>
     </row>
     <row r="58" spans="4:4">
       <c r="D58" t="s">
-        <v>2056</v>
+        <v>2509</v>
       </c>
     </row>
     <row r="59" spans="4:4">
       <c r="D59" t="s">
-        <v>2057</v>
+        <v>2510</v>
       </c>
     </row>
     <row r="60" spans="4:4">
       <c r="D60" t="s">
-        <v>2058</v>
+        <v>2511</v>
       </c>
     </row>
     <row r="61" spans="4:4">
       <c r="D61" t="s">
-        <v>2059</v>
+        <v>2512</v>
       </c>
     </row>
     <row r="62" spans="4:4">
       <c r="D62" t="s">
-        <v>2060</v>
+        <v>2513</v>
       </c>
     </row>
     <row r="64" spans="4:4">
       <c r="D64" t="s">
-        <v>2061</v>
+        <v>2514</v>
       </c>
     </row>
     <row r="65" spans="4:4">
       <c r="D65" t="s">
-        <v>2062</v>
+        <v>2515</v>
       </c>
     </row>
     <row r="66" spans="4:4">
       <c r="D66" t="s">
-        <v>2063</v>
+        <v>2516</v>
       </c>
     </row>
     <row r="68" spans="4:4">
       <c r="D68" t="s">
-        <v>2064</v>
+        <v>2517</v>
       </c>
     </row>
     <row r="69" spans="4:4">
       <c r="D69" t="s">
-        <v>2065</v>
+        <v>2518</v>
       </c>
     </row>
     <row r="70" spans="4:4">
       <c r="D70" t="s">
-        <v>2066</v>
+        <v>2519</v>
       </c>
     </row>
     <row r="72" spans="4:4">
       <c r="D72" t="s">
-        <v>2067</v>
+        <v>2520</v>
       </c>
     </row>
     <row r="73" spans="4:4">
       <c r="D73" t="s">
-        <v>2068</v>
+        <v>2521</v>
       </c>
     </row>
     <row r="74" spans="4:4">
       <c r="D74" t="s">
-        <v>2069</v>
+        <v>2522</v>
       </c>
     </row>
     <row r="75" spans="4:4">
       <c r="D75" t="s">
-        <v>2070</v>
+        <v>2523</v>
       </c>
     </row>
     <row r="77" spans="4:4">
       <c r="D77" t="s">
-        <v>2071</v>
+        <v>2524</v>
       </c>
     </row>
     <row r="78" spans="4:4">
       <c r="D78" t="s">
-        <v>2072</v>
+        <v>2525</v>
       </c>
     </row>
     <row r="79" spans="4:4">
       <c r="D79" t="s">
-        <v>2073</v>
+        <v>2526</v>
       </c>
     </row>
     <row r="80" spans="4:4">
       <c r="D80" t="s">
-        <v>2074</v>
+        <v>2527</v>
       </c>
     </row>
     <row r="81" spans="4:4">
       <c r="D81" t="s">
-        <v>2075</v>
+        <v>2528</v>
       </c>
     </row>
     <row r="82" spans="4:4">
       <c r="D82" t="s">
-        <v>2076</v>
+        <v>2529</v>
       </c>
     </row>
     <row r="83" spans="4:4">
       <c r="D83" t="s">
-        <v>2077</v>
+        <v>2530</v>
       </c>
     </row>
     <row r="85" spans="4:4">
       <c r="D85" t="s">
-        <v>2078</v>
+        <v>2531</v>
       </c>
     </row>
     <row r="86" spans="4:4">
       <c r="D86" t="s">
-        <v>2079</v>
+        <v>2532</v>
       </c>
     </row>
     <row r="87" spans="4:4">
       <c r="D87" t="s">
-        <v>2080</v>
+        <v>2533</v>
       </c>
     </row>
     <row r="88" spans="4:4">
       <c r="D88" t="s">
-        <v>2081</v>
+        <v>2534</v>
       </c>
     </row>
     <row r="90" spans="4:4">
       <c r="D90" t="s">
-        <v>2082</v>
+        <v>2535</v>
       </c>
     </row>
     <row r="91" spans="4:4">
       <c r="D91" t="s">
-        <v>2083</v>
+        <v>2536</v>
       </c>
     </row>
     <row r="92" spans="4:4">
       <c r="D92" t="s">
-        <v>2084</v>
+        <v>2537</v>
       </c>
     </row>
     <row r="93" spans="4:4">
       <c r="D93" t="s">
-        <v>2085</v>
+        <v>2538</v>
       </c>
     </row>
     <row r="94" spans="4:4">
       <c r="D94" t="s">
-        <v>2086</v>
+        <v>2539</v>
       </c>
     </row>
     <row r="95" spans="4:4">
       <c r="D95" t="s">
-        <v>2087</v>
+        <v>2540</v>
       </c>
     </row>
     <row r="96" spans="4:4">
       <c r="D96" t="s">
-        <v>2088</v>
+        <v>2541</v>
       </c>
     </row>
     <row r="97" spans="4:4">
       <c r="D97" t="s">
-        <v>2089</v>
+        <v>2542</v>
       </c>
     </row>
     <row r="98" spans="4:4">
       <c r="D98" t="s">
-        <v>2090</v>
+        <v>2543</v>
       </c>
     </row>
     <row r="100" spans="4:4">
       <c r="D100" t="s">
-        <v>2091</v>
+        <v>2544</v>
       </c>
     </row>
     <row r="101" spans="4:4">
       <c r="D101" t="s">
-        <v>2092</v>
+        <v>2545</v>
       </c>
     </row>
     <row r="103" spans="4:4">
       <c r="D103" t="s">
-        <v>2093</v>
+        <v>2546</v>
       </c>
     </row>
     <row r="105" spans="4:4">
       <c r="D105" t="s">
-        <v>2094</v>
+        <v>2547</v>
       </c>
     </row>
     <row r="106" spans="4:4">
       <c r="D106" t="s">
-        <v>2095</v>
+        <v>2548</v>
       </c>
     </row>
     <row r="107" spans="4:4">
       <c r="D107" t="s">
-        <v>2096</v>
+        <v>2549</v>
       </c>
     </row>
     <row r="108" spans="4:4">
       <c r="D108" t="s">
-        <v>2097</v>
+        <v>2550</v>
       </c>
     </row>
     <row r="109" spans="4:4">
       <c r="D109" t="s">
-        <v>2098</v>
+        <v>2551</v>
       </c>
     </row>
     <row r="110" spans="4:4">
       <c r="D110" t="s">
-        <v>2099</v>
+        <v>2552</v>
       </c>
     </row>
     <row r="111" spans="4:4">
       <c r="D111" t="s">
-        <v>2100</v>
+        <v>2553</v>
       </c>
     </row>
     <row r="112" spans="4:4">
       <c r="D112" t="s">
-        <v>2101</v>
+        <v>2554</v>
       </c>
     </row>
     <row r="113" spans="4:4">
       <c r="D113" t="s">
-        <v>2102</v>
+        <v>2555</v>
       </c>
     </row>
     <row r="114" spans="4:4">
       <c r="D114" t="s">
-        <v>2103</v>
+        <v>2556</v>
       </c>
     </row>
     <row r="115" spans="4:4">
       <c r="D115" t="s">
-        <v>2104</v>
+        <v>2557</v>
       </c>
     </row>
     <row r="116" spans="4:4">
       <c r="D116" t="s">
-        <v>2105</v>
+        <v>2558</v>
       </c>
     </row>
     <row r="117" spans="4:4">
       <c r="D117" t="s">
-        <v>2106</v>
+        <v>2559</v>
       </c>
     </row>
     <row r="118" spans="4:4">
       <c r="D118" t="s">
-        <v>2107</v>
+        <v>2560</v>
       </c>
     </row>
     <row r="119" spans="4:4">
       <c r="D119" t="s">
-        <v>2108</v>
+        <v>2561</v>
       </c>
     </row>
     <row r="120" spans="4:4">
       <c r="D120" t="s">
-        <v>2109</v>
+        <v>2562</v>
       </c>
     </row>
     <row r="121" spans="4:4">
       <c r="D121" t="s">
-        <v>2110</v>
+        <v>2563</v>
       </c>
     </row>
     <row r="122" spans="4:4">
       <c r="D122" t="s">
-        <v>2111</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="123" spans="4:4">
       <c r="D123" t="s">
-        <v>2112</v>
+        <v>2565</v>
       </c>
     </row>
     <row r="124" spans="4:4">
       <c r="D124" t="s">
-        <v>2113</v>
+        <v>2566</v>
       </c>
     </row>
     <row r="125" spans="4:4">
@@ -56908,47 +60758,47 @@
     </row>
     <row r="126" spans="5:5">
       <c r="E126" t="s">
-        <v>2114</v>
+        <v>2567</v>
       </c>
     </row>
     <row r="127" spans="4:4">
       <c r="D127" t="s">
-        <v>2115</v>
+        <v>2568</v>
       </c>
     </row>
     <row r="128" spans="4:4">
       <c r="D128" t="s">
-        <v>2116</v>
+        <v>2569</v>
       </c>
     </row>
     <row r="129" spans="4:4">
       <c r="D129" t="s">
-        <v>2117</v>
+        <v>2570</v>
       </c>
     </row>
     <row r="130" spans="4:4">
       <c r="D130" t="s">
-        <v>2118</v>
+        <v>2571</v>
       </c>
     </row>
     <row r="131" spans="4:4">
       <c r="D131" t="s">
-        <v>2119</v>
+        <v>2572</v>
       </c>
     </row>
     <row r="132" spans="4:4">
       <c r="D132" t="s">
-        <v>2120</v>
+        <v>2573</v>
       </c>
     </row>
     <row r="133" spans="4:4">
       <c r="D133" t="s">
-        <v>2112</v>
+        <v>2565</v>
       </c>
     </row>
     <row r="134" spans="4:4">
       <c r="D134" t="s">
-        <v>2121</v>
+        <v>2574</v>
       </c>
     </row>
     <row r="135" spans="4:4">
@@ -56958,27 +60808,27 @@
     </row>
     <row r="136" spans="5:5">
       <c r="E136" t="s">
-        <v>2114</v>
+        <v>2567</v>
       </c>
     </row>
     <row r="137" spans="4:4">
       <c r="D137" t="s">
-        <v>2122</v>
+        <v>2575</v>
       </c>
     </row>
     <row r="138" spans="4:4">
       <c r="D138" t="s">
-        <v>2123</v>
+        <v>2576</v>
       </c>
     </row>
     <row r="139" spans="4:4">
       <c r="D139" t="s">
-        <v>2124</v>
+        <v>2577</v>
       </c>
     </row>
     <row r="140" spans="4:4">
       <c r="D140" t="s">
-        <v>2125</v>
+        <v>2578</v>
       </c>
     </row>
     <row r="141" spans="4:4">
@@ -56988,7 +60838,7 @@
     </row>
     <row r="142" spans="4:4">
       <c r="D142" t="s">
-        <v>2126</v>
+        <v>2579</v>
       </c>
     </row>
     <row r="143" spans="4:4">
@@ -56998,22 +60848,22 @@
     </row>
     <row r="144" spans="5:5">
       <c r="E144" t="s">
-        <v>2114</v>
+        <v>2567</v>
       </c>
     </row>
     <row r="145" spans="4:4">
       <c r="D145" t="s">
-        <v>2127</v>
+        <v>2580</v>
       </c>
     </row>
     <row r="146" spans="4:4">
       <c r="D146" t="s">
-        <v>2124</v>
+        <v>2577</v>
       </c>
     </row>
     <row r="147" spans="4:4">
       <c r="D147" t="s">
-        <v>2128</v>
+        <v>2581</v>
       </c>
     </row>
     <row r="148" spans="4:4">
@@ -57023,7 +60873,7 @@
     </row>
     <row r="149" spans="4:4">
       <c r="D149" t="s">
-        <v>2129</v>
+        <v>2582</v>
       </c>
     </row>
     <row r="150" spans="4:4">
@@ -57033,22 +60883,22 @@
     </row>
     <row r="151" spans="5:5">
       <c r="E151" t="s">
-        <v>2114</v>
+        <v>2567</v>
       </c>
     </row>
     <row r="152" spans="4:4">
       <c r="D152" t="s">
-        <v>2130</v>
+        <v>2583</v>
       </c>
     </row>
     <row r="153" spans="4:4">
       <c r="D153" t="s">
-        <v>2124</v>
+        <v>2577</v>
       </c>
     </row>
     <row r="154" spans="4:4">
       <c r="D154" t="s">
-        <v>2131</v>
+        <v>2584</v>
       </c>
     </row>
     <row r="155" spans="4:4">
@@ -57058,7 +60908,7 @@
     </row>
     <row r="156" spans="4:4">
       <c r="D156" t="s">
-        <v>2129</v>
+        <v>2582</v>
       </c>
     </row>
     <row r="157" spans="4:4">
@@ -57068,17 +60918,17 @@
     </row>
     <row r="158" spans="5:5">
       <c r="E158" t="s">
-        <v>2114</v>
+        <v>2567</v>
       </c>
     </row>
     <row r="159" spans="4:4">
       <c r="D159" t="s">
-        <v>2132</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="160" spans="4:4">
       <c r="D160" t="s">
-        <v>2071</v>
+        <v>2524</v>
       </c>
     </row>
   </sheetData>

--- a/uboot_compile_framework.xlsx
+++ b/uboot_compile_framework.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3093" uniqueCount="2586">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3094" uniqueCount="2587">
   <si>
     <t>...</t>
   </si>
@@ -5974,7 +5974,10 @@
     <t>$(shell mkdir -p $(obj-dirs))</t>
   </si>
   <si>
-    <t>1：最土的办法就是在Makefile的各个规则中添加echo 打印来跟踪编译到哪一步了，</t>
+    <t>1: 最土的办法就是在Makefile的各个规则中添加echo 打印来跟踪编译到哪一步了，</t>
+  </si>
+  <si>
+    <t>3: 单步编译调试，比如make  syncconfig  V=1  -w ==&gt; 单独执行这一步骤</t>
   </si>
   <si>
     <t>2: 用make V=1, 放开Q，make过程中实时回显，看执行的的动作，如下，make V=1的 过程的完整打印,  make V=1 -w, -w还可以打印出当前进入到呢个目录下执行makefile</t>
@@ -6032,6 +6035,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">set -e; </t>
     </r>
     <r>
@@ -6068,6 +6078,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">set -e; </t>
     </r>
     <r>
@@ -6086,6 +6103,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">set -e; </t>
     </r>
     <r>
@@ -7605,6 +7629,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>    【</t>
     </r>
     <r>
@@ -9141,10 +9173,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="37">
     <font>
@@ -9258,6 +9290,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -9266,16 +9305,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9289,31 +9321,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9328,14 +9345,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -9343,15 +9374,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9373,7 +9396,15 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -9381,14 +9412,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9432,7 +9464,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9444,7 +9524,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9456,97 +9620,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9558,61 +9638,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9665,21 +9697,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -9687,6 +9704,21 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -9710,16 +9742,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -9728,109 +9760,109 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -9839,31 +9871,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -57090,13 +57122,13 @@
   <sheetPr/>
   <dimension ref="C4:K457"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75"/>
   <cols>
-    <col min="3" max="3" width="28.7" customWidth="1"/>
+    <col min="3" max="3" width="40.1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="3:3">
@@ -57104,74 +57136,79 @@
         <v>1905</v>
       </c>
     </row>
+    <row r="5" spans="3:3">
+      <c r="C5" t="s">
+        <v>1906</v>
+      </c>
+    </row>
     <row r="7" spans="3:3">
       <c r="C7" s="1" t="s">
-        <v>1906</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="9" spans="3:3">
       <c r="C9" s="9" t="s">
-        <v>1907</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="10" spans="3:3">
       <c r="C10" s="9" t="s">
-        <v>1908</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="11" spans="3:3">
       <c r="C11" s="9" t="s">
-        <v>1909</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="12" spans="3:3">
       <c r="C12" t="s">
-        <v>1910</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="13" spans="3:3">
       <c r="C13" s="9" t="s">
-        <v>1911</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="14" spans="3:3">
       <c r="C14" s="9" t="s">
-        <v>1912</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="15" spans="3:3">
       <c r="C15" t="s">
-        <v>1913</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="16" spans="3:3">
       <c r="C16" t="s">
-        <v>1914</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="17" spans="3:3">
       <c r="C17" t="s">
-        <v>1915</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="18" spans="3:3">
       <c r="C18" t="s">
-        <v>1916</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="19" spans="3:3">
       <c r="C19" t="s">
-        <v>1917</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="20" spans="3:3">
       <c r="C20" s="10" t="s">
-        <v>1918</v>
+        <v>1919</v>
       </c>
     </row>
     <row r="21" spans="3:3">
       <c r="C21" s="9" t="s">
-        <v>1919</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="22" spans="4:4">
@@ -57181,7 +57218,7 @@
     </row>
     <row r="23" spans="3:4">
       <c r="C23" t="s">
-        <v>1920</v>
+        <v>1921</v>
       </c>
       <c r="D23" t="s">
         <v>1091</v>
@@ -57189,7 +57226,7 @@
     </row>
     <row r="24" spans="4:7">
       <c r="D24" t="s">
-        <v>1921</v>
+        <v>1922</v>
       </c>
       <c r="G24" t="s">
         <v>1091</v>
@@ -57199,14 +57236,13 @@
       <c r="C25" t="s">
         <v>81</v>
       </c>
-      <c r="D25"/>
       <c r="K25" t="s">
         <v>1091</v>
       </c>
     </row>
     <row r="26" spans="4:7">
       <c r="D26" t="s">
-        <v>1922</v>
+        <v>1923</v>
       </c>
       <c r="G26" t="s">
         <v>1091</v>
@@ -57222,2185 +57258,2185 @@
     </row>
     <row r="28" spans="3:3">
       <c r="C28" t="s">
-        <v>1923</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="29" spans="3:6">
       <c r="C29" s="11" t="s">
-        <v>1924</v>
+        <v>1925</v>
       </c>
       <c r="D29" t="s">
-        <v>1925</v>
+        <v>1926</v>
       </c>
       <c r="E29" t="s">
-        <v>1926</v>
+        <v>1927</v>
       </c>
       <c r="F29" t="s">
-        <v>1927</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="30" spans="3:3">
       <c r="C30" t="s">
-        <v>1928</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="31" spans="3:3">
       <c r="C31" t="s">
-        <v>1929</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="32" spans="3:3">
       <c r="C32" t="s">
-        <v>1930</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" t="s">
-        <v>1931</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="34" spans="3:4">
       <c r="C34" s="11" t="s">
-        <v>1932</v>
+        <v>1933</v>
       </c>
       <c r="D34" t="s">
-        <v>1933</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="35" spans="3:4">
       <c r="C35" s="11" t="s">
-        <v>1934</v>
+        <v>1935</v>
       </c>
       <c r="D35" t="s">
-        <v>1935</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="36" spans="3:4">
       <c r="C36" s="11" t="s">
-        <v>1934</v>
+        <v>1935</v>
       </c>
       <c r="D36" t="s">
-        <v>1936</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="37" spans="3:4">
       <c r="C37" s="11" t="s">
-        <v>1934</v>
+        <v>1935</v>
       </c>
       <c r="D37" t="s">
-        <v>1937</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="38" spans="3:3">
       <c r="C38" s="9" t="s">
-        <v>1909</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" t="s">
-        <v>1911</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="40" spans="3:3">
       <c r="C40" s="9" t="s">
-        <v>1938</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="41" spans="3:3">
       <c r="C41" t="s">
-        <v>1939</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="42" spans="3:5">
       <c r="C42" s="11" t="s">
-        <v>1934</v>
+        <v>1935</v>
       </c>
       <c r="D42" t="s">
-        <v>1940</v>
+        <v>1941</v>
       </c>
       <c r="E42" t="s">
-        <v>1941</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="43" spans="3:3">
       <c r="C43" t="s">
-        <v>1942</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="44" spans="3:5">
       <c r="C44" s="11" t="s">
-        <v>1934</v>
+        <v>1935</v>
       </c>
       <c r="D44" t="s">
-        <v>1943</v>
+        <v>1944</v>
       </c>
       <c r="E44" t="s">
-        <v>1944</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="45" spans="3:3">
       <c r="C45" s="9" t="s">
-        <v>1945</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="46" spans="3:3">
       <c r="C46" s="9" t="s">
-        <v>1946</v>
+        <v>1947</v>
       </c>
     </row>
     <row r="47" spans="3:3">
       <c r="C47" t="s">
-        <v>1947</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="48" spans="3:3">
       <c r="C48" t="s">
-        <v>1948</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="49" spans="3:3">
       <c r="C49" t="s">
-        <v>1949</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="50" spans="3:3">
       <c r="C50" t="s">
-        <v>1950</v>
+        <v>1951</v>
       </c>
     </row>
     <row r="51" spans="3:3">
       <c r="C51" t="s">
-        <v>1951</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="52" spans="3:3">
       <c r="C52" t="s">
-        <v>1952</v>
+        <v>1953</v>
       </c>
     </row>
     <row r="53" spans="3:3">
       <c r="C53" t="s">
-        <v>1953</v>
+        <v>1954</v>
       </c>
     </row>
     <row r="54" spans="3:3">
       <c r="C54" t="s">
-        <v>1954</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="55" spans="3:3">
       <c r="C55" t="s">
-        <v>1955</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="56" spans="3:3">
       <c r="C56" t="s">
-        <v>1956</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="57" spans="3:3">
       <c r="C57" t="s">
-        <v>1957</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="58" spans="3:3">
       <c r="C58" t="s">
-        <v>1958</v>
+        <v>1959</v>
       </c>
     </row>
     <row r="59" spans="3:3">
       <c r="C59" t="s">
-        <v>1959</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="60" spans="3:3">
       <c r="C60" t="s">
-        <v>1960</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="61" spans="3:3">
       <c r="C61" t="s">
-        <v>1961</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="62" spans="3:3">
       <c r="C62" s="9" t="s">
-        <v>1962</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="63" spans="3:3">
       <c r="C63" t="s">
-        <v>1963</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="64" spans="3:3">
       <c r="C64" t="s">
-        <v>1964</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="65" spans="3:3">
       <c r="C65" t="s">
-        <v>1965</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="66" spans="3:3">
       <c r="C66" t="s">
-        <v>1966</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="67" spans="3:3">
       <c r="C67" t="s">
-        <v>1967</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="68" spans="3:3">
       <c r="C68" t="s">
-        <v>1968</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="69" spans="3:3">
       <c r="C69" t="s">
-        <v>1969</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="70" spans="3:3">
       <c r="C70" t="s">
-        <v>1970</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="71" spans="3:3">
       <c r="C71" t="s">
-        <v>1971</v>
+        <v>1972</v>
       </c>
     </row>
     <row r="72" spans="3:3">
       <c r="C72" t="s">
-        <v>1972</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="73" spans="3:3">
       <c r="C73" t="s">
-        <v>1973</v>
+        <v>1974</v>
       </c>
     </row>
     <row r="74" spans="3:3">
       <c r="C74" t="s">
-        <v>1974</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="75" spans="3:3">
       <c r="C75" t="s">
-        <v>1975</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="76" spans="3:3">
       <c r="C76" t="s">
-        <v>1976</v>
+        <v>1977</v>
       </c>
     </row>
     <row r="77" spans="3:3">
       <c r="C77" t="s">
-        <v>1977</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="78" spans="3:3">
       <c r="C78" t="s">
-        <v>1978</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="79" spans="3:3">
       <c r="C79" t="s">
-        <v>1979</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="80" spans="3:3">
       <c r="C80" t="s">
-        <v>1980</v>
+        <v>1981</v>
       </c>
     </row>
     <row r="81" spans="3:3">
       <c r="C81" t="s">
-        <v>1981</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="82" spans="3:3">
       <c r="C82" t="s">
-        <v>1982</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="83" spans="3:3">
       <c r="C83" t="s">
-        <v>1983</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="84" spans="3:3">
       <c r="C84" t="s">
-        <v>1984</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="85" spans="3:3">
       <c r="C85" t="s">
-        <v>1985</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="86" spans="3:3">
       <c r="C86" t="s">
-        <v>1986</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="87" spans="3:3">
       <c r="C87" t="s">
-        <v>1987</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="88" spans="3:3">
       <c r="C88" t="s">
-        <v>1988</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="89" spans="3:3">
       <c r="C89" t="s">
-        <v>1989</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="90" spans="3:3">
       <c r="C90" t="s">
-        <v>1990</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="91" spans="3:3">
       <c r="C91" t="s">
-        <v>1991</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="92" spans="3:3">
       <c r="C92" t="s">
-        <v>1992</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="93" spans="3:3">
       <c r="C93" t="s">
-        <v>1993</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="94" spans="3:3">
       <c r="C94" t="s">
-        <v>1994</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="95" spans="3:3">
       <c r="C95" t="s">
-        <v>1995</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="96" spans="3:3">
       <c r="C96" t="s">
-        <v>1996</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="97" spans="3:3">
       <c r="C97" t="s">
-        <v>1997</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="98" spans="3:3">
       <c r="C98" t="s">
-        <v>1998</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="99" spans="3:3">
       <c r="C99" t="s">
-        <v>1999</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="100" spans="3:3">
       <c r="C100" t="s">
-        <v>2000</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="101" spans="3:3">
       <c r="C101" t="s">
-        <v>2001</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="102" spans="3:3">
       <c r="C102" t="s">
-        <v>2002</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="103" spans="3:3">
       <c r="C103" t="s">
-        <v>2003</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="104" spans="3:3">
       <c r="C104" t="s">
-        <v>2004</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="105" spans="3:3">
       <c r="C105" t="s">
-        <v>2005</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="106" spans="3:3">
       <c r="C106" t="s">
-        <v>2006</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="107" spans="3:3">
       <c r="C107" t="s">
-        <v>2007</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="108" spans="3:3">
       <c r="C108" t="s">
-        <v>2008</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="109" spans="3:3">
       <c r="C109" t="s">
-        <v>2009</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="110" spans="3:3">
       <c r="C110" t="s">
-        <v>2010</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="111" spans="3:3">
       <c r="C111" t="s">
-        <v>2011</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="112" spans="3:3">
       <c r="C112" t="s">
-        <v>2012</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="113" spans="3:3">
       <c r="C113" t="s">
-        <v>2013</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="114" spans="3:3">
       <c r="C114" t="s">
-        <v>2014</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="115" spans="3:3">
       <c r="C115" t="s">
-        <v>2015</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="116" spans="3:3">
       <c r="C116" t="s">
-        <v>2016</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="117" spans="3:3">
       <c r="C117" t="s">
-        <v>2017</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="118" spans="3:3">
       <c r="C118" t="s">
-        <v>2018</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="119" spans="3:3">
       <c r="C119" t="s">
-        <v>2019</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="120" spans="3:3">
       <c r="C120" t="s">
-        <v>2020</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="121" spans="3:3">
       <c r="C121" t="s">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="122" spans="3:3">
       <c r="C122" t="s">
-        <v>2022</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="123" spans="3:3">
       <c r="C123" t="s">
-        <v>2023</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="124" spans="3:3">
       <c r="C124" t="s">
-        <v>2024</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="125" spans="3:3">
       <c r="C125" t="s">
-        <v>2025</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="126" spans="3:3">
       <c r="C126" t="s">
-        <v>2026</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="127" spans="3:3">
       <c r="C127" t="s">
-        <v>2027</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="128" spans="3:3">
       <c r="C128" t="s">
-        <v>2028</v>
+        <v>2029</v>
       </c>
     </row>
     <row r="129" spans="3:3">
       <c r="C129" t="s">
-        <v>2029</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="130" spans="3:3">
       <c r="C130" t="s">
-        <v>2030</v>
+        <v>2031</v>
       </c>
     </row>
     <row r="131" spans="3:3">
       <c r="C131" t="s">
-        <v>2031</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="132" spans="3:3">
       <c r="C132" t="s">
-        <v>2032</v>
+        <v>2033</v>
       </c>
     </row>
     <row r="133" spans="3:3">
       <c r="C133" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="134" spans="3:3">
       <c r="C134" s="9" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="135" spans="3:3">
       <c r="C135" t="s">
-        <v>2035</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="136" spans="3:3">
       <c r="C136" s="9" t="s">
-        <v>2036</v>
+        <v>2037</v>
       </c>
     </row>
     <row r="137" spans="3:3">
       <c r="C137" s="9" t="s">
-        <v>2037</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="138" spans="3:3">
       <c r="C138" t="s">
-        <v>2038</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="139" spans="3:3">
       <c r="C139" t="s">
-        <v>2039</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="140" spans="3:3">
       <c r="C140" t="s">
-        <v>2040</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="141" spans="3:3">
       <c r="C141" t="s">
-        <v>2041</v>
+        <v>2042</v>
       </c>
     </row>
     <row r="142" spans="3:3">
       <c r="C142" t="s">
-        <v>2042</v>
+        <v>2043</v>
       </c>
     </row>
     <row r="143" spans="3:3">
       <c r="C143" t="s">
-        <v>2043</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="144" spans="3:3">
       <c r="C144" t="s">
-        <v>2044</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="145" spans="3:3">
       <c r="C145" t="s">
-        <v>2045</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="146" spans="3:3">
       <c r="C146" t="s">
-        <v>2046</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="147" spans="3:3">
       <c r="C147" t="s">
-        <v>2047</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="148" spans="3:3">
       <c r="C148" t="s">
-        <v>2048</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="149" spans="3:3">
       <c r="C149" t="s">
-        <v>2049</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="150" spans="3:3">
       <c r="C150" s="9" t="s">
-        <v>2050</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="151" spans="3:3">
       <c r="C151" t="s">
-        <v>2051</v>
+        <v>2052</v>
       </c>
     </row>
     <row r="152" spans="3:3">
       <c r="C152" t="s">
-        <v>2052</v>
+        <v>2053</v>
       </c>
     </row>
     <row r="153" spans="3:3">
       <c r="C153" t="s">
-        <v>2053</v>
+        <v>2054</v>
       </c>
     </row>
     <row r="154" spans="3:3">
       <c r="C154" t="s">
-        <v>2054</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="155" spans="3:3">
       <c r="C155" t="s">
-        <v>2055</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="156" spans="3:3">
       <c r="C156" t="s">
-        <v>2056</v>
+        <v>2057</v>
       </c>
     </row>
     <row r="157" spans="3:3">
       <c r="C157" t="s">
-        <v>2057</v>
+        <v>2058</v>
       </c>
     </row>
     <row r="158" spans="3:3">
       <c r="C158" t="s">
-        <v>2058</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="159" spans="3:3">
       <c r="C159" t="s">
-        <v>2059</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="160" spans="3:3">
       <c r="C160" t="s">
-        <v>2060</v>
+        <v>2061</v>
       </c>
     </row>
     <row r="161" spans="3:3">
       <c r="C161" t="s">
-        <v>2061</v>
+        <v>2062</v>
       </c>
     </row>
     <row r="162" spans="3:3">
       <c r="C162" t="s">
-        <v>2062</v>
+        <v>2063</v>
       </c>
     </row>
     <row r="163" spans="3:3">
       <c r="C163" t="s">
-        <v>2063</v>
+        <v>2064</v>
       </c>
     </row>
     <row r="164" spans="3:3">
       <c r="C164" t="s">
-        <v>2064</v>
+        <v>2065</v>
       </c>
     </row>
     <row r="165" spans="3:3">
       <c r="C165" s="9" t="s">
-        <v>2065</v>
+        <v>2066</v>
       </c>
     </row>
     <row r="166" spans="3:3">
       <c r="C166" t="s">
-        <v>2066</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="167" spans="3:3">
       <c r="C167" t="s">
-        <v>2067</v>
+        <v>2068</v>
       </c>
     </row>
     <row r="168" spans="3:3">
       <c r="C168" t="s">
-        <v>2068</v>
+        <v>2069</v>
       </c>
     </row>
     <row r="169" spans="3:3">
       <c r="C169" t="s">
-        <v>2069</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="170" spans="3:3">
       <c r="C170" t="s">
-        <v>2070</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="171" spans="3:3">
       <c r="C171" t="s">
-        <v>2071</v>
+        <v>2072</v>
       </c>
     </row>
     <row r="172" spans="3:3">
       <c r="C172" s="9" t="s">
-        <v>2072</v>
+        <v>2073</v>
       </c>
     </row>
     <row r="173" spans="3:3">
       <c r="C173" t="s">
-        <v>2073</v>
+        <v>2074</v>
       </c>
     </row>
     <row r="174" spans="3:3">
       <c r="C174" t="s">
-        <v>2074</v>
+        <v>2075</v>
       </c>
     </row>
     <row r="175" spans="3:3">
       <c r="C175" s="9" t="s">
-        <v>2075</v>
+        <v>2076</v>
       </c>
     </row>
     <row r="176" spans="3:3">
       <c r="C176" t="s">
-        <v>2076</v>
+        <v>2077</v>
       </c>
     </row>
     <row r="177" spans="3:3">
       <c r="C177" t="s">
-        <v>2077</v>
+        <v>2078</v>
       </c>
     </row>
     <row r="178" spans="3:3">
       <c r="C178" s="9" t="s">
-        <v>2078</v>
+        <v>2079</v>
       </c>
     </row>
     <row r="179" spans="3:3">
       <c r="C179" s="9" t="s">
-        <v>2079</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="180" spans="3:3">
       <c r="C180" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
     </row>
     <row r="181" spans="3:3">
       <c r="C181" t="s">
-        <v>2081</v>
+        <v>2082</v>
       </c>
     </row>
     <row r="182" spans="3:3">
       <c r="C182" t="s">
-        <v>2082</v>
+        <v>2083</v>
       </c>
     </row>
     <row r="183" spans="3:3">
       <c r="C183" t="s">
-        <v>2083</v>
+        <v>2084</v>
       </c>
     </row>
     <row r="184" spans="3:3">
       <c r="C184" t="s">
-        <v>2084</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="185" spans="3:3">
       <c r="C185" t="s">
-        <v>2085</v>
+        <v>2086</v>
       </c>
     </row>
     <row r="186" spans="3:3">
       <c r="C186" t="s">
-        <v>2086</v>
+        <v>2087</v>
       </c>
     </row>
     <row r="187" spans="3:3">
       <c r="C187" s="9" t="s">
-        <v>2087</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="188" spans="3:3">
       <c r="C188" s="9" t="s">
-        <v>2088</v>
+        <v>2089</v>
       </c>
     </row>
     <row r="189" spans="3:3">
       <c r="C189" t="s">
-        <v>2089</v>
+        <v>2090</v>
       </c>
     </row>
     <row r="190" spans="3:3">
       <c r="C190" t="s">
-        <v>2090</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="191" spans="3:3">
       <c r="C191" t="s">
-        <v>2091</v>
+        <v>2092</v>
       </c>
     </row>
     <row r="192" spans="3:3">
       <c r="C192" t="s">
-        <v>2092</v>
+        <v>2093</v>
       </c>
     </row>
     <row r="193" spans="3:3">
       <c r="C193" t="s">
-        <v>2093</v>
+        <v>2094</v>
       </c>
     </row>
     <row r="194" spans="3:3">
       <c r="C194" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="195" spans="3:3">
       <c r="C195" t="s">
-        <v>2095</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="196" spans="3:3">
       <c r="C196" t="s">
-        <v>2096</v>
+        <v>2097</v>
       </c>
     </row>
     <row r="197" spans="3:3">
       <c r="C197" t="s">
-        <v>2097</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="198" spans="3:3">
       <c r="C198" t="s">
-        <v>2098</v>
+        <v>2099</v>
       </c>
     </row>
     <row r="199" spans="3:3">
       <c r="C199" t="s">
-        <v>2099</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="200" spans="3:3">
       <c r="C200" t="s">
-        <v>2100</v>
+        <v>2101</v>
       </c>
     </row>
     <row r="201" spans="3:3">
       <c r="C201" t="s">
-        <v>2101</v>
+        <v>2102</v>
       </c>
     </row>
     <row r="202" spans="3:3">
       <c r="C202" t="s">
-        <v>2102</v>
+        <v>2103</v>
       </c>
     </row>
     <row r="203" spans="3:3">
       <c r="C203" t="s">
-        <v>2103</v>
+        <v>2104</v>
       </c>
     </row>
     <row r="204" spans="3:3">
       <c r="C204" t="s">
-        <v>2104</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="205" spans="3:3">
       <c r="C205" t="s">
-        <v>2105</v>
+        <v>2106</v>
       </c>
     </row>
     <row r="206" spans="3:3">
       <c r="C206" t="s">
-        <v>2106</v>
+        <v>2107</v>
       </c>
     </row>
     <row r="207" spans="3:3">
       <c r="C207" t="s">
-        <v>2107</v>
+        <v>2108</v>
       </c>
     </row>
     <row r="208" spans="3:3">
       <c r="C208" s="9" t="s">
-        <v>2108</v>
+        <v>2109</v>
       </c>
     </row>
     <row r="209" spans="3:3">
       <c r="C209" t="s">
-        <v>2109</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="210" spans="3:3">
       <c r="C210" s="9" t="s">
-        <v>2110</v>
+        <v>2111</v>
       </c>
     </row>
     <row r="211" spans="3:3">
       <c r="C211" s="9" t="s">
-        <v>2111</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="212" spans="3:3">
       <c r="C212" t="s">
-        <v>2112</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="213" spans="3:3">
       <c r="C213" s="9" t="s">
-        <v>2113</v>
+        <v>2114</v>
       </c>
     </row>
     <row r="214" spans="3:3">
       <c r="C214" t="s">
-        <v>2114</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="215" spans="3:3">
       <c r="C215" s="9" t="s">
-        <v>2115</v>
+        <v>2116</v>
       </c>
     </row>
     <row r="216" spans="3:3">
       <c r="C216" t="s">
-        <v>2116</v>
+        <v>2117</v>
       </c>
     </row>
     <row r="217" spans="3:3">
       <c r="C217" s="9" t="s">
-        <v>2117</v>
+        <v>2118</v>
       </c>
     </row>
     <row r="218" spans="3:3">
       <c r="C218" t="s">
-        <v>2118</v>
+        <v>2119</v>
       </c>
     </row>
     <row r="219" spans="3:3">
       <c r="C219" t="s">
-        <v>2119</v>
+        <v>2120</v>
       </c>
     </row>
     <row r="220" spans="3:3">
       <c r="C220" s="9" t="s">
-        <v>2120</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="221" spans="3:3">
       <c r="C221" t="s">
-        <v>2121</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="222" spans="3:3">
       <c r="C222" s="9" t="s">
-        <v>2122</v>
+        <v>2123</v>
       </c>
     </row>
     <row r="223" spans="3:3">
       <c r="C223" t="s">
-        <v>2123</v>
+        <v>2124</v>
       </c>
     </row>
     <row r="224" spans="3:3">
       <c r="C224" t="s">
-        <v>2124</v>
+        <v>2125</v>
       </c>
     </row>
     <row r="225" spans="3:3">
       <c r="C225" t="s">
-        <v>2125</v>
+        <v>2126</v>
       </c>
     </row>
     <row r="226" spans="3:3">
       <c r="C226" t="s">
-        <v>2126</v>
+        <v>2127</v>
       </c>
     </row>
     <row r="227" spans="3:3">
       <c r="C227" t="s">
-        <v>2127</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="228" spans="3:3">
       <c r="C228" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
     </row>
     <row r="229" spans="3:3">
       <c r="C229" t="s">
-        <v>2129</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="230" spans="3:3">
       <c r="C230" t="s">
-        <v>2130</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="231" spans="3:3">
       <c r="C231" t="s">
-        <v>2131</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="232" spans="3:3">
       <c r="C232" t="s">
-        <v>2132</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="233" spans="3:3">
       <c r="C233" t="s">
-        <v>2133</v>
+        <v>2134</v>
       </c>
     </row>
     <row r="234" spans="3:3">
       <c r="C234" t="s">
-        <v>2134</v>
+        <v>2135</v>
       </c>
     </row>
     <row r="235" spans="3:3">
       <c r="C235" t="s">
-        <v>2135</v>
+        <v>2136</v>
       </c>
     </row>
     <row r="236" spans="3:3">
       <c r="C236" t="s">
-        <v>2136</v>
+        <v>2137</v>
       </c>
     </row>
     <row r="237" spans="3:3">
       <c r="C237" t="s">
-        <v>2137</v>
+        <v>2138</v>
       </c>
     </row>
     <row r="238" spans="3:3">
       <c r="C238" s="9" t="s">
-        <v>2138</v>
+        <v>2139</v>
       </c>
     </row>
     <row r="239" spans="3:3">
       <c r="C239" s="9" t="s">
-        <v>2139</v>
+        <v>2140</v>
       </c>
     </row>
     <row r="240" spans="3:3">
       <c r="C240" t="s">
-        <v>2140</v>
+        <v>2141</v>
       </c>
     </row>
     <row r="241" spans="3:3">
       <c r="C241" t="s">
-        <v>2141</v>
+        <v>2142</v>
       </c>
     </row>
     <row r="242" spans="3:3">
       <c r="C242" s="9" t="s">
-        <v>2142</v>
+        <v>2143</v>
       </c>
     </row>
     <row r="243" spans="3:3">
       <c r="C243" t="s">
-        <v>2143</v>
+        <v>2144</v>
       </c>
     </row>
     <row r="244" spans="3:3">
       <c r="C244" t="s">
-        <v>2144</v>
+        <v>2145</v>
       </c>
     </row>
     <row r="245" spans="3:3">
       <c r="C245" t="s">
-        <v>2145</v>
+        <v>2146</v>
       </c>
     </row>
     <row r="246" spans="3:3">
       <c r="C246" t="s">
-        <v>2146</v>
+        <v>2147</v>
       </c>
     </row>
     <row r="247" spans="3:3">
       <c r="C247" s="9" t="s">
-        <v>2147</v>
+        <v>2148</v>
       </c>
     </row>
     <row r="248" spans="3:3">
       <c r="C248" t="s">
-        <v>2148</v>
+        <v>2149</v>
       </c>
     </row>
     <row r="249" spans="3:3">
       <c r="C249" s="9" t="s">
-        <v>2149</v>
+        <v>2150</v>
       </c>
     </row>
     <row r="250" spans="3:3">
       <c r="C250" t="s">
-        <v>2150</v>
+        <v>2151</v>
       </c>
     </row>
     <row r="251" spans="3:3">
       <c r="C251" t="s">
-        <v>2151</v>
+        <v>2152</v>
       </c>
     </row>
     <row r="252" spans="3:3">
       <c r="C252" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
     </row>
     <row r="253" spans="3:3">
       <c r="C253" t="s">
-        <v>2153</v>
+        <v>2154</v>
       </c>
     </row>
     <row r="254" spans="3:3">
       <c r="C254" t="s">
-        <v>2154</v>
+        <v>2155</v>
       </c>
     </row>
     <row r="255" spans="3:3">
       <c r="C255" t="s">
-        <v>2155</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="256" spans="3:3">
       <c r="C256" t="s">
-        <v>2156</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="257" spans="3:3">
       <c r="C257" t="s">
-        <v>2157</v>
+        <v>2158</v>
       </c>
     </row>
     <row r="258" spans="3:3">
       <c r="C258" t="s">
-        <v>2158</v>
+        <v>2159</v>
       </c>
     </row>
     <row r="259" spans="3:3">
       <c r="C259" t="s">
-        <v>2159</v>
+        <v>2160</v>
       </c>
     </row>
     <row r="260" spans="3:3">
       <c r="C260" t="s">
-        <v>2160</v>
+        <v>2161</v>
       </c>
     </row>
     <row r="261" spans="3:3">
       <c r="C261" t="s">
-        <v>2161</v>
+        <v>2162</v>
       </c>
     </row>
     <row r="262" spans="3:3">
       <c r="C262" t="s">
-        <v>2162</v>
+        <v>2163</v>
       </c>
     </row>
     <row r="263" spans="3:3">
       <c r="C263" t="s">
-        <v>2163</v>
+        <v>2164</v>
       </c>
     </row>
     <row r="264" spans="3:3">
       <c r="C264" t="s">
-        <v>2164</v>
+        <v>2165</v>
       </c>
     </row>
     <row r="265" spans="3:3">
       <c r="C265" t="s">
-        <v>2165</v>
+        <v>2166</v>
       </c>
     </row>
     <row r="266" spans="3:3">
       <c r="C266" t="s">
-        <v>2166</v>
+        <v>2167</v>
       </c>
     </row>
     <row r="267" spans="3:3">
       <c r="C267" t="s">
-        <v>2167</v>
+        <v>2168</v>
       </c>
     </row>
     <row r="268" spans="3:3">
       <c r="C268" t="s">
-        <v>2168</v>
+        <v>2169</v>
       </c>
     </row>
     <row r="269" spans="3:3">
       <c r="C269" t="s">
-        <v>2169</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="270" spans="3:3">
       <c r="C270" t="s">
-        <v>2170</v>
+        <v>2171</v>
       </c>
     </row>
     <row r="271" spans="3:3">
       <c r="C271" t="s">
-        <v>2171</v>
+        <v>2172</v>
       </c>
     </row>
     <row r="272" spans="3:3">
       <c r="C272" t="s">
-        <v>2172</v>
+        <v>2173</v>
       </c>
     </row>
     <row r="273" spans="3:3">
       <c r="C273" t="s">
-        <v>2173</v>
+        <v>2174</v>
       </c>
     </row>
     <row r="274" spans="3:3">
       <c r="C274" t="s">
-        <v>2174</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="275" spans="3:3">
       <c r="C275" t="s">
-        <v>2175</v>
+        <v>2176</v>
       </c>
     </row>
     <row r="276" spans="3:3">
       <c r="C276" t="s">
-        <v>2176</v>
+        <v>2177</v>
       </c>
     </row>
     <row r="277" spans="3:3">
       <c r="C277" t="s">
-        <v>2177</v>
+        <v>2178</v>
       </c>
     </row>
     <row r="278" spans="3:3">
       <c r="C278" t="s">
-        <v>2178</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="279" spans="3:3">
       <c r="C279" t="s">
-        <v>2179</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="280" spans="3:3">
       <c r="C280" t="s">
-        <v>2180</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="281" spans="3:3">
       <c r="C281" t="s">
-        <v>2181</v>
+        <v>2182</v>
       </c>
     </row>
     <row r="282" spans="3:3">
       <c r="C282" t="s">
-        <v>2182</v>
+        <v>2183</v>
       </c>
     </row>
     <row r="283" spans="3:3">
       <c r="C283" t="s">
-        <v>2183</v>
+        <v>2184</v>
       </c>
     </row>
     <row r="284" spans="3:3">
       <c r="C284" t="s">
-        <v>2184</v>
+        <v>2185</v>
       </c>
     </row>
     <row r="285" spans="3:3">
       <c r="C285" t="s">
-        <v>2185</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="286" spans="3:3">
       <c r="C286" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="287" spans="3:3">
       <c r="C287" t="s">
-        <v>2187</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="288" spans="3:3">
       <c r="C288" t="s">
-        <v>2188</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="289" spans="3:3">
       <c r="C289" t="s">
-        <v>2189</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="290" spans="3:3">
       <c r="C290" t="s">
-        <v>2190</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="291" spans="3:3">
       <c r="C291" t="s">
-        <v>2191</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="292" spans="3:3">
       <c r="C292" t="s">
-        <v>2192</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="293" spans="3:3">
       <c r="C293" t="s">
-        <v>2193</v>
+        <v>2194</v>
       </c>
     </row>
     <row r="294" spans="3:3">
       <c r="C294" t="s">
-        <v>2194</v>
+        <v>2195</v>
       </c>
     </row>
     <row r="295" spans="3:3">
       <c r="C295" t="s">
-        <v>2195</v>
+        <v>2196</v>
       </c>
     </row>
     <row r="296" spans="3:3">
       <c r="C296" t="s">
-        <v>2196</v>
+        <v>2197</v>
       </c>
     </row>
     <row r="297" spans="3:3">
       <c r="C297" t="s">
-        <v>2197</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="298" spans="3:3">
       <c r="C298" t="s">
-        <v>2198</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="299" spans="3:3">
       <c r="C299" t="s">
-        <v>2199</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="300" spans="3:3">
       <c r="C300" t="s">
-        <v>2200</v>
+        <v>2201</v>
       </c>
     </row>
     <row r="301" spans="3:3">
       <c r="C301" t="s">
-        <v>2201</v>
+        <v>2202</v>
       </c>
     </row>
     <row r="302" spans="3:3">
       <c r="C302" t="s">
-        <v>2202</v>
+        <v>2203</v>
       </c>
     </row>
     <row r="303" spans="3:3">
       <c r="C303" t="s">
-        <v>2203</v>
+        <v>2204</v>
       </c>
     </row>
     <row r="304" spans="3:3">
       <c r="C304" t="s">
-        <v>2204</v>
+        <v>2205</v>
       </c>
     </row>
     <row r="305" spans="3:3">
       <c r="C305" t="s">
-        <v>2205</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="306" spans="3:3">
       <c r="C306" t="s">
-        <v>2206</v>
+        <v>2207</v>
       </c>
     </row>
     <row r="307" spans="3:3">
       <c r="C307" t="s">
-        <v>2207</v>
+        <v>2208</v>
       </c>
     </row>
     <row r="308" spans="3:3">
       <c r="C308" t="s">
-        <v>2208</v>
+        <v>2209</v>
       </c>
     </row>
     <row r="309" spans="3:3">
       <c r="C309" t="s">
-        <v>2209</v>
+        <v>2210</v>
       </c>
     </row>
     <row r="310" spans="3:3">
       <c r="C310" t="s">
-        <v>2210</v>
+        <v>2211</v>
       </c>
     </row>
     <row r="311" spans="3:3">
       <c r="C311" t="s">
-        <v>2211</v>
+        <v>2212</v>
       </c>
     </row>
     <row r="312" spans="3:3">
       <c r="C312" t="s">
-        <v>2212</v>
+        <v>2213</v>
       </c>
     </row>
     <row r="313" spans="3:3">
       <c r="C313" t="s">
-        <v>2213</v>
+        <v>2214</v>
       </c>
     </row>
     <row r="314" spans="3:3">
       <c r="C314" t="s">
-        <v>2214</v>
+        <v>2215</v>
       </c>
     </row>
     <row r="315" spans="3:3">
       <c r="C315" t="s">
-        <v>2215</v>
+        <v>2216</v>
       </c>
     </row>
     <row r="316" spans="3:3">
       <c r="C316" t="s">
-        <v>2216</v>
+        <v>2217</v>
       </c>
     </row>
     <row r="317" spans="3:3">
       <c r="C317" t="s">
-        <v>2217</v>
+        <v>2218</v>
       </c>
     </row>
     <row r="318" spans="3:3">
       <c r="C318" t="s">
-        <v>2218</v>
+        <v>2219</v>
       </c>
     </row>
     <row r="319" spans="3:3">
       <c r="C319" t="s">
-        <v>2219</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="320" spans="3:3">
       <c r="C320" t="s">
-        <v>2220</v>
+        <v>2221</v>
       </c>
     </row>
     <row r="321" spans="3:3">
       <c r="C321" t="s">
-        <v>2221</v>
+        <v>2222</v>
       </c>
     </row>
     <row r="322" spans="3:3">
       <c r="C322" t="s">
-        <v>2222</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="323" spans="3:3">
       <c r="C323" t="s">
-        <v>2223</v>
+        <v>2224</v>
       </c>
     </row>
     <row r="324" spans="3:3">
       <c r="C324" t="s">
-        <v>2224</v>
+        <v>2225</v>
       </c>
     </row>
     <row r="325" spans="3:3">
       <c r="C325" t="s">
-        <v>2225</v>
+        <v>2226</v>
       </c>
     </row>
     <row r="326" spans="3:3">
       <c r="C326" t="s">
-        <v>2226</v>
+        <v>2227</v>
       </c>
     </row>
     <row r="327" spans="3:3">
       <c r="C327" t="s">
-        <v>2227</v>
+        <v>2228</v>
       </c>
     </row>
     <row r="328" spans="3:3">
       <c r="C328" t="s">
-        <v>2228</v>
+        <v>2229</v>
       </c>
     </row>
     <row r="329" spans="3:3">
       <c r="C329" t="s">
-        <v>2229</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="330" spans="3:3">
       <c r="C330" t="s">
-        <v>2230</v>
+        <v>2231</v>
       </c>
     </row>
     <row r="331" spans="3:3">
       <c r="C331" t="s">
-        <v>2231</v>
+        <v>2232</v>
       </c>
     </row>
     <row r="332" spans="3:3">
       <c r="C332" t="s">
-        <v>2232</v>
+        <v>2233</v>
       </c>
     </row>
     <row r="333" spans="3:3">
       <c r="C333" t="s">
-        <v>2233</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="334" spans="3:3">
       <c r="C334" t="s">
-        <v>2234</v>
+        <v>2235</v>
       </c>
     </row>
     <row r="335" spans="3:3">
       <c r="C335" t="s">
-        <v>2235</v>
+        <v>2236</v>
       </c>
     </row>
     <row r="336" spans="3:3">
       <c r="C336" t="s">
-        <v>2236</v>
+        <v>2237</v>
       </c>
     </row>
     <row r="337" spans="3:3">
       <c r="C337" t="s">
-        <v>2237</v>
+        <v>2238</v>
       </c>
     </row>
     <row r="338" spans="3:3">
       <c r="C338" t="s">
-        <v>2238</v>
+        <v>2239</v>
       </c>
     </row>
     <row r="339" spans="3:3">
       <c r="C339" t="s">
-        <v>2239</v>
+        <v>2240</v>
       </c>
     </row>
     <row r="340" spans="3:3">
       <c r="C340" t="s">
-        <v>2240</v>
+        <v>2241</v>
       </c>
     </row>
     <row r="341" spans="3:3">
       <c r="C341" t="s">
-        <v>2241</v>
+        <v>2242</v>
       </c>
     </row>
     <row r="342" spans="3:3">
       <c r="C342" t="s">
-        <v>2242</v>
+        <v>2243</v>
       </c>
     </row>
     <row r="343" spans="3:3">
       <c r="C343" t="s">
-        <v>2243</v>
+        <v>2244</v>
       </c>
     </row>
     <row r="344" spans="3:3">
       <c r="C344" t="s">
-        <v>2244</v>
+        <v>2245</v>
       </c>
     </row>
     <row r="345" spans="3:3">
       <c r="C345" t="s">
-        <v>2245</v>
+        <v>2246</v>
       </c>
     </row>
     <row r="346" spans="3:3">
       <c r="C346" t="s">
-        <v>2246</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="347" spans="3:3">
       <c r="C347" t="s">
-        <v>2247</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="348" spans="3:3">
       <c r="C348" t="s">
-        <v>2248</v>
+        <v>2249</v>
       </c>
     </row>
     <row r="349" spans="3:3">
       <c r="C349" t="s">
-        <v>2249</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="350" spans="3:3">
       <c r="C350" t="s">
-        <v>2250</v>
+        <v>2251</v>
       </c>
     </row>
     <row r="351" spans="3:3">
       <c r="C351" t="s">
-        <v>2251</v>
+        <v>2252</v>
       </c>
     </row>
     <row r="352" spans="3:3">
       <c r="C352" t="s">
-        <v>2252</v>
+        <v>2253</v>
       </c>
     </row>
     <row r="353" spans="3:3">
       <c r="C353" t="s">
-        <v>2253</v>
+        <v>2254</v>
       </c>
     </row>
     <row r="354" spans="3:3">
       <c r="C354" t="s">
-        <v>2254</v>
+        <v>2255</v>
       </c>
     </row>
     <row r="355" spans="3:3">
       <c r="C355" t="s">
-        <v>2255</v>
+        <v>2256</v>
       </c>
     </row>
     <row r="356" spans="3:3">
       <c r="C356" t="s">
-        <v>2256</v>
+        <v>2257</v>
       </c>
     </row>
     <row r="357" spans="3:3">
       <c r="C357" t="s">
-        <v>2257</v>
+        <v>2258</v>
       </c>
     </row>
     <row r="358" spans="3:3">
       <c r="C358" t="s">
-        <v>2258</v>
+        <v>2259</v>
       </c>
     </row>
     <row r="359" spans="3:3">
       <c r="C359" t="s">
-        <v>2259</v>
+        <v>2260</v>
       </c>
     </row>
     <row r="360" spans="3:3">
       <c r="C360" t="s">
-        <v>2260</v>
+        <v>2261</v>
       </c>
     </row>
     <row r="361" spans="3:3">
       <c r="C361" t="s">
-        <v>2261</v>
+        <v>2262</v>
       </c>
     </row>
     <row r="362" spans="3:3">
       <c r="C362" t="s">
-        <v>2262</v>
+        <v>2263</v>
       </c>
     </row>
     <row r="363" spans="3:3">
       <c r="C363" t="s">
-        <v>2263</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="364" spans="3:3">
       <c r="C364" t="s">
-        <v>2264</v>
+        <v>2265</v>
       </c>
     </row>
     <row r="365" spans="3:3">
       <c r="C365" t="s">
-        <v>2265</v>
+        <v>2266</v>
       </c>
     </row>
     <row r="366" spans="3:3">
       <c r="C366" t="s">
-        <v>2266</v>
+        <v>2267</v>
       </c>
     </row>
     <row r="367" spans="3:3">
       <c r="C367" t="s">
-        <v>2267</v>
+        <v>2268</v>
       </c>
     </row>
     <row r="368" spans="3:3">
       <c r="C368" t="s">
-        <v>2268</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="369" spans="3:3">
       <c r="C369" t="s">
-        <v>2269</v>
+        <v>2270</v>
       </c>
     </row>
     <row r="370" spans="3:3">
       <c r="C370" t="s">
-        <v>2270</v>
+        <v>2271</v>
       </c>
     </row>
     <row r="371" spans="3:3">
       <c r="C371" t="s">
-        <v>2271</v>
+        <v>2272</v>
       </c>
     </row>
     <row r="372" spans="3:3">
       <c r="C372" t="s">
-        <v>2272</v>
+        <v>2273</v>
       </c>
     </row>
     <row r="373" spans="3:3">
       <c r="C373" t="s">
-        <v>2273</v>
+        <v>2274</v>
       </c>
     </row>
     <row r="374" spans="3:3">
       <c r="C374" t="s">
-        <v>2274</v>
+        <v>2275</v>
       </c>
     </row>
     <row r="375" spans="3:3">
       <c r="C375" t="s">
-        <v>2275</v>
+        <v>2276</v>
       </c>
     </row>
     <row r="376" spans="3:3">
       <c r="C376" t="s">
-        <v>2276</v>
+        <v>2277</v>
       </c>
     </row>
     <row r="377" spans="3:3">
       <c r="C377" t="s">
-        <v>2277</v>
+        <v>2278</v>
       </c>
     </row>
     <row r="378" spans="3:3">
       <c r="C378" t="s">
-        <v>2278</v>
+        <v>2279</v>
       </c>
     </row>
     <row r="379" spans="3:3">
       <c r="C379" t="s">
-        <v>2279</v>
+        <v>2280</v>
       </c>
     </row>
     <row r="380" spans="3:3">
       <c r="C380" t="s">
-        <v>2280</v>
+        <v>2281</v>
       </c>
     </row>
     <row r="381" spans="3:3">
       <c r="C381" t="s">
-        <v>2281</v>
+        <v>2282</v>
       </c>
     </row>
     <row r="382" spans="3:3">
       <c r="C382" t="s">
-        <v>2282</v>
+        <v>2283</v>
       </c>
     </row>
     <row r="383" spans="3:3">
       <c r="C383" t="s">
-        <v>2283</v>
+        <v>2284</v>
       </c>
     </row>
     <row r="384" spans="3:3">
       <c r="C384" t="s">
-        <v>2284</v>
+        <v>2285</v>
       </c>
     </row>
     <row r="385" spans="3:3">
       <c r="C385" t="s">
-        <v>2285</v>
+        <v>2286</v>
       </c>
     </row>
     <row r="386" spans="3:3">
       <c r="C386" t="s">
-        <v>2286</v>
+        <v>2287</v>
       </c>
     </row>
     <row r="387" spans="3:3">
       <c r="C387" t="s">
-        <v>2287</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="388" spans="3:3">
       <c r="C388" t="s">
-        <v>2288</v>
+        <v>2289</v>
       </c>
     </row>
     <row r="389" spans="3:3">
       <c r="C389" t="s">
-        <v>2289</v>
+        <v>2290</v>
       </c>
     </row>
     <row r="390" spans="3:3">
       <c r="C390" t="s">
-        <v>2290</v>
+        <v>2291</v>
       </c>
     </row>
     <row r="391" spans="3:3">
       <c r="C391" t="s">
-        <v>2291</v>
+        <v>2292</v>
       </c>
     </row>
     <row r="392" spans="3:3">
       <c r="C392" t="s">
-        <v>2292</v>
+        <v>2293</v>
       </c>
     </row>
     <row r="393" spans="3:3">
       <c r="C393" t="s">
-        <v>2293</v>
+        <v>2294</v>
       </c>
     </row>
     <row r="394" spans="3:3">
       <c r="C394" t="s">
-        <v>2294</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="395" spans="3:3">
       <c r="C395" t="s">
-        <v>2295</v>
+        <v>2296</v>
       </c>
     </row>
     <row r="396" spans="3:3">
       <c r="C396" t="s">
-        <v>2296</v>
+        <v>2297</v>
       </c>
     </row>
     <row r="397" spans="3:3">
       <c r="C397" t="s">
-        <v>2297</v>
+        <v>2298</v>
       </c>
     </row>
     <row r="398" spans="3:3">
       <c r="C398" t="s">
-        <v>2298</v>
+        <v>2299</v>
       </c>
     </row>
     <row r="399" spans="3:3">
       <c r="C399" t="s">
-        <v>2299</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="400" spans="3:3">
       <c r="C400" t="s">
-        <v>2300</v>
+        <v>2301</v>
       </c>
     </row>
     <row r="401" spans="3:3">
       <c r="C401" t="s">
-        <v>2301</v>
+        <v>2302</v>
       </c>
     </row>
     <row r="402" spans="3:3">
       <c r="C402" t="s">
-        <v>2302</v>
+        <v>2303</v>
       </c>
     </row>
     <row r="403" spans="3:3">
       <c r="C403" t="s">
-        <v>2303</v>
+        <v>2304</v>
       </c>
     </row>
     <row r="404" spans="3:3">
       <c r="C404" t="s">
-        <v>2304</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="405" spans="3:3">
       <c r="C405" t="s">
-        <v>2305</v>
+        <v>2306</v>
       </c>
     </row>
     <row r="406" spans="3:3">
       <c r="C406" t="s">
-        <v>2306</v>
+        <v>2307</v>
       </c>
     </row>
     <row r="407" spans="3:3">
       <c r="C407" t="s">
-        <v>2307</v>
+        <v>2308</v>
       </c>
     </row>
     <row r="408" spans="3:3">
       <c r="C408" t="s">
-        <v>2308</v>
+        <v>2309</v>
       </c>
     </row>
     <row r="409" spans="3:3">
       <c r="C409" t="s">
-        <v>2309</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="410" spans="3:3">
       <c r="C410" t="s">
-        <v>2310</v>
+        <v>2311</v>
       </c>
     </row>
     <row r="411" spans="3:3">
       <c r="C411" t="s">
-        <v>2311</v>
+        <v>2312</v>
       </c>
     </row>
     <row r="412" spans="3:3">
       <c r="C412" t="s">
-        <v>2312</v>
+        <v>2313</v>
       </c>
     </row>
     <row r="413" spans="3:3">
       <c r="C413" t="s">
-        <v>2313</v>
+        <v>2314</v>
       </c>
     </row>
     <row r="414" spans="3:3">
       <c r="C414" t="s">
-        <v>2314</v>
+        <v>2315</v>
       </c>
     </row>
     <row r="415" spans="3:3">
       <c r="C415" t="s">
-        <v>2315</v>
+        <v>2316</v>
       </c>
     </row>
     <row r="416" spans="3:3">
       <c r="C416" t="s">
-        <v>2316</v>
+        <v>2317</v>
       </c>
     </row>
     <row r="417" spans="3:3">
       <c r="C417" t="s">
-        <v>2317</v>
+        <v>2318</v>
       </c>
     </row>
     <row r="418" spans="3:3">
       <c r="C418" t="s">
-        <v>2318</v>
+        <v>2319</v>
       </c>
     </row>
     <row r="419" spans="3:3">
       <c r="C419" t="s">
-        <v>2319</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="420" spans="3:3">
       <c r="C420" t="s">
-        <v>2320</v>
+        <v>2321</v>
       </c>
     </row>
     <row r="421" spans="3:3">
       <c r="C421" t="s">
-        <v>2321</v>
+        <v>2322</v>
       </c>
     </row>
     <row r="422" spans="3:3">
       <c r="C422" t="s">
-        <v>2322</v>
+        <v>2323</v>
       </c>
     </row>
     <row r="423" spans="3:3">
       <c r="C423" t="s">
-        <v>2323</v>
+        <v>2324</v>
       </c>
     </row>
     <row r="424" spans="3:3">
       <c r="C424" t="s">
-        <v>2324</v>
+        <v>2325</v>
       </c>
     </row>
     <row r="425" spans="3:3">
       <c r="C425" t="s">
-        <v>2325</v>
+        <v>2326</v>
       </c>
     </row>
     <row r="426" spans="3:3">
       <c r="C426" t="s">
-        <v>2326</v>
+        <v>2327</v>
       </c>
     </row>
     <row r="427" spans="3:3">
       <c r="C427" t="s">
-        <v>2327</v>
+        <v>2328</v>
       </c>
     </row>
     <row r="428" spans="3:3">
       <c r="C428" t="s">
-        <v>2328</v>
+        <v>2329</v>
       </c>
     </row>
     <row r="429" spans="3:3">
       <c r="C429" t="s">
-        <v>2329</v>
+        <v>2330</v>
       </c>
     </row>
     <row r="430" spans="3:3">
       <c r="C430" t="s">
-        <v>2330</v>
+        <v>2331</v>
       </c>
     </row>
     <row r="431" spans="3:3">
       <c r="C431" t="s">
-        <v>2331</v>
+        <v>2332</v>
       </c>
     </row>
     <row r="432" spans="3:3">
       <c r="C432" t="s">
-        <v>2332</v>
+        <v>2333</v>
       </c>
     </row>
     <row r="433" spans="3:3">
       <c r="C433" t="s">
-        <v>2333</v>
+        <v>2334</v>
       </c>
     </row>
     <row r="434" spans="3:3">
       <c r="C434" t="s">
-        <v>2334</v>
+        <v>2335</v>
       </c>
     </row>
     <row r="435" spans="3:3">
       <c r="C435" t="s">
-        <v>2335</v>
+        <v>2336</v>
       </c>
     </row>
     <row r="436" spans="3:3">
       <c r="C436" t="s">
-        <v>2336</v>
+        <v>2337</v>
       </c>
     </row>
     <row r="437" spans="3:3">
       <c r="C437" t="s">
-        <v>2337</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="438" spans="3:3">
       <c r="C438" t="s">
-        <v>2338</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="439" spans="3:3">
       <c r="C439" t="s">
-        <v>2339</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="440" spans="3:3">
       <c r="C440" t="s">
-        <v>2340</v>
+        <v>2341</v>
       </c>
     </row>
     <row r="441" spans="3:3">
       <c r="C441" t="s">
-        <v>2341</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="442" spans="3:3">
       <c r="C442" t="s">
-        <v>2342</v>
+        <v>2343</v>
       </c>
     </row>
     <row r="443" spans="3:3">
       <c r="C443" t="s">
-        <v>2343</v>
+        <v>2344</v>
       </c>
     </row>
     <row r="444" spans="3:3">
       <c r="C444" t="s">
-        <v>2344</v>
+        <v>2345</v>
       </c>
     </row>
     <row r="445" spans="3:3">
       <c r="C445" t="s">
-        <v>2345</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="446" spans="3:3">
       <c r="C446" t="s">
-        <v>2346</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="447" spans="3:3">
       <c r="C447" t="s">
-        <v>2347</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="448" spans="3:3">
       <c r="C448" t="s">
-        <v>2348</v>
+        <v>2349</v>
       </c>
     </row>
     <row r="449" spans="3:3">
       <c r="C449" t="s">
-        <v>2349</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="450" spans="3:3">
       <c r="C450" t="s">
-        <v>2350</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="451" spans="3:3">
       <c r="C451" t="s">
-        <v>2351</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="452" spans="3:3">
       <c r="C452" t="s">
-        <v>2352</v>
+        <v>2353</v>
       </c>
     </row>
     <row r="453" spans="3:3">
       <c r="C453" t="s">
-        <v>2353</v>
+        <v>2354</v>
       </c>
     </row>
     <row r="454" spans="3:3">
       <c r="C454" t="s">
-        <v>2354</v>
+        <v>2355</v>
       </c>
     </row>
     <row r="455" spans="3:3">
       <c r="C455" t="s">
-        <v>2355</v>
+        <v>2356</v>
       </c>
     </row>
     <row r="456" spans="3:3">
       <c r="C456" t="s">
-        <v>2356</v>
+        <v>2357</v>
       </c>
     </row>
     <row r="457" spans="3:3">
       <c r="C457" t="s">
-        <v>2357</v>
+        <v>2358</v>
       </c>
     </row>
   </sheetData>
@@ -59422,87 +59458,87 @@
   <sheetData>
     <row r="3" spans="4:4">
       <c r="D3" s="1" t="s">
-        <v>2358</v>
+        <v>2359</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>2359</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>2360</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="14" ht="16.5" spans="4:4">
       <c r="D14" t="s">
-        <v>2361</v>
+        <v>2362</v>
       </c>
     </row>
     <row r="16" ht="16.5" spans="4:4">
       <c r="D16" t="s">
-        <v>2362</v>
+        <v>2363</v>
       </c>
     </row>
     <row r="18" ht="16.5" spans="4:4">
       <c r="D18" t="s">
-        <v>2363</v>
+        <v>2364</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>2364</v>
+        <v>2365</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>2365</v>
+        <v>2366</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>2366</v>
+        <v>2367</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" t="s">
-        <v>2367</v>
+        <v>2368</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" t="s">
-        <v>2369</v>
+        <v>2370</v>
       </c>
     </row>
     <row r="25" ht="16.5" spans="4:4">
       <c r="D25" t="s">
-        <v>2370</v>
+        <v>2371</v>
       </c>
     </row>
     <row r="27" ht="16.5" spans="4:4">
       <c r="D27" s="2" t="s">
-        <v>2371</v>
+        <v>2372</v>
       </c>
     </row>
     <row r="29" spans="4:4">
       <c r="D29" t="s">
-        <v>2372</v>
+        <v>2373</v>
       </c>
     </row>
     <row r="31" ht="16.5" spans="4:4">
       <c r="D31" t="s">
-        <v>2373</v>
+        <v>2374</v>
       </c>
     </row>
     <row r="34" spans="4:4">
       <c r="D34" s="3" t="s">
-        <v>2374</v>
+        <v>2375</v>
       </c>
     </row>
     <row r="35" spans="4:4">
@@ -59525,237 +59561,237 @@
     </row>
     <row r="46" spans="4:4">
       <c r="D46" s="5" t="s">
-        <v>2375</v>
+        <v>2376</v>
       </c>
     </row>
     <row r="48" ht="16.5" spans="4:4">
       <c r="D48" s="6" t="s">
-        <v>2376</v>
+        <v>2377</v>
       </c>
     </row>
     <row r="50" ht="16.5" spans="4:4">
       <c r="D50" s="6" t="s">
-        <v>2377</v>
+        <v>2378</v>
       </c>
     </row>
     <row r="52" ht="16.5" spans="4:4">
       <c r="D52" s="6" t="s">
-        <v>2378</v>
+        <v>2379</v>
       </c>
     </row>
     <row r="57" spans="4:4">
       <c r="D57" t="s">
-        <v>2379</v>
+        <v>2380</v>
       </c>
     </row>
     <row r="58" spans="4:4">
       <c r="D58" t="s">
-        <v>2380</v>
+        <v>2381</v>
       </c>
     </row>
     <row r="59" spans="4:4">
       <c r="D59" t="s">
-        <v>2381</v>
+        <v>2382</v>
       </c>
     </row>
     <row r="60" spans="4:4">
       <c r="D60" t="s">
-        <v>2382</v>
+        <v>2383</v>
       </c>
     </row>
     <row r="61" spans="4:4">
       <c r="D61" t="s">
-        <v>2383</v>
+        <v>2384</v>
       </c>
     </row>
     <row r="62" spans="4:4">
       <c r="D62" t="s">
-        <v>2384</v>
+        <v>2385</v>
       </c>
     </row>
     <row r="63" spans="4:4">
       <c r="D63" t="s">
-        <v>2385</v>
+        <v>2386</v>
       </c>
     </row>
     <row r="64" spans="4:4">
       <c r="D64" t="s">
-        <v>2386</v>
+        <v>2387</v>
       </c>
     </row>
     <row r="65" spans="4:4">
       <c r="D65" t="s">
-        <v>2387</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="66" spans="4:4">
       <c r="D66" t="s">
-        <v>2388</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="67" spans="4:4">
       <c r="D67" t="s">
-        <v>2389</v>
+        <v>2390</v>
       </c>
     </row>
     <row r="68" spans="4:4">
       <c r="D68" t="s">
-        <v>2390</v>
+        <v>2391</v>
       </c>
     </row>
     <row r="69" spans="4:4">
       <c r="D69" t="s">
-        <v>2391</v>
+        <v>2392</v>
       </c>
     </row>
     <row r="70" spans="4:4">
       <c r="D70" t="s">
-        <v>2392</v>
+        <v>2393</v>
       </c>
     </row>
     <row r="71" spans="4:4">
       <c r="D71" t="s">
-        <v>2393</v>
+        <v>2394</v>
       </c>
     </row>
     <row r="72" spans="4:4">
       <c r="D72" t="s">
-        <v>2394</v>
+        <v>2395</v>
       </c>
     </row>
     <row r="73" spans="4:4">
       <c r="D73" t="s">
-        <v>2395</v>
+        <v>2396</v>
       </c>
     </row>
     <row r="74" spans="4:4">
       <c r="D74" t="s">
-        <v>2396</v>
+        <v>2397</v>
       </c>
     </row>
     <row r="75" spans="4:4">
       <c r="D75" t="s">
-        <v>2397</v>
+        <v>2398</v>
       </c>
     </row>
     <row r="76" spans="4:4">
       <c r="D76" t="s">
-        <v>2398</v>
+        <v>2399</v>
       </c>
     </row>
     <row r="77" spans="4:4">
       <c r="D77" t="s">
-        <v>2399</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="78" spans="4:4">
       <c r="D78" t="s">
-        <v>2400</v>
+        <v>2401</v>
       </c>
     </row>
     <row r="79" spans="4:4">
       <c r="D79" t="s">
-        <v>2401</v>
+        <v>2402</v>
       </c>
     </row>
     <row r="80" spans="4:4">
       <c r="D80" t="s">
-        <v>2402</v>
+        <v>2403</v>
       </c>
     </row>
     <row r="86" spans="4:4">
       <c r="D86" s="5" t="s">
-        <v>2403</v>
+        <v>2404</v>
       </c>
     </row>
     <row r="88" ht="16.5" spans="4:4">
       <c r="D88" s="6" t="s">
-        <v>2404</v>
+        <v>2405</v>
       </c>
     </row>
     <row r="89" ht="16.5" spans="4:4">
       <c r="D89" s="6" t="s">
-        <v>2405</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="90" ht="16.5" spans="4:4">
       <c r="D90" s="6" t="s">
-        <v>2406</v>
+        <v>2407</v>
       </c>
     </row>
     <row r="91" ht="16.5" spans="4:4">
       <c r="D91" s="6" t="s">
-        <v>2407</v>
+        <v>2408</v>
       </c>
     </row>
     <row r="92" ht="16.5" spans="4:4">
       <c r="D92" s="6" t="s">
-        <v>2408</v>
+        <v>2409</v>
       </c>
     </row>
     <row r="94" spans="4:4">
       <c r="D94" s="5" t="s">
-        <v>2409</v>
+        <v>2410</v>
       </c>
     </row>
     <row r="96" ht="16.5" spans="4:4">
       <c r="D96" s="6" t="s">
-        <v>2410</v>
+        <v>2411</v>
       </c>
     </row>
     <row r="97" ht="16.5" spans="4:4">
       <c r="D97" s="6" t="s">
-        <v>2411</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="98" ht="16.5" spans="4:4">
       <c r="D98" s="6" t="s">
-        <v>2412</v>
+        <v>2413</v>
       </c>
     </row>
     <row r="99" ht="16.5" spans="4:4">
       <c r="D99" s="6" t="s">
-        <v>2413</v>
+        <v>2414</v>
       </c>
     </row>
     <row r="100" ht="16.5" spans="4:4">
       <c r="D100" s="6" t="s">
-        <v>2414</v>
+        <v>2415</v>
       </c>
     </row>
     <row r="101" ht="16.5" spans="4:4">
       <c r="D101" s="6" t="s">
-        <v>2415</v>
+        <v>2416</v>
       </c>
     </row>
     <row r="102" ht="16.5" spans="4:4">
       <c r="D102" s="6" t="s">
-        <v>2416</v>
+        <v>2417</v>
       </c>
     </row>
     <row r="103" ht="16.5" spans="4:4">
       <c r="D103" s="6" t="s">
-        <v>2417</v>
+        <v>2418</v>
       </c>
     </row>
     <row r="106" spans="4:4">
       <c r="D106" s="5" t="s">
-        <v>2418</v>
+        <v>2419</v>
       </c>
     </row>
     <row r="107" ht="16.5" spans="4:4">
       <c r="D107" t="s">
-        <v>2419</v>
+        <v>2420</v>
       </c>
     </row>
     <row r="108" ht="16.5" spans="4:4">
       <c r="D108" t="s">
-        <v>2420</v>
+        <v>2421</v>
       </c>
     </row>
     <row r="109" spans="4:4">
       <c r="D109" s="7" t="s">
-        <v>2421</v>
+        <v>2422</v>
       </c>
     </row>
     <row r="110" spans="4:4">
@@ -59763,7 +59799,7 @@
     </row>
     <row r="111" spans="4:9">
       <c r="D111" s="8" t="s">
-        <v>2422</v>
+        <v>2423</v>
       </c>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
@@ -59773,7 +59809,7 @@
     </row>
     <row r="112" spans="4:9">
       <c r="D112" s="8" t="s">
-        <v>2423</v>
+        <v>2424</v>
       </c>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
@@ -59783,7 +59819,7 @@
     </row>
     <row r="113" spans="4:9">
       <c r="D113" s="8" t="s">
-        <v>2424</v>
+        <v>2425</v>
       </c>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
@@ -59801,7 +59837,7 @@
     </row>
     <row r="115" spans="4:9">
       <c r="D115" s="8" t="s">
-        <v>2425</v>
+        <v>2426</v>
       </c>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
@@ -59811,7 +59847,7 @@
     </row>
     <row r="116" spans="4:9">
       <c r="D116" s="8" t="s">
-        <v>2426</v>
+        <v>2427</v>
       </c>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
@@ -59821,7 +59857,7 @@
     </row>
     <row r="117" spans="4:9">
       <c r="D117" s="8" t="s">
-        <v>2424</v>
+        <v>2425</v>
       </c>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
@@ -59831,7 +59867,7 @@
     </row>
     <row r="118" spans="4:9">
       <c r="D118" s="8" t="s">
-        <v>2427</v>
+        <v>2428</v>
       </c>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
@@ -59841,7 +59877,7 @@
     </row>
     <row r="119" spans="4:9">
       <c r="D119" s="8" t="s">
-        <v>2428</v>
+        <v>2429</v>
       </c>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
@@ -59851,7 +59887,7 @@
     </row>
     <row r="120" spans="4:9">
       <c r="D120" s="8" t="s">
-        <v>2429</v>
+        <v>2430</v>
       </c>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
@@ -59861,7 +59897,7 @@
     </row>
     <row r="121" spans="4:9">
       <c r="D121" s="8" t="s">
-        <v>2430</v>
+        <v>2431</v>
       </c>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
@@ -59871,7 +59907,7 @@
     </row>
     <row r="122" spans="4:9">
       <c r="D122" s="8" t="s">
-        <v>2431</v>
+        <v>2432</v>
       </c>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
@@ -59889,7 +59925,7 @@
     </row>
     <row r="124" spans="4:9">
       <c r="D124" s="8" t="s">
-        <v>2432</v>
+        <v>2433</v>
       </c>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
@@ -59899,7 +59935,7 @@
     </row>
     <row r="125" spans="4:9">
       <c r="D125" s="8" t="s">
-        <v>2433</v>
+        <v>2434</v>
       </c>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
@@ -59909,7 +59945,7 @@
     </row>
     <row r="126" spans="4:9">
       <c r="D126" s="8" t="s">
-        <v>2434</v>
+        <v>2435</v>
       </c>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
@@ -59919,7 +59955,7 @@
     </row>
     <row r="127" spans="4:9">
       <c r="D127" s="8" t="s">
-        <v>2435</v>
+        <v>2436</v>
       </c>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
@@ -59937,7 +59973,7 @@
     </row>
     <row r="129" spans="4:9">
       <c r="D129" s="8" t="s">
-        <v>2436</v>
+        <v>2437</v>
       </c>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
@@ -59947,7 +59983,7 @@
     </row>
     <row r="130" spans="4:9">
       <c r="D130" s="8" t="s">
-        <v>2437</v>
+        <v>2438</v>
       </c>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
@@ -59957,7 +59993,7 @@
     </row>
     <row r="131" spans="4:9">
       <c r="D131" s="8" t="s">
-        <v>2438</v>
+        <v>2439</v>
       </c>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
@@ -59967,7 +60003,7 @@
     </row>
     <row r="132" spans="4:9">
       <c r="D132" s="8" t="s">
-        <v>2439</v>
+        <v>2440</v>
       </c>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
@@ -59977,7 +60013,7 @@
     </row>
     <row r="133" spans="4:9">
       <c r="D133" s="8" t="s">
-        <v>2435</v>
+        <v>2436</v>
       </c>
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
@@ -59995,7 +60031,7 @@
     </row>
     <row r="135" spans="4:9">
       <c r="D135" s="8" t="s">
-        <v>2440</v>
+        <v>2441</v>
       </c>
       <c r="E135" s="8"/>
       <c r="F135" s="8"/>
@@ -60005,7 +60041,7 @@
     </row>
     <row r="136" spans="4:9">
       <c r="D136" s="8" t="s">
-        <v>2441</v>
+        <v>2442</v>
       </c>
       <c r="E136" s="8"/>
       <c r="F136" s="8"/>
@@ -60015,7 +60051,7 @@
     </row>
     <row r="137" spans="4:9">
       <c r="D137" s="8" t="s">
-        <v>2442</v>
+        <v>2443</v>
       </c>
       <c r="E137" s="8"/>
       <c r="F137" s="8"/>
@@ -60025,7 +60061,7 @@
     </row>
     <row r="138" spans="4:9">
       <c r="D138" s="8" t="s">
-        <v>2443</v>
+        <v>2444</v>
       </c>
       <c r="E138" s="8"/>
       <c r="F138" s="8"/>
@@ -60035,7 +60071,7 @@
     </row>
     <row r="139" spans="4:9">
       <c r="D139" s="8" t="s">
-        <v>2435</v>
+        <v>2436</v>
       </c>
       <c r="E139" s="8"/>
       <c r="F139" s="8"/>
@@ -60045,107 +60081,107 @@
     </row>
     <row r="143" spans="4:4">
       <c r="D143" s="7" t="s">
-        <v>2444</v>
+        <v>2445</v>
       </c>
     </row>
     <row r="146" ht="16.5" spans="4:4">
       <c r="D146" t="s">
-        <v>2445</v>
+        <v>2446</v>
       </c>
     </row>
     <row r="149" spans="4:4">
       <c r="D149" s="7" t="s">
-        <v>2446</v>
+        <v>2447</v>
       </c>
     </row>
     <row r="155" ht="16.5" spans="4:4">
       <c r="D155" t="s">
-        <v>2447</v>
+        <v>2448</v>
       </c>
     </row>
     <row r="159" spans="4:4">
       <c r="D159" s="5" t="s">
-        <v>2448</v>
+        <v>2449</v>
       </c>
     </row>
     <row r="161" spans="4:4">
       <c r="D161" t="s">
-        <v>2449</v>
+        <v>2450</v>
       </c>
     </row>
     <row r="162" spans="4:4">
       <c r="D162" t="s">
-        <v>2450</v>
+        <v>2451</v>
       </c>
     </row>
     <row r="163" spans="4:4">
       <c r="D163" t="s">
-        <v>2424</v>
+        <v>2425</v>
       </c>
     </row>
     <row r="164" spans="4:4">
       <c r="D164" s="8" t="s">
-        <v>2451</v>
+        <v>2452</v>
       </c>
     </row>
     <row r="166" spans="4:4">
       <c r="D166" t="s">
-        <v>2425</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="167" spans="4:4">
       <c r="D167" t="s">
-        <v>2452</v>
+        <v>2453</v>
       </c>
     </row>
     <row r="168" spans="4:4">
       <c r="D168" s="8" t="s">
-        <v>2453</v>
+        <v>2454</v>
       </c>
     </row>
     <row r="169" spans="4:4">
       <c r="D169" t="s">
-        <v>2454</v>
+        <v>2455</v>
       </c>
     </row>
     <row r="171" spans="4:4">
       <c r="D171" t="s">
-        <v>2428</v>
+        <v>2429</v>
       </c>
     </row>
     <row r="172" spans="4:4">
       <c r="D172" s="8" t="s">
-        <v>2455</v>
+        <v>2456</v>
       </c>
     </row>
     <row r="173" spans="4:4">
       <c r="D173" t="s">
-        <v>2453</v>
+        <v>2454</v>
       </c>
     </row>
     <row r="174" spans="4:4">
       <c r="D174" t="s">
-        <v>2456</v>
+        <v>2457</v>
       </c>
     </row>
     <row r="176" spans="4:4">
       <c r="D176" s="8" t="s">
-        <v>2432</v>
+        <v>2433</v>
       </c>
     </row>
     <row r="177" spans="4:4">
       <c r="D177" t="s">
-        <v>2457</v>
+        <v>2458</v>
       </c>
     </row>
     <row r="178" spans="4:4">
       <c r="D178" t="s">
-        <v>2453</v>
+        <v>2454</v>
       </c>
     </row>
     <row r="179" spans="4:4">
       <c r="D179" t="s">
-        <v>2458</v>
+        <v>2459</v>
       </c>
     </row>
     <row r="180" spans="4:4">
@@ -60153,7 +60189,7 @@
     </row>
     <row r="181" spans="4:4">
       <c r="D181" t="s">
-        <v>2459</v>
+        <v>2460</v>
       </c>
     </row>
     <row r="183" spans="4:4">
@@ -60161,7 +60197,7 @@
     </row>
     <row r="185" spans="4:4">
       <c r="D185" s="7" t="s">
-        <v>2460</v>
+        <v>2461</v>
       </c>
     </row>
   </sheetData>
@@ -60218,107 +60254,107 @@
   <sheetData>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>2461</v>
+        <v>2462</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>2462</v>
+        <v>2463</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" t="s">
-        <v>2463</v>
+        <v>2464</v>
       </c>
     </row>
     <row r="5" spans="5:5">
       <c r="E5" t="s">
-        <v>2464</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" t="s">
-        <v>2465</v>
+        <v>2466</v>
       </c>
     </row>
     <row r="7" spans="5:5">
       <c r="E7" t="s">
-        <v>2466</v>
+        <v>2467</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>2467</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="9" spans="5:5">
       <c r="E9" t="s">
-        <v>2468</v>
+        <v>2469</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>2469</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>2470</v>
+        <v>2471</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>2471</v>
+        <v>2472</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" t="s">
-        <v>2472</v>
+        <v>2473</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>2473</v>
+        <v>2474</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" t="s">
-        <v>2474</v>
+        <v>2475</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>2475</v>
+        <v>2476</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>2476</v>
+        <v>2477</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>2477</v>
+        <v>2478</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" t="s">
-        <v>2480</v>
+        <v>2481</v>
       </c>
     </row>
     <row r="25" spans="4:4">
       <c r="D25" t="s">
-        <v>2481</v>
+        <v>2482</v>
       </c>
     </row>
     <row r="26" spans="4:4">
@@ -60328,427 +60364,427 @@
     </row>
     <row r="27" spans="4:4">
       <c r="D27" t="s">
-        <v>2482</v>
+        <v>2483</v>
       </c>
     </row>
     <row r="28" spans="4:4">
       <c r="D28" t="s">
-        <v>2483</v>
+        <v>2484</v>
       </c>
     </row>
     <row r="29" spans="4:4">
       <c r="D29" t="s">
-        <v>2484</v>
+        <v>2485</v>
       </c>
     </row>
     <row r="30" spans="4:4">
       <c r="D30" t="s">
-        <v>2485</v>
+        <v>2486</v>
       </c>
     </row>
     <row r="31" spans="4:4">
       <c r="D31" t="s">
-        <v>2486</v>
+        <v>2487</v>
       </c>
     </row>
     <row r="32" spans="4:4">
       <c r="D32" t="s">
-        <v>2487</v>
+        <v>2488</v>
       </c>
     </row>
     <row r="33" spans="4:4">
       <c r="D33" t="s">
-        <v>2488</v>
+        <v>2489</v>
       </c>
     </row>
     <row r="34" spans="4:4">
       <c r="D34" t="s">
-        <v>2489</v>
+        <v>2490</v>
       </c>
     </row>
     <row r="37" spans="4:4">
       <c r="D37" t="s">
-        <v>2490</v>
+        <v>2491</v>
       </c>
     </row>
     <row r="38" spans="4:4">
       <c r="D38" t="s">
-        <v>2491</v>
+        <v>2492</v>
       </c>
     </row>
     <row r="39" spans="4:4">
       <c r="D39" t="s">
-        <v>2492</v>
+        <v>2493</v>
       </c>
     </row>
     <row r="40" spans="5:5">
       <c r="E40" t="s">
-        <v>2493</v>
+        <v>2494</v>
       </c>
     </row>
     <row r="41" spans="4:4">
       <c r="D41" t="s">
-        <v>2494</v>
+        <v>2495</v>
       </c>
     </row>
     <row r="42" spans="4:4">
       <c r="D42" t="s">
-        <v>2495</v>
+        <v>2496</v>
       </c>
     </row>
     <row r="43" spans="4:4">
       <c r="D43" t="s">
-        <v>2496</v>
+        <v>2497</v>
       </c>
     </row>
     <row r="44" spans="4:4">
       <c r="D44" t="s">
-        <v>2497</v>
+        <v>2498</v>
       </c>
     </row>
     <row r="46" spans="4:4">
       <c r="D46" t="s">
-        <v>2498</v>
+        <v>2499</v>
       </c>
     </row>
     <row r="47" spans="4:4">
       <c r="D47" t="s">
-        <v>2499</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="48" spans="4:4">
       <c r="D48" t="s">
-        <v>2500</v>
+        <v>2501</v>
       </c>
     </row>
     <row r="49" spans="4:4">
       <c r="D49" t="s">
-        <v>2501</v>
+        <v>2502</v>
       </c>
     </row>
     <row r="51" spans="4:4">
       <c r="D51" t="s">
-        <v>2502</v>
+        <v>2503</v>
       </c>
     </row>
     <row r="52" spans="4:4">
       <c r="D52" t="s">
-        <v>2503</v>
+        <v>2504</v>
       </c>
     </row>
     <row r="53" spans="4:4">
       <c r="D53" t="s">
-        <v>2504</v>
+        <v>2505</v>
       </c>
     </row>
     <row r="54" spans="4:4">
       <c r="D54" t="s">
-        <v>2505</v>
+        <v>2506</v>
       </c>
     </row>
     <row r="55" spans="4:4">
       <c r="D55" t="s">
-        <v>2506</v>
+        <v>2507</v>
       </c>
     </row>
     <row r="56" spans="4:4">
       <c r="D56" t="s">
-        <v>2507</v>
+        <v>2508</v>
       </c>
     </row>
     <row r="57" spans="4:4">
       <c r="D57" t="s">
-        <v>2508</v>
+        <v>2509</v>
       </c>
     </row>
     <row r="58" spans="4:4">
       <c r="D58" t="s">
-        <v>2509</v>
+        <v>2510</v>
       </c>
     </row>
     <row r="59" spans="4:4">
       <c r="D59" t="s">
-        <v>2510</v>
+        <v>2511</v>
       </c>
     </row>
     <row r="60" spans="4:4">
       <c r="D60" t="s">
-        <v>2511</v>
+        <v>2512</v>
       </c>
     </row>
     <row r="61" spans="4:4">
       <c r="D61" t="s">
-        <v>2512</v>
+        <v>2513</v>
       </c>
     </row>
     <row r="62" spans="4:4">
       <c r="D62" t="s">
-        <v>2513</v>
+        <v>2514</v>
       </c>
     </row>
     <row r="64" spans="4:4">
       <c r="D64" t="s">
-        <v>2514</v>
+        <v>2515</v>
       </c>
     </row>
     <row r="65" spans="4:4">
       <c r="D65" t="s">
-        <v>2515</v>
+        <v>2516</v>
       </c>
     </row>
     <row r="66" spans="4:4">
       <c r="D66" t="s">
-        <v>2516</v>
+        <v>2517</v>
       </c>
     </row>
     <row r="68" spans="4:4">
       <c r="D68" t="s">
-        <v>2517</v>
+        <v>2518</v>
       </c>
     </row>
     <row r="69" spans="4:4">
       <c r="D69" t="s">
-        <v>2518</v>
+        <v>2519</v>
       </c>
     </row>
     <row r="70" spans="4:4">
       <c r="D70" t="s">
-        <v>2519</v>
+        <v>2520</v>
       </c>
     </row>
     <row r="72" spans="4:4">
       <c r="D72" t="s">
-        <v>2520</v>
+        <v>2521</v>
       </c>
     </row>
     <row r="73" spans="4:4">
       <c r="D73" t="s">
-        <v>2521</v>
+        <v>2522</v>
       </c>
     </row>
     <row r="74" spans="4:4">
       <c r="D74" t="s">
-        <v>2522</v>
+        <v>2523</v>
       </c>
     </row>
     <row r="75" spans="4:4">
       <c r="D75" t="s">
-        <v>2523</v>
+        <v>2524</v>
       </c>
     </row>
     <row r="77" spans="4:4">
       <c r="D77" t="s">
-        <v>2524</v>
+        <v>2525</v>
       </c>
     </row>
     <row r="78" spans="4:4">
       <c r="D78" t="s">
-        <v>2525</v>
+        <v>2526</v>
       </c>
     </row>
     <row r="79" spans="4:4">
       <c r="D79" t="s">
-        <v>2526</v>
+        <v>2527</v>
       </c>
     </row>
     <row r="80" spans="4:4">
       <c r="D80" t="s">
-        <v>2527</v>
+        <v>2528</v>
       </c>
     </row>
     <row r="81" spans="4:4">
       <c r="D81" t="s">
-        <v>2528</v>
+        <v>2529</v>
       </c>
     </row>
     <row r="82" spans="4:4">
       <c r="D82" t="s">
-        <v>2529</v>
+        <v>2530</v>
       </c>
     </row>
     <row r="83" spans="4:4">
       <c r="D83" t="s">
-        <v>2530</v>
+        <v>2531</v>
       </c>
     </row>
     <row r="85" spans="4:4">
       <c r="D85" t="s">
-        <v>2531</v>
+        <v>2532</v>
       </c>
     </row>
     <row r="86" spans="4:4">
       <c r="D86" t="s">
-        <v>2532</v>
+        <v>2533</v>
       </c>
     </row>
     <row r="87" spans="4:4">
       <c r="D87" t="s">
-        <v>2533</v>
+        <v>2534</v>
       </c>
     </row>
     <row r="88" spans="4:4">
       <c r="D88" t="s">
-        <v>2534</v>
+        <v>2535</v>
       </c>
     </row>
     <row r="90" spans="4:4">
       <c r="D90" t="s">
-        <v>2535</v>
+        <v>2536</v>
       </c>
     </row>
     <row r="91" spans="4:4">
       <c r="D91" t="s">
-        <v>2536</v>
+        <v>2537</v>
       </c>
     </row>
     <row r="92" spans="4:4">
       <c r="D92" t="s">
-        <v>2537</v>
+        <v>2538</v>
       </c>
     </row>
     <row r="93" spans="4:4">
       <c r="D93" t="s">
-        <v>2538</v>
+        <v>2539</v>
       </c>
     </row>
     <row r="94" spans="4:4">
       <c r="D94" t="s">
-        <v>2539</v>
+        <v>2540</v>
       </c>
     </row>
     <row r="95" spans="4:4">
       <c r="D95" t="s">
-        <v>2540</v>
+        <v>2541</v>
       </c>
     </row>
     <row r="96" spans="4:4">
       <c r="D96" t="s">
-        <v>2541</v>
+        <v>2542</v>
       </c>
     </row>
     <row r="97" spans="4:4">
       <c r="D97" t="s">
-        <v>2542</v>
+        <v>2543</v>
       </c>
     </row>
     <row r="98" spans="4:4">
       <c r="D98" t="s">
-        <v>2543</v>
+        <v>2544</v>
       </c>
     </row>
     <row r="100" spans="4:4">
       <c r="D100" t="s">
-        <v>2544</v>
+        <v>2545</v>
       </c>
     </row>
     <row r="101" spans="4:4">
       <c r="D101" t="s">
-        <v>2545</v>
+        <v>2546</v>
       </c>
     </row>
     <row r="103" spans="4:4">
       <c r="D103" t="s">
-        <v>2546</v>
+        <v>2547</v>
       </c>
     </row>
     <row r="105" spans="4:4">
       <c r="D105" t="s">
-        <v>2547</v>
+        <v>2548</v>
       </c>
     </row>
     <row r="106" spans="4:4">
       <c r="D106" t="s">
-        <v>2548</v>
+        <v>2549</v>
       </c>
     </row>
     <row r="107" spans="4:4">
       <c r="D107" t="s">
-        <v>2549</v>
+        <v>2550</v>
       </c>
     </row>
     <row r="108" spans="4:4">
       <c r="D108" t="s">
-        <v>2550</v>
+        <v>2551</v>
       </c>
     </row>
     <row r="109" spans="4:4">
       <c r="D109" t="s">
-        <v>2551</v>
+        <v>2552</v>
       </c>
     </row>
     <row r="110" spans="4:4">
       <c r="D110" t="s">
-        <v>2552</v>
+        <v>2553</v>
       </c>
     </row>
     <row r="111" spans="4:4">
       <c r="D111" t="s">
-        <v>2553</v>
+        <v>2554</v>
       </c>
     </row>
     <row r="112" spans="4:4">
       <c r="D112" t="s">
-        <v>2554</v>
+        <v>2555</v>
       </c>
     </row>
     <row r="113" spans="4:4">
       <c r="D113" t="s">
-        <v>2555</v>
+        <v>2556</v>
       </c>
     </row>
     <row r="114" spans="4:4">
       <c r="D114" t="s">
-        <v>2556</v>
+        <v>2557</v>
       </c>
     </row>
     <row r="115" spans="4:4">
       <c r="D115" t="s">
-        <v>2557</v>
+        <v>2558</v>
       </c>
     </row>
     <row r="116" spans="4:4">
       <c r="D116" t="s">
-        <v>2558</v>
+        <v>2559</v>
       </c>
     </row>
     <row r="117" spans="4:4">
       <c r="D117" t="s">
-        <v>2559</v>
+        <v>2560</v>
       </c>
     </row>
     <row r="118" spans="4:4">
       <c r="D118" t="s">
-        <v>2560</v>
+        <v>2561</v>
       </c>
     </row>
     <row r="119" spans="4:4">
       <c r="D119" t="s">
-        <v>2561</v>
+        <v>2562</v>
       </c>
     </row>
     <row r="120" spans="4:4">
       <c r="D120" t="s">
-        <v>2562</v>
+        <v>2563</v>
       </c>
     </row>
     <row r="121" spans="4:4">
       <c r="D121" t="s">
-        <v>2563</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="122" spans="4:4">
       <c r="D122" t="s">
-        <v>2564</v>
+        <v>2565</v>
       </c>
     </row>
     <row r="123" spans="4:4">
       <c r="D123" t="s">
-        <v>2565</v>
+        <v>2566</v>
       </c>
     </row>
     <row r="124" spans="4:4">
       <c r="D124" t="s">
-        <v>2566</v>
+        <v>2567</v>
       </c>
     </row>
     <row r="125" spans="4:4">
@@ -60758,47 +60794,47 @@
     </row>
     <row r="126" spans="5:5">
       <c r="E126" t="s">
-        <v>2567</v>
+        <v>2568</v>
       </c>
     </row>
     <row r="127" spans="4:4">
       <c r="D127" t="s">
-        <v>2568</v>
+        <v>2569</v>
       </c>
     </row>
     <row r="128" spans="4:4">
       <c r="D128" t="s">
-        <v>2569</v>
+        <v>2570</v>
       </c>
     </row>
     <row r="129" spans="4:4">
       <c r="D129" t="s">
-        <v>2570</v>
+        <v>2571</v>
       </c>
     </row>
     <row r="130" spans="4:4">
       <c r="D130" t="s">
-        <v>2571</v>
+        <v>2572</v>
       </c>
     </row>
     <row r="131" spans="4:4">
       <c r="D131" t="s">
-        <v>2572</v>
+        <v>2573</v>
       </c>
     </row>
     <row r="132" spans="4:4">
       <c r="D132" t="s">
-        <v>2573</v>
+        <v>2574</v>
       </c>
     </row>
     <row r="133" spans="4:4">
       <c r="D133" t="s">
-        <v>2565</v>
+        <v>2566</v>
       </c>
     </row>
     <row r="134" spans="4:4">
       <c r="D134" t="s">
-        <v>2574</v>
+        <v>2575</v>
       </c>
     </row>
     <row r="135" spans="4:4">
@@ -60808,27 +60844,27 @@
     </row>
     <row r="136" spans="5:5">
       <c r="E136" t="s">
-        <v>2567</v>
+        <v>2568</v>
       </c>
     </row>
     <row r="137" spans="4:4">
       <c r="D137" t="s">
-        <v>2575</v>
+        <v>2576</v>
       </c>
     </row>
     <row r="138" spans="4:4">
       <c r="D138" t="s">
-        <v>2576</v>
+        <v>2577</v>
       </c>
     </row>
     <row r="139" spans="4:4">
       <c r="D139" t="s">
-        <v>2577</v>
+        <v>2578</v>
       </c>
     </row>
     <row r="140" spans="4:4">
       <c r="D140" t="s">
-        <v>2578</v>
+        <v>2579</v>
       </c>
     </row>
     <row r="141" spans="4:4">
@@ -60838,7 +60874,7 @@
     </row>
     <row r="142" spans="4:4">
       <c r="D142" t="s">
-        <v>2579</v>
+        <v>2580</v>
       </c>
     </row>
     <row r="143" spans="4:4">
@@ -60848,22 +60884,22 @@
     </row>
     <row r="144" spans="5:5">
       <c r="E144" t="s">
-        <v>2567</v>
+        <v>2568</v>
       </c>
     </row>
     <row r="145" spans="4:4">
       <c r="D145" t="s">
-        <v>2580</v>
+        <v>2581</v>
       </c>
     </row>
     <row r="146" spans="4:4">
       <c r="D146" t="s">
-        <v>2577</v>
+        <v>2578</v>
       </c>
     </row>
     <row r="147" spans="4:4">
       <c r="D147" t="s">
-        <v>2581</v>
+        <v>2582</v>
       </c>
     </row>
     <row r="148" spans="4:4">
@@ -60873,7 +60909,7 @@
     </row>
     <row r="149" spans="4:4">
       <c r="D149" t="s">
-        <v>2582</v>
+        <v>2583</v>
       </c>
     </row>
     <row r="150" spans="4:4">
@@ -60883,22 +60919,22 @@
     </row>
     <row r="151" spans="5:5">
       <c r="E151" t="s">
-        <v>2567</v>
+        <v>2568</v>
       </c>
     </row>
     <row r="152" spans="4:4">
       <c r="D152" t="s">
-        <v>2583</v>
+        <v>2584</v>
       </c>
     </row>
     <row r="153" spans="4:4">
       <c r="D153" t="s">
-        <v>2577</v>
+        <v>2578</v>
       </c>
     </row>
     <row r="154" spans="4:4">
       <c r="D154" t="s">
-        <v>2584</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="155" spans="4:4">
@@ -60908,7 +60944,7 @@
     </row>
     <row r="156" spans="4:4">
       <c r="D156" t="s">
-        <v>2582</v>
+        <v>2583</v>
       </c>
     </row>
     <row r="157" spans="4:4">
@@ -60918,17 +60954,17 @@
     </row>
     <row r="158" spans="5:5">
       <c r="E158" t="s">
-        <v>2567</v>
+        <v>2568</v>
       </c>
     </row>
     <row r="159" spans="4:4">
       <c r="D159" t="s">
-        <v>2585</v>
+        <v>2586</v>
       </c>
     </row>
     <row r="160" spans="4:4">
       <c r="D160" t="s">
-        <v>2524</v>
+        <v>2525</v>
       </c>
     </row>
   </sheetData>
